--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxwe\Google Drive\Code\Python\extract_COVID19_events_from_Twitter\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C141CC6-FDF8-47BD-9C5F-D6D5EFACB4F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4080FABD-A5EF-48C0-8968-29E648418B73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{09ECAD97-3C1E-45DE-875A-3C5CD2F3C873}"/>
   </bookViews>
   <sheets>
     <sheet name="comparison" sheetId="3" r:id="rId1"/>
     <sheet name="bert" sheetId="4" r:id="rId2"/>
-    <sheet name="lr-paper" sheetId="1" r:id="rId3"/>
-    <sheet name="bert-paper" sheetId="2" r:id="rId4"/>
+    <sheet name="biobert" sheetId="5" r:id="rId3"/>
+    <sheet name="electra" sheetId="6" r:id="rId4"/>
+    <sheet name="lr-paper" sheetId="1" r:id="rId5"/>
+    <sheet name="bert-paper" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="276">
   <si>
     <t>Event</t>
   </si>
@@ -858,6 +860,12 @@
   </si>
   <si>
     <t>[[2924, 30], [59, 36]]</t>
+  </si>
+  <si>
+    <t>biobert-F1</t>
+  </si>
+  <si>
+    <t>electra-F1</t>
   </si>
 </sst>
 </file>
@@ -1230,21 +1238,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A7C2FD4-A612-48B7-B14F-F3EAA1F8E07F}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="13.3984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.46484375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.46484375" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="11.59765625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="8.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1260,8 +1269,14 @@
       <c r="E1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F1" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -1280,8 +1295,16 @@
         <f>bert!$Y2</f>
         <v>0.63414634146341398</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F2" s="4">
+        <f>biobert!$Y2</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <f>electra!$Y2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -1300,8 +1323,16 @@
         <f>bert!$Y3</f>
         <v>0.34426229508196698</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F3" s="4">
+        <f>biobert!$Y3</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <f>electra!$Y3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -1320,8 +1351,16 @@
         <f>bert!$Y4</f>
         <v>0.480392156862745</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F4" s="4">
+        <f>biobert!$Y4</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <f>electra!$Y4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -1340,8 +1379,16 @@
         <f>bert!$Y5</f>
         <v>0.61751152073732696</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F5" s="4">
+        <f>biobert!$Y5</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <f>electra!$Y5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -1360,8 +1407,16 @@
         <f>bert!$Y6</f>
         <v>0.62222222222222201</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F6" s="4">
+        <f>biobert!$Y6</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <f>electra!$Y6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -1380,8 +1435,16 @@
         <f>bert!$Y7</f>
         <v>0.74104401228249706</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F7" s="4">
+        <f>biobert!$Y7</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <f>electra!$Y7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -1400,8 +1463,16 @@
         <f>bert!$Y8</f>
         <v>0.41463414634146301</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F8" s="4">
+        <f>biobert!$Y8</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <f>electra!$Y8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -1420,8 +1491,16 @@
         <f>bert!$Y9</f>
         <v>0.42424242424242398</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F9" s="4">
+        <f>biobert!$Y9</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <f>electra!$Y9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -1440,8 +1519,16 @@
         <f>bert!$Y10</f>
         <v>0.44827586206896503</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F10" s="4">
+        <f>biobert!$Y10</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <f>electra!$Y10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -1460,8 +1547,16 @@
         <f>bert!$Y11</f>
         <v>0.57142857142857095</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F11" s="4">
+        <f>biobert!$Y11</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <f>electra!$Y11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -1480,8 +1575,16 @@
         <f>bert!$Y12</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F12" s="4">
+        <f>biobert!$Y12</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <f>electra!$Y12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -1500,8 +1603,16 @@
         <f>bert!$Y13</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F13" s="4">
+        <f>biobert!$Y13</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <f>electra!$Y13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>83</v>
       </c>
@@ -1520,8 +1631,16 @@
         <f>bert!$Y14</f>
         <v>0.63829787234042501</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F14" s="4">
+        <f>biobert!$Y14</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <f>electra!$Y14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -1540,8 +1659,16 @@
         <f>bert!$Y15</f>
         <v>0.55000000000000004</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F15" s="4">
+        <f>biobert!$Y15</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <f>electra!$Y15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>83</v>
       </c>
@@ -1560,8 +1687,16 @@
         <f>bert!$Y16</f>
         <v>0.30769230769230699</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F16" s="4">
+        <f>biobert!$Y16</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <f>electra!$Y16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>83</v>
       </c>
@@ -1580,8 +1715,16 @@
         <f>bert!$Y17</f>
         <v>0.60586319218241003</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F17" s="4">
+        <f>biobert!$Y17</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <f>electra!$Y17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>83</v>
       </c>
@@ -1600,8 +1743,16 @@
         <f>bert!$Y18</f>
         <v>0.60465116279069697</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F18" s="4">
+        <f>biobert!$Y18</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="4">
+        <f>electra!$Y18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>83</v>
       </c>
@@ -1620,8 +1771,16 @@
         <f>bert!$Y19</f>
         <v>0.27272727272727199</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F19" s="4">
+        <f>biobert!$Y19</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <f>electra!$Y19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>83</v>
       </c>
@@ -1640,8 +1799,16 @@
         <f>bert!$Y20</f>
         <v>0.375</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F20" s="4">
+        <f>biobert!$Y20</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="4">
+        <f>electra!$Y20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>117</v>
       </c>
@@ -1660,8 +1827,16 @@
         <f>bert!$Y21</f>
         <v>0.50476190476190397</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F21" s="4">
+        <f>biobert!$Y21</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="4">
+        <f>electra!$Y21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>117</v>
       </c>
@@ -1680,8 +1855,16 @@
         <f>bert!$Y22</f>
         <v>0.46376811594202899</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F22" s="4">
+        <f>biobert!$Y22</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="4">
+        <f>electra!$Y22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>117</v>
       </c>
@@ -1700,8 +1883,16 @@
         <f>bert!$Y23</f>
         <v>0.55855855855855796</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F23" s="4">
+        <f>biobert!$Y23</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="4">
+        <f>electra!$Y23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>117</v>
       </c>
@@ -1720,8 +1911,16 @@
         <f>bert!$Y24</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F24" s="4">
+        <f>biobert!$Y24</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="4">
+        <f>electra!$Y24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>117</v>
       </c>
@@ -1740,8 +1939,16 @@
         <f>bert!$Y25</f>
         <v>0.52307692307692299</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F25" s="4">
+        <f>biobert!$Y25</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="4">
+        <f>electra!$Y25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>134</v>
       </c>
@@ -1760,8 +1967,16 @@
         <f>bert!$Y26</f>
         <v>0.75</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F26" s="4">
+        <f>biobert!$Y26</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="4">
+        <f>electra!$Y26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>134</v>
       </c>
@@ -1780,8 +1995,16 @@
         <f>bert!$Y27</f>
         <v>0.66867469879518004</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F27" s="4">
+        <f>biobert!$Y27</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="4">
+        <f>electra!$Y27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>134</v>
       </c>
@@ -1800,8 +2023,16 @@
         <f>bert!$Y28</f>
         <v>0.63636363636363602</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F28" s="4">
+        <f>biobert!$Y28</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="4">
+        <f>electra!$Y28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>134</v>
       </c>
@@ -1820,8 +2051,16 @@
         <f>bert!$Y29</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F29" s="4">
+        <f>biobert!$Y29</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="4">
+        <f>electra!$Y29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>134</v>
       </c>
@@ -1840,8 +2079,16 @@
         <f>bert!$Y30</f>
         <v>0.59770114942528696</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F30" s="4">
+        <f>biobert!$Y30</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="4">
+        <f>electra!$Y30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>134</v>
       </c>
@@ -1860,8 +2107,16 @@
         <f>bert!$Y31</f>
         <v>0.61870503597122295</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F31" s="4">
+        <f>biobert!$Y31</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="4">
+        <f>electra!$Y31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>160</v>
       </c>
@@ -1880,8 +2135,16 @@
         <f>bert!$Y32</f>
         <v>0.47368421052631499</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F32" s="4">
+        <f>biobert!$Y32</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="4">
+        <f>electra!$Y32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>160</v>
       </c>
@@ -1900,8 +2163,16 @@
         <f>bert!$Y33</f>
         <v>0.61702127659574402</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F33" s="4">
+        <f>biobert!$Y33</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="4">
+        <f>electra!$Y33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>160</v>
       </c>
@@ -1919,6 +2190,14 @@
       <c r="E34" s="3">
         <f>bert!$Y34</f>
         <v>0.44776119402984998</v>
+      </c>
+      <c r="F34" s="4">
+        <f>biobert!$Y34</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="4">
+        <f>electra!$Y34</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5077,6 +5356,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B399EB9A-55D3-405C-BE82-39995B32E924}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2A5DC65-F61D-4915-92F9-4012B56D908D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8583DFB6-1C5F-4E8D-BAA4-B0A26012EA60}">
   <dimension ref="A1:AE34"/>
   <sheetViews>
@@ -8315,7 +8618,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D9431E6-62E4-4A11-8254-C840C95A0DE2}">
   <dimension ref="A1:AD34"/>
   <sheetViews>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxwe\Google Drive\Code\Python\extract_COVID19_events_from_Twitter\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4080FABD-A5EF-48C0-8968-29E648418B73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735EEB63-CBCE-46BE-AECF-FFA7ED068BE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{09ECAD97-3C1E-45DE-875A-3C5CD2F3C873}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="305">
   <si>
     <t>Event</t>
   </si>
@@ -866,6 +866,93 @@
   </si>
   <si>
     <t>electra-F1</t>
+  </si>
+  <si>
+    <t>[[5663, 8], [7, 11]]</t>
+  </si>
+  <si>
+    <t>[[5571, 56], [34, 28]]</t>
+  </si>
+  <si>
+    <t>[[5537, 49], [58, 45]]</t>
+  </si>
+  <si>
+    <t>[[5497, 69], [37, 86]]</t>
+  </si>
+  <si>
+    <t>[[5623, 21], [23, 22]]</t>
+  </si>
+  <si>
+    <t>[[5050, 154], [110, 375]]</t>
+  </si>
+  <si>
+    <t>[[5624, 19], [29, 17]]</t>
+  </si>
+  <si>
+    <t>[[5669, 7], [5, 8]]</t>
+  </si>
+  <si>
+    <t>[[5623, 38], [9, 19]]</t>
+  </si>
+  <si>
+    <t>[[5394, 114], [61, 120]]</t>
+  </si>
+  <si>
+    <t>[[3149, 6], [10, 1]]</t>
+  </si>
+  <si>
+    <t>[[3106, 9], [35, 16]]</t>
+  </si>
+  <si>
+    <t>[[3137, 9], [12, 8]]</t>
+  </si>
+  <si>
+    <t>[[2973, 45], [74, 74]]</t>
+  </si>
+  <si>
+    <t>[[3131, 11], [13, 11]]</t>
+  </si>
+  <si>
+    <t>[[3157, 2], [6, 1]]</t>
+  </si>
+  <si>
+    <t>[[3137, 8], [13, 8]]</t>
+  </si>
+  <si>
+    <t>[[3138, 22], [72, 54]]</t>
+  </si>
+  <si>
+    <t>[[3233, 9], [25, 19]]</t>
+  </si>
+  <si>
+    <t>[[3216, 14], [29, 27]]</t>
+  </si>
+  <si>
+    <t>[[3280, 2], [4, 0]]</t>
+  </si>
+  <si>
+    <t>[[3238, 9], [22, 17]]</t>
+  </si>
+  <si>
+    <t>[[3281, 60], [46, 90]]</t>
+  </si>
+  <si>
+    <t>[[3449, 3], [18, 7]]</t>
+  </si>
+  <si>
+    <t>[[3417, 17], [16, 27]]</t>
+  </si>
+  <si>
+    <t>[[3406, 14], [29, 28]]</t>
+  </si>
+  <si>
+    <t>[[2908, 80], [16, 45]]</t>
+  </si>
+  <si>
+    <t>[[2851, 61], [53, 84]]</t>
+  </si>
+  <si>
+    <t>[[2891, 63], [52, 43]]</t>
   </si>
 </sst>
 </file>
@@ -1241,7 +1328,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1291,13 +1378,13 @@
         <f>'bert-paper'!$Z2</f>
         <v>0.56000000000000005</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="4">
         <f>bert!$Y2</f>
         <v>0.63414634146341398</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <f>biobert!$Y2</f>
-        <v>0</v>
+        <v>0.68965517241379304</v>
       </c>
       <c r="G2" s="4">
         <f>electra!$Y2</f>
@@ -1319,13 +1406,13 @@
         <f>'bert-paper'!$Z3</f>
         <v>0.32558139534883701</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="4">
         <f>bert!$Y3</f>
         <v>0.34426229508196698</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <f>biobert!$Y3</f>
-        <v>0</v>
+        <v>0.38961038961038902</v>
       </c>
       <c r="G3" s="4">
         <f>electra!$Y3</f>
@@ -1353,7 +1440,7 @@
       </c>
       <c r="F4" s="4">
         <f>biobert!$Y4</f>
-        <v>0</v>
+        <v>0.44198895027624302</v>
       </c>
       <c r="G4" s="4">
         <f>electra!$Y4</f>
@@ -1381,7 +1468,7 @@
       </c>
       <c r="F5" s="4">
         <f>biobert!$Y5</f>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="G5" s="4">
         <f>electra!$Y5</f>
@@ -1409,7 +1496,7 @@
       </c>
       <c r="F6" s="4">
         <f>biobert!$Y6</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G6" s="4">
         <f>electra!$Y6</f>
@@ -1431,13 +1518,13 @@
         <f>'bert-paper'!$Z7</f>
         <v>0.75565610859728505</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="4">
         <f>bert!$Y7</f>
         <v>0.74104401228249706</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <f>biobert!$Y7</f>
-        <v>0</v>
+        <v>0.74285714285714199</v>
       </c>
       <c r="G7" s="4">
         <f>electra!$Y7</f>
@@ -1463,9 +1550,9 @@
         <f>bert!$Y8</f>
         <v>0.41463414634146301</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <f>biobert!$Y8</f>
-        <v>0</v>
+        <v>0.41463414634146301</v>
       </c>
       <c r="G8" s="4">
         <f>electra!$Y8</f>
@@ -1487,13 +1574,13 @@
         <f>'bert-paper'!$Z9</f>
         <v>0.6</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="4">
         <f>bert!$Y9</f>
         <v>0.42424242424242398</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <f>biobert!$Y9</f>
-        <v>0</v>
+        <v>0.57142857142857095</v>
       </c>
       <c r="G9" s="4">
         <f>electra!$Y9</f>
@@ -1521,7 +1608,7 @@
       </c>
       <c r="F10" s="4">
         <f>biobert!$Y10</f>
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="G10" s="4">
         <f>electra!$Y10</f>
@@ -1543,20 +1630,20 @@
         <f>'bert-paper'!$Z11</f>
         <v>0.51333333333333298</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="4">
         <f>bert!$Y11</f>
         <v>0.57142857142857095</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <f>biobert!$Y11</f>
-        <v>0</v>
+        <v>0.57289002557544699</v>
       </c>
       <c r="G11" s="4">
         <f>electra!$Y11</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -1599,13 +1686,13 @@
         <f>'bert-paper'!$Z13</f>
         <v>0</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="4">
         <f>bert!$Y13</f>
         <v>0</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <f>biobert!$Y13</f>
-        <v>0</v>
+        <v>0.148148148148148</v>
       </c>
       <c r="G13" s="4">
         <f>electra!$Y13</f>
@@ -1633,7 +1720,7 @@
       </c>
       <c r="F14" s="4">
         <f>biobert!$Y14</f>
-        <v>0</v>
+        <v>0.42105263157894701</v>
       </c>
       <c r="G14" s="4">
         <f>electra!$Y14</f>
@@ -1661,14 +1748,14 @@
       </c>
       <c r="F15" s="4">
         <f>biobert!$Y15</f>
-        <v>0</v>
+        <v>0.41025641025641002</v>
       </c>
       <c r="G15" s="4">
         <f>electra!$Y15</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>83</v>
       </c>
@@ -1717,7 +1804,7 @@
       </c>
       <c r="F17" s="4">
         <f>biobert!$Y17</f>
-        <v>0</v>
+        <v>0.55830388692579502</v>
       </c>
       <c r="G17" s="4">
         <f>electra!$Y17</f>
@@ -1745,7 +1832,7 @@
       </c>
       <c r="F18" s="4">
         <f>biobert!$Y18</f>
-        <v>0</v>
+        <v>0.46511627906976699</v>
       </c>
       <c r="G18" s="4">
         <f>electra!$Y18</f>
@@ -1773,7 +1860,7 @@
       </c>
       <c r="F19" s="4">
         <f>biobert!$Y19</f>
-        <v>0</v>
+        <v>0.22222222222222199</v>
       </c>
       <c r="G19" s="4">
         <f>electra!$Y19</f>
@@ -1795,13 +1882,13 @@
         <f>'bert-paper'!$Z20</f>
         <v>0.33333333333333298</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="4">
         <f>bert!$Y20</f>
         <v>0.375</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="3">
         <f>biobert!$Y20</f>
-        <v>0</v>
+        <v>0.42857142857142799</v>
       </c>
       <c r="G20" s="4">
         <f>electra!$Y20</f>
@@ -1823,13 +1910,13 @@
         <f>'bert-paper'!$Z21</f>
         <v>0.6</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="4">
         <f>bert!$Y21</f>
         <v>0.50476190476190397</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="3">
         <f>biobert!$Y21</f>
-        <v>0</v>
+        <v>0.54634146341463397</v>
       </c>
       <c r="G21" s="4">
         <f>electra!$Y21</f>
@@ -1851,13 +1938,13 @@
         <f>'bert-paper'!$Z22</f>
         <v>0.61538461538461497</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="4">
         <f>bert!$Y22</f>
         <v>0.46376811594202899</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="3">
         <f>biobert!$Y22</f>
-        <v>0</v>
+        <v>0.51351351351351304</v>
       </c>
       <c r="G22" s="4">
         <f>electra!$Y22</f>
@@ -1885,7 +1972,7 @@
       </c>
       <c r="F23" s="4">
         <f>biobert!$Y23</f>
-        <v>0</v>
+        <v>0.54716981132075404</v>
       </c>
       <c r="G23" s="4">
         <f>electra!$Y23</f>
@@ -1911,7 +1998,7 @@
         <f>bert!$Y24</f>
         <v>0</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="3">
         <f>biobert!$Y24</f>
         <v>0</v>
       </c>
@@ -1935,13 +2022,13 @@
         <f>'bert-paper'!$Z25</f>
         <v>0.68292682926829196</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="4">
         <f>bert!$Y25</f>
         <v>0.52307692307692299</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="3">
         <f>biobert!$Y25</f>
-        <v>0</v>
+        <v>0.537313432835821</v>
       </c>
       <c r="G25" s="4">
         <f>electra!$Y25</f>
@@ -1963,13 +2050,13 @@
         <f>'bert-paper'!$Z26</f>
         <v>0.65116279069767402</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="4">
         <f>bert!$Y26</f>
         <v>0.75</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="3">
         <f>biobert!$Y26</f>
-        <v>0</v>
+        <v>0.76923076923076905</v>
       </c>
       <c r="G26" s="4">
         <f>electra!$Y26</f>
@@ -1997,7 +2084,7 @@
       </c>
       <c r="F27" s="4">
         <f>biobert!$Y27</f>
-        <v>0</v>
+        <v>0.63345195729537296</v>
       </c>
       <c r="G27" s="4">
         <f>electra!$Y27</f>
@@ -2025,14 +2112,14 @@
       </c>
       <c r="F28" s="4">
         <f>biobert!$Y28</f>
-        <v>0</v>
+        <v>0.43243243243243201</v>
       </c>
       <c r="G28" s="4">
         <f>electra!$Y28</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>134</v>
       </c>
@@ -2075,13 +2162,13 @@
         <f>'bert-paper'!$Z30</f>
         <v>0.51724137931034397</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="4">
         <f>bert!$Y30</f>
         <v>0.59770114942528696</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="3">
         <f>biobert!$Y30</f>
-        <v>0</v>
+        <v>0.63736263736263699</v>
       </c>
       <c r="G30" s="4">
         <f>electra!$Y30</f>
@@ -2109,7 +2196,7 @@
       </c>
       <c r="F31" s="4">
         <f>biobert!$Y31</f>
-        <v>0</v>
+        <v>0.56565656565656497</v>
       </c>
       <c r="G31" s="4">
         <f>electra!$Y31</f>
@@ -2131,13 +2218,13 @@
         <f>'bert-paper'!$Z32</f>
         <v>0.59285714285714197</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="4">
         <f>bert!$Y32</f>
         <v>0.47368421052631499</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="3">
         <f>biobert!$Y32</f>
-        <v>0</v>
+        <v>0.475728155339805</v>
       </c>
       <c r="G32" s="4">
         <f>electra!$Y32</f>
@@ -2165,7 +2252,7 @@
       </c>
       <c r="F33" s="4">
         <f>biobert!$Y33</f>
-        <v>0</v>
+        <v>0.606271777003484</v>
       </c>
       <c r="G33" s="4">
         <f>electra!$Y33</f>
@@ -2193,7 +2280,7 @@
       </c>
       <c r="F34" s="4">
         <f>biobert!$Y34</f>
-        <v>0</v>
+        <v>0.42231075697211101</v>
       </c>
       <c r="G34" s="4">
         <f>electra!$Y34</f>
@@ -5357,12 +5444,3150 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B399EB9A-55D3-405C-BE82-39995B32E924}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AD34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AE8" sqref="AE8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="24" width="0" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="11.265625" style="1" customWidth="1"/>
+    <col min="26" max="30" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G2">
+        <v>0.99736333274740696</v>
+      </c>
+      <c r="H2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I2">
+        <v>0.59459459459459396</v>
+      </c>
+      <c r="J2">
+        <v>589</v>
+      </c>
+      <c r="K2">
+        <v>98.132427843803001</v>
+      </c>
+      <c r="L2">
+        <v>98.423478049963606</v>
+      </c>
+      <c r="M2">
+        <v>18</v>
+      </c>
+      <c r="N2">
+        <v>61.1111111111111</v>
+      </c>
+      <c r="O2">
+        <v>70.634920634920604</v>
+      </c>
+      <c r="P2">
+        <v>0.9</v>
+      </c>
+      <c r="Q2">
+        <v>16</v>
+      </c>
+      <c r="R2">
+        <v>0.77419354838709598</v>
+      </c>
+      <c r="S2">
+        <v>0.8</v>
+      </c>
+      <c r="T2">
+        <v>0.75</v>
+      </c>
+      <c r="U2">
+        <v>12</v>
+      </c>
+      <c r="V2">
+        <v>3</v>
+      </c>
+      <c r="W2">
+        <v>4</v>
+      </c>
+      <c r="X2">
+        <v>18</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>0.68965517241379304</v>
+      </c>
+      <c r="Z2">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="AA2">
+        <v>0.55555555555555503</v>
+      </c>
+      <c r="AB2">
+        <v>10</v>
+      </c>
+      <c r="AC2">
+        <v>1</v>
+      </c>
+      <c r="AD2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G3">
+        <v>0.98417999648444299</v>
+      </c>
+      <c r="H3" t="s">
+        <v>277</v>
+      </c>
+      <c r="I3">
+        <v>0.38356164383561597</v>
+      </c>
+      <c r="J3">
+        <v>613</v>
+      </c>
+      <c r="K3">
+        <v>87.112561174551303</v>
+      </c>
+      <c r="L3">
+        <v>87.899479530800903</v>
+      </c>
+      <c r="M3">
+        <v>69</v>
+      </c>
+      <c r="N3">
+        <v>40.579710144927503</v>
+      </c>
+      <c r="O3">
+        <v>47.5707384403036</v>
+      </c>
+      <c r="P3">
+        <v>0.4</v>
+      </c>
+      <c r="Q3">
+        <v>27</v>
+      </c>
+      <c r="R3">
+        <v>0.46153846153846101</v>
+      </c>
+      <c r="S3">
+        <v>0.394736842105263</v>
+      </c>
+      <c r="T3">
+        <v>0.55555555555555503</v>
+      </c>
+      <c r="U3">
+        <v>15</v>
+      </c>
+      <c r="V3">
+        <v>23</v>
+      </c>
+      <c r="W3">
+        <v>12</v>
+      </c>
+      <c r="X3">
+        <v>62</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>0.38961038961038902</v>
+      </c>
+      <c r="Z3">
+        <v>0.32608695652173902</v>
+      </c>
+      <c r="AA3">
+        <v>0.483870967741935</v>
+      </c>
+      <c r="AB3">
+        <v>30</v>
+      </c>
+      <c r="AC3">
+        <v>62</v>
+      </c>
+      <c r="AD3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E4" t="s">
+        <v>228</v>
+      </c>
+      <c r="F4" t="s">
+        <v>179</v>
+      </c>
+      <c r="G4">
+        <v>0.981191773598171</v>
+      </c>
+      <c r="H4" t="s">
+        <v>278</v>
+      </c>
+      <c r="I4">
+        <v>0.45685279187817202</v>
+      </c>
+      <c r="J4">
+        <v>610</v>
+      </c>
+      <c r="K4">
+        <v>84.590163934426201</v>
+      </c>
+      <c r="L4">
+        <v>86.114754098360606</v>
+      </c>
+      <c r="M4">
+        <v>120</v>
+      </c>
+      <c r="N4">
+        <v>40</v>
+      </c>
+      <c r="O4">
+        <v>47.749999999999901</v>
+      </c>
+      <c r="P4">
+        <v>0.7</v>
+      </c>
+      <c r="Q4">
+        <v>47</v>
+      </c>
+      <c r="R4">
+        <v>0.49484536082474201</v>
+      </c>
+      <c r="S4">
+        <v>0.48</v>
+      </c>
+      <c r="T4">
+        <v>0.51063829787234005</v>
+      </c>
+      <c r="U4">
+        <v>24</v>
+      </c>
+      <c r="V4">
+        <v>26</v>
+      </c>
+      <c r="W4">
+        <v>23</v>
+      </c>
+      <c r="X4">
+        <v>103</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>0.44198895027624302</v>
+      </c>
+      <c r="Z4">
+        <v>0.512820512820512</v>
+      </c>
+      <c r="AA4">
+        <v>0.38834951456310601</v>
+      </c>
+      <c r="AB4">
+        <v>40</v>
+      </c>
+      <c r="AC4">
+        <v>38</v>
+      </c>
+      <c r="AD4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D5" t="s">
+        <v>227</v>
+      </c>
+      <c r="E5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F5" t="s">
+        <v>179</v>
+      </c>
+      <c r="G5">
+        <v>0.98136755141501097</v>
+      </c>
+      <c r="H5" t="s">
+        <v>279</v>
+      </c>
+      <c r="I5">
+        <v>0.61870503597122295</v>
+      </c>
+      <c r="J5">
+        <v>617</v>
+      </c>
+      <c r="K5">
+        <v>85.251215559157203</v>
+      </c>
+      <c r="L5">
+        <v>86.778044573830599</v>
+      </c>
+      <c r="M5">
+        <v>128</v>
+      </c>
+      <c r="N5">
+        <v>67.1875</v>
+      </c>
+      <c r="O5">
+        <v>74.547292984792904</v>
+      </c>
+      <c r="P5">
+        <v>0.9</v>
+      </c>
+      <c r="Q5">
+        <v>67</v>
+      </c>
+      <c r="R5">
+        <v>0.62068965517241304</v>
+      </c>
+      <c r="S5">
+        <v>0.57692307692307598</v>
+      </c>
+      <c r="T5">
+        <v>0.67164179104477595</v>
+      </c>
+      <c r="U5">
+        <v>45</v>
+      </c>
+      <c r="V5">
+        <v>33</v>
+      </c>
+      <c r="W5">
+        <v>22</v>
+      </c>
+      <c r="X5">
+        <v>123</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="Z5">
+        <v>0.59055118110236204</v>
+      </c>
+      <c r="AA5">
+        <v>0.60975609756097504</v>
+      </c>
+      <c r="AB5">
+        <v>75</v>
+      </c>
+      <c r="AC5">
+        <v>52</v>
+      </c>
+      <c r="AD5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D6" t="s">
+        <v>227</v>
+      </c>
+      <c r="E6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F6" t="s">
+        <v>179</v>
+      </c>
+      <c r="G6">
+        <v>0.99226577605906097</v>
+      </c>
+      <c r="H6" t="s">
+        <v>280</v>
+      </c>
+      <c r="I6">
+        <v>0.5</v>
+      </c>
+      <c r="J6">
+        <v>597</v>
+      </c>
+      <c r="K6">
+        <v>94.137353433835798</v>
+      </c>
+      <c r="L6">
+        <v>94.733588577809599</v>
+      </c>
+      <c r="M6">
+        <v>46</v>
+      </c>
+      <c r="N6">
+        <v>47.826086956521699</v>
+      </c>
+      <c r="O6">
+        <v>55.564182194616897</v>
+      </c>
+      <c r="P6">
+        <v>0.9</v>
+      </c>
+      <c r="Q6">
+        <v>29</v>
+      </c>
+      <c r="R6">
+        <v>0.6</v>
+      </c>
+      <c r="S6">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="T6">
+        <v>0.51724137931034397</v>
+      </c>
+      <c r="U6">
+        <v>15</v>
+      </c>
+      <c r="V6">
+        <v>6</v>
+      </c>
+      <c r="W6">
+        <v>14</v>
+      </c>
+      <c r="X6">
+        <v>45</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Z6">
+        <v>0.61290322580645096</v>
+      </c>
+      <c r="AA6">
+        <v>0.422222222222222</v>
+      </c>
+      <c r="AB6">
+        <v>19</v>
+      </c>
+      <c r="AC6">
+        <v>12</v>
+      </c>
+      <c r="AD6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D7" t="s">
+        <v>227</v>
+      </c>
+      <c r="E7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G7">
+        <v>0.95359465635436802</v>
+      </c>
+      <c r="H7" t="s">
+        <v>281</v>
+      </c>
+      <c r="I7">
+        <v>0.73964497041420096</v>
+      </c>
+      <c r="J7">
+        <v>694</v>
+      </c>
+      <c r="K7">
+        <v>69.884726224783805</v>
+      </c>
+      <c r="L7">
+        <v>77.099523915085896</v>
+      </c>
+      <c r="M7">
+        <v>546</v>
+      </c>
+      <c r="N7">
+        <v>68.681318681318601</v>
+      </c>
+      <c r="O7">
+        <v>77.851775818808804</v>
+      </c>
+      <c r="P7">
+        <v>0.1</v>
+      </c>
+      <c r="Q7">
+        <v>300</v>
+      </c>
+      <c r="R7">
+        <v>0.73432835820895503</v>
+      </c>
+      <c r="S7">
+        <v>0.66486486486486396</v>
+      </c>
+      <c r="T7">
+        <v>0.82</v>
+      </c>
+      <c r="U7">
+        <v>246</v>
+      </c>
+      <c r="V7">
+        <v>124</v>
+      </c>
+      <c r="W7">
+        <v>54</v>
+      </c>
+      <c r="X7">
+        <v>485</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>0.74285714285714199</v>
+      </c>
+      <c r="Z7">
+        <v>0.67166666666666597</v>
+      </c>
+      <c r="AA7">
+        <v>0.83092783505154599</v>
+      </c>
+      <c r="AB7">
+        <v>403</v>
+      </c>
+      <c r="AC7">
+        <v>197</v>
+      </c>
+      <c r="AD7">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E8" t="s">
+        <v>228</v>
+      </c>
+      <c r="F8" t="s">
+        <v>179</v>
+      </c>
+      <c r="G8">
+        <v>0.99156266479170296</v>
+      </c>
+      <c r="H8" t="s">
+        <v>282</v>
+      </c>
+      <c r="I8">
+        <v>0.41463414634146301</v>
+      </c>
+      <c r="J8">
+        <v>597</v>
+      </c>
+      <c r="K8">
+        <v>92.6298157453936</v>
+      </c>
+      <c r="L8">
+        <v>93.281486799074699</v>
+      </c>
+      <c r="M8">
+        <v>50</v>
+      </c>
+      <c r="N8">
+        <v>34</v>
+      </c>
+      <c r="O8">
+        <v>41.7809523809523</v>
+      </c>
+      <c r="P8">
+        <v>0.5</v>
+      </c>
+      <c r="Q8">
+        <v>35</v>
+      </c>
+      <c r="R8">
+        <v>0.39285714285714202</v>
+      </c>
+      <c r="S8">
+        <v>0.52380952380952295</v>
+      </c>
+      <c r="T8">
+        <v>0.314285714285714</v>
+      </c>
+      <c r="U8">
+        <v>11</v>
+      </c>
+      <c r="V8">
+        <v>10</v>
+      </c>
+      <c r="W8">
+        <v>24</v>
+      </c>
+      <c r="X8">
+        <v>46</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>0.41463414634146301</v>
+      </c>
+      <c r="Z8">
+        <v>0.47222222222222199</v>
+      </c>
+      <c r="AA8">
+        <v>0.36956521739130399</v>
+      </c>
+      <c r="AB8">
+        <v>17</v>
+      </c>
+      <c r="AC8">
+        <v>19</v>
+      </c>
+      <c r="AD8">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D9" t="s">
+        <v>227</v>
+      </c>
+      <c r="E9" t="s">
+        <v>228</v>
+      </c>
+      <c r="F9" t="s">
+        <v>179</v>
+      </c>
+      <c r="G9">
+        <v>0.99789066619792499</v>
+      </c>
+      <c r="H9" t="s">
+        <v>283</v>
+      </c>
+      <c r="I9">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="J9">
+        <v>589</v>
+      </c>
+      <c r="K9">
+        <v>98.302207130729997</v>
+      </c>
+      <c r="L9">
+        <v>98.302207130729997</v>
+      </c>
+      <c r="M9">
+        <v>11</v>
+      </c>
+      <c r="N9">
+        <v>72.727272727272705</v>
+      </c>
+      <c r="O9">
+        <v>72.727272727272705</v>
+      </c>
+      <c r="P9">
+        <v>0.5</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="S9">
+        <v>0.5</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>13</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="Z9">
+        <v>0.53333333333333299</v>
+      </c>
+      <c r="AA9">
+        <v>0.61538461538461497</v>
+      </c>
+      <c r="AB9">
+        <v>8</v>
+      </c>
+      <c r="AC9">
+        <v>7</v>
+      </c>
+      <c r="AD9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" t="s">
+        <v>226</v>
+      </c>
+      <c r="D10" t="s">
+        <v>227</v>
+      </c>
+      <c r="E10" t="s">
+        <v>228</v>
+      </c>
+      <c r="F10" t="s">
+        <v>179</v>
+      </c>
+      <c r="G10">
+        <v>0.99173844260854205</v>
+      </c>
+      <c r="H10" t="s">
+        <v>284</v>
+      </c>
+      <c r="I10">
+        <v>0.44705882352941101</v>
+      </c>
+      <c r="J10">
+        <v>600</v>
+      </c>
+      <c r="K10">
+        <v>92.5</v>
+      </c>
+      <c r="L10">
+        <v>92.5555555555555</v>
+      </c>
+      <c r="M10">
+        <v>33</v>
+      </c>
+      <c r="N10">
+        <v>57.5757575757575</v>
+      </c>
+      <c r="O10">
+        <v>58.585858585858503</v>
+      </c>
+      <c r="P10">
+        <v>0.9</v>
+      </c>
+      <c r="Q10">
+        <v>20</v>
+      </c>
+      <c r="R10">
+        <v>0.6</v>
+      </c>
+      <c r="S10">
+        <v>0.5</v>
+      </c>
+      <c r="T10">
+        <v>0.75</v>
+      </c>
+      <c r="U10">
+        <v>15</v>
+      </c>
+      <c r="V10">
+        <v>15</v>
+      </c>
+      <c r="W10">
+        <v>5</v>
+      </c>
+      <c r="X10">
+        <v>28</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>0.4375</v>
+      </c>
+      <c r="Z10">
+        <v>0.38888888888888801</v>
+      </c>
+      <c r="AA10">
+        <v>0.5</v>
+      </c>
+      <c r="AB10">
+        <v>14</v>
+      </c>
+      <c r="AC10">
+        <v>22</v>
+      </c>
+      <c r="AD10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" t="s">
+        <v>226</v>
+      </c>
+      <c r="D11" t="s">
+        <v>227</v>
+      </c>
+      <c r="E11" t="s">
+        <v>228</v>
+      </c>
+      <c r="F11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G11">
+        <v>0.96923888205308495</v>
+      </c>
+      <c r="H11" t="s">
+        <v>285</v>
+      </c>
+      <c r="I11">
+        <v>0.57831325301204795</v>
+      </c>
+      <c r="J11">
+        <v>650</v>
+      </c>
+      <c r="K11">
+        <v>75.538461538461505</v>
+      </c>
+      <c r="L11">
+        <v>78.006593406593396</v>
+      </c>
+      <c r="M11">
+        <v>237</v>
+      </c>
+      <c r="N11">
+        <v>51.4767932489451</v>
+      </c>
+      <c r="O11">
+        <v>58.245931283905897</v>
+      </c>
+      <c r="P11">
+        <v>0.8</v>
+      </c>
+      <c r="Q11">
+        <v>110</v>
+      </c>
+      <c r="R11">
+        <v>0.59482758620689602</v>
+      </c>
+      <c r="S11">
+        <v>0.56557377049180302</v>
+      </c>
+      <c r="T11">
+        <v>0.62727272727272698</v>
+      </c>
+      <c r="U11">
+        <v>69</v>
+      </c>
+      <c r="V11">
+        <v>53</v>
+      </c>
+      <c r="W11">
+        <v>41</v>
+      </c>
+      <c r="X11">
+        <v>181</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>0.57289002557544699</v>
+      </c>
+      <c r="Z11">
+        <v>0.53333333333333299</v>
+      </c>
+      <c r="AA11">
+        <v>0.61878453038673997</v>
+      </c>
+      <c r="AB11">
+        <v>112</v>
+      </c>
+      <c r="AC11">
+        <v>98</v>
+      </c>
+      <c r="AD11">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>239</v>
+      </c>
+      <c r="D12" t="s">
+        <v>240</v>
+      </c>
+      <c r="E12" t="s">
+        <v>241</v>
+      </c>
+      <c r="F12" t="s">
+        <v>179</v>
+      </c>
+      <c r="G12">
+        <v>0.99905243209096595</v>
+      </c>
+      <c r="H12" t="s">
+        <v>242</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>282</v>
+      </c>
+      <c r="K12">
+        <v>98.936170212765902</v>
+      </c>
+      <c r="L12">
+        <v>98.936170212765902</v>
+      </c>
+      <c r="M12">
+        <v>3</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0.5</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>1</v>
+      </c>
+      <c r="X12">
+        <v>3</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>239</v>
+      </c>
+      <c r="D13" t="s">
+        <v>240</v>
+      </c>
+      <c r="E13" t="s">
+        <v>241</v>
+      </c>
+      <c r="F13" t="s">
+        <v>179</v>
+      </c>
+      <c r="G13">
+        <v>0.99494630448515398</v>
+      </c>
+      <c r="H13" t="s">
+        <v>286</v>
+      </c>
+      <c r="I13">
+        <v>0.11111111111111099</v>
+      </c>
+      <c r="J13">
+        <v>284</v>
+      </c>
+      <c r="K13">
+        <v>94.7183098591549</v>
+      </c>
+      <c r="L13">
+        <v>94.7183098591549</v>
+      </c>
+      <c r="M13">
+        <v>10</v>
+      </c>
+      <c r="N13">
+        <v>10</v>
+      </c>
+      <c r="O13">
+        <v>10</v>
+      </c>
+      <c r="P13">
+        <v>0.1</v>
+      </c>
+      <c r="Q13">
+        <v>7</v>
+      </c>
+      <c r="R13">
+        <v>0.114285714285714</v>
+      </c>
+      <c r="S13">
+        <v>7.1428571428571397E-2</v>
+      </c>
+      <c r="T13">
+        <v>0.28571428571428498</v>
+      </c>
+      <c r="U13">
+        <v>2</v>
+      </c>
+      <c r="V13">
+        <v>26</v>
+      </c>
+      <c r="W13">
+        <v>5</v>
+      </c>
+      <c r="X13">
+        <v>11</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>0.148148148148148</v>
+      </c>
+      <c r="Z13">
+        <v>9.3023255813953404E-2</v>
+      </c>
+      <c r="AA13">
+        <v>0.36363636363636298</v>
+      </c>
+      <c r="AB13">
+        <v>4</v>
+      </c>
+      <c r="AC13">
+        <v>39</v>
+      </c>
+      <c r="AD13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>239</v>
+      </c>
+      <c r="D14" t="s">
+        <v>240</v>
+      </c>
+      <c r="E14" t="s">
+        <v>241</v>
+      </c>
+      <c r="F14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G14">
+        <v>0.98610233733417496</v>
+      </c>
+      <c r="H14" t="s">
+        <v>287</v>
+      </c>
+      <c r="I14">
+        <v>0.42105263157894701</v>
+      </c>
+      <c r="J14">
+        <v>285</v>
+      </c>
+      <c r="K14">
+        <v>87.368421052631504</v>
+      </c>
+      <c r="L14">
+        <v>87.842105263157805</v>
+      </c>
+      <c r="M14">
+        <v>45</v>
+      </c>
+      <c r="N14">
+        <v>35.5555555555555</v>
+      </c>
+      <c r="O14">
+        <v>38.5555555555555</v>
+      </c>
+      <c r="P14">
+        <v>0.5</v>
+      </c>
+      <c r="Q14">
+        <v>16</v>
+      </c>
+      <c r="R14">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="S14">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="T14">
+        <v>0.5</v>
+      </c>
+      <c r="U14">
+        <v>8</v>
+      </c>
+      <c r="V14">
+        <v>4</v>
+      </c>
+      <c r="W14">
+        <v>8</v>
+      </c>
+      <c r="X14">
+        <v>51</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>0.42105263157894701</v>
+      </c>
+      <c r="Z14">
+        <v>0.64</v>
+      </c>
+      <c r="AA14">
+        <v>0.31372549019607798</v>
+      </c>
+      <c r="AB14">
+        <v>16</v>
+      </c>
+      <c r="AC14">
+        <v>9</v>
+      </c>
+      <c r="AD14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
+        <v>239</v>
+      </c>
+      <c r="D15" t="s">
+        <v>240</v>
+      </c>
+      <c r="E15" t="s">
+        <v>241</v>
+      </c>
+      <c r="F15" t="s">
+        <v>179</v>
+      </c>
+      <c r="G15">
+        <v>0.99336702463676496</v>
+      </c>
+      <c r="H15" t="s">
+        <v>288</v>
+      </c>
+      <c r="I15">
+        <v>0.43243243243243201</v>
+      </c>
+      <c r="J15">
+        <v>284</v>
+      </c>
+      <c r="K15">
+        <v>94.366197183098507</v>
+      </c>
+      <c r="L15">
+        <v>94.366197183098507</v>
+      </c>
+      <c r="M15">
+        <v>17</v>
+      </c>
+      <c r="N15">
+        <v>52.941176470588204</v>
+      </c>
+      <c r="O15">
+        <v>52.941176470588204</v>
+      </c>
+      <c r="P15">
+        <v>0.4</v>
+      </c>
+      <c r="Q15">
+        <v>19</v>
+      </c>
+      <c r="R15">
+        <v>0.5625</v>
+      </c>
+      <c r="S15">
+        <v>0.69230769230769196</v>
+      </c>
+      <c r="T15">
+        <v>0.47368421052631499</v>
+      </c>
+      <c r="U15">
+        <v>9</v>
+      </c>
+      <c r="V15">
+        <v>4</v>
+      </c>
+      <c r="W15">
+        <v>10</v>
+      </c>
+      <c r="X15">
+        <v>20</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>0.41025641025641002</v>
+      </c>
+      <c r="Z15">
+        <v>0.42105263157894701</v>
+      </c>
+      <c r="AA15">
+        <v>0.4</v>
+      </c>
+      <c r="AB15">
+        <v>8</v>
+      </c>
+      <c r="AC15">
+        <v>11</v>
+      </c>
+      <c r="AD15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" t="s">
+        <v>239</v>
+      </c>
+      <c r="D16" t="s">
+        <v>240</v>
+      </c>
+      <c r="E16" t="s">
+        <v>241</v>
+      </c>
+      <c r="F16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G16">
+        <v>0.99905243209096595</v>
+      </c>
+      <c r="H16" t="s">
+        <v>242</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>282</v>
+      </c>
+      <c r="K16">
+        <v>98.936170212765902</v>
+      </c>
+      <c r="L16">
+        <v>98.936170212765902</v>
+      </c>
+      <c r="M16">
+        <v>3</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0.5</v>
+      </c>
+      <c r="Q16">
+        <v>6</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>6</v>
+      </c>
+      <c r="X16">
+        <v>3</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" t="s">
+        <v>239</v>
+      </c>
+      <c r="D17" t="s">
+        <v>240</v>
+      </c>
+      <c r="E17" t="s">
+        <v>241</v>
+      </c>
+      <c r="F17" t="s">
+        <v>179</v>
+      </c>
+      <c r="G17">
+        <v>0.96241313960833796</v>
+      </c>
+      <c r="H17" t="s">
+        <v>289</v>
+      </c>
+      <c r="I17">
+        <v>0.55430711610486805</v>
+      </c>
+      <c r="J17">
+        <v>299</v>
+      </c>
+      <c r="K17">
+        <v>67.224080267558506</v>
+      </c>
+      <c r="L17">
+        <v>68.930948278774295</v>
+      </c>
+      <c r="M17">
+        <v>150</v>
+      </c>
+      <c r="N17">
+        <v>49.3333333333333</v>
+      </c>
+      <c r="O17">
+        <v>52.7356902356902</v>
+      </c>
+      <c r="P17">
+        <v>0.2</v>
+      </c>
+      <c r="Q17">
+        <v>98</v>
+      </c>
+      <c r="R17">
+        <v>0.57754010695187097</v>
+      </c>
+      <c r="S17">
+        <v>0.60674157303370702</v>
+      </c>
+      <c r="T17">
+        <v>0.55102040816326503</v>
+      </c>
+      <c r="U17">
+        <v>54</v>
+      </c>
+      <c r="V17">
+        <v>35</v>
+      </c>
+      <c r="W17">
+        <v>44</v>
+      </c>
+      <c r="X17">
+        <v>148</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>0.55830388692579502</v>
+      </c>
+      <c r="Z17">
+        <v>0.58518518518518503</v>
+      </c>
+      <c r="AA17">
+        <v>0.53378378378378299</v>
+      </c>
+      <c r="AB17">
+        <v>79</v>
+      </c>
+      <c r="AC17">
+        <v>56</v>
+      </c>
+      <c r="AD17">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" t="s">
+        <v>239</v>
+      </c>
+      <c r="D18" t="s">
+        <v>240</v>
+      </c>
+      <c r="E18" t="s">
+        <v>241</v>
+      </c>
+      <c r="F18" t="s">
+        <v>179</v>
+      </c>
+      <c r="G18">
+        <v>0.99241945672773202</v>
+      </c>
+      <c r="H18" t="s">
+        <v>290</v>
+      </c>
+      <c r="I18">
+        <v>0.47826086956521702</v>
+      </c>
+      <c r="J18">
+        <v>283</v>
+      </c>
+      <c r="K18">
+        <v>93.639575971731404</v>
+      </c>
+      <c r="L18">
+        <v>93.639575971731404</v>
+      </c>
+      <c r="M18">
+        <v>18</v>
+      </c>
+      <c r="N18">
+        <v>61.1111111111111</v>
+      </c>
+      <c r="O18">
+        <v>61.1111111111111</v>
+      </c>
+      <c r="P18">
+        <v>0.9</v>
+      </c>
+      <c r="Q18">
+        <v>17</v>
+      </c>
+      <c r="R18">
+        <v>0.38461538461538403</v>
+      </c>
+      <c r="S18">
+        <v>0.55555555555555503</v>
+      </c>
+      <c r="T18">
+        <v>0.29411764705882298</v>
+      </c>
+      <c r="U18">
+        <v>5</v>
+      </c>
+      <c r="V18">
+        <v>4</v>
+      </c>
+      <c r="W18">
+        <v>12</v>
+      </c>
+      <c r="X18">
+        <v>24</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>0.46511627906976699</v>
+      </c>
+      <c r="Z18">
+        <v>0.52631578947368396</v>
+      </c>
+      <c r="AA18">
+        <v>0.41666666666666602</v>
+      </c>
+      <c r="AB18">
+        <v>10</v>
+      </c>
+      <c r="AC18">
+        <v>9</v>
+      </c>
+      <c r="AD18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" t="s">
+        <v>239</v>
+      </c>
+      <c r="D19" t="s">
+        <v>240</v>
+      </c>
+      <c r="E19" t="s">
+        <v>241</v>
+      </c>
+      <c r="F19" t="s">
+        <v>179</v>
+      </c>
+      <c r="G19">
+        <v>0.99747315224257704</v>
+      </c>
+      <c r="H19" t="s">
+        <v>291</v>
+      </c>
+      <c r="I19">
+        <v>0.2</v>
+      </c>
+      <c r="J19">
+        <v>282</v>
+      </c>
+      <c r="K19">
+        <v>97.872340425531902</v>
+      </c>
+      <c r="L19">
+        <v>97.872340425531902</v>
+      </c>
+      <c r="M19">
+        <v>5</v>
+      </c>
+      <c r="N19">
+        <v>20</v>
+      </c>
+      <c r="O19">
+        <v>20</v>
+      </c>
+      <c r="P19">
+        <v>0.1</v>
+      </c>
+      <c r="Q19">
+        <v>9</v>
+      </c>
+      <c r="R19">
+        <v>0.44444444444444398</v>
+      </c>
+      <c r="S19">
+        <v>0.44444444444444398</v>
+      </c>
+      <c r="T19">
+        <v>0.44444444444444398</v>
+      </c>
+      <c r="U19">
+        <v>4</v>
+      </c>
+      <c r="V19">
+        <v>5</v>
+      </c>
+      <c r="W19">
+        <v>5</v>
+      </c>
+      <c r="X19">
+        <v>7</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>0.22222222222222199</v>
+      </c>
+      <c r="Z19">
+        <v>0.18181818181818099</v>
+      </c>
+      <c r="AA19">
+        <v>0.28571428571428498</v>
+      </c>
+      <c r="AB19">
+        <v>2</v>
+      </c>
+      <c r="AC19">
+        <v>9</v>
+      </c>
+      <c r="AD19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" t="s">
+        <v>239</v>
+      </c>
+      <c r="D20" t="s">
+        <v>240</v>
+      </c>
+      <c r="E20" t="s">
+        <v>241</v>
+      </c>
+      <c r="F20" t="s">
+        <v>179</v>
+      </c>
+      <c r="G20">
+        <v>0.99336702463676496</v>
+      </c>
+      <c r="H20" t="s">
+        <v>292</v>
+      </c>
+      <c r="I20">
+        <v>0.43243243243243201</v>
+      </c>
+      <c r="J20">
+        <v>285</v>
+      </c>
+      <c r="K20">
+        <v>92.982456140350806</v>
+      </c>
+      <c r="L20">
+        <v>92.982456140350806</v>
+      </c>
+      <c r="M20">
+        <v>21</v>
+      </c>
+      <c r="N20">
+        <v>38.095238095238003</v>
+      </c>
+      <c r="O20">
+        <v>38.095238095238003</v>
+      </c>
+      <c r="P20">
+        <v>0.3</v>
+      </c>
+      <c r="Q20">
+        <v>28</v>
+      </c>
+      <c r="R20">
+        <v>0.57777777777777695</v>
+      </c>
+      <c r="S20">
+        <v>0.76470588235294101</v>
+      </c>
+      <c r="T20">
+        <v>0.46428571428571402</v>
+      </c>
+      <c r="U20">
+        <v>13</v>
+      </c>
+      <c r="V20">
+        <v>4</v>
+      </c>
+      <c r="W20">
+        <v>15</v>
+      </c>
+      <c r="X20">
+        <v>22</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>0.42857142857142799</v>
+      </c>
+      <c r="Z20">
+        <v>0.45</v>
+      </c>
+      <c r="AA20">
+        <v>0.40909090909090901</v>
+      </c>
+      <c r="AB20">
+        <v>9</v>
+      </c>
+      <c r="AC20">
+        <v>11</v>
+      </c>
+      <c r="AD20">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
+        <v>251</v>
+      </c>
+      <c r="D21" t="s">
+        <v>252</v>
+      </c>
+      <c r="E21" t="s">
+        <v>253</v>
+      </c>
+      <c r="F21" t="s">
+        <v>179</v>
+      </c>
+      <c r="G21">
+        <v>0.97139379184418695</v>
+      </c>
+      <c r="H21" t="s">
+        <v>293</v>
+      </c>
+      <c r="I21">
+        <v>0.53465346534653402</v>
+      </c>
+      <c r="J21">
+        <v>286</v>
+      </c>
+      <c r="K21">
+        <v>73.076923076922995</v>
+      </c>
+      <c r="L21">
+        <v>73.624708624708603</v>
+      </c>
+      <c r="M21">
+        <v>125</v>
+      </c>
+      <c r="N21">
+        <v>43.2</v>
+      </c>
+      <c r="O21">
+        <v>44.453333333333298</v>
+      </c>
+      <c r="P21">
+        <v>0.4</v>
+      </c>
+      <c r="Q21">
+        <v>86</v>
+      </c>
+      <c r="R21">
+        <v>0.619354838709677</v>
+      </c>
+      <c r="S21">
+        <v>0.69565217391304301</v>
+      </c>
+      <c r="T21">
+        <v>0.55813953488372003</v>
+      </c>
+      <c r="U21">
+        <v>48</v>
+      </c>
+      <c r="V21">
+        <v>21</v>
+      </c>
+      <c r="W21">
+        <v>38</v>
+      </c>
+      <c r="X21">
+        <v>126</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>0.54634146341463397</v>
+      </c>
+      <c r="Z21">
+        <v>0.70886075949367</v>
+      </c>
+      <c r="AA21">
+        <v>0.44444444444444398</v>
+      </c>
+      <c r="AB21">
+        <v>56</v>
+      </c>
+      <c r="AC21">
+        <v>23</v>
+      </c>
+      <c r="AD21">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" t="s">
+        <v>251</v>
+      </c>
+      <c r="D22" t="s">
+        <v>252</v>
+      </c>
+      <c r="E22" t="s">
+        <v>253</v>
+      </c>
+      <c r="F22" t="s">
+        <v>179</v>
+      </c>
+      <c r="G22">
+        <v>0.98965307364576904</v>
+      </c>
+      <c r="H22" t="s">
+        <v>294</v>
+      </c>
+      <c r="I22">
+        <v>0.52777777777777701</v>
+      </c>
+      <c r="J22">
+        <v>285</v>
+      </c>
+      <c r="K22">
+        <v>92.982456140350806</v>
+      </c>
+      <c r="L22">
+        <v>93.532163742690003</v>
+      </c>
+      <c r="M22">
+        <v>34</v>
+      </c>
+      <c r="N22">
+        <v>55.8823529411764</v>
+      </c>
+      <c r="O22">
+        <v>60.490196078431303</v>
+      </c>
+      <c r="P22">
+        <v>0.3</v>
+      </c>
+      <c r="Q22">
+        <v>31</v>
+      </c>
+      <c r="R22">
+        <v>0.59154929577464699</v>
+      </c>
+      <c r="S22">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="T22">
+        <v>0.67741935483870896</v>
+      </c>
+      <c r="U22">
+        <v>21</v>
+      </c>
+      <c r="V22">
+        <v>19</v>
+      </c>
+      <c r="W22">
+        <v>10</v>
+      </c>
+      <c r="X22">
+        <v>44</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>0.51351351351351304</v>
+      </c>
+      <c r="Z22">
+        <v>0.63333333333333297</v>
+      </c>
+      <c r="AA22">
+        <v>0.43181818181818099</v>
+      </c>
+      <c r="AB22">
+        <v>19</v>
+      </c>
+      <c r="AC22">
+        <v>11</v>
+      </c>
+      <c r="AD22">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" t="s">
+        <v>147</v>
+      </c>
+      <c r="C23" t="s">
+        <v>251</v>
+      </c>
+      <c r="D23" t="s">
+        <v>252</v>
+      </c>
+      <c r="E23" t="s">
+        <v>253</v>
+      </c>
+      <c r="F23" t="s">
+        <v>179</v>
+      </c>
+      <c r="G23">
+        <v>0.986914181375532</v>
+      </c>
+      <c r="H23" t="s">
+        <v>295</v>
+      </c>
+      <c r="I23">
+        <v>0.55670103092783496</v>
+      </c>
+      <c r="J23">
+        <v>282</v>
+      </c>
+      <c r="K23">
+        <v>89.007092198581503</v>
+      </c>
+      <c r="L23">
+        <v>89.148936170212707</v>
+      </c>
+      <c r="M23">
+        <v>46</v>
+      </c>
+      <c r="N23">
+        <v>58.695652173912997</v>
+      </c>
+      <c r="O23">
+        <v>59.565217391304301</v>
+      </c>
+      <c r="P23">
+        <v>0.1</v>
+      </c>
+      <c r="Q23">
+        <v>47</v>
+      </c>
+      <c r="R23">
+        <v>0.62135922330097004</v>
+      </c>
+      <c r="S23">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="T23">
+        <v>0.680851063829787</v>
+      </c>
+      <c r="U23">
+        <v>32</v>
+      </c>
+      <c r="V23">
+        <v>24</v>
+      </c>
+      <c r="W23">
+        <v>15</v>
+      </c>
+      <c r="X23">
+        <v>56</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>0.54716981132075404</v>
+      </c>
+      <c r="Z23">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AA23">
+        <v>0.51785714285714202</v>
+      </c>
+      <c r="AB23">
+        <v>29</v>
+      </c>
+      <c r="AC23">
+        <v>21</v>
+      </c>
+      <c r="AD23">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>117</v>
+      </c>
+      <c r="B24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" t="s">
+        <v>251</v>
+      </c>
+      <c r="D24" t="s">
+        <v>252</v>
+      </c>
+      <c r="E24" t="s">
+        <v>253</v>
+      </c>
+      <c r="F24" t="s">
+        <v>179</v>
+      </c>
+      <c r="G24">
+        <v>0.99817407181984097</v>
+      </c>
+      <c r="H24" t="s">
+        <v>296</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>279</v>
+      </c>
+      <c r="K24">
+        <v>97.849462365591293</v>
+      </c>
+      <c r="L24">
+        <v>97.849462365591293</v>
+      </c>
+      <c r="M24">
+        <v>4</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0.1</v>
+      </c>
+      <c r="Q24">
+        <v>2</v>
+      </c>
+      <c r="R24">
+        <v>0.5</v>
+      </c>
+      <c r="S24">
+        <v>0.5</v>
+      </c>
+      <c r="T24">
+        <v>0.5</v>
+      </c>
+      <c r="U24">
+        <v>1</v>
+      </c>
+      <c r="V24">
+        <v>1</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="X24">
+        <v>4</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>4</v>
+      </c>
+      <c r="AD24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" t="s">
+        <v>251</v>
+      </c>
+      <c r="D25" t="s">
+        <v>252</v>
+      </c>
+      <c r="E25" t="s">
+        <v>253</v>
+      </c>
+      <c r="F25" t="s">
+        <v>179</v>
+      </c>
+      <c r="G25">
+        <v>0.99056603773584895</v>
+      </c>
+      <c r="H25" t="s">
+        <v>297</v>
+      </c>
+      <c r="I25">
+        <v>0.52307692307692299</v>
+      </c>
+      <c r="J25">
+        <v>281</v>
+      </c>
+      <c r="K25">
+        <v>90.035587188612098</v>
+      </c>
+      <c r="L25">
+        <v>90.806642941874202</v>
+      </c>
+      <c r="M25">
+        <v>41</v>
+      </c>
+      <c r="N25">
+        <v>41.463414634146297</v>
+      </c>
+      <c r="O25">
+        <v>46.747967479674799</v>
+      </c>
+      <c r="P25">
+        <v>0.1</v>
+      </c>
+      <c r="Q25">
+        <v>24</v>
+      </c>
+      <c r="R25">
+        <v>0.61538461538461497</v>
+      </c>
+      <c r="S25">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="T25">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="U25">
+        <v>16</v>
+      </c>
+      <c r="V25">
+        <v>12</v>
+      </c>
+      <c r="W25">
+        <v>8</v>
+      </c>
+      <c r="X25">
+        <v>39</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>0.537313432835821</v>
+      </c>
+      <c r="Z25">
+        <v>0.64285714285714202</v>
+      </c>
+      <c r="AA25">
+        <v>0.46153846153846101</v>
+      </c>
+      <c r="AB25">
+        <v>18</v>
+      </c>
+      <c r="AC25">
+        <v>10</v>
+      </c>
+      <c r="AD25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>134</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" t="s">
+        <v>259</v>
+      </c>
+      <c r="D26" t="s">
+        <v>260</v>
+      </c>
+      <c r="E26" t="s">
+        <v>261</v>
+      </c>
+      <c r="F26" t="s">
+        <v>179</v>
+      </c>
+      <c r="G26">
+        <v>0.99539833189531202</v>
+      </c>
+      <c r="H26" t="s">
+        <v>262</v>
+      </c>
+      <c r="I26">
+        <v>0.75</v>
+      </c>
+      <c r="J26">
+        <v>310</v>
+      </c>
+      <c r="K26">
+        <v>95.483870967741893</v>
+      </c>
+      <c r="L26">
+        <v>96.731182795698899</v>
+      </c>
+      <c r="M26">
+        <v>36</v>
+      </c>
+      <c r="N26">
+        <v>66.6666666666666</v>
+      </c>
+      <c r="O26">
+        <v>77.407407407407405</v>
+      </c>
+      <c r="P26">
+        <v>0.1</v>
+      </c>
+      <c r="Q26">
+        <v>17</v>
+      </c>
+      <c r="R26">
+        <v>0.84848484848484795</v>
+      </c>
+      <c r="S26">
+        <v>0.875</v>
+      </c>
+      <c r="T26">
+        <v>0.82352941176470495</v>
+      </c>
+      <c r="U26">
+        <v>14</v>
+      </c>
+      <c r="V26">
+        <v>2</v>
+      </c>
+      <c r="W26">
+        <v>3</v>
+      </c>
+      <c r="X26">
+        <v>29</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="Z26">
+        <v>0.69444444444444398</v>
+      </c>
+      <c r="AA26">
+        <v>0.86206896551724099</v>
+      </c>
+      <c r="AB26">
+        <v>25</v>
+      </c>
+      <c r="AC26">
+        <v>11</v>
+      </c>
+      <c r="AD26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>134</v>
+      </c>
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" t="s">
+        <v>259</v>
+      </c>
+      <c r="D27" t="s">
+        <v>260</v>
+      </c>
+      <c r="E27" t="s">
+        <v>261</v>
+      </c>
+      <c r="F27" t="s">
+        <v>179</v>
+      </c>
+      <c r="G27">
+        <v>0.96951394880644204</v>
+      </c>
+      <c r="H27" t="s">
+        <v>298</v>
+      </c>
+      <c r="I27">
+        <v>0.62937062937062904</v>
+      </c>
+      <c r="J27">
+        <v>342</v>
+      </c>
+      <c r="K27">
+        <v>71.929824561403507</v>
+      </c>
+      <c r="L27">
+        <v>76.378741466460696</v>
+      </c>
+      <c r="M27">
+        <v>167</v>
+      </c>
+      <c r="N27">
+        <v>53.892215568862198</v>
+      </c>
+      <c r="O27">
+        <v>63.003171146883702</v>
+      </c>
+      <c r="P27">
+        <v>0.7</v>
+      </c>
+      <c r="Q27">
+        <v>66</v>
+      </c>
+      <c r="R27">
+        <v>0.67142857142857104</v>
+      </c>
+      <c r="S27">
+        <v>0.63513513513513498</v>
+      </c>
+      <c r="T27">
+        <v>0.71212121212121204</v>
+      </c>
+      <c r="U27">
+        <v>47</v>
+      </c>
+      <c r="V27">
+        <v>27</v>
+      </c>
+      <c r="W27">
+        <v>19</v>
+      </c>
+      <c r="X27">
+        <v>136</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>0.63345195729537296</v>
+      </c>
+      <c r="Z27">
+        <v>0.61379310344827498</v>
+      </c>
+      <c r="AA27">
+        <v>0.65441176470588203</v>
+      </c>
+      <c r="AB27">
+        <v>89</v>
+      </c>
+      <c r="AC27">
+        <v>56</v>
+      </c>
+      <c r="AD27">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>134</v>
+      </c>
+      <c r="B28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" t="s">
+        <v>259</v>
+      </c>
+      <c r="D28" t="s">
+        <v>260</v>
+      </c>
+      <c r="E28" t="s">
+        <v>261</v>
+      </c>
+      <c r="F28" t="s">
+        <v>179</v>
+      </c>
+      <c r="G28">
+        <v>0.99396031061259704</v>
+      </c>
+      <c r="H28" t="s">
+        <v>299</v>
+      </c>
+      <c r="I28">
+        <v>0.4</v>
+      </c>
+      <c r="J28">
+        <v>305</v>
+      </c>
+      <c r="K28">
+        <v>95.081967213114694</v>
+      </c>
+      <c r="L28">
+        <v>95.300546448087402</v>
+      </c>
+      <c r="M28">
+        <v>20</v>
+      </c>
+      <c r="N28">
+        <v>35</v>
+      </c>
+      <c r="O28">
+        <v>38.3333333333333</v>
+      </c>
+      <c r="P28">
+        <v>0.2</v>
+      </c>
+      <c r="Q28">
+        <v>10</v>
+      </c>
+      <c r="R28">
+        <v>0.44444444444444398</v>
+      </c>
+      <c r="S28">
+        <v>0.5</v>
+      </c>
+      <c r="T28">
+        <v>0.4</v>
+      </c>
+      <c r="U28">
+        <v>4</v>
+      </c>
+      <c r="V28">
+        <v>4</v>
+      </c>
+      <c r="W28">
+        <v>6</v>
+      </c>
+      <c r="X28">
+        <v>25</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>0.43243243243243201</v>
+      </c>
+      <c r="Z28">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="AA28">
+        <v>0.32</v>
+      </c>
+      <c r="AB28">
+        <v>8</v>
+      </c>
+      <c r="AC28">
+        <v>4</v>
+      </c>
+      <c r="AD28">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>134</v>
+      </c>
+      <c r="B29" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" t="s">
+        <v>259</v>
+      </c>
+      <c r="D29" t="s">
+        <v>260</v>
+      </c>
+      <c r="E29" t="s">
+        <v>261</v>
+      </c>
+      <c r="F29" t="s">
+        <v>179</v>
+      </c>
+      <c r="G29">
+        <v>0.99884958297382798</v>
+      </c>
+      <c r="H29" t="s">
+        <v>265</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>303</v>
+      </c>
+      <c r="K29">
+        <v>99.339933993399299</v>
+      </c>
+      <c r="L29">
+        <v>99.339933993399299</v>
+      </c>
+      <c r="M29">
+        <v>2</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0.5</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>1</v>
+      </c>
+      <c r="X29">
+        <v>4</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>134</v>
+      </c>
+      <c r="B30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" t="s">
+        <v>259</v>
+      </c>
+      <c r="D30" t="s">
+        <v>260</v>
+      </c>
+      <c r="E30" t="s">
+        <v>261</v>
+      </c>
+      <c r="F30" t="s">
+        <v>179</v>
+      </c>
+      <c r="G30">
+        <v>0.99050905953408097</v>
+      </c>
+      <c r="H30" t="s">
+        <v>300</v>
+      </c>
+      <c r="I30">
+        <v>0.62068965517241304</v>
+      </c>
+      <c r="J30">
+        <v>307</v>
+      </c>
+      <c r="K30">
+        <v>90.553745928338699</v>
+      </c>
+      <c r="L30">
+        <v>91.324647122692696</v>
+      </c>
+      <c r="M30">
+        <v>46</v>
+      </c>
+      <c r="N30">
+        <v>58.695652173912997</v>
+      </c>
+      <c r="O30">
+        <v>63.840579710144901</v>
+      </c>
+      <c r="P30">
+        <v>0.1</v>
+      </c>
+      <c r="Q30">
+        <v>15</v>
+      </c>
+      <c r="R30">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="S30">
+        <v>0.92307692307692302</v>
+      </c>
+      <c r="T30">
+        <v>0.8</v>
+      </c>
+      <c r="U30">
+        <v>12</v>
+      </c>
+      <c r="V30">
+        <v>1</v>
+      </c>
+      <c r="W30">
+        <v>3</v>
+      </c>
+      <c r="X30">
+        <v>43</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>0.63736263736263699</v>
+      </c>
+      <c r="Z30">
+        <v>0.60416666666666596</v>
+      </c>
+      <c r="AA30">
+        <v>0.67441860465116199</v>
+      </c>
+      <c r="AB30">
+        <v>29</v>
+      </c>
+      <c r="AC30">
+        <v>19</v>
+      </c>
+      <c r="AD30">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>134</v>
+      </c>
+      <c r="B31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" t="s">
+        <v>259</v>
+      </c>
+      <c r="D31" t="s">
+        <v>260</v>
+      </c>
+      <c r="E31" t="s">
+        <v>261</v>
+      </c>
+      <c r="F31" t="s">
+        <v>179</v>
+      </c>
+      <c r="G31">
+        <v>0.98763301696865102</v>
+      </c>
+      <c r="H31" t="s">
+        <v>301</v>
+      </c>
+      <c r="I31">
+        <v>0.56565656565656497</v>
+      </c>
+      <c r="J31">
+        <v>307</v>
+      </c>
+      <c r="K31">
+        <v>86.644951140065103</v>
+      </c>
+      <c r="L31">
+        <v>87.187839305103097</v>
+      </c>
+      <c r="M31">
+        <v>60</v>
+      </c>
+      <c r="N31">
+        <v>48.3333333333333</v>
+      </c>
+      <c r="O31">
+        <v>51.1111111111111</v>
+      </c>
+      <c r="P31">
+        <v>0.5</v>
+      </c>
+      <c r="Q31">
+        <v>36</v>
+      </c>
+      <c r="R31">
+        <v>0.61538461538461497</v>
+      </c>
+      <c r="S31">
+        <v>0.68965517241379304</v>
+      </c>
+      <c r="T31">
+        <v>0.55555555555555503</v>
+      </c>
+      <c r="U31">
+        <v>20</v>
+      </c>
+      <c r="V31">
+        <v>9</v>
+      </c>
+      <c r="W31">
+        <v>16</v>
+      </c>
+      <c r="X31">
+        <v>57</v>
+      </c>
+      <c r="Y31" s="1">
+        <v>0.56565656565656497</v>
+      </c>
+      <c r="Z31">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="AA31">
+        <v>0.49122807017543801</v>
+      </c>
+      <c r="AB31">
+        <v>28</v>
+      </c>
+      <c r="AC31">
+        <v>14</v>
+      </c>
+      <c r="AD31">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>160</v>
+      </c>
+      <c r="B32" t="s">
+        <v>161</v>
+      </c>
+      <c r="C32" t="s">
+        <v>268</v>
+      </c>
+      <c r="D32" t="s">
+        <v>269</v>
+      </c>
+      <c r="E32" t="s">
+        <v>270</v>
+      </c>
+      <c r="F32" t="s">
+        <v>179</v>
+      </c>
+      <c r="G32">
+        <v>0.96851426697277798</v>
+      </c>
+      <c r="H32" t="s">
+        <v>302</v>
+      </c>
+      <c r="I32">
+        <v>0.483870967741935</v>
+      </c>
+      <c r="J32">
+        <v>306</v>
+      </c>
+      <c r="K32">
+        <v>68.627450980392098</v>
+      </c>
+      <c r="L32">
+        <v>68.627450980392098</v>
+      </c>
+      <c r="M32">
+        <v>61</v>
+      </c>
+      <c r="N32">
+        <v>73.770491803278603</v>
+      </c>
+      <c r="O32">
+        <v>73.770491803278603</v>
+      </c>
+      <c r="P32">
+        <v>0.1</v>
+      </c>
+      <c r="Q32">
+        <v>40</v>
+      </c>
+      <c r="R32">
+        <v>0.40650406504065001</v>
+      </c>
+      <c r="S32">
+        <v>0.30120481927710802</v>
+      </c>
+      <c r="T32">
+        <v>0.625</v>
+      </c>
+      <c r="U32">
+        <v>25</v>
+      </c>
+      <c r="V32">
+        <v>58</v>
+      </c>
+      <c r="W32">
+        <v>15</v>
+      </c>
+      <c r="X32">
+        <v>61</v>
+      </c>
+      <c r="Y32" s="1">
+        <v>0.475728155339805</v>
+      </c>
+      <c r="Z32">
+        <v>0.33793103448275802</v>
+      </c>
+      <c r="AA32">
+        <v>0.80327868852458995</v>
+      </c>
+      <c r="AB32">
+        <v>49</v>
+      </c>
+      <c r="AC32">
+        <v>96</v>
+      </c>
+      <c r="AD32">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>160</v>
+      </c>
+      <c r="B33" t="s">
+        <v>166</v>
+      </c>
+      <c r="C33" t="s">
+        <v>268</v>
+      </c>
+      <c r="D33" t="s">
+        <v>269</v>
+      </c>
+      <c r="E33" t="s">
+        <v>270</v>
+      </c>
+      <c r="F33" t="s">
+        <v>179</v>
+      </c>
+      <c r="G33">
+        <v>0.96261069203017302</v>
+      </c>
+      <c r="H33" t="s">
+        <v>303</v>
+      </c>
+      <c r="I33">
+        <v>0.59574468085106302</v>
+      </c>
+      <c r="J33">
+        <v>341</v>
+      </c>
+      <c r="K33">
+        <v>71.847507331378296</v>
+      </c>
+      <c r="L33">
+        <v>75.916190359005597</v>
+      </c>
+      <c r="M33">
+        <v>157</v>
+      </c>
+      <c r="N33">
+        <v>54.777070063694197</v>
+      </c>
+      <c r="O33">
+        <v>63.614145938986702</v>
+      </c>
+      <c r="P33">
+        <v>0.4</v>
+      </c>
+      <c r="Q33">
+        <v>94</v>
+      </c>
+      <c r="R33">
+        <v>0.61458333333333304</v>
+      </c>
+      <c r="S33">
+        <v>0.60204081632652995</v>
+      </c>
+      <c r="T33">
+        <v>0.62765957446808496</v>
+      </c>
+      <c r="U33">
+        <v>59</v>
+      </c>
+      <c r="V33">
+        <v>39</v>
+      </c>
+      <c r="W33">
+        <v>35</v>
+      </c>
+      <c r="X33">
+        <v>137</v>
+      </c>
+      <c r="Y33" s="1">
+        <v>0.606271777003484</v>
+      </c>
+      <c r="Z33">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AA33">
+        <v>0.63503649635036497</v>
+      </c>
+      <c r="AB33">
+        <v>87</v>
+      </c>
+      <c r="AC33">
+        <v>63</v>
+      </c>
+      <c r="AD33">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>160</v>
+      </c>
+      <c r="B34" t="s">
+        <v>171</v>
+      </c>
+      <c r="C34" t="s">
+        <v>268</v>
+      </c>
+      <c r="D34" t="s">
+        <v>269</v>
+      </c>
+      <c r="E34" t="s">
+        <v>270</v>
+      </c>
+      <c r="F34" t="s">
+        <v>179</v>
+      </c>
+      <c r="G34">
+        <v>0.96228271564447299</v>
+      </c>
+      <c r="H34" t="s">
+        <v>304</v>
+      </c>
+      <c r="I34">
+        <v>0.42786069651741199</v>
+      </c>
+      <c r="J34">
+        <v>318</v>
+      </c>
+      <c r="K34">
+        <v>67.610062893081704</v>
+      </c>
+      <c r="L34">
+        <v>68.035339922132295</v>
+      </c>
+      <c r="M34">
+        <v>102</v>
+      </c>
+      <c r="N34">
+        <v>42.156862745098003</v>
+      </c>
+      <c r="O34">
+        <v>43.482726423902797</v>
+      </c>
+      <c r="P34">
+        <v>0.1</v>
+      </c>
+      <c r="Q34">
+        <v>65</v>
+      </c>
+      <c r="R34">
+        <v>0.45070422535211202</v>
+      </c>
+      <c r="S34">
+        <v>0.415584415584415</v>
+      </c>
+      <c r="T34">
+        <v>0.492307692307692</v>
+      </c>
+      <c r="U34">
+        <v>32</v>
+      </c>
+      <c r="V34">
+        <v>45</v>
+      </c>
+      <c r="W34">
+        <v>33</v>
+      </c>
+      <c r="X34">
+        <v>95</v>
+      </c>
+      <c r="Y34" s="1">
+        <v>0.42231075697211101</v>
+      </c>
+      <c r="Z34">
+        <v>0.33974358974358898</v>
+      </c>
+      <c r="AA34">
+        <v>0.557894736842105</v>
+      </c>
+      <c r="AB34">
+        <v>53</v>
+      </c>
+      <c r="AC34">
+        <v>103</v>
+      </c>
+      <c r="AD34">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxwe\Google Drive\Code\Python\extract_COVID19_events_from_Twitter\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735EEB63-CBCE-46BE-AECF-FFA7ED068BE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22574ECA-5D6F-4C2E-B267-C99478AAC3BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{09ECAD97-3C1E-45DE-875A-3C5CD2F3C873}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="2" xr2:uid="{09ECAD97-3C1E-45DE-875A-3C5CD2F3C873}"/>
   </bookViews>
   <sheets>
-    <sheet name="comparison" sheetId="3" r:id="rId1"/>
-    <sheet name="bert" sheetId="4" r:id="rId2"/>
-    <sheet name="biobert" sheetId="5" r:id="rId3"/>
-    <sheet name="electra" sheetId="6" r:id="rId4"/>
-    <sheet name="lr-paper" sheetId="1" r:id="rId5"/>
-    <sheet name="bert-paper" sheetId="2" r:id="rId6"/>
+    <sheet name="comparison" sheetId="7" r:id="rId1"/>
+    <sheet name="comparison-detailed" sheetId="3" r:id="rId2"/>
+    <sheet name="bert" sheetId="4" r:id="rId3"/>
+    <sheet name="biobert" sheetId="5" r:id="rId4"/>
+    <sheet name="covid-twitter-bert" sheetId="8" r:id="rId5"/>
+    <sheet name="electra" sheetId="6" r:id="rId6"/>
+    <sheet name="lr-paper" sheetId="1" r:id="rId7"/>
+    <sheet name="bert-paper" sheetId="2" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="313">
   <si>
     <t>Event</t>
   </si>
@@ -953,6 +955,30 @@
   </si>
   <si>
     <t>[[2891, 63], [52, 43]]</t>
+  </si>
+  <si>
+    <t>covid-twitter-bert-F1</t>
+  </si>
+  <si>
+    <t>bert</t>
+  </si>
+  <si>
+    <t>biobert</t>
+  </si>
+  <si>
+    <t>covid-twitter-bert</t>
+  </si>
+  <si>
+    <t>electra</t>
+  </si>
+  <si>
+    <t>Micro-P</t>
+  </si>
+  <si>
+    <t>Micro-R</t>
+  </si>
+  <si>
+    <t>Micro-F1</t>
   </si>
 </sst>
 </file>
@@ -1324,11 +1350,108 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E09BEF8E-45BB-4FF8-8E9F-14976C2DFCDC}">
+  <dimension ref="A5:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="17.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C5" t="s">
+        <v>311</v>
+      </c>
+      <c r="D5" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>306</v>
+      </c>
+      <c r="B7" s="3">
+        <f>bert!AE$2</f>
+        <v>0.5853976531942634</v>
+      </c>
+      <c r="C7" s="3">
+        <f>bert!AF$2</f>
+        <v>0.59893285904846594</v>
+      </c>
+      <c r="D7" s="3">
+        <f>bert!AG$2</f>
+        <v>0.59208791208791212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>307</v>
+      </c>
+      <c r="B8" s="2">
+        <f>biobert!AE$2</f>
+        <v>0.55322646937936704</v>
+      </c>
+      <c r="C8" s="2">
+        <f>biobert!AF$2</f>
+        <v>0.59848821698532684</v>
+      </c>
+      <c r="D8" s="2">
+        <f>biobert!AG$2</f>
+        <v>0.57496796240922687</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>308</v>
+      </c>
+      <c r="B9" s="2">
+        <f>'covid-twitter-bert'!AE$2</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <f>'covid-twitter-bert'!AF$2</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <f>'covid-twitter-bert'!AG$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>309</v>
+      </c>
+      <c r="B10" s="2">
+        <f>electra!AE$2</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <f>electra!AF$2</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <f>electra!AG$2</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A7C2FD4-A612-48B7-B14F-F3EAA1F8E07F}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1337,10 +1460,12 @@
     <col min="2" max="2" width="14.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.46484375" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="11.59765625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.9296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1360,10 +1485,13 @@
         <v>274</v>
       </c>
       <c r="G1" t="s">
+        <v>305</v>
+      </c>
+      <c r="H1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -1387,11 +1515,15 @@
         <v>0.68965517241379304</v>
       </c>
       <c r="G2" s="4">
+        <f>'covid-twitter-bert'!$Y2</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
         <f>electra!$Y2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -1415,11 +1547,15 @@
         <v>0.38961038961038902</v>
       </c>
       <c r="G3" s="4">
+        <f>'covid-twitter-bert'!$Y3</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
         <f>electra!$Y3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -1443,11 +1579,15 @@
         <v>0.44198895027624302</v>
       </c>
       <c r="G4" s="4">
+        <f>'covid-twitter-bert'!$Y4</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
         <f>electra!$Y4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -1471,11 +1611,15 @@
         <v>0.6</v>
       </c>
       <c r="G5" s="4">
+        <f>'covid-twitter-bert'!$Y5</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
         <f>electra!$Y5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -1499,11 +1643,15 @@
         <v>0.5</v>
       </c>
       <c r="G6" s="4">
+        <f>'covid-twitter-bert'!$Y6</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
         <f>electra!$Y6</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -1527,11 +1675,15 @@
         <v>0.74285714285714199</v>
       </c>
       <c r="G7" s="4">
+        <f>'covid-twitter-bert'!$Y7</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
         <f>electra!$Y7</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -1555,11 +1707,15 @@
         <v>0.41463414634146301</v>
       </c>
       <c r="G8" s="4">
+        <f>'covid-twitter-bert'!$Y8</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
         <f>electra!$Y8</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -1583,11 +1739,15 @@
         <v>0.57142857142857095</v>
       </c>
       <c r="G9" s="4">
+        <f>'covid-twitter-bert'!$Y9</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
         <f>electra!$Y9</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -1611,11 +1771,15 @@
         <v>0.4375</v>
       </c>
       <c r="G10" s="4">
+        <f>'covid-twitter-bert'!$Y10</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
         <f>electra!$Y10</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -1639,11 +1803,15 @@
         <v>0.57289002557544699</v>
       </c>
       <c r="G11" s="4">
+        <f>'covid-twitter-bert'!$Y11</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
         <f>electra!$Y11</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -1667,11 +1835,15 @@
         <v>0</v>
       </c>
       <c r="G12" s="4">
+        <f>'covid-twitter-bert'!$Y12</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
         <f>electra!$Y12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -1695,11 +1867,15 @@
         <v>0.148148148148148</v>
       </c>
       <c r="G13" s="4">
+        <f>'covid-twitter-bert'!$Y13</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
         <f>electra!$Y13</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>83</v>
       </c>
@@ -1723,11 +1899,15 @@
         <v>0.42105263157894701</v>
       </c>
       <c r="G14" s="4">
+        <f>'covid-twitter-bert'!$Y14</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
         <f>electra!$Y14</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -1751,11 +1931,15 @@
         <v>0.41025641025641002</v>
       </c>
       <c r="G15" s="4">
+        <f>'covid-twitter-bert'!$Y15</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
         <f>electra!$Y15</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>83</v>
       </c>
@@ -1779,11 +1963,15 @@
         <v>0</v>
       </c>
       <c r="G16" s="4">
+        <f>'covid-twitter-bert'!$Y16</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
         <f>electra!$Y16</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>83</v>
       </c>
@@ -1807,11 +1995,15 @@
         <v>0.55830388692579502</v>
       </c>
       <c r="G17" s="4">
+        <f>'covid-twitter-bert'!$Y17</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
         <f>electra!$Y17</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>83</v>
       </c>
@@ -1835,11 +2027,15 @@
         <v>0.46511627906976699</v>
       </c>
       <c r="G18" s="4">
+        <f>'covid-twitter-bert'!$Y18</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
         <f>electra!$Y18</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>83</v>
       </c>
@@ -1863,11 +2059,15 @@
         <v>0.22222222222222199</v>
       </c>
       <c r="G19" s="4">
+        <f>'covid-twitter-bert'!$Y19</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
         <f>electra!$Y19</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>83</v>
       </c>
@@ -1891,11 +2091,15 @@
         <v>0.42857142857142799</v>
       </c>
       <c r="G20" s="4">
+        <f>'covid-twitter-bert'!$Y20</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="4">
         <f>electra!$Y20</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>117</v>
       </c>
@@ -1919,11 +2123,15 @@
         <v>0.54634146341463397</v>
       </c>
       <c r="G21" s="4">
+        <f>'covid-twitter-bert'!$Y21</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
         <f>electra!$Y21</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>117</v>
       </c>
@@ -1947,11 +2155,15 @@
         <v>0.51351351351351304</v>
       </c>
       <c r="G22" s="4">
+        <f>'covid-twitter-bert'!$Y22</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
         <f>electra!$Y22</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>117</v>
       </c>
@@ -1975,11 +2187,15 @@
         <v>0.54716981132075404</v>
       </c>
       <c r="G23" s="4">
+        <f>'covid-twitter-bert'!$Y23</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="4">
         <f>electra!$Y23</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>117</v>
       </c>
@@ -2003,11 +2219,15 @@
         <v>0</v>
       </c>
       <c r="G24" s="4">
+        <f>'covid-twitter-bert'!$Y24</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="4">
         <f>electra!$Y24</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>117</v>
       </c>
@@ -2031,11 +2251,15 @@
         <v>0.537313432835821</v>
       </c>
       <c r="G25" s="4">
+        <f>'covid-twitter-bert'!$Y25</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="4">
         <f>electra!$Y25</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>134</v>
       </c>
@@ -2059,11 +2283,15 @@
         <v>0.76923076923076905</v>
       </c>
       <c r="G26" s="4">
+        <f>'covid-twitter-bert'!$Y26</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="4">
         <f>electra!$Y26</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>134</v>
       </c>
@@ -2087,11 +2315,15 @@
         <v>0.63345195729537296</v>
       </c>
       <c r="G27" s="4">
+        <f>'covid-twitter-bert'!$Y27</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="4">
         <f>electra!$Y27</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>134</v>
       </c>
@@ -2115,11 +2347,15 @@
         <v>0.43243243243243201</v>
       </c>
       <c r="G28" s="4">
+        <f>'covid-twitter-bert'!$Y28</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="4">
         <f>electra!$Y28</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>134</v>
       </c>
@@ -2143,11 +2379,15 @@
         <v>0</v>
       </c>
       <c r="G29" s="4">
+        <f>'covid-twitter-bert'!$Y29</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="4">
         <f>electra!$Y29</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>134</v>
       </c>
@@ -2171,11 +2411,15 @@
         <v>0.63736263736263699</v>
       </c>
       <c r="G30" s="4">
+        <f>'covid-twitter-bert'!$Y30</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="4">
         <f>electra!$Y30</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>134</v>
       </c>
@@ -2199,11 +2443,15 @@
         <v>0.56565656565656497</v>
       </c>
       <c r="G31" s="4">
+        <f>'covid-twitter-bert'!$Y31</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="4">
         <f>electra!$Y31</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>160</v>
       </c>
@@ -2227,11 +2475,15 @@
         <v>0.475728155339805</v>
       </c>
       <c r="G32" s="4">
+        <f>'covid-twitter-bert'!$Y32</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="4">
         <f>electra!$Y32</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>160</v>
       </c>
@@ -2255,11 +2507,15 @@
         <v>0.606271777003484</v>
       </c>
       <c r="G33" s="4">
+        <f>'covid-twitter-bert'!$Y33</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="4">
         <f>electra!$Y33</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>160</v>
       </c>
@@ -2283,6 +2539,10 @@
         <v>0.42231075697211101</v>
       </c>
       <c r="G34" s="4">
+        <f>'covid-twitter-bert'!$Y34</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="4">
         <f>electra!$Y34</f>
         <v>0</v>
       </c>
@@ -2292,24 +2552,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{645B2E46-A973-4F43-A440-0DFDA26D52C4}">
-  <dimension ref="A1:AD34"/>
+  <dimension ref="A1:AG34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y24" sqref="Y24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AE12" sqref="AE12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="13.3984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.53125" bestFit="1" customWidth="1"/>
-    <col min="3" max="24" width="0" hidden="1" customWidth="1"/>
+    <col min="3" max="24" width="9.06640625" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="9.06640625" style="1"/>
-    <col min="26" max="30" width="0" hidden="1" customWidth="1"/>
+    <col min="26" max="30" width="9.06640625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2400,8 +2660,17 @@
       <c r="AD1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="AE1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>311</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -2492,8 +2761,20 @@
       <c r="AD2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="AE2" s="2">
+        <f>SUM(AB2:AB34)/(SUM(AB2:AB34)+SUM(AC2:AC34))</f>
+        <v>0.5853976531942634</v>
+      </c>
+      <c r="AF2" s="2">
+        <f t="array" ref="AF2">SUM(AB2:AB34)/(SUM(AB2:AB34)+SUM(AD2:AD34))</f>
+        <v>0.59893285904846594</v>
+      </c>
+      <c r="AG2" s="2">
+        <f>2*(AE2*AF2)/(AE2+AF2)</f>
+        <v>0.59208791208791212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -2585,7 +2866,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -2677,7 +2958,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -2769,7 +3050,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -2861,7 +3142,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -2953,7 +3234,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -3045,7 +3326,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -3137,7 +3418,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -3229,7 +3510,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -3321,7 +3602,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -3413,7 +3694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -3505,7 +3786,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>83</v>
       </c>
@@ -3597,7 +3878,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -3689,7 +3970,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>83</v>
       </c>
@@ -5442,12 +5723,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B399EB9A-55D3-405C-BE82-39995B32E924}">
-  <dimension ref="A1:AD34"/>
+  <dimension ref="A1:AG34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AE8" sqref="AE8"/>
+      <selection activeCell="AJ7" sqref="AJ7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5459,7 +5740,7 @@
     <col min="26" max="30" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5550,8 +5831,17 @@
       <c r="AD1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="AE1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>311</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -5642,8 +5932,20 @@
       <c r="AD2">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="AE2" s="2">
+        <f>SUM(AB2:AB34)/(SUM(AB2:AB34)+SUM(AC2:AC34))</f>
+        <v>0.55322646937936704</v>
+      </c>
+      <c r="AF2" s="2">
+        <f t="array" ref="AF2">SUM(AB2:AB34)/(SUM(AB2:AB34)+SUM(AD2:AD34))</f>
+        <v>0.59848821698532684</v>
+      </c>
+      <c r="AG2" s="2">
+        <f>2*(AE2*AF2)/(AE2+AF2)</f>
+        <v>0.57496796240922687</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -5735,7 +6037,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -5827,7 +6129,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -5919,7 +6221,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -6011,7 +6313,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -6103,7 +6405,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -6195,7 +6497,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -6287,7 +6589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -6379,7 +6681,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -6471,7 +6773,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -6563,7 +6865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -6655,7 +6957,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>83</v>
       </c>
@@ -6747,7 +7049,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -6839,7 +7141,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>83</v>
       </c>
@@ -8592,7 +8894,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40168F0E-FC16-4362-B18F-2CE5356F0709}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2A5DC65-F61D-4915-92F9-4012B56D908D}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -8604,7 +8918,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8583DFB6-1C5F-4E8D-BAA4-B0A26012EA60}">
   <dimension ref="A1:AE34"/>
   <sheetViews>
@@ -11843,7 +12157,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D9431E6-62E4-4A11-8254-C840C95A0DE2}">
   <dimension ref="A1:AD34"/>
   <sheetViews>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxwe\Google Drive\Code\Python\extract_COVID19_events_from_Twitter\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22574ECA-5D6F-4C2E-B267-C99478AAC3BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B3138D-7699-45C2-926C-590676B24B2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="2" xr2:uid="{09ECAD97-3C1E-45DE-875A-3C5CD2F3C873}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{09ECAD97-3C1E-45DE-875A-3C5CD2F3C873}"/>
   </bookViews>
   <sheets>
     <sheet name="comparison" sheetId="7" r:id="rId1"/>
@@ -19,8 +19,9 @@
     <sheet name="biobert" sheetId="5" r:id="rId4"/>
     <sheet name="covid-twitter-bert" sheetId="8" r:id="rId5"/>
     <sheet name="electra" sheetId="6" r:id="rId6"/>
-    <sheet name="lr-paper" sheetId="1" r:id="rId7"/>
-    <sheet name="bert-paper" sheetId="2" r:id="rId8"/>
+    <sheet name="electra-large" sheetId="9" r:id="rId7"/>
+    <sheet name="lr-paper" sheetId="1" r:id="rId8"/>
+    <sheet name="bert-paper" sheetId="2" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1656" uniqueCount="373">
   <si>
     <t>Event</t>
   </si>
@@ -969,9 +970,6 @@
     <t>covid-twitter-bert</t>
   </si>
   <si>
-    <t>electra</t>
-  </si>
-  <si>
     <t>Micro-P</t>
   </si>
   <si>
@@ -979,6 +977,189 @@
   </si>
   <si>
     <t>Micro-F1</t>
+  </si>
+  <si>
+    <t>[[5663, 8], [4, 14]]</t>
+  </si>
+  <si>
+    <t>[[5609, 18], [46, 16]]</t>
+  </si>
+  <si>
+    <t>[[5539, 47], [51, 52]]</t>
+  </si>
+  <si>
+    <t>[[5525, 41], [43, 80]]</t>
+  </si>
+  <si>
+    <t>[[5627, 17], [15, 30]]</t>
+  </si>
+  <si>
+    <t>[[5058, 146], [94, 391]]</t>
+  </si>
+  <si>
+    <t>[[5633, 10], [32, 14]]</t>
+  </si>
+  <si>
+    <t>[[5642, 19], [14, 14]]</t>
+  </si>
+  <si>
+    <t>[[5372, 136], [44, 137]]</t>
+  </si>
+  <si>
+    <t>[[3155, 0], [11, 0]]</t>
+  </si>
+  <si>
+    <t>[[3103, 12], [25, 26]]</t>
+  </si>
+  <si>
+    <t>[[3139, 7], [8, 12]]</t>
+  </si>
+  <si>
+    <t>[[2983, 35], [59, 89]]</t>
+  </si>
+  <si>
+    <t>[[3134, 8], [10, 14]]</t>
+  </si>
+  <si>
+    <t>[[3159, 0], [7, 0]]</t>
+  </si>
+  <si>
+    <t>[[3140, 5], [15, 6]]</t>
+  </si>
+  <si>
+    <t>[[3090, 70], [49, 77]]</t>
+  </si>
+  <si>
+    <t>[[3212, 30], [20, 24]]</t>
+  </si>
+  <si>
+    <t>[[3189, 41], [23, 33]]</t>
+  </si>
+  <si>
+    <t>[[3233, 14], [11, 28]]</t>
+  </si>
+  <si>
+    <t>[[3441, 7], [5, 24]]</t>
+  </si>
+  <si>
+    <t>[[3308, 33], [43, 93]]</t>
+  </si>
+  <si>
+    <t>[[3447, 5], [19, 6]]</t>
+  </si>
+  <si>
+    <t>[[3425, 9], [22, 21]]</t>
+  </si>
+  <si>
+    <t>[[3408, 12], [25, 32]]</t>
+  </si>
+  <si>
+    <t>[[2912, 76], [11, 50]]</t>
+  </si>
+  <si>
+    <t>[[2851, 61], [38, 99]]</t>
+  </si>
+  <si>
+    <t>[[2836, 118], [29, 66]]</t>
+  </si>
+  <si>
+    <t>electra-large</t>
+  </si>
+  <si>
+    <t>electra-base</t>
+  </si>
+  <si>
+    <t>[[5670, 1], [8, 10]]</t>
+  </si>
+  <si>
+    <t>[[5595, 32], [40, 22]]</t>
+  </si>
+  <si>
+    <t>[[5570, 16], [66, 37]]</t>
+  </si>
+  <si>
+    <t>[[5521, 45], [42, 81]]</t>
+  </si>
+  <si>
+    <t>[[5630, 14], [14, 31]]</t>
+  </si>
+  <si>
+    <t>[[5132, 72], [141, 344]]</t>
+  </si>
+  <si>
+    <t>[[5620, 23], [24, 22]]</t>
+  </si>
+  <si>
+    <t>[[5667, 9], [5, 8]]</t>
+  </si>
+  <si>
+    <t>[[5648, 13], [14, 14]]</t>
+  </si>
+  <si>
+    <t>[[5375, 133], [52, 129]]</t>
+  </si>
+  <si>
+    <t>[[3151, 4], [10, 1]]</t>
+  </si>
+  <si>
+    <t>[[3104, 11], [20, 31]]</t>
+  </si>
+  <si>
+    <t>[[3136, 10], [8, 12]]</t>
+  </si>
+  <si>
+    <t>[[3162, 1], [3, 0]]</t>
+  </si>
+  <si>
+    <t>[[2973, 45], [48, 100]]</t>
+  </si>
+  <si>
+    <t>[[3137, 5], [8, 16]]</t>
+  </si>
+  <si>
+    <t>[[3158, 1], [7, 0]]</t>
+  </si>
+  <si>
+    <t>[[3134, 11], [11, 10]]</t>
+  </si>
+  <si>
+    <t>[[3104, 56], [53, 73]]</t>
+  </si>
+  <si>
+    <t>[[3214, 28], [21, 23]]</t>
+  </si>
+  <si>
+    <t>[[3208, 22], [25, 31]]</t>
+  </si>
+  <si>
+    <t>[[3275, 7], [1, 3]]</t>
+  </si>
+  <si>
+    <t>[[3235, 12], [15, 24]]</t>
+  </si>
+  <si>
+    <t>[[3438, 10], [6, 23]]</t>
+  </si>
+  <si>
+    <t>[[3284, 57], [33, 103]]</t>
+  </si>
+  <si>
+    <t>[[3450, 2], [14, 11]]</t>
+  </si>
+  <si>
+    <t>[[3421, 13], [16, 27]]</t>
+  </si>
+  <si>
+    <t>[[3386, 34], [11, 46]]</t>
+  </si>
+  <si>
+    <t>[[2947, 41], [22, 39]]</t>
+  </si>
+  <si>
+    <t>[[2856, 56], [54, 83]]</t>
+  </si>
+  <si>
+    <t>[[2932, 22], [56, 39]]</t>
   </si>
 </sst>
 </file>
@@ -1351,10 +1532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E09BEF8E-45BB-4FF8-8E9F-14976C2DFCDC}">
-  <dimension ref="A5:D10"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1362,87 +1543,105 @@
     <col min="1" max="1" width="17.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B3" s="4">
+        <f>bert!AE$2</f>
+        <v>0.5853976531942634</v>
+      </c>
+      <c r="C3" s="4">
+        <f>bert!AF$2</f>
+        <v>0.59893285904846594</v>
+      </c>
+      <c r="D3" s="4">
+        <f>bert!AG$2</f>
+        <v>0.59208791208791212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B4" s="2">
+        <f>biobert!AE$2</f>
+        <v>0.55322646937936704</v>
+      </c>
+      <c r="C4" s="2">
+        <f>biobert!AF$2</f>
+        <v>0.59848821698532684</v>
+      </c>
+      <c r="D4" s="2">
+        <f>biobert!AG$2</f>
+        <v>0.57496796240922687</v>
+      </c>
+    </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
-        <v>310</v>
-      </c>
-      <c r="C5" t="s">
-        <v>311</v>
-      </c>
-      <c r="D5" t="s">
-        <v>312</v>
+      <c r="A5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B5" s="4">
+        <f>electra!AE$2</f>
+        <v>0.59950960359624028</v>
+      </c>
+      <c r="C5" s="3">
+        <f>electra!AF$2</f>
+        <v>0.65228990662516673</v>
+      </c>
+      <c r="D5" s="4">
+        <f>electra!AG$2</f>
+        <v>0.62478705281090285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>340</v>
+      </c>
+      <c r="B6" s="4">
+        <f>'electra-large'!AE$2</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
+        <f>'electra-large'!AF$2</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <f>'electra-large'!AG$2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B7" s="3">
-        <f>bert!AE$2</f>
-        <v>0.5853976531942634</v>
-      </c>
-      <c r="C7" s="3">
-        <f>bert!AF$2</f>
-        <v>0.59893285904846594</v>
+        <f>'covid-twitter-bert'!AE$2</f>
+        <v>0.63290004482294937</v>
+      </c>
+      <c r="C7" s="2">
+        <f>'covid-twitter-bert'!AF$2</f>
+        <v>0.62783459315251222</v>
       </c>
       <c r="D7" s="3">
-        <f>bert!AG$2</f>
-        <v>0.59208791208791212</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>307</v>
-      </c>
-      <c r="B8" s="2">
-        <f>biobert!AE$2</f>
-        <v>0.55322646937936704</v>
-      </c>
-      <c r="C8" s="2">
-        <f>biobert!AF$2</f>
-        <v>0.59848821698532684</v>
-      </c>
-      <c r="D8" s="2">
-        <f>biobert!AG$2</f>
-        <v>0.57496796240922687</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>308</v>
-      </c>
-      <c r="B9" s="2">
-        <f>'covid-twitter-bert'!AE$2</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="2">
-        <f>'covid-twitter-bert'!AF$2</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
         <f>'covid-twitter-bert'!AG$2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>309</v>
-      </c>
-      <c r="B10" s="2">
-        <f>electra!AE$2</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="2">
-        <f>electra!AF$2</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
-        <f>electra!AG$2</f>
-        <v>0</v>
+        <v>0.63035714285714284</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1516,11 +1715,11 @@
       </c>
       <c r="G2" s="4">
         <f>'covid-twitter-bert'!$Y2</f>
-        <v>0</v>
+        <v>0.77419354838709598</v>
       </c>
       <c r="H2" s="4">
         <f>electra!$Y2</f>
-        <v>0</v>
+        <v>0.66666666666666596</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
@@ -1548,11 +1747,11 @@
       </c>
       <c r="G3" s="4">
         <f>'covid-twitter-bert'!$Y3</f>
-        <v>0</v>
+        <v>0.44615384615384601</v>
       </c>
       <c r="H3" s="4">
         <f>electra!$Y3</f>
-        <v>0</v>
+        <v>0.32258064516128998</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
@@ -1580,11 +1779,11 @@
       </c>
       <c r="G4" s="4">
         <f>'covid-twitter-bert'!$Y4</f>
-        <v>0</v>
+        <v>0.46451612903225797</v>
       </c>
       <c r="H4" s="4">
         <f>electra!$Y4</f>
-        <v>0</v>
+        <v>0.47567567567567498</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
@@ -1612,11 +1811,11 @@
       </c>
       <c r="G5" s="4">
         <f>'covid-twitter-bert'!$Y5</f>
-        <v>0</v>
+        <v>0.66412213740458004</v>
       </c>
       <c r="H5" s="4">
         <f>electra!$Y5</f>
-        <v>0</v>
+        <v>0.67346938775510201</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
@@ -1644,11 +1843,11 @@
       </c>
       <c r="G6" s="4">
         <f>'covid-twitter-bert'!$Y6</f>
-        <v>0</v>
+        <v>0.6875</v>
       </c>
       <c r="H6" s="4">
         <f>electra!$Y6</f>
-        <v>0</v>
+        <v>0.66666666666666596</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
@@ -1676,11 +1875,11 @@
       </c>
       <c r="G7" s="4">
         <f>'covid-twitter-bert'!$Y7</f>
-        <v>0</v>
+        <v>0.76126126126126104</v>
       </c>
       <c r="H7" s="4">
         <f>electra!$Y7</f>
-        <v>0</v>
+        <v>0.76735459662288896</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
@@ -1708,11 +1907,11 @@
       </c>
       <c r="G8" s="4">
         <f>'covid-twitter-bert'!$Y8</f>
-        <v>0</v>
+        <v>0.452380952380952</v>
       </c>
       <c r="H8" s="4">
         <f>electra!$Y8</f>
-        <v>0</v>
+        <v>0.430379746835443</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
@@ -1740,11 +1939,11 @@
       </c>
       <c r="G9" s="4">
         <f>'covid-twitter-bert'!$Y9</f>
-        <v>0</v>
+        <v>0.53333333333333299</v>
       </c>
       <c r="H9" s="4">
         <f>electra!$Y9</f>
-        <v>0</v>
+        <v>0.57142857142857095</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
@@ -1772,11 +1971,11 @@
       </c>
       <c r="G10" s="4">
         <f>'covid-twitter-bert'!$Y10</f>
-        <v>0</v>
+        <v>0.50909090909090904</v>
       </c>
       <c r="H10" s="4">
         <f>electra!$Y10</f>
-        <v>0</v>
+        <v>0.46153846153846101</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
@@ -1804,11 +2003,11 @@
       </c>
       <c r="G11" s="4">
         <f>'covid-twitter-bert'!$Y11</f>
-        <v>0</v>
+        <v>0.59905660377358405</v>
       </c>
       <c r="H11" s="4">
         <f>electra!$Y11</f>
-        <v>0</v>
+        <v>0.62034739454094201</v>
       </c>
     </row>
     <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
@@ -1868,7 +2067,7 @@
       </c>
       <c r="G13" s="4">
         <f>'covid-twitter-bert'!$Y13</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="H13" s="4">
         <f>electra!$Y13</f>
@@ -1900,11 +2099,11 @@
       </c>
       <c r="G14" s="4">
         <f>'covid-twitter-bert'!$Y14</f>
-        <v>0</v>
+        <v>0.65217391304347805</v>
       </c>
       <c r="H14" s="4">
         <f>electra!$Y14</f>
-        <v>0</v>
+        <v>0.59340659340659296</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
@@ -1932,11 +2131,11 @@
       </c>
       <c r="G15" s="4">
         <f>'covid-twitter-bert'!$Y15</f>
-        <v>0</v>
+        <v>0.60465116279069697</v>
       </c>
       <c r="H15" s="4">
         <f>electra!$Y15</f>
-        <v>0</v>
+        <v>0.58064516129032195</v>
       </c>
     </row>
     <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
@@ -1996,11 +2195,11 @@
       </c>
       <c r="G17" s="4">
         <f>'covid-twitter-bert'!$Y17</f>
-        <v>0</v>
+        <v>0.68259385665529004</v>
       </c>
       <c r="H17" s="4">
         <f>electra!$Y17</f>
-        <v>0</v>
+        <v>0.65084745762711804</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
@@ -2028,11 +2227,11 @@
       </c>
       <c r="G18" s="4">
         <f>'covid-twitter-bert'!$Y18</f>
-        <v>0</v>
+        <v>0.71111111111111103</v>
       </c>
       <c r="H18" s="4">
         <f>electra!$Y18</f>
-        <v>0</v>
+        <v>0.62222222222222201</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
@@ -2064,7 +2263,7 @@
       </c>
       <c r="H19" s="4">
         <f>electra!$Y19</f>
-        <v>0</v>
+        <v>0.16666666666666599</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
@@ -2092,11 +2291,11 @@
       </c>
       <c r="G20" s="4">
         <f>'covid-twitter-bert'!$Y20</f>
-        <v>0</v>
+        <v>0.439024390243902</v>
       </c>
       <c r="H20" s="4">
         <f>electra!$Y20</f>
-        <v>0</v>
+        <v>0.45714285714285702</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
@@ -2124,11 +2323,11 @@
       </c>
       <c r="G21" s="4">
         <f>'covid-twitter-bert'!$Y21</f>
-        <v>0</v>
+        <v>0.57261410788381695</v>
       </c>
       <c r="H21" s="4">
         <f>electra!$Y21</f>
-        <v>0</v>
+        <v>0.56410256410256399</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
@@ -2156,11 +2355,11 @@
       </c>
       <c r="G22" s="4">
         <f>'covid-twitter-bert'!$Y22</f>
-        <v>0</v>
+        <v>0.494623655913978</v>
       </c>
       <c r="H22" s="4">
         <f>electra!$Y22</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
@@ -2188,11 +2387,11 @@
       </c>
       <c r="G23" s="4">
         <f>'covid-twitter-bert'!$Y23</f>
-        <v>0</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="H23" s="4">
         <f>electra!$Y23</f>
-        <v>0</v>
+        <v>0.507692307692307</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
@@ -2220,7 +2419,7 @@
       </c>
       <c r="G24" s="4">
         <f>'covid-twitter-bert'!$Y24</f>
-        <v>0</v>
+        <v>0.46153846153846101</v>
       </c>
       <c r="H24" s="4">
         <f>electra!$Y24</f>
@@ -2252,11 +2451,11 @@
       </c>
       <c r="G25" s="4">
         <f>'covid-twitter-bert'!$Y25</f>
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="H25" s="4">
         <f>electra!$Y25</f>
-        <v>0</v>
+        <v>0.61971830985915499</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
@@ -2284,11 +2483,11 @@
       </c>
       <c r="G26" s="4">
         <f>'covid-twitter-bert'!$Y26</f>
-        <v>0</v>
+        <v>0.73015873015873001</v>
       </c>
       <c r="H26" s="4">
         <f>electra!$Y26</f>
-        <v>0</v>
+        <v>0.80645161290322498</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
@@ -2316,11 +2515,11 @@
       </c>
       <c r="G27" s="4">
         <f>'covid-twitter-bert'!$Y27</f>
-        <v>0</v>
+        <v>0.69648562300319405</v>
       </c>
       <c r="H27" s="4">
         <f>electra!$Y27</f>
-        <v>0</v>
+        <v>0.70503597122302097</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
@@ -2348,11 +2547,11 @@
       </c>
       <c r="G28" s="4">
         <f>'covid-twitter-bert'!$Y28</f>
-        <v>0</v>
+        <v>0.65116279069767402</v>
       </c>
       <c r="H28" s="4">
         <f>electra!$Y28</f>
-        <v>0</v>
+        <v>0.42857142857142799</v>
       </c>
     </row>
     <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
@@ -2412,11 +2611,11 @@
       </c>
       <c r="G30" s="4">
         <f>'covid-twitter-bert'!$Y30</f>
-        <v>0</v>
+        <v>0.65060240963855398</v>
       </c>
       <c r="H30" s="4">
         <f>electra!$Y30</f>
-        <v>0</v>
+        <v>0.57534246575342396</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
@@ -2444,11 +2643,11 @@
       </c>
       <c r="G31" s="4">
         <f>'covid-twitter-bert'!$Y31</f>
-        <v>0</v>
+        <v>0.63888888888888895</v>
       </c>
       <c r="H31" s="4">
         <f>electra!$Y31</f>
-        <v>0</v>
+        <v>0.67272727272727195</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
@@ -2476,11 +2675,11 @@
       </c>
       <c r="G32" s="4">
         <f>'covid-twitter-bert'!$Y32</f>
-        <v>0</v>
+        <v>0.54666666666666597</v>
       </c>
       <c r="H32" s="4">
         <f>electra!$Y32</f>
-        <v>0</v>
+        <v>0.52112676056338003</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
@@ -2508,11 +2707,11 @@
       </c>
       <c r="G33" s="4">
         <f>'covid-twitter-bert'!$Y33</f>
-        <v>0</v>
+        <v>0.61052631578947303</v>
       </c>
       <c r="H33" s="4">
         <f>electra!$Y33</f>
-        <v>0</v>
+        <v>0.66425992779783305</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
@@ -2540,11 +2739,11 @@
       </c>
       <c r="G34" s="4">
         <f>'covid-twitter-bert'!$Y34</f>
-        <v>0</v>
+        <v>0.520231213872832</v>
       </c>
       <c r="H34" s="4">
         <f>electra!$Y34</f>
-        <v>0</v>
+        <v>0.46666666666666601</v>
       </c>
     </row>
   </sheetData>
@@ -2556,7 +2755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{645B2E46-A973-4F43-A440-0DFDA26D52C4}">
   <dimension ref="A1:AG34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AE12" sqref="AE12"/>
     </sheetView>
   </sheetViews>
@@ -2661,13 +2860,13 @@
         <v>30</v>
       </c>
       <c r="AE1" t="s">
+        <v>309</v>
+      </c>
+      <c r="AF1" t="s">
         <v>310</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>311</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.45">
@@ -5728,7 +5927,7 @@
   <dimension ref="A1:AG34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AJ7" sqref="AJ7"/>
+      <selection activeCell="AE1" sqref="AE1:AG2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5832,13 +6031,13 @@
         <v>30</v>
       </c>
       <c r="AE1" t="s">
+        <v>309</v>
+      </c>
+      <c r="AF1" t="s">
         <v>310</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>311</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.45">
@@ -8896,6 +9095,6348 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40168F0E-FC16-4362-B18F-2CE5356F0709}">
+  <dimension ref="A1:AG34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="AG3" sqref="AG3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="24" width="0" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="9.06640625" style="1"/>
+    <col min="26" max="30" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>309</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G2">
+        <v>0.99841799964844402</v>
+      </c>
+      <c r="H2" t="s">
+        <v>342</v>
+      </c>
+      <c r="I2">
+        <v>0.68965517241379304</v>
+      </c>
+      <c r="J2">
+        <v>588</v>
+      </c>
+      <c r="K2">
+        <v>98.639455782312893</v>
+      </c>
+      <c r="L2">
+        <v>98.639455782312893</v>
+      </c>
+      <c r="M2">
+        <v>17</v>
+      </c>
+      <c r="N2">
+        <v>58.823529411764703</v>
+      </c>
+      <c r="O2">
+        <v>58.823529411764703</v>
+      </c>
+      <c r="P2">
+        <v>0.2</v>
+      </c>
+      <c r="Q2">
+        <v>16</v>
+      </c>
+      <c r="R2">
+        <v>0.77419354838709598</v>
+      </c>
+      <c r="S2">
+        <v>0.8</v>
+      </c>
+      <c r="T2">
+        <v>0.75</v>
+      </c>
+      <c r="U2">
+        <v>12</v>
+      </c>
+      <c r="V2">
+        <v>3</v>
+      </c>
+      <c r="W2">
+        <v>4</v>
+      </c>
+      <c r="X2">
+        <v>18</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>0.77419354838709598</v>
+      </c>
+      <c r="Z2">
+        <v>0.92307692307692302</v>
+      </c>
+      <c r="AA2">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="AB2">
+        <v>12</v>
+      </c>
+      <c r="AC2">
+        <v>1</v>
+      </c>
+      <c r="AD2">
+        <v>6</v>
+      </c>
+      <c r="AE2" s="2">
+        <f>SUM(AB2:AB34)/(SUM(AB2:AB34)+SUM(AC2:AC34))</f>
+        <v>0.63290004482294937</v>
+      </c>
+      <c r="AF2" s="2">
+        <f t="array" ref="AF2">SUM(AB2:AB34)/(SUM(AB2:AB34)+SUM(AD2:AD34))</f>
+        <v>0.62783459315251222</v>
+      </c>
+      <c r="AG2" s="2">
+        <f>2*(AE2*AF2)/(AE2+AF2)</f>
+        <v>0.63035714285714284</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G3">
+        <v>0.98734399718755494</v>
+      </c>
+      <c r="H3" t="s">
+        <v>343</v>
+      </c>
+      <c r="I3">
+        <v>0.37931034482758602</v>
+      </c>
+      <c r="J3">
+        <v>594</v>
+      </c>
+      <c r="K3">
+        <v>89.730639730639695</v>
+      </c>
+      <c r="L3">
+        <v>90.095398428731698</v>
+      </c>
+      <c r="M3">
+        <v>57</v>
+      </c>
+      <c r="N3">
+        <v>38.5964912280701</v>
+      </c>
+      <c r="O3">
+        <v>42.397660818713398</v>
+      </c>
+      <c r="P3">
+        <v>0.1</v>
+      </c>
+      <c r="Q3">
+        <v>27</v>
+      </c>
+      <c r="R3">
+        <v>0.55172413793103403</v>
+      </c>
+      <c r="S3">
+        <v>0.51612903225806395</v>
+      </c>
+      <c r="T3">
+        <v>0.592592592592592</v>
+      </c>
+      <c r="U3">
+        <v>16</v>
+      </c>
+      <c r="V3">
+        <v>15</v>
+      </c>
+      <c r="W3">
+        <v>11</v>
+      </c>
+      <c r="X3">
+        <v>62</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>0.44615384615384601</v>
+      </c>
+      <c r="Z3">
+        <v>0.42647058823529399</v>
+      </c>
+      <c r="AA3">
+        <v>0.46774193548387</v>
+      </c>
+      <c r="AB3">
+        <v>29</v>
+      </c>
+      <c r="AC3">
+        <v>39</v>
+      </c>
+      <c r="AD3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E4" t="s">
+        <v>228</v>
+      </c>
+      <c r="F4" t="s">
+        <v>179</v>
+      </c>
+      <c r="G4">
+        <v>0.98558621901915899</v>
+      </c>
+      <c r="H4" t="s">
+        <v>344</v>
+      </c>
+      <c r="I4">
+        <v>0.47435897435897401</v>
+      </c>
+      <c r="J4">
+        <v>591</v>
+      </c>
+      <c r="K4">
+        <v>87.648054145515999</v>
+      </c>
+      <c r="L4">
+        <v>87.963902989283696</v>
+      </c>
+      <c r="M4">
+        <v>103</v>
+      </c>
+      <c r="N4">
+        <v>36.893203883495097</v>
+      </c>
+      <c r="O4">
+        <v>38.705501618122902</v>
+      </c>
+      <c r="P4">
+        <v>0.6</v>
+      </c>
+      <c r="Q4">
+        <v>47</v>
+      </c>
+      <c r="R4">
+        <v>0.582278481012658</v>
+      </c>
+      <c r="S4">
+        <v>0.71875</v>
+      </c>
+      <c r="T4">
+        <v>0.489361702127659</v>
+      </c>
+      <c r="U4">
+        <v>23</v>
+      </c>
+      <c r="V4">
+        <v>9</v>
+      </c>
+      <c r="W4">
+        <v>24</v>
+      </c>
+      <c r="X4">
+        <v>103</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>0.46451612903225797</v>
+      </c>
+      <c r="Z4">
+        <v>0.69230769230769196</v>
+      </c>
+      <c r="AA4">
+        <v>0.34951456310679602</v>
+      </c>
+      <c r="AB4">
+        <v>36</v>
+      </c>
+      <c r="AC4">
+        <v>16</v>
+      </c>
+      <c r="AD4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D5" t="s">
+        <v>227</v>
+      </c>
+      <c r="E5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F5" t="s">
+        <v>179</v>
+      </c>
+      <c r="G5">
+        <v>0.98470732993496202</v>
+      </c>
+      <c r="H5" t="s">
+        <v>345</v>
+      </c>
+      <c r="I5">
+        <v>0.65060240963855398</v>
+      </c>
+      <c r="J5">
+        <v>605</v>
+      </c>
+      <c r="K5">
+        <v>88.429752066115697</v>
+      </c>
+      <c r="L5">
+        <v>89.899562329314406</v>
+      </c>
+      <c r="M5">
+        <v>123</v>
+      </c>
+      <c r="N5">
+        <v>66.6666666666666</v>
+      </c>
+      <c r="O5">
+        <v>73.896221213294396</v>
+      </c>
+      <c r="P5">
+        <v>0.1</v>
+      </c>
+      <c r="Q5">
+        <v>67</v>
+      </c>
+      <c r="R5">
+        <v>0.63157894736842102</v>
+      </c>
+      <c r="S5">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="T5">
+        <v>0.62686567164179097</v>
+      </c>
+      <c r="U5">
+        <v>42</v>
+      </c>
+      <c r="V5">
+        <v>24</v>
+      </c>
+      <c r="W5">
+        <v>25</v>
+      </c>
+      <c r="X5">
+        <v>123</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>0.66412213740458004</v>
+      </c>
+      <c r="Z5">
+        <v>0.62589928057553901</v>
+      </c>
+      <c r="AA5">
+        <v>0.707317073170731</v>
+      </c>
+      <c r="AB5">
+        <v>87</v>
+      </c>
+      <c r="AC5">
+        <v>52</v>
+      </c>
+      <c r="AD5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D6" t="s">
+        <v>227</v>
+      </c>
+      <c r="E6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F6" t="s">
+        <v>179</v>
+      </c>
+      <c r="G6">
+        <v>0.99507822112849298</v>
+      </c>
+      <c r="H6" t="s">
+        <v>346</v>
+      </c>
+      <c r="I6">
+        <v>0.688888888888888</v>
+      </c>
+      <c r="J6">
+        <v>595</v>
+      </c>
+      <c r="K6">
+        <v>96.806722689075599</v>
+      </c>
+      <c r="L6">
+        <v>97.392957182873104</v>
+      </c>
+      <c r="M6">
+        <v>44</v>
+      </c>
+      <c r="N6">
+        <v>70.454545454545396</v>
+      </c>
+      <c r="O6">
+        <v>78.382034632034603</v>
+      </c>
+      <c r="P6">
+        <v>0.2</v>
+      </c>
+      <c r="Q6">
+        <v>29</v>
+      </c>
+      <c r="R6">
+        <v>0.69090909090909003</v>
+      </c>
+      <c r="S6">
+        <v>0.73076923076922995</v>
+      </c>
+      <c r="T6">
+        <v>0.65517241379310298</v>
+      </c>
+      <c r="U6">
+        <v>19</v>
+      </c>
+      <c r="V6">
+        <v>7</v>
+      </c>
+      <c r="W6">
+        <v>10</v>
+      </c>
+      <c r="X6">
+        <v>45</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="Z6">
+        <v>0.64705882352941102</v>
+      </c>
+      <c r="AA6">
+        <v>0.73333333333333295</v>
+      </c>
+      <c r="AB6">
+        <v>33</v>
+      </c>
+      <c r="AC6">
+        <v>18</v>
+      </c>
+      <c r="AD6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D7" t="s">
+        <v>227</v>
+      </c>
+      <c r="E7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G7">
+        <v>0.96255932501318298</v>
+      </c>
+      <c r="H7" t="s">
+        <v>347</v>
+      </c>
+      <c r="I7">
+        <v>0.76359600443951103</v>
+      </c>
+      <c r="J7">
+        <v>641</v>
+      </c>
+      <c r="K7">
+        <v>75.195007800311998</v>
+      </c>
+      <c r="L7">
+        <v>79.646036923728005</v>
+      </c>
+      <c r="M7">
+        <v>493</v>
+      </c>
+      <c r="N7">
+        <v>69.979716024340703</v>
+      </c>
+      <c r="O7">
+        <v>75.7669567304456</v>
+      </c>
+      <c r="P7">
+        <v>0.7</v>
+      </c>
+      <c r="Q7">
+        <v>300</v>
+      </c>
+      <c r="R7">
+        <v>0.74681238615664802</v>
+      </c>
+      <c r="S7">
+        <v>0.82329317269076296</v>
+      </c>
+      <c r="T7">
+        <v>0.68333333333333302</v>
+      </c>
+      <c r="U7">
+        <v>205</v>
+      </c>
+      <c r="V7">
+        <v>44</v>
+      </c>
+      <c r="W7">
+        <v>95</v>
+      </c>
+      <c r="X7">
+        <v>485</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>0.76126126126126104</v>
+      </c>
+      <c r="Z7">
+        <v>0.83870967741935398</v>
+      </c>
+      <c r="AA7">
+        <v>0.69690721649484499</v>
+      </c>
+      <c r="AB7">
+        <v>338</v>
+      </c>
+      <c r="AC7">
+        <v>65</v>
+      </c>
+      <c r="AD7">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E8" t="s">
+        <v>228</v>
+      </c>
+      <c r="F8" t="s">
+        <v>179</v>
+      </c>
+      <c r="G8">
+        <v>0.99173844260854205</v>
+      </c>
+      <c r="H8" t="s">
+        <v>348</v>
+      </c>
+      <c r="I8">
+        <v>0.48351648351648302</v>
+      </c>
+      <c r="J8">
+        <v>598</v>
+      </c>
+      <c r="K8">
+        <v>93.311036789297603</v>
+      </c>
+      <c r="L8">
+        <v>93.8888888888888</v>
+      </c>
+      <c r="M8">
+        <v>49</v>
+      </c>
+      <c r="N8">
+        <v>44.8979591836734</v>
+      </c>
+      <c r="O8">
+        <v>51.950113378684797</v>
+      </c>
+      <c r="P8">
+        <v>0.8</v>
+      </c>
+      <c r="Q8">
+        <v>35</v>
+      </c>
+      <c r="R8">
+        <v>0.50793650793650702</v>
+      </c>
+      <c r="S8">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="T8">
+        <v>0.45714285714285702</v>
+      </c>
+      <c r="U8">
+        <v>16</v>
+      </c>
+      <c r="V8">
+        <v>12</v>
+      </c>
+      <c r="W8">
+        <v>19</v>
+      </c>
+      <c r="X8">
+        <v>46</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>0.452380952380952</v>
+      </c>
+      <c r="Z8">
+        <v>0.5</v>
+      </c>
+      <c r="AA8">
+        <v>0.41304347826086901</v>
+      </c>
+      <c r="AB8">
+        <v>19</v>
+      </c>
+      <c r="AC8">
+        <v>19</v>
+      </c>
+      <c r="AD8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D9" t="s">
+        <v>227</v>
+      </c>
+      <c r="E9" t="s">
+        <v>228</v>
+      </c>
+      <c r="F9" t="s">
+        <v>179</v>
+      </c>
+      <c r="G9">
+        <v>0.99753911056424605</v>
+      </c>
+      <c r="H9" t="s">
+        <v>349</v>
+      </c>
+      <c r="I9">
+        <v>0.53333333333333299</v>
+      </c>
+      <c r="J9">
+        <v>591</v>
+      </c>
+      <c r="K9">
+        <v>98.307952622673398</v>
+      </c>
+      <c r="L9">
+        <v>98.547659334461301</v>
+      </c>
+      <c r="M9">
+        <v>12</v>
+      </c>
+      <c r="N9">
+        <v>66.6666666666666</v>
+      </c>
+      <c r="O9">
+        <v>78.4722222222222</v>
+      </c>
+      <c r="P9">
+        <v>0.4</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>13</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>0.53333333333333299</v>
+      </c>
+      <c r="Z9">
+        <v>0.47058823529411697</v>
+      </c>
+      <c r="AA9">
+        <v>0.61538461538461497</v>
+      </c>
+      <c r="AB9">
+        <v>8</v>
+      </c>
+      <c r="AC9">
+        <v>9</v>
+      </c>
+      <c r="AD9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" t="s">
+        <v>226</v>
+      </c>
+      <c r="D10" t="s">
+        <v>227</v>
+      </c>
+      <c r="E10" t="s">
+        <v>228</v>
+      </c>
+      <c r="F10" t="s">
+        <v>179</v>
+      </c>
+      <c r="G10">
+        <v>0.99525399894533295</v>
+      </c>
+      <c r="H10" t="s">
+        <v>350</v>
+      </c>
+      <c r="I10">
+        <v>0.50909090909090904</v>
+      </c>
+      <c r="J10">
+        <v>590</v>
+      </c>
+      <c r="K10">
+        <v>95.593220338983002</v>
+      </c>
+      <c r="L10">
+        <v>95.593220338983002</v>
+      </c>
+      <c r="M10">
+        <v>29</v>
+      </c>
+      <c r="N10">
+        <v>48.275862068965502</v>
+      </c>
+      <c r="O10">
+        <v>48.275862068965502</v>
+      </c>
+      <c r="P10">
+        <v>0.5</v>
+      </c>
+      <c r="Q10">
+        <v>20</v>
+      </c>
+      <c r="R10">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="S10">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="T10">
+        <v>0.6</v>
+      </c>
+      <c r="U10">
+        <v>12</v>
+      </c>
+      <c r="V10">
+        <v>10</v>
+      </c>
+      <c r="W10">
+        <v>8</v>
+      </c>
+      <c r="X10">
+        <v>28</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>0.50909090909090904</v>
+      </c>
+      <c r="Z10">
+        <v>0.51851851851851805</v>
+      </c>
+      <c r="AA10">
+        <v>0.5</v>
+      </c>
+      <c r="AB10">
+        <v>14</v>
+      </c>
+      <c r="AC10">
+        <v>13</v>
+      </c>
+      <c r="AD10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" t="s">
+        <v>226</v>
+      </c>
+      <c r="D11" t="s">
+        <v>227</v>
+      </c>
+      <c r="E11" t="s">
+        <v>228</v>
+      </c>
+      <c r="F11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G11">
+        <v>0.967481103884689</v>
+      </c>
+      <c r="H11" t="s">
+        <v>351</v>
+      </c>
+      <c r="I11">
+        <v>0.58239277652370103</v>
+      </c>
+      <c r="J11">
+        <v>659</v>
+      </c>
+      <c r="K11">
+        <v>74.962063732928598</v>
+      </c>
+      <c r="L11">
+        <v>77.916636558518206</v>
+      </c>
+      <c r="M11">
+        <v>244</v>
+      </c>
+      <c r="N11">
+        <v>54.0983606557377</v>
+      </c>
+      <c r="O11">
+        <v>62.078129065833899</v>
+      </c>
+      <c r="P11">
+        <v>0.8</v>
+      </c>
+      <c r="Q11">
+        <v>110</v>
+      </c>
+      <c r="R11">
+        <v>0.63076923076922997</v>
+      </c>
+      <c r="S11">
+        <v>0.54666666666666597</v>
+      </c>
+      <c r="T11">
+        <v>0.74545454545454504</v>
+      </c>
+      <c r="U11">
+        <v>82</v>
+      </c>
+      <c r="V11">
+        <v>68</v>
+      </c>
+      <c r="W11">
+        <v>28</v>
+      </c>
+      <c r="X11">
+        <v>181</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>0.59905660377358405</v>
+      </c>
+      <c r="Z11">
+        <v>0.52263374485596703</v>
+      </c>
+      <c r="AA11">
+        <v>0.70165745856353501</v>
+      </c>
+      <c r="AB11">
+        <v>127</v>
+      </c>
+      <c r="AC11">
+        <v>116</v>
+      </c>
+      <c r="AD11">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>239</v>
+      </c>
+      <c r="D12" t="s">
+        <v>240</v>
+      </c>
+      <c r="E12" t="s">
+        <v>241</v>
+      </c>
+      <c r="F12" t="s">
+        <v>179</v>
+      </c>
+      <c r="G12">
+        <v>0.99905243209096595</v>
+      </c>
+      <c r="H12" t="s">
+        <v>242</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>282</v>
+      </c>
+      <c r="K12">
+        <v>98.936170212765902</v>
+      </c>
+      <c r="L12">
+        <v>98.936170212765902</v>
+      </c>
+      <c r="M12">
+        <v>3</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0.5</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>1</v>
+      </c>
+      <c r="X12">
+        <v>3</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>239</v>
+      </c>
+      <c r="D13" t="s">
+        <v>240</v>
+      </c>
+      <c r="E13" t="s">
+        <v>241</v>
+      </c>
+      <c r="F13" t="s">
+        <v>179</v>
+      </c>
+      <c r="G13">
+        <v>0.99557801642451005</v>
+      </c>
+      <c r="H13" t="s">
+        <v>352</v>
+      </c>
+      <c r="I13">
+        <v>0.125</v>
+      </c>
+      <c r="J13">
+        <v>282</v>
+      </c>
+      <c r="K13">
+        <v>95.390070921985796</v>
+      </c>
+      <c r="L13">
+        <v>95.390070921985796</v>
+      </c>
+      <c r="M13">
+        <v>10</v>
+      </c>
+      <c r="N13">
+        <v>10</v>
+      </c>
+      <c r="O13">
+        <v>10</v>
+      </c>
+      <c r="P13">
+        <v>0.5</v>
+      </c>
+      <c r="Q13">
+        <v>7</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>1</v>
+      </c>
+      <c r="W13">
+        <v>7</v>
+      </c>
+      <c r="X13">
+        <v>11</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="Z13">
+        <v>0.2</v>
+      </c>
+      <c r="AA13">
+        <v>9.0909090909090898E-2</v>
+      </c>
+      <c r="AB13">
+        <v>1</v>
+      </c>
+      <c r="AC13">
+        <v>4</v>
+      </c>
+      <c r="AD13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>239</v>
+      </c>
+      <c r="D14" t="s">
+        <v>240</v>
+      </c>
+      <c r="E14" t="s">
+        <v>241</v>
+      </c>
+      <c r="F14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G14">
+        <v>0.99020846493998704</v>
+      </c>
+      <c r="H14" t="s">
+        <v>353</v>
+      </c>
+      <c r="I14">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="J14">
+        <v>287</v>
+      </c>
+      <c r="K14">
+        <v>90.940766550522596</v>
+      </c>
+      <c r="L14">
+        <v>91.790553619821907</v>
+      </c>
+      <c r="M14">
+        <v>49</v>
+      </c>
+      <c r="N14">
+        <v>63.265306122448898</v>
+      </c>
+      <c r="O14">
+        <v>68.242630385487502</v>
+      </c>
+      <c r="P14">
+        <v>0.7</v>
+      </c>
+      <c r="Q14">
+        <v>16</v>
+      </c>
+      <c r="R14">
+        <v>0.70270270270270196</v>
+      </c>
+      <c r="S14">
+        <v>0.61904761904761896</v>
+      </c>
+      <c r="T14">
+        <v>0.8125</v>
+      </c>
+      <c r="U14">
+        <v>13</v>
+      </c>
+      <c r="V14">
+        <v>8</v>
+      </c>
+      <c r="W14">
+        <v>3</v>
+      </c>
+      <c r="X14">
+        <v>51</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>0.65217391304347805</v>
+      </c>
+      <c r="Z14">
+        <v>0.73170731707317005</v>
+      </c>
+      <c r="AA14">
+        <v>0.58823529411764697</v>
+      </c>
+      <c r="AB14">
+        <v>30</v>
+      </c>
+      <c r="AC14">
+        <v>11</v>
+      </c>
+      <c r="AD14">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
+        <v>239</v>
+      </c>
+      <c r="D15" t="s">
+        <v>240</v>
+      </c>
+      <c r="E15" t="s">
+        <v>241</v>
+      </c>
+      <c r="F15" t="s">
+        <v>179</v>
+      </c>
+      <c r="G15">
+        <v>0.99431459254579901</v>
+      </c>
+      <c r="H15" t="s">
+        <v>354</v>
+      </c>
+      <c r="I15">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="J15">
+        <v>286</v>
+      </c>
+      <c r="K15">
+        <v>95.104895104895107</v>
+      </c>
+      <c r="L15">
+        <v>95.4778554778554</v>
+      </c>
+      <c r="M15">
+        <v>20</v>
+      </c>
+      <c r="N15">
+        <v>65</v>
+      </c>
+      <c r="O15">
+        <v>70.3333333333333</v>
+      </c>
+      <c r="P15">
+        <v>0.3</v>
+      </c>
+      <c r="Q15">
+        <v>19</v>
+      </c>
+      <c r="R15">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="S15">
+        <v>0.88235294117647001</v>
+      </c>
+      <c r="T15">
+        <v>0.78947368421052599</v>
+      </c>
+      <c r="U15">
+        <v>15</v>
+      </c>
+      <c r="V15">
+        <v>2</v>
+      </c>
+      <c r="W15">
+        <v>4</v>
+      </c>
+      <c r="X15">
+        <v>20</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>0.60465116279069697</v>
+      </c>
+      <c r="Z15">
+        <v>0.56521739130434701</v>
+      </c>
+      <c r="AA15">
+        <v>0.65</v>
+      </c>
+      <c r="AB15">
+        <v>13</v>
+      </c>
+      <c r="AC15">
+        <v>10</v>
+      </c>
+      <c r="AD15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" t="s">
+        <v>239</v>
+      </c>
+      <c r="D16" t="s">
+        <v>240</v>
+      </c>
+      <c r="E16" t="s">
+        <v>241</v>
+      </c>
+      <c r="F16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G16">
+        <v>0.99873657612128797</v>
+      </c>
+      <c r="H16" t="s">
+        <v>355</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>282</v>
+      </c>
+      <c r="K16">
+        <v>98.581560283687907</v>
+      </c>
+      <c r="L16">
+        <v>98.581560283687907</v>
+      </c>
+      <c r="M16">
+        <v>3</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0.5</v>
+      </c>
+      <c r="Q16">
+        <v>6</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>6</v>
+      </c>
+      <c r="X16">
+        <v>3</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>1</v>
+      </c>
+      <c r="AD16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" t="s">
+        <v>239</v>
+      </c>
+      <c r="D17" t="s">
+        <v>240</v>
+      </c>
+      <c r="E17" t="s">
+        <v>241</v>
+      </c>
+      <c r="F17" t="s">
+        <v>179</v>
+      </c>
+      <c r="G17">
+        <v>0.97062539481996202</v>
+      </c>
+      <c r="H17" t="s">
+        <v>356</v>
+      </c>
+      <c r="I17">
+        <v>0.68259385665529004</v>
+      </c>
+      <c r="J17">
+        <v>308</v>
+      </c>
+      <c r="K17">
+        <v>75.649350649350595</v>
+      </c>
+      <c r="L17">
+        <v>79.0277777777777</v>
+      </c>
+      <c r="M17">
+        <v>162</v>
+      </c>
+      <c r="N17">
+        <v>62.345679012345599</v>
+      </c>
+      <c r="O17">
+        <v>68.768861454046601</v>
+      </c>
+      <c r="P17">
+        <v>0.5</v>
+      </c>
+      <c r="Q17">
+        <v>98</v>
+      </c>
+      <c r="R17">
+        <v>0.69724770642201805</v>
+      </c>
+      <c r="S17">
+        <v>0.63333333333333297</v>
+      </c>
+      <c r="T17">
+        <v>0.77551020408163196</v>
+      </c>
+      <c r="U17">
+        <v>76</v>
+      </c>
+      <c r="V17">
+        <v>44</v>
+      </c>
+      <c r="W17">
+        <v>22</v>
+      </c>
+      <c r="X17">
+        <v>148</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>0.68259385665529004</v>
+      </c>
+      <c r="Z17">
+        <v>0.68965517241379304</v>
+      </c>
+      <c r="AA17">
+        <v>0.67567567567567499</v>
+      </c>
+      <c r="AB17">
+        <v>100</v>
+      </c>
+      <c r="AC17">
+        <v>45</v>
+      </c>
+      <c r="AD17">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" t="s">
+        <v>239</v>
+      </c>
+      <c r="D18" t="s">
+        <v>240</v>
+      </c>
+      <c r="E18" t="s">
+        <v>241</v>
+      </c>
+      <c r="F18" t="s">
+        <v>179</v>
+      </c>
+      <c r="G18">
+        <v>0.99589387239418803</v>
+      </c>
+      <c r="H18" t="s">
+        <v>357</v>
+      </c>
+      <c r="I18">
+        <v>0.71111111111111103</v>
+      </c>
+      <c r="J18">
+        <v>284</v>
+      </c>
+      <c r="K18">
+        <v>97.183098591549296</v>
+      </c>
+      <c r="L18">
+        <v>97.3591549295774</v>
+      </c>
+      <c r="M18">
+        <v>22</v>
+      </c>
+      <c r="N18">
+        <v>77.272727272727195</v>
+      </c>
+      <c r="O18">
+        <v>79.545454545454504</v>
+      </c>
+      <c r="P18">
+        <v>0.5</v>
+      </c>
+      <c r="Q18">
+        <v>17</v>
+      </c>
+      <c r="R18">
+        <v>0.60465116279069697</v>
+      </c>
+      <c r="S18">
+        <v>0.5</v>
+      </c>
+      <c r="T18">
+        <v>0.76470588235294101</v>
+      </c>
+      <c r="U18">
+        <v>13</v>
+      </c>
+      <c r="V18">
+        <v>13</v>
+      </c>
+      <c r="W18">
+        <v>4</v>
+      </c>
+      <c r="X18">
+        <v>24</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>0.71111111111111103</v>
+      </c>
+      <c r="Z18">
+        <v>0.76190476190476097</v>
+      </c>
+      <c r="AA18">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="AB18">
+        <v>16</v>
+      </c>
+      <c r="AC18">
+        <v>5</v>
+      </c>
+      <c r="AD18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" t="s">
+        <v>239</v>
+      </c>
+      <c r="D19" t="s">
+        <v>240</v>
+      </c>
+      <c r="E19" t="s">
+        <v>241</v>
+      </c>
+      <c r="F19" t="s">
+        <v>179</v>
+      </c>
+      <c r="G19">
+        <v>0.99747315224257704</v>
+      </c>
+      <c r="H19" t="s">
+        <v>358</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>282</v>
+      </c>
+      <c r="K19">
+        <v>97.872340425531902</v>
+      </c>
+      <c r="L19">
+        <v>97.872340425531902</v>
+      </c>
+      <c r="M19">
+        <v>5</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0.5</v>
+      </c>
+      <c r="Q19">
+        <v>9</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>9</v>
+      </c>
+      <c r="X19">
+        <v>7</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>1</v>
+      </c>
+      <c r="AD19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" t="s">
+        <v>239</v>
+      </c>
+      <c r="D20" t="s">
+        <v>240</v>
+      </c>
+      <c r="E20" t="s">
+        <v>241</v>
+      </c>
+      <c r="F20" t="s">
+        <v>179</v>
+      </c>
+      <c r="G20">
+        <v>0.99305116866708698</v>
+      </c>
+      <c r="H20" t="s">
+        <v>359</v>
+      </c>
+      <c r="I20">
+        <v>0.476190476190476</v>
+      </c>
+      <c r="J20">
+        <v>285</v>
+      </c>
+      <c r="K20">
+        <v>92.982456140350806</v>
+      </c>
+      <c r="L20">
+        <v>93.157894736842096</v>
+      </c>
+      <c r="M20">
+        <v>22</v>
+      </c>
+      <c r="N20">
+        <v>45.454545454545404</v>
+      </c>
+      <c r="O20">
+        <v>47.727272727272698</v>
+      </c>
+      <c r="P20">
+        <v>0.9</v>
+      </c>
+      <c r="Q20">
+        <v>28</v>
+      </c>
+      <c r="R20">
+        <v>0.62962962962962898</v>
+      </c>
+      <c r="S20">
+        <v>0.65384615384615297</v>
+      </c>
+      <c r="T20">
+        <v>0.60714285714285698</v>
+      </c>
+      <c r="U20">
+        <v>17</v>
+      </c>
+      <c r="V20">
+        <v>9</v>
+      </c>
+      <c r="W20">
+        <v>11</v>
+      </c>
+      <c r="X20">
+        <v>22</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>0.439024390243902</v>
+      </c>
+      <c r="Z20">
+        <v>0.47368421052631499</v>
+      </c>
+      <c r="AA20">
+        <v>0.40909090909090901</v>
+      </c>
+      <c r="AB20">
+        <v>9</v>
+      </c>
+      <c r="AC20">
+        <v>10</v>
+      </c>
+      <c r="AD20">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
+        <v>251</v>
+      </c>
+      <c r="D21" t="s">
+        <v>252</v>
+      </c>
+      <c r="E21" t="s">
+        <v>253</v>
+      </c>
+      <c r="F21" t="s">
+        <v>179</v>
+      </c>
+      <c r="G21">
+        <v>0.96682897139379098</v>
+      </c>
+      <c r="H21" t="s">
+        <v>360</v>
+      </c>
+      <c r="I21">
+        <v>0.57254901960784299</v>
+      </c>
+      <c r="J21">
+        <v>308</v>
+      </c>
+      <c r="K21">
+        <v>71.7532467532467</v>
+      </c>
+      <c r="L21">
+        <v>74.042207792207705</v>
+      </c>
+      <c r="M21">
+        <v>144</v>
+      </c>
+      <c r="N21">
+        <v>50.6944444444444</v>
+      </c>
+      <c r="O21">
+        <v>55.5902777777777</v>
+      </c>
+      <c r="P21">
+        <v>0.8</v>
+      </c>
+      <c r="Q21">
+        <v>86</v>
+      </c>
+      <c r="R21">
+        <v>0.61271676300578004</v>
+      </c>
+      <c r="S21">
+        <v>0.60919540229885005</v>
+      </c>
+      <c r="T21">
+        <v>0.61627906976744096</v>
+      </c>
+      <c r="U21">
+        <v>53</v>
+      </c>
+      <c r="V21">
+        <v>34</v>
+      </c>
+      <c r="W21">
+        <v>33</v>
+      </c>
+      <c r="X21">
+        <v>126</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>0.57261410788381695</v>
+      </c>
+      <c r="Z21">
+        <v>0.6</v>
+      </c>
+      <c r="AA21">
+        <v>0.54761904761904701</v>
+      </c>
+      <c r="AB21">
+        <v>69</v>
+      </c>
+      <c r="AC21">
+        <v>46</v>
+      </c>
+      <c r="AD21">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" t="s">
+        <v>251</v>
+      </c>
+      <c r="D22" t="s">
+        <v>252</v>
+      </c>
+      <c r="E22" t="s">
+        <v>253</v>
+      </c>
+      <c r="F22" t="s">
+        <v>179</v>
+      </c>
+      <c r="G22">
+        <v>0.98508825319537396</v>
+      </c>
+      <c r="H22" t="s">
+        <v>361</v>
+      </c>
+      <c r="I22">
+        <v>0.48421052631578898</v>
+      </c>
+      <c r="J22">
+        <v>294</v>
+      </c>
+      <c r="K22">
+        <v>88.435374149659793</v>
+      </c>
+      <c r="L22">
+        <v>89.688208616780003</v>
+      </c>
+      <c r="M22">
+        <v>40</v>
+      </c>
+      <c r="N22">
+        <v>57.5</v>
+      </c>
+      <c r="O22">
+        <v>66.7083333333333</v>
+      </c>
+      <c r="P22">
+        <v>0.9</v>
+      </c>
+      <c r="Q22">
+        <v>31</v>
+      </c>
+      <c r="R22">
+        <v>0.628571428571428</v>
+      </c>
+      <c r="S22">
+        <v>0.56410256410256399</v>
+      </c>
+      <c r="T22">
+        <v>0.70967741935483797</v>
+      </c>
+      <c r="U22">
+        <v>22</v>
+      </c>
+      <c r="V22">
+        <v>17</v>
+      </c>
+      <c r="W22">
+        <v>9</v>
+      </c>
+      <c r="X22">
+        <v>44</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>0.494623655913978</v>
+      </c>
+      <c r="Z22">
+        <v>0.46938775510204001</v>
+      </c>
+      <c r="AA22">
+        <v>0.52272727272727204</v>
+      </c>
+      <c r="AB22">
+        <v>23</v>
+      </c>
+      <c r="AC22">
+        <v>26</v>
+      </c>
+      <c r="AD22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" t="s">
+        <v>147</v>
+      </c>
+      <c r="C23" t="s">
+        <v>251</v>
+      </c>
+      <c r="D23" t="s">
+        <v>252</v>
+      </c>
+      <c r="E23" t="s">
+        <v>253</v>
+      </c>
+      <c r="F23" t="s">
+        <v>179</v>
+      </c>
+      <c r="G23">
+        <v>0.98569689592209297</v>
+      </c>
+      <c r="H23" t="s">
+        <v>362</v>
+      </c>
+      <c r="I23">
+        <v>0.56880733944954098</v>
+      </c>
+      <c r="J23">
+        <v>290</v>
+      </c>
+      <c r="K23">
+        <v>87.931034482758605</v>
+      </c>
+      <c r="L23">
+        <v>88.655172413793096</v>
+      </c>
+      <c r="M23">
+        <v>57</v>
+      </c>
+      <c r="N23">
+        <v>54.385964912280699</v>
+      </c>
+      <c r="O23">
+        <v>58.070175438596401</v>
+      </c>
+      <c r="P23">
+        <v>0.9</v>
+      </c>
+      <c r="Q23">
+        <v>47</v>
+      </c>
+      <c r="R23">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="S23">
+        <v>0.69767441860465096</v>
+      </c>
+      <c r="T23">
+        <v>0.63829787234042501</v>
+      </c>
+      <c r="U23">
+        <v>30</v>
+      </c>
+      <c r="V23">
+        <v>13</v>
+      </c>
+      <c r="W23">
+        <v>17</v>
+      </c>
+      <c r="X23">
+        <v>56</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="Z23">
+        <v>0.65909090909090895</v>
+      </c>
+      <c r="AA23">
+        <v>0.51785714285714202</v>
+      </c>
+      <c r="AB23">
+        <v>29</v>
+      </c>
+      <c r="AC23">
+        <v>15</v>
+      </c>
+      <c r="AD23">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>117</v>
+      </c>
+      <c r="B24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" t="s">
+        <v>251</v>
+      </c>
+      <c r="D24" t="s">
+        <v>252</v>
+      </c>
+      <c r="E24" t="s">
+        <v>253</v>
+      </c>
+      <c r="F24" t="s">
+        <v>179</v>
+      </c>
+      <c r="G24">
+        <v>0.99756542909312196</v>
+      </c>
+      <c r="H24" t="s">
+        <v>363</v>
+      </c>
+      <c r="I24">
+        <v>0.42857142857142799</v>
+      </c>
+      <c r="J24">
+        <v>280</v>
+      </c>
+      <c r="K24">
+        <v>97.142857142857096</v>
+      </c>
+      <c r="L24">
+        <v>97.142857142857096</v>
+      </c>
+      <c r="M24">
+        <v>4</v>
+      </c>
+      <c r="N24">
+        <v>75</v>
+      </c>
+      <c r="O24">
+        <v>75</v>
+      </c>
+      <c r="P24">
+        <v>0.7</v>
+      </c>
+      <c r="Q24">
+        <v>2</v>
+      </c>
+      <c r="R24">
+        <v>0.5</v>
+      </c>
+      <c r="S24">
+        <v>0.5</v>
+      </c>
+      <c r="T24">
+        <v>0.5</v>
+      </c>
+      <c r="U24">
+        <v>1</v>
+      </c>
+      <c r="V24">
+        <v>1</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="X24">
+        <v>4</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>0.46153846153846101</v>
+      </c>
+      <c r="Z24">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="AA24">
+        <v>0.75</v>
+      </c>
+      <c r="AB24">
+        <v>3</v>
+      </c>
+      <c r="AC24">
+        <v>6</v>
+      </c>
+      <c r="AD24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" t="s">
+        <v>251</v>
+      </c>
+      <c r="D25" t="s">
+        <v>252</v>
+      </c>
+      <c r="E25" t="s">
+        <v>253</v>
+      </c>
+      <c r="F25" t="s">
+        <v>179</v>
+      </c>
+      <c r="G25">
+        <v>0.99178332318928697</v>
+      </c>
+      <c r="H25" t="s">
+        <v>364</v>
+      </c>
+      <c r="I25">
+        <v>0.64</v>
+      </c>
+      <c r="J25">
+        <v>283</v>
+      </c>
+      <c r="K25">
+        <v>91.519434628975205</v>
+      </c>
+      <c r="L25">
+        <v>92.579505300353304</v>
+      </c>
+      <c r="M25">
+        <v>42</v>
+      </c>
+      <c r="N25">
+        <v>57.142857142857103</v>
+      </c>
+      <c r="O25">
+        <v>64.285714285714207</v>
+      </c>
+      <c r="P25">
+        <v>0.4</v>
+      </c>
+      <c r="Q25">
+        <v>24</v>
+      </c>
+      <c r="R25">
+        <v>0.75862068965517204</v>
+      </c>
+      <c r="S25">
+        <v>0.64705882352941102</v>
+      </c>
+      <c r="T25">
+        <v>0.91666666666666596</v>
+      </c>
+      <c r="U25">
+        <v>22</v>
+      </c>
+      <c r="V25">
+        <v>12</v>
+      </c>
+      <c r="W25">
+        <v>2</v>
+      </c>
+      <c r="X25">
+        <v>39</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="Z25">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="AA25">
+        <v>0.61538461538461497</v>
+      </c>
+      <c r="AB25">
+        <v>24</v>
+      </c>
+      <c r="AC25">
+        <v>12</v>
+      </c>
+      <c r="AD25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>134</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" t="s">
+        <v>259</v>
+      </c>
+      <c r="D26" t="s">
+        <v>260</v>
+      </c>
+      <c r="E26" t="s">
+        <v>261</v>
+      </c>
+      <c r="F26" t="s">
+        <v>179</v>
+      </c>
+      <c r="G26">
+        <v>0.99539833189531202</v>
+      </c>
+      <c r="H26" t="s">
+        <v>365</v>
+      </c>
+      <c r="I26">
+        <v>0.74193548387096697</v>
+      </c>
+      <c r="J26">
+        <v>309</v>
+      </c>
+      <c r="K26">
+        <v>95.145631067961105</v>
+      </c>
+      <c r="L26">
+        <v>96.396979503775597</v>
+      </c>
+      <c r="M26">
+        <v>35</v>
+      </c>
+      <c r="N26">
+        <v>65.714285714285694</v>
+      </c>
+      <c r="O26">
+        <v>76.761904761904702</v>
+      </c>
+      <c r="P26">
+        <v>0.3</v>
+      </c>
+      <c r="Q26">
+        <v>17</v>
+      </c>
+      <c r="R26">
+        <v>0.90322580645161199</v>
+      </c>
+      <c r="S26">
+        <v>1</v>
+      </c>
+      <c r="T26">
+        <v>0.82352941176470495</v>
+      </c>
+      <c r="U26">
+        <v>14</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>3</v>
+      </c>
+      <c r="X26">
+        <v>29</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>0.73015873015873001</v>
+      </c>
+      <c r="Z26">
+        <v>0.67647058823529405</v>
+      </c>
+      <c r="AA26">
+        <v>0.79310344827586199</v>
+      </c>
+      <c r="AB26">
+        <v>23</v>
+      </c>
+      <c r="AC26">
+        <v>11</v>
+      </c>
+      <c r="AD26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>134</v>
+      </c>
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" t="s">
+        <v>259</v>
+      </c>
+      <c r="D27" t="s">
+        <v>260</v>
+      </c>
+      <c r="E27" t="s">
+        <v>261</v>
+      </c>
+      <c r="F27" t="s">
+        <v>179</v>
+      </c>
+      <c r="G27">
+        <v>0.97411561691113002</v>
+      </c>
+      <c r="H27" t="s">
+        <v>366</v>
+      </c>
+      <c r="I27">
+        <v>0.69594594594594505</v>
+      </c>
+      <c r="J27">
+        <v>341</v>
+      </c>
+      <c r="K27">
+        <v>76.246334310850401</v>
+      </c>
+      <c r="L27">
+        <v>80.570747271626999</v>
+      </c>
+      <c r="M27">
+        <v>168</v>
+      </c>
+      <c r="N27">
+        <v>61.309523809523803</v>
+      </c>
+      <c r="O27">
+        <v>70.087052497766706</v>
+      </c>
+      <c r="P27">
+        <v>0.1</v>
+      </c>
+      <c r="Q27">
+        <v>66</v>
+      </c>
+      <c r="R27">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="S27">
+        <v>0.625</v>
+      </c>
+      <c r="T27">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="U27">
+        <v>55</v>
+      </c>
+      <c r="V27">
+        <v>33</v>
+      </c>
+      <c r="W27">
+        <v>11</v>
+      </c>
+      <c r="X27">
+        <v>136</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>0.69648562300319405</v>
+      </c>
+      <c r="Z27">
+        <v>0.61581920903954801</v>
+      </c>
+      <c r="AA27">
+        <v>0.80147058823529405</v>
+      </c>
+      <c r="AB27">
+        <v>109</v>
+      </c>
+      <c r="AC27">
+        <v>68</v>
+      </c>
+      <c r="AD27">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>134</v>
+      </c>
+      <c r="B28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" t="s">
+        <v>259</v>
+      </c>
+      <c r="D28" t="s">
+        <v>260</v>
+      </c>
+      <c r="E28" t="s">
+        <v>261</v>
+      </c>
+      <c r="F28" t="s">
+        <v>179</v>
+      </c>
+      <c r="G28">
+        <v>0.99539833189531202</v>
+      </c>
+      <c r="H28" t="s">
+        <v>367</v>
+      </c>
+      <c r="I28">
+        <v>0.57894736842105199</v>
+      </c>
+      <c r="J28">
+        <v>303</v>
+      </c>
+      <c r="K28">
+        <v>96.039603960395993</v>
+      </c>
+      <c r="L28">
+        <v>96.039603960395993</v>
+      </c>
+      <c r="M28">
+        <v>21</v>
+      </c>
+      <c r="N28">
+        <v>52.380952380952301</v>
+      </c>
+      <c r="O28">
+        <v>52.380952380952301</v>
+      </c>
+      <c r="P28">
+        <v>0.1</v>
+      </c>
+      <c r="Q28">
+        <v>10</v>
+      </c>
+      <c r="R28">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="S28">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="T28">
+        <v>0.7</v>
+      </c>
+      <c r="U28">
+        <v>7</v>
+      </c>
+      <c r="V28">
+        <v>5</v>
+      </c>
+      <c r="W28">
+        <v>3</v>
+      </c>
+      <c r="X28">
+        <v>25</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>0.65116279069767402</v>
+      </c>
+      <c r="Z28">
+        <v>0.77777777777777701</v>
+      </c>
+      <c r="AA28">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AB28">
+        <v>14</v>
+      </c>
+      <c r="AC28">
+        <v>4</v>
+      </c>
+      <c r="AD28">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>134</v>
+      </c>
+      <c r="B29" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" t="s">
+        <v>259</v>
+      </c>
+      <c r="D29" t="s">
+        <v>260</v>
+      </c>
+      <c r="E29" t="s">
+        <v>261</v>
+      </c>
+      <c r="F29" t="s">
+        <v>179</v>
+      </c>
+      <c r="G29">
+        <v>0.99884958297382798</v>
+      </c>
+      <c r="H29" t="s">
+        <v>265</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>303</v>
+      </c>
+      <c r="K29">
+        <v>99.6699669966996</v>
+      </c>
+      <c r="L29">
+        <v>99.6699669966996</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0.5</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>1</v>
+      </c>
+      <c r="X29">
+        <v>4</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>134</v>
+      </c>
+      <c r="B30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" t="s">
+        <v>259</v>
+      </c>
+      <c r="D30" t="s">
+        <v>260</v>
+      </c>
+      <c r="E30" t="s">
+        <v>261</v>
+      </c>
+      <c r="F30" t="s">
+        <v>179</v>
+      </c>
+      <c r="G30">
+        <v>0.99165947656025299</v>
+      </c>
+      <c r="H30" t="s">
+        <v>368</v>
+      </c>
+      <c r="I30">
+        <v>0.65060240963855398</v>
+      </c>
+      <c r="J30">
+        <v>304</v>
+      </c>
+      <c r="K30">
+        <v>91.118421052631504</v>
+      </c>
+      <c r="L30">
+        <v>91.765350877192901</v>
+      </c>
+      <c r="M30">
+        <v>44</v>
+      </c>
+      <c r="N30">
+        <v>61.363636363636303</v>
+      </c>
+      <c r="O30">
+        <v>65.8333333333333</v>
+      </c>
+      <c r="P30">
+        <v>0.5</v>
+      </c>
+      <c r="Q30">
+        <v>15</v>
+      </c>
+      <c r="R30">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="S30">
+        <v>0.92307692307692302</v>
+      </c>
+      <c r="T30">
+        <v>0.8</v>
+      </c>
+      <c r="U30">
+        <v>12</v>
+      </c>
+      <c r="V30">
+        <v>1</v>
+      </c>
+      <c r="W30">
+        <v>3</v>
+      </c>
+      <c r="X30">
+        <v>43</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>0.65060240963855398</v>
+      </c>
+      <c r="Z30">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="AA30">
+        <v>0.62790697674418605</v>
+      </c>
+      <c r="AB30">
+        <v>27</v>
+      </c>
+      <c r="AC30">
+        <v>13</v>
+      </c>
+      <c r="AD30">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>134</v>
+      </c>
+      <c r="B31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" t="s">
+        <v>259</v>
+      </c>
+      <c r="D31" t="s">
+        <v>260</v>
+      </c>
+      <c r="E31" t="s">
+        <v>261</v>
+      </c>
+      <c r="F31" t="s">
+        <v>179</v>
+      </c>
+      <c r="G31">
+        <v>0.98705780845556501</v>
+      </c>
+      <c r="H31" t="s">
+        <v>369</v>
+      </c>
+      <c r="I31">
+        <v>0.67153284671532798</v>
+      </c>
+      <c r="J31">
+        <v>319</v>
+      </c>
+      <c r="K31">
+        <v>87.147335423197404</v>
+      </c>
+      <c r="L31">
+        <v>87.899686520376093</v>
+      </c>
+      <c r="M31">
+        <v>70</v>
+      </c>
+      <c r="N31">
+        <v>67.142857142857096</v>
+      </c>
+      <c r="O31">
+        <v>70.571428571428498</v>
+      </c>
+      <c r="P31">
+        <v>0.1</v>
+      </c>
+      <c r="Q31">
+        <v>36</v>
+      </c>
+      <c r="R31">
+        <v>0.65060240963855398</v>
+      </c>
+      <c r="S31">
+        <v>0.57446808510638303</v>
+      </c>
+      <c r="T31">
+        <v>0.75</v>
+      </c>
+      <c r="U31">
+        <v>27</v>
+      </c>
+      <c r="V31">
+        <v>20</v>
+      </c>
+      <c r="W31">
+        <v>9</v>
+      </c>
+      <c r="X31">
+        <v>57</v>
+      </c>
+      <c r="Y31" s="1">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="Z31">
+        <v>0.52873563218390796</v>
+      </c>
+      <c r="AA31">
+        <v>0.80701754385964897</v>
+      </c>
+      <c r="AB31">
+        <v>46</v>
+      </c>
+      <c r="AC31">
+        <v>41</v>
+      </c>
+      <c r="AD31">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>160</v>
+      </c>
+      <c r="B32" t="s">
+        <v>161</v>
+      </c>
+      <c r="C32" t="s">
+        <v>268</v>
+      </c>
+      <c r="D32" t="s">
+        <v>269</v>
+      </c>
+      <c r="E32" t="s">
+        <v>270</v>
+      </c>
+      <c r="F32" t="s">
+        <v>179</v>
+      </c>
+      <c r="G32">
+        <v>0.97933748770088502</v>
+      </c>
+      <c r="H32" t="s">
+        <v>370</v>
+      </c>
+      <c r="I32">
+        <v>0.55319148936170204</v>
+      </c>
+      <c r="J32">
+        <v>306</v>
+      </c>
+      <c r="K32">
+        <v>80.392156862745097</v>
+      </c>
+      <c r="L32">
+        <v>80.392156862745097</v>
+      </c>
+      <c r="M32">
+        <v>58</v>
+      </c>
+      <c r="N32">
+        <v>67.241379310344797</v>
+      </c>
+      <c r="O32">
+        <v>67.241379310344797</v>
+      </c>
+      <c r="P32">
+        <v>0.1</v>
+      </c>
+      <c r="Q32">
+        <v>40</v>
+      </c>
+      <c r="R32">
+        <v>0.58947368421052604</v>
+      </c>
+      <c r="S32">
+        <v>0.50909090909090904</v>
+      </c>
+      <c r="T32">
+        <v>0.7</v>
+      </c>
+      <c r="U32">
+        <v>28</v>
+      </c>
+      <c r="V32">
+        <v>27</v>
+      </c>
+      <c r="W32">
+        <v>12</v>
+      </c>
+      <c r="X32">
+        <v>61</v>
+      </c>
+      <c r="Y32" s="1">
+        <v>0.54666666666666597</v>
+      </c>
+      <c r="Z32">
+        <v>0.46067415730337002</v>
+      </c>
+      <c r="AA32">
+        <v>0.67213114754098302</v>
+      </c>
+      <c r="AB32">
+        <v>41</v>
+      </c>
+      <c r="AC32">
+        <v>48</v>
+      </c>
+      <c r="AD32">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>160</v>
+      </c>
+      <c r="B33" t="s">
+        <v>166</v>
+      </c>
+      <c r="C33" t="s">
+        <v>268</v>
+      </c>
+      <c r="D33" t="s">
+        <v>269</v>
+      </c>
+      <c r="E33" t="s">
+        <v>270</v>
+      </c>
+      <c r="F33" t="s">
+        <v>179</v>
+      </c>
+      <c r="G33">
+        <v>0.96392259757297405</v>
+      </c>
+      <c r="H33" t="s">
+        <v>371</v>
+      </c>
+      <c r="I33">
+        <v>0.60144927536231796</v>
+      </c>
+      <c r="J33">
+        <v>340</v>
+      </c>
+      <c r="K33">
+        <v>72.941176470588204</v>
+      </c>
+      <c r="L33">
+        <v>77.069130504251603</v>
+      </c>
+      <c r="M33">
+        <v>154</v>
+      </c>
+      <c r="N33">
+        <v>55.194805194805198</v>
+      </c>
+      <c r="O33">
+        <v>64.308469944451602</v>
+      </c>
+      <c r="P33">
+        <v>0.1</v>
+      </c>
+      <c r="Q33">
+        <v>94</v>
+      </c>
+      <c r="R33">
+        <v>0.69148936170212705</v>
+      </c>
+      <c r="S33">
+        <v>0.69148936170212705</v>
+      </c>
+      <c r="T33">
+        <v>0.69148936170212705</v>
+      </c>
+      <c r="U33">
+        <v>65</v>
+      </c>
+      <c r="V33">
+        <v>29</v>
+      </c>
+      <c r="W33">
+        <v>29</v>
+      </c>
+      <c r="X33">
+        <v>137</v>
+      </c>
+      <c r="Y33" s="1">
+        <v>0.61052631578947303</v>
+      </c>
+      <c r="Z33">
+        <v>0.58783783783783705</v>
+      </c>
+      <c r="AA33">
+        <v>0.63503649635036497</v>
+      </c>
+      <c r="AB33">
+        <v>87</v>
+      </c>
+      <c r="AC33">
+        <v>61</v>
+      </c>
+      <c r="AD33">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>160</v>
+      </c>
+      <c r="B34" t="s">
+        <v>171</v>
+      </c>
+      <c r="C34" t="s">
+        <v>268</v>
+      </c>
+      <c r="D34" t="s">
+        <v>269</v>
+      </c>
+      <c r="E34" t="s">
+        <v>270</v>
+      </c>
+      <c r="F34" t="s">
+        <v>179</v>
+      </c>
+      <c r="G34">
+        <v>0.97441784191538205</v>
+      </c>
+      <c r="H34" t="s">
+        <v>372</v>
+      </c>
+      <c r="I34">
+        <v>0.5</v>
+      </c>
+      <c r="J34">
+        <v>309</v>
+      </c>
+      <c r="K34">
+        <v>76.375404530744305</v>
+      </c>
+      <c r="L34">
+        <v>76.6666666666666</v>
+      </c>
+      <c r="M34">
+        <v>97</v>
+      </c>
+      <c r="N34">
+        <v>41.237113402061802</v>
+      </c>
+      <c r="O34">
+        <v>42.164948453608197</v>
+      </c>
+      <c r="P34">
+        <v>0.1</v>
+      </c>
+      <c r="Q34">
+        <v>65</v>
+      </c>
+      <c r="R34">
+        <v>0.53781512605042003</v>
+      </c>
+      <c r="S34">
+        <v>0.592592592592592</v>
+      </c>
+      <c r="T34">
+        <v>0.492307692307692</v>
+      </c>
+      <c r="U34">
+        <v>32</v>
+      </c>
+      <c r="V34">
+        <v>22</v>
+      </c>
+      <c r="W34">
+        <v>33</v>
+      </c>
+      <c r="X34">
+        <v>95</v>
+      </c>
+      <c r="Y34" s="1">
+        <v>0.520231213872832</v>
+      </c>
+      <c r="Z34">
+        <v>0.57692307692307598</v>
+      </c>
+      <c r="AA34">
+        <v>0.47368421052631499</v>
+      </c>
+      <c r="AB34">
+        <v>45</v>
+      </c>
+      <c r="AC34">
+        <v>33</v>
+      </c>
+      <c r="AD34">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2A5DC65-F61D-4915-92F9-4012B56D908D}">
+  <dimension ref="A1:AG34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AG3" sqref="AG3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="24" width="0" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="9.06640625" style="1"/>
+    <col min="26" max="30" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>309</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G2">
+        <v>0.99789066619792499</v>
+      </c>
+      <c r="H2" t="s">
+        <v>312</v>
+      </c>
+      <c r="I2">
+        <v>0.7</v>
+      </c>
+      <c r="J2">
+        <v>589</v>
+      </c>
+      <c r="K2">
+        <v>98.641765704584003</v>
+      </c>
+      <c r="L2">
+        <v>98.963133640552897</v>
+      </c>
+      <c r="M2">
+        <v>18</v>
+      </c>
+      <c r="N2">
+        <v>77.7777777777777</v>
+      </c>
+      <c r="O2">
+        <v>88.293650793650698</v>
+      </c>
+      <c r="P2">
+        <v>0.9</v>
+      </c>
+      <c r="Q2">
+        <v>16</v>
+      </c>
+      <c r="R2">
+        <v>0.74074074074074003</v>
+      </c>
+      <c r="S2">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="T2">
+        <v>0.625</v>
+      </c>
+      <c r="U2">
+        <v>10</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>6</v>
+      </c>
+      <c r="X2">
+        <v>18</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="Z2">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="AA2">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="AB2">
+        <v>12</v>
+      </c>
+      <c r="AC2">
+        <v>6</v>
+      </c>
+      <c r="AD2">
+        <v>6</v>
+      </c>
+      <c r="AE2" s="2">
+        <f>SUM(AB2:AB34)/(SUM(AB2:AB34)+SUM(AC2:AC34))</f>
+        <v>0.59950960359624028</v>
+      </c>
+      <c r="AF2" s="2">
+        <f t="array" ref="AF2">SUM(AB2:AB34)/(SUM(AB2:AB34)+SUM(AD2:AD34))</f>
+        <v>0.65228990662516673</v>
+      </c>
+      <c r="AG2" s="2">
+        <f>2*(AE2*AF2)/(AE2+AF2)</f>
+        <v>0.62478705281090285</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G3">
+        <v>0.98875021972227095</v>
+      </c>
+      <c r="H3" t="s">
+        <v>313</v>
+      </c>
+      <c r="I3">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="J3">
+        <v>593</v>
+      </c>
+      <c r="K3">
+        <v>90.893760539629</v>
+      </c>
+      <c r="L3">
+        <v>91.146711635750407</v>
+      </c>
+      <c r="M3">
+        <v>59</v>
+      </c>
+      <c r="N3">
+        <v>27.118644067796598</v>
+      </c>
+      <c r="O3">
+        <v>29.661016949152501</v>
+      </c>
+      <c r="P3">
+        <v>0.6</v>
+      </c>
+      <c r="Q3">
+        <v>27</v>
+      </c>
+      <c r="R3">
+        <v>0.39130434782608697</v>
+      </c>
+      <c r="S3">
+        <v>0.47368421052631499</v>
+      </c>
+      <c r="T3">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="U3">
+        <v>9</v>
+      </c>
+      <c r="V3">
+        <v>10</v>
+      </c>
+      <c r="W3">
+        <v>18</v>
+      </c>
+      <c r="X3">
+        <v>62</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>0.32258064516128998</v>
+      </c>
+      <c r="Z3">
+        <v>0.483870967741935</v>
+      </c>
+      <c r="AA3">
+        <v>0.241935483870967</v>
+      </c>
+      <c r="AB3">
+        <v>15</v>
+      </c>
+      <c r="AC3">
+        <v>16</v>
+      </c>
+      <c r="AD3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E4" t="s">
+        <v>228</v>
+      </c>
+      <c r="F4" t="s">
+        <v>179</v>
+      </c>
+      <c r="G4">
+        <v>0.98277377394972698</v>
+      </c>
+      <c r="H4" t="s">
+        <v>314</v>
+      </c>
+      <c r="I4">
+        <v>0.51485148514851398</v>
+      </c>
+      <c r="J4">
+        <v>609</v>
+      </c>
+      <c r="K4">
+        <v>86.371100164203597</v>
+      </c>
+      <c r="L4">
+        <v>88.087158234941398</v>
+      </c>
+      <c r="M4">
+        <v>119</v>
+      </c>
+      <c r="N4">
+        <v>47.058823529411697</v>
+      </c>
+      <c r="O4">
+        <v>55.841003067893801</v>
+      </c>
+      <c r="P4">
+        <v>0.8</v>
+      </c>
+      <c r="Q4">
+        <v>47</v>
+      </c>
+      <c r="R4">
+        <v>0.597938144329896</v>
+      </c>
+      <c r="S4">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="T4">
+        <v>0.61702127659574402</v>
+      </c>
+      <c r="U4">
+        <v>29</v>
+      </c>
+      <c r="V4">
+        <v>21</v>
+      </c>
+      <c r="W4">
+        <v>18</v>
+      </c>
+      <c r="X4">
+        <v>103</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>0.47567567567567498</v>
+      </c>
+      <c r="Z4">
+        <v>0.53658536585365801</v>
+      </c>
+      <c r="AA4">
+        <v>0.42718446601941701</v>
+      </c>
+      <c r="AB4">
+        <v>44</v>
+      </c>
+      <c r="AC4">
+        <v>38</v>
+      </c>
+      <c r="AD4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D5" t="s">
+        <v>227</v>
+      </c>
+      <c r="E5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F5" t="s">
+        <v>179</v>
+      </c>
+      <c r="G5">
+        <v>0.98523466338548005</v>
+      </c>
+      <c r="H5" t="s">
+        <v>315</v>
+      </c>
+      <c r="I5">
+        <v>0.65573770491803196</v>
+      </c>
+      <c r="J5">
+        <v>609</v>
+      </c>
+      <c r="K5">
+        <v>88.505747126436702</v>
+      </c>
+      <c r="L5">
+        <v>89.882330769030204</v>
+      </c>
+      <c r="M5">
+        <v>124</v>
+      </c>
+      <c r="N5">
+        <v>64.516129032257993</v>
+      </c>
+      <c r="O5">
+        <v>71.276930954350306</v>
+      </c>
+      <c r="P5">
+        <v>0.1</v>
+      </c>
+      <c r="Q5">
+        <v>67</v>
+      </c>
+      <c r="R5">
+        <v>0.64935064935064901</v>
+      </c>
+      <c r="S5">
+        <v>0.57471264367816</v>
+      </c>
+      <c r="T5">
+        <v>0.74626865671641796</v>
+      </c>
+      <c r="U5">
+        <v>50</v>
+      </c>
+      <c r="V5">
+        <v>37</v>
+      </c>
+      <c r="W5">
+        <v>17</v>
+      </c>
+      <c r="X5">
+        <v>123</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>0.67346938775510201</v>
+      </c>
+      <c r="Z5">
+        <v>0.57894736842105199</v>
+      </c>
+      <c r="AA5">
+        <v>0.80487804878048697</v>
+      </c>
+      <c r="AB5">
+        <v>99</v>
+      </c>
+      <c r="AC5">
+        <v>72</v>
+      </c>
+      <c r="AD5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D6" t="s">
+        <v>227</v>
+      </c>
+      <c r="E6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F6" t="s">
+        <v>179</v>
+      </c>
+      <c r="G6">
+        <v>0.99437510986113498</v>
+      </c>
+      <c r="H6" t="s">
+        <v>316</v>
+      </c>
+      <c r="I6">
+        <v>0.65217391304347805</v>
+      </c>
+      <c r="J6">
+        <v>592</v>
+      </c>
+      <c r="K6">
+        <v>95.777027027027003</v>
+      </c>
+      <c r="L6">
+        <v>96.200128700128701</v>
+      </c>
+      <c r="M6">
+        <v>44</v>
+      </c>
+      <c r="N6">
+        <v>68.181818181818102</v>
+      </c>
+      <c r="O6">
+        <v>73.874458874458796</v>
+      </c>
+      <c r="P6">
+        <v>0.2</v>
+      </c>
+      <c r="Q6">
+        <v>29</v>
+      </c>
+      <c r="R6">
+        <v>0.65573770491803196</v>
+      </c>
+      <c r="S6">
+        <v>0.625</v>
+      </c>
+      <c r="T6">
+        <v>0.68965517241379304</v>
+      </c>
+      <c r="U6">
+        <v>20</v>
+      </c>
+      <c r="V6">
+        <v>12</v>
+      </c>
+      <c r="W6">
+        <v>9</v>
+      </c>
+      <c r="X6">
+        <v>45</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="Z6">
+        <v>0.62745098039215597</v>
+      </c>
+      <c r="AA6">
+        <v>0.71111111111111103</v>
+      </c>
+      <c r="AB6">
+        <v>32</v>
+      </c>
+      <c r="AC6">
+        <v>19</v>
+      </c>
+      <c r="AD6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D7" t="s">
+        <v>227</v>
+      </c>
+      <c r="E7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G7">
+        <v>0.95781332395851604</v>
+      </c>
+      <c r="H7" t="s">
+        <v>317</v>
+      </c>
+      <c r="I7">
+        <v>0.76516634050880605</v>
+      </c>
+      <c r="J7">
+        <v>696</v>
+      </c>
+      <c r="K7">
+        <v>73.563218390804593</v>
+      </c>
+      <c r="L7">
+        <v>80.553874605598693</v>
+      </c>
+      <c r="M7">
+        <v>546</v>
+      </c>
+      <c r="N7">
+        <v>71.794871794871796</v>
+      </c>
+      <c r="O7">
+        <v>80.706037958785203</v>
+      </c>
+      <c r="P7">
+        <v>0.2</v>
+      </c>
+      <c r="Q7">
+        <v>300</v>
+      </c>
+      <c r="R7">
+        <v>0.75872534142640302</v>
+      </c>
+      <c r="S7">
+        <v>0.69637883008356505</v>
+      </c>
+      <c r="T7">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="U7">
+        <v>250</v>
+      </c>
+      <c r="V7">
+        <v>109</v>
+      </c>
+      <c r="W7">
+        <v>50</v>
+      </c>
+      <c r="X7">
+        <v>485</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>0.76735459662288896</v>
+      </c>
+      <c r="Z7">
+        <v>0.70395869191049898</v>
+      </c>
+      <c r="AA7">
+        <v>0.84329896907216495</v>
+      </c>
+      <c r="AB7">
+        <v>409</v>
+      </c>
+      <c r="AC7">
+        <v>172</v>
+      </c>
+      <c r="AD7">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E8" t="s">
+        <v>228</v>
+      </c>
+      <c r="F8" t="s">
+        <v>179</v>
+      </c>
+      <c r="G8">
+        <v>0.99261733169274002</v>
+      </c>
+      <c r="H8" t="s">
+        <v>318</v>
+      </c>
+      <c r="I8">
+        <v>0.4</v>
+      </c>
+      <c r="J8">
+        <v>590</v>
+      </c>
+      <c r="K8">
+        <v>93.898305084745701</v>
+      </c>
+      <c r="L8">
+        <v>94.0508474576271</v>
+      </c>
+      <c r="M8">
+        <v>43</v>
+      </c>
+      <c r="N8">
+        <v>32.558139534883701</v>
+      </c>
+      <c r="O8">
+        <v>34.651162790697597</v>
+      </c>
+      <c r="P8">
+        <v>0.2</v>
+      </c>
+      <c r="Q8">
+        <v>35</v>
+      </c>
+      <c r="R8">
+        <v>0.43076923076923002</v>
+      </c>
+      <c r="S8">
+        <v>0.46666666666666601</v>
+      </c>
+      <c r="T8">
+        <v>0.4</v>
+      </c>
+      <c r="U8">
+        <v>14</v>
+      </c>
+      <c r="V8">
+        <v>16</v>
+      </c>
+      <c r="W8">
+        <v>21</v>
+      </c>
+      <c r="X8">
+        <v>46</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>0.430379746835443</v>
+      </c>
+      <c r="Z8">
+        <v>0.51515151515151503</v>
+      </c>
+      <c r="AA8">
+        <v>0.36956521739130399</v>
+      </c>
+      <c r="AB8">
+        <v>17</v>
+      </c>
+      <c r="AC8">
+        <v>16</v>
+      </c>
+      <c r="AD8">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D9" t="s">
+        <v>227</v>
+      </c>
+      <c r="E9" t="s">
+        <v>228</v>
+      </c>
+      <c r="F9" t="s">
+        <v>179</v>
+      </c>
+      <c r="G9">
+        <v>0.99789066619792499</v>
+      </c>
+      <c r="H9" t="s">
+        <v>283</v>
+      </c>
+      <c r="I9">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="J9">
+        <v>589</v>
+      </c>
+      <c r="K9">
+        <v>98.471986417657007</v>
+      </c>
+      <c r="L9">
+        <v>98.599320882852297</v>
+      </c>
+      <c r="M9">
+        <v>11</v>
+      </c>
+      <c r="N9">
+        <v>72.727272727272705</v>
+      </c>
+      <c r="O9">
+        <v>79.545454545454504</v>
+      </c>
+      <c r="P9">
+        <v>0.5</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>13</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="Z9">
+        <v>0.53333333333333299</v>
+      </c>
+      <c r="AA9">
+        <v>0.61538461538461497</v>
+      </c>
+      <c r="AB9">
+        <v>8</v>
+      </c>
+      <c r="AC9">
+        <v>7</v>
+      </c>
+      <c r="AD9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" t="s">
+        <v>226</v>
+      </c>
+      <c r="D10" t="s">
+        <v>227</v>
+      </c>
+      <c r="E10" t="s">
+        <v>228</v>
+      </c>
+      <c r="F10" t="s">
+        <v>179</v>
+      </c>
+      <c r="G10">
+        <v>0.994199332044296</v>
+      </c>
+      <c r="H10" t="s">
+        <v>319</v>
+      </c>
+      <c r="I10">
+        <v>0.45901639344262202</v>
+      </c>
+      <c r="J10">
+        <v>588</v>
+      </c>
+      <c r="K10">
+        <v>94.727891156462505</v>
+      </c>
+      <c r="L10">
+        <v>94.727891156462505</v>
+      </c>
+      <c r="M10">
+        <v>29</v>
+      </c>
+      <c r="N10">
+        <v>48.275862068965502</v>
+      </c>
+      <c r="O10">
+        <v>48.275862068965502</v>
+      </c>
+      <c r="P10">
+        <v>0.3</v>
+      </c>
+      <c r="Q10">
+        <v>20</v>
+      </c>
+      <c r="R10">
+        <v>0.60377358490566002</v>
+      </c>
+      <c r="S10">
+        <v>0.48484848484848397</v>
+      </c>
+      <c r="T10">
+        <v>0.8</v>
+      </c>
+      <c r="U10">
+        <v>16</v>
+      </c>
+      <c r="V10">
+        <v>17</v>
+      </c>
+      <c r="W10">
+        <v>4</v>
+      </c>
+      <c r="X10">
+        <v>28</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>0.46153846153846101</v>
+      </c>
+      <c r="Z10">
+        <v>0.40540540540540498</v>
+      </c>
+      <c r="AA10">
+        <v>0.53571428571428503</v>
+      </c>
+      <c r="AB10">
+        <v>15</v>
+      </c>
+      <c r="AC10">
+        <v>22</v>
+      </c>
+      <c r="AD10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" t="s">
+        <v>226</v>
+      </c>
+      <c r="D11" t="s">
+        <v>227</v>
+      </c>
+      <c r="E11" t="s">
+        <v>228</v>
+      </c>
+      <c r="F11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G11">
+        <v>0.96835999296888697</v>
+      </c>
+      <c r="H11" t="s">
+        <v>320</v>
+      </c>
+      <c r="I11">
+        <v>0.60352422907488901</v>
+      </c>
+      <c r="J11">
+        <v>661</v>
+      </c>
+      <c r="K11">
+        <v>74.886535552193607</v>
+      </c>
+      <c r="L11">
+        <v>77.568979180174296</v>
+      </c>
+      <c r="M11">
+        <v>248</v>
+      </c>
+      <c r="N11">
+        <v>56.0483870967741</v>
+      </c>
+      <c r="O11">
+        <v>63.197964669738802</v>
+      </c>
+      <c r="P11">
+        <v>0.9</v>
+      </c>
+      <c r="Q11">
+        <v>110</v>
+      </c>
+      <c r="R11">
+        <v>0.63374485596707797</v>
+      </c>
+      <c r="S11">
+        <v>0.57894736842105199</v>
+      </c>
+      <c r="T11">
+        <v>0.7</v>
+      </c>
+      <c r="U11">
+        <v>77</v>
+      </c>
+      <c r="V11">
+        <v>56</v>
+      </c>
+      <c r="W11">
+        <v>33</v>
+      </c>
+      <c r="X11">
+        <v>181</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>0.62034739454094201</v>
+      </c>
+      <c r="Z11">
+        <v>0.56306306306306297</v>
+      </c>
+      <c r="AA11">
+        <v>0.69060773480662896</v>
+      </c>
+      <c r="AB11">
+        <v>125</v>
+      </c>
+      <c r="AC11">
+        <v>97</v>
+      </c>
+      <c r="AD11">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>239</v>
+      </c>
+      <c r="D12" t="s">
+        <v>240</v>
+      </c>
+      <c r="E12" t="s">
+        <v>241</v>
+      </c>
+      <c r="F12" t="s">
+        <v>179</v>
+      </c>
+      <c r="G12">
+        <v>0.99905243209096595</v>
+      </c>
+      <c r="H12" t="s">
+        <v>242</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>282</v>
+      </c>
+      <c r="K12">
+        <v>98.936170212765902</v>
+      </c>
+      <c r="L12">
+        <v>98.936170212765902</v>
+      </c>
+      <c r="M12">
+        <v>3</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0.5</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>1</v>
+      </c>
+      <c r="X12">
+        <v>3</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>239</v>
+      </c>
+      <c r="D13" t="s">
+        <v>240</v>
+      </c>
+      <c r="E13" t="s">
+        <v>241</v>
+      </c>
+      <c r="F13" t="s">
+        <v>179</v>
+      </c>
+      <c r="G13">
+        <v>0.99652558433354299</v>
+      </c>
+      <c r="H13" t="s">
+        <v>321</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>282</v>
+      </c>
+      <c r="K13">
+        <v>96.453900709219795</v>
+      </c>
+      <c r="L13">
+        <v>96.453900709219795</v>
+      </c>
+      <c r="M13">
+        <v>10</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0.5</v>
+      </c>
+      <c r="Q13">
+        <v>7</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>1</v>
+      </c>
+      <c r="W13">
+        <v>7</v>
+      </c>
+      <c r="X13">
+        <v>11</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>239</v>
+      </c>
+      <c r="D14" t="s">
+        <v>240</v>
+      </c>
+      <c r="E14" t="s">
+        <v>241</v>
+      </c>
+      <c r="F14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G14">
+        <v>0.98831332912192005</v>
+      </c>
+      <c r="H14" t="s">
+        <v>322</v>
+      </c>
+      <c r="I14">
+        <v>0.58426966292134797</v>
+      </c>
+      <c r="J14">
+        <v>286</v>
+      </c>
+      <c r="K14">
+        <v>91.258741258741196</v>
+      </c>
+      <c r="L14">
+        <v>91.926961926961894</v>
+      </c>
+      <c r="M14">
+        <v>42</v>
+      </c>
+      <c r="N14">
+        <v>61.904761904761898</v>
+      </c>
+      <c r="O14">
+        <v>66.455026455026399</v>
+      </c>
+      <c r="P14">
+        <v>0.3</v>
+      </c>
+      <c r="Q14">
+        <v>16</v>
+      </c>
+      <c r="R14">
+        <v>0.47058823529411697</v>
+      </c>
+      <c r="S14">
+        <v>0.44444444444444398</v>
+      </c>
+      <c r="T14">
+        <v>0.5</v>
+      </c>
+      <c r="U14">
+        <v>8</v>
+      </c>
+      <c r="V14">
+        <v>10</v>
+      </c>
+      <c r="W14">
+        <v>8</v>
+      </c>
+      <c r="X14">
+        <v>51</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>0.59340659340659296</v>
+      </c>
+      <c r="Z14">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="AA14">
+        <v>0.52941176470588203</v>
+      </c>
+      <c r="AB14">
+        <v>27</v>
+      </c>
+      <c r="AC14">
+        <v>13</v>
+      </c>
+      <c r="AD14">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
+        <v>239</v>
+      </c>
+      <c r="D15" t="s">
+        <v>240</v>
+      </c>
+      <c r="E15" t="s">
+        <v>241</v>
+      </c>
+      <c r="F15" t="s">
+        <v>179</v>
+      </c>
+      <c r="G15">
+        <v>0.99526216045483196</v>
+      </c>
+      <c r="H15" t="s">
+        <v>323</v>
+      </c>
+      <c r="I15">
+        <v>0.61538461538461497</v>
+      </c>
+      <c r="J15">
+        <v>284</v>
+      </c>
+      <c r="K15">
+        <v>95.774647887323894</v>
+      </c>
+      <c r="L15">
+        <v>96.094750320102406</v>
+      </c>
+      <c r="M15">
+        <v>20</v>
+      </c>
+      <c r="N15">
+        <v>65</v>
+      </c>
+      <c r="O15">
+        <v>69.545454545454504</v>
+      </c>
+      <c r="P15">
+        <v>0.8</v>
+      </c>
+      <c r="Q15">
+        <v>19</v>
+      </c>
+      <c r="R15">
+        <v>0.64285714285714202</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>0.47368421052631499</v>
+      </c>
+      <c r="U15">
+        <v>9</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>10</v>
+      </c>
+      <c r="X15">
+        <v>20</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>0.58064516129032195</v>
+      </c>
+      <c r="Z15">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="AA15">
+        <v>0.45</v>
+      </c>
+      <c r="AB15">
+        <v>9</v>
+      </c>
+      <c r="AC15">
+        <v>2</v>
+      </c>
+      <c r="AD15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" t="s">
+        <v>239</v>
+      </c>
+      <c r="D16" t="s">
+        <v>240</v>
+      </c>
+      <c r="E16" t="s">
+        <v>241</v>
+      </c>
+      <c r="F16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G16">
+        <v>0.99905243209096595</v>
+      </c>
+      <c r="H16" t="s">
+        <v>242</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>282</v>
+      </c>
+      <c r="K16">
+        <v>98.936170212765902</v>
+      </c>
+      <c r="L16">
+        <v>98.936170212765902</v>
+      </c>
+      <c r="M16">
+        <v>3</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0.5</v>
+      </c>
+      <c r="Q16">
+        <v>6</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>6</v>
+      </c>
+      <c r="X16">
+        <v>3</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" t="s">
+        <v>239</v>
+      </c>
+      <c r="D17" t="s">
+        <v>240</v>
+      </c>
+      <c r="E17" t="s">
+        <v>241</v>
+      </c>
+      <c r="F17" t="s">
+        <v>179</v>
+      </c>
+      <c r="G17">
+        <v>0.97030953885028404</v>
+      </c>
+      <c r="H17" t="s">
+        <v>324</v>
+      </c>
+      <c r="I17">
+        <v>0.65441176470588203</v>
+      </c>
+      <c r="J17">
+        <v>300</v>
+      </c>
+      <c r="K17">
+        <v>74.3333333333333</v>
+      </c>
+      <c r="L17">
+        <v>77.006734006734007</v>
+      </c>
+      <c r="M17">
+        <v>154</v>
+      </c>
+      <c r="N17">
+        <v>58.441558441558399</v>
+      </c>
+      <c r="O17">
+        <v>63.649481831300001</v>
+      </c>
+      <c r="P17">
+        <v>0.1</v>
+      </c>
+      <c r="Q17">
+        <v>98</v>
+      </c>
+      <c r="R17">
+        <v>0.60093896713615003</v>
+      </c>
+      <c r="S17">
+        <v>0.55652173913043401</v>
+      </c>
+      <c r="T17">
+        <v>0.65306122448979498</v>
+      </c>
+      <c r="U17">
+        <v>64</v>
+      </c>
+      <c r="V17">
+        <v>51</v>
+      </c>
+      <c r="W17">
+        <v>34</v>
+      </c>
+      <c r="X17">
+        <v>148</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>0.65084745762711804</v>
+      </c>
+      <c r="Z17">
+        <v>0.65306122448979498</v>
+      </c>
+      <c r="AA17">
+        <v>0.64864864864864802</v>
+      </c>
+      <c r="AB17">
+        <v>96</v>
+      </c>
+      <c r="AC17">
+        <v>51</v>
+      </c>
+      <c r="AD17">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" t="s">
+        <v>239</v>
+      </c>
+      <c r="D18" t="s">
+        <v>240</v>
+      </c>
+      <c r="E18" t="s">
+        <v>241</v>
+      </c>
+      <c r="F18" t="s">
+        <v>179</v>
+      </c>
+      <c r="G18">
+        <v>0.99431459254579901</v>
+      </c>
+      <c r="H18" t="s">
+        <v>325</v>
+      </c>
+      <c r="I18">
+        <v>0.60869565217391297</v>
+      </c>
+      <c r="J18">
+        <v>284</v>
+      </c>
+      <c r="K18">
+        <v>95.422535211267601</v>
+      </c>
+      <c r="L18">
+        <v>95.598591549295705</v>
+      </c>
+      <c r="M18">
+        <v>22</v>
+      </c>
+      <c r="N18">
+        <v>68.181818181818102</v>
+      </c>
+      <c r="O18">
+        <v>70.454545454545396</v>
+      </c>
+      <c r="P18">
+        <v>0.6</v>
+      </c>
+      <c r="Q18">
+        <v>17</v>
+      </c>
+      <c r="R18">
+        <v>0.55555555555555503</v>
+      </c>
+      <c r="S18">
+        <v>0.52631578947368396</v>
+      </c>
+      <c r="T18">
+        <v>0.58823529411764697</v>
+      </c>
+      <c r="U18">
+        <v>10</v>
+      </c>
+      <c r="V18">
+        <v>9</v>
+      </c>
+      <c r="W18">
+        <v>7</v>
+      </c>
+      <c r="X18">
+        <v>24</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>0.62222222222222201</v>
+      </c>
+      <c r="Z18">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="AA18">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="AB18">
+        <v>14</v>
+      </c>
+      <c r="AC18">
+        <v>7</v>
+      </c>
+      <c r="AD18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" t="s">
+        <v>239</v>
+      </c>
+      <c r="D19" t="s">
+        <v>240</v>
+      </c>
+      <c r="E19" t="s">
+        <v>241</v>
+      </c>
+      <c r="F19" t="s">
+        <v>179</v>
+      </c>
+      <c r="G19">
+        <v>0.99778900821225502</v>
+      </c>
+      <c r="H19" t="s">
+        <v>326</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>282</v>
+      </c>
+      <c r="K19">
+        <v>98.226950354609897</v>
+      </c>
+      <c r="L19">
+        <v>98.226950354609897</v>
+      </c>
+      <c r="M19">
+        <v>5</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0.1</v>
+      </c>
+      <c r="Q19">
+        <v>9</v>
+      </c>
+      <c r="R19">
+        <v>0.36363636363636298</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>0.22222222222222199</v>
+      </c>
+      <c r="U19">
+        <v>2</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>7</v>
+      </c>
+      <c r="X19">
+        <v>7</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>0.16666666666666599</v>
+      </c>
+      <c r="Z19">
+        <v>0.2</v>
+      </c>
+      <c r="AA19">
+        <v>0.14285714285714199</v>
+      </c>
+      <c r="AB19">
+        <v>1</v>
+      </c>
+      <c r="AC19">
+        <v>4</v>
+      </c>
+      <c r="AD19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" t="s">
+        <v>239</v>
+      </c>
+      <c r="D20" t="s">
+        <v>240</v>
+      </c>
+      <c r="E20" t="s">
+        <v>241</v>
+      </c>
+      <c r="F20" t="s">
+        <v>179</v>
+      </c>
+      <c r="G20">
+        <v>0.99368288060644305</v>
+      </c>
+      <c r="H20" t="s">
+        <v>327</v>
+      </c>
+      <c r="I20">
+        <v>0.374999999999999</v>
+      </c>
+      <c r="J20">
+        <v>283</v>
+      </c>
+      <c r="K20">
+        <v>94.346289752650094</v>
+      </c>
+      <c r="L20">
+        <v>94.346289752650094</v>
+      </c>
+      <c r="M20">
+        <v>21</v>
+      </c>
+      <c r="N20">
+        <v>28.571428571428498</v>
+      </c>
+      <c r="O20">
+        <v>28.571428571428498</v>
+      </c>
+      <c r="P20">
+        <v>0.1</v>
+      </c>
+      <c r="Q20">
+        <v>28</v>
+      </c>
+      <c r="R20">
+        <v>0.56521739130434701</v>
+      </c>
+      <c r="S20">
+        <v>0.72222222222222199</v>
+      </c>
+      <c r="T20">
+        <v>0.46428571428571402</v>
+      </c>
+      <c r="U20">
+        <v>13</v>
+      </c>
+      <c r="V20">
+        <v>5</v>
+      </c>
+      <c r="W20">
+        <v>15</v>
+      </c>
+      <c r="X20">
+        <v>22</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>0.45714285714285702</v>
+      </c>
+      <c r="Z20">
+        <v>0.61538461538461497</v>
+      </c>
+      <c r="AA20">
+        <v>0.36363636363636298</v>
+      </c>
+      <c r="AB20">
+        <v>8</v>
+      </c>
+      <c r="AC20">
+        <v>5</v>
+      </c>
+      <c r="AD20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
+        <v>251</v>
+      </c>
+      <c r="D21" t="s">
+        <v>252</v>
+      </c>
+      <c r="E21" t="s">
+        <v>253</v>
+      </c>
+      <c r="F21" t="s">
+        <v>179</v>
+      </c>
+      <c r="G21">
+        <v>0.96378575776019404</v>
+      </c>
+      <c r="H21" t="s">
+        <v>328</v>
+      </c>
+      <c r="I21">
+        <v>0.56410256410256399</v>
+      </c>
+      <c r="J21">
+        <v>315</v>
+      </c>
+      <c r="K21">
+        <v>69.206349206349202</v>
+      </c>
+      <c r="L21">
+        <v>71.297808012093697</v>
+      </c>
+      <c r="M21">
+        <v>151</v>
+      </c>
+      <c r="N21">
+        <v>50.993377483443702</v>
+      </c>
+      <c r="O21">
+        <v>55.356354462314698</v>
+      </c>
+      <c r="P21">
+        <v>0.5</v>
+      </c>
+      <c r="Q21">
+        <v>86</v>
+      </c>
+      <c r="R21">
+        <v>0.65263157894736801</v>
+      </c>
+      <c r="S21">
+        <v>0.59615384615384603</v>
+      </c>
+      <c r="T21">
+        <v>0.72093023255813904</v>
+      </c>
+      <c r="U21">
+        <v>62</v>
+      </c>
+      <c r="V21">
+        <v>42</v>
+      </c>
+      <c r="W21">
+        <v>24</v>
+      </c>
+      <c r="X21">
+        <v>126</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>0.56410256410256399</v>
+      </c>
+      <c r="Z21">
+        <v>0.52380952380952295</v>
+      </c>
+      <c r="AA21">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="AB21">
+        <v>77</v>
+      </c>
+      <c r="AC21">
+        <v>70</v>
+      </c>
+      <c r="AD21">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" t="s">
+        <v>251</v>
+      </c>
+      <c r="D22" t="s">
+        <v>252</v>
+      </c>
+      <c r="E22" t="s">
+        <v>253</v>
+      </c>
+      <c r="F22" t="s">
+        <v>179</v>
+      </c>
+      <c r="G22">
+        <v>0.98478393183201396</v>
+      </c>
+      <c r="H22" t="s">
+        <v>329</v>
+      </c>
+      <c r="I22">
+        <v>0.48979591836734598</v>
+      </c>
+      <c r="J22">
+        <v>296</v>
+      </c>
+      <c r="K22">
+        <v>86.486486486486399</v>
+      </c>
+      <c r="L22">
+        <v>87.787162162162105</v>
+      </c>
+      <c r="M22">
+        <v>44</v>
+      </c>
+      <c r="N22">
+        <v>54.545454545454497</v>
+      </c>
+      <c r="O22">
+        <v>63.295454545454497</v>
+      </c>
+      <c r="P22">
+        <v>0.9</v>
+      </c>
+      <c r="Q22">
+        <v>31</v>
+      </c>
+      <c r="R22">
+        <v>0.60526315789473595</v>
+      </c>
+      <c r="S22">
+        <v>0.51111111111111096</v>
+      </c>
+      <c r="T22">
+        <v>0.74193548387096697</v>
+      </c>
+      <c r="U22">
+        <v>23</v>
+      </c>
+      <c r="V22">
+        <v>22</v>
+      </c>
+      <c r="W22">
+        <v>8</v>
+      </c>
+      <c r="X22">
+        <v>44</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Z22">
+        <v>0.5</v>
+      </c>
+      <c r="AA22">
+        <v>0.5</v>
+      </c>
+      <c r="AB22">
+        <v>22</v>
+      </c>
+      <c r="AC22">
+        <v>22</v>
+      </c>
+      <c r="AD22">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" t="s">
+        <v>147</v>
+      </c>
+      <c r="C23" t="s">
+        <v>251</v>
+      </c>
+      <c r="D23" t="s">
+        <v>252</v>
+      </c>
+      <c r="E23" t="s">
+        <v>253</v>
+      </c>
+      <c r="F23" t="s">
+        <v>179</v>
+      </c>
+      <c r="G23">
+        <v>0.980523432744978</v>
+      </c>
+      <c r="H23" t="s">
+        <v>330</v>
+      </c>
+      <c r="I23">
+        <v>0.507692307692307</v>
+      </c>
+      <c r="J23">
+        <v>294</v>
+      </c>
+      <c r="K23">
+        <v>81.632653061224403</v>
+      </c>
+      <c r="L23">
+        <v>82.517006802720999</v>
+      </c>
+      <c r="M23">
+        <v>60</v>
+      </c>
+      <c r="N23">
+        <v>55</v>
+      </c>
+      <c r="O23">
+        <v>59.3333333333333</v>
+      </c>
+      <c r="P23">
+        <v>0.5</v>
+      </c>
+      <c r="Q23">
+        <v>47</v>
+      </c>
+      <c r="R23">
+        <v>0.66055045871559603</v>
+      </c>
+      <c r="S23">
+        <v>0.58064516129032195</v>
+      </c>
+      <c r="T23">
+        <v>0.76595744680850997</v>
+      </c>
+      <c r="U23">
+        <v>36</v>
+      </c>
+      <c r="V23">
+        <v>26</v>
+      </c>
+      <c r="W23">
+        <v>11</v>
+      </c>
+      <c r="X23">
+        <v>56</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>0.507692307692307</v>
+      </c>
+      <c r="Z23">
+        <v>0.445945945945945</v>
+      </c>
+      <c r="AA23">
+        <v>0.58928571428571397</v>
+      </c>
+      <c r="AB23">
+        <v>33</v>
+      </c>
+      <c r="AC23">
+        <v>41</v>
+      </c>
+      <c r="AD23">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>117</v>
+      </c>
+      <c r="B24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" t="s">
+        <v>251</v>
+      </c>
+      <c r="D24" t="s">
+        <v>252</v>
+      </c>
+      <c r="E24" t="s">
+        <v>253</v>
+      </c>
+      <c r="F24" t="s">
+        <v>179</v>
+      </c>
+      <c r="G24">
+        <v>0.99878271454656098</v>
+      </c>
+      <c r="H24" t="s">
+        <v>257</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>279</v>
+      </c>
+      <c r="K24">
+        <v>98.566308243727605</v>
+      </c>
+      <c r="L24">
+        <v>98.566308243727605</v>
+      </c>
+      <c r="M24">
+        <v>4</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0.3</v>
+      </c>
+      <c r="Q24">
+        <v>2</v>
+      </c>
+      <c r="R24">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <v>0.5</v>
+      </c>
+      <c r="U24">
+        <v>1</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="X24">
+        <v>4</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>1</v>
+      </c>
+      <c r="AD24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" t="s">
+        <v>251</v>
+      </c>
+      <c r="D25" t="s">
+        <v>252</v>
+      </c>
+      <c r="E25" t="s">
+        <v>253</v>
+      </c>
+      <c r="F25" t="s">
+        <v>179</v>
+      </c>
+      <c r="G25">
+        <v>0.99239196591600698</v>
+      </c>
+      <c r="H25" t="s">
+        <v>331</v>
+      </c>
+      <c r="I25">
+        <v>0.69135802469135799</v>
+      </c>
+      <c r="J25">
+        <v>284</v>
+      </c>
+      <c r="K25">
+        <v>91.901408450704196</v>
+      </c>
+      <c r="L25">
+        <v>92.723004694835595</v>
+      </c>
+      <c r="M25">
+        <v>44</v>
+      </c>
+      <c r="N25">
+        <v>63.636363636363598</v>
+      </c>
+      <c r="O25">
+        <v>68.939393939393895</v>
+      </c>
+      <c r="P25">
+        <v>0.9</v>
+      </c>
+      <c r="Q25">
+        <v>24</v>
+      </c>
+      <c r="R25">
+        <v>0.67857142857142805</v>
+      </c>
+      <c r="S25">
+        <v>0.59375</v>
+      </c>
+      <c r="T25">
+        <v>0.79166666666666596</v>
+      </c>
+      <c r="U25">
+        <v>19</v>
+      </c>
+      <c r="V25">
+        <v>13</v>
+      </c>
+      <c r="W25">
+        <v>5</v>
+      </c>
+      <c r="X25">
+        <v>39</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>0.61971830985915499</v>
+      </c>
+      <c r="Z25">
+        <v>0.6875</v>
+      </c>
+      <c r="AA25">
+        <v>0.56410256410256399</v>
+      </c>
+      <c r="AB25">
+        <v>22</v>
+      </c>
+      <c r="AC25">
+        <v>10</v>
+      </c>
+      <c r="AD25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>134</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" t="s">
+        <v>259</v>
+      </c>
+      <c r="D26" t="s">
+        <v>260</v>
+      </c>
+      <c r="E26" t="s">
+        <v>261</v>
+      </c>
+      <c r="F26" t="s">
+        <v>179</v>
+      </c>
+      <c r="G26">
+        <v>0.99654874892148404</v>
+      </c>
+      <c r="H26" t="s">
+        <v>332</v>
+      </c>
+      <c r="I26">
+        <v>0.79999999999999905</v>
+      </c>
+      <c r="J26">
+        <v>308</v>
+      </c>
+      <c r="K26">
+        <v>96.103896103896105</v>
+      </c>
+      <c r="L26">
+        <v>96.883116883116799</v>
+      </c>
+      <c r="M26">
+        <v>34</v>
+      </c>
+      <c r="N26">
+        <v>70.588235294117595</v>
+      </c>
+      <c r="O26">
+        <v>77.647058823529406</v>
+      </c>
+      <c r="P26">
+        <v>0.1</v>
+      </c>
+      <c r="Q26">
+        <v>17</v>
+      </c>
+      <c r="R26">
+        <v>0.83870967741935398</v>
+      </c>
+      <c r="S26">
+        <v>0.92857142857142805</v>
+      </c>
+      <c r="T26">
+        <v>0.76470588235294101</v>
+      </c>
+      <c r="U26">
+        <v>13</v>
+      </c>
+      <c r="V26">
+        <v>1</v>
+      </c>
+      <c r="W26">
+        <v>4</v>
+      </c>
+      <c r="X26">
+        <v>29</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>0.80645161290322498</v>
+      </c>
+      <c r="Z26">
+        <v>0.75757575757575701</v>
+      </c>
+      <c r="AA26">
+        <v>0.86206896551724099</v>
+      </c>
+      <c r="AB26">
+        <v>25</v>
+      </c>
+      <c r="AC26">
+        <v>8</v>
+      </c>
+      <c r="AD26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>134</v>
+      </c>
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" t="s">
+        <v>259</v>
+      </c>
+      <c r="D27" t="s">
+        <v>260</v>
+      </c>
+      <c r="E27" t="s">
+        <v>261</v>
+      </c>
+      <c r="F27" t="s">
+        <v>179</v>
+      </c>
+      <c r="G27">
+        <v>0.97814207650273199</v>
+      </c>
+      <c r="H27" t="s">
+        <v>333</v>
+      </c>
+      <c r="I27">
+        <v>0.70992366412213703</v>
+      </c>
+      <c r="J27">
+        <v>324</v>
+      </c>
+      <c r="K27">
+        <v>79.938271604938194</v>
+      </c>
+      <c r="L27">
+        <v>83.330705645520396</v>
+      </c>
+      <c r="M27">
+        <v>151</v>
+      </c>
+      <c r="N27">
+        <v>61.589403973509903</v>
+      </c>
+      <c r="O27">
+        <v>68.868533967871699</v>
+      </c>
+      <c r="P27">
+        <v>0.1</v>
+      </c>
+      <c r="Q27">
+        <v>66</v>
+      </c>
+      <c r="R27">
+        <v>0.65671641791044699</v>
+      </c>
+      <c r="S27">
+        <v>0.64705882352941102</v>
+      </c>
+      <c r="T27">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="U27">
+        <v>44</v>
+      </c>
+      <c r="V27">
+        <v>24</v>
+      </c>
+      <c r="W27">
+        <v>22</v>
+      </c>
+      <c r="X27">
+        <v>136</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>0.70503597122302097</v>
+      </c>
+      <c r="Z27">
+        <v>0.69014084507042195</v>
+      </c>
+      <c r="AA27">
+        <v>0.72058823529411697</v>
+      </c>
+      <c r="AB27">
+        <v>98</v>
+      </c>
+      <c r="AC27">
+        <v>44</v>
+      </c>
+      <c r="AD27">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>134</v>
+      </c>
+      <c r="B28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" t="s">
+        <v>259</v>
+      </c>
+      <c r="D28" t="s">
+        <v>260</v>
+      </c>
+      <c r="E28" t="s">
+        <v>261</v>
+      </c>
+      <c r="F28" t="s">
+        <v>179</v>
+      </c>
+      <c r="G28">
+        <v>0.99309749784296797</v>
+      </c>
+      <c r="H28" t="s">
+        <v>334</v>
+      </c>
+      <c r="I28">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="J28">
+        <v>304</v>
+      </c>
+      <c r="K28">
+        <v>93.75</v>
+      </c>
+      <c r="L28">
+        <v>93.75</v>
+      </c>
+      <c r="M28">
+        <v>20</v>
+      </c>
+      <c r="N28">
+        <v>30</v>
+      </c>
+      <c r="O28">
+        <v>30</v>
+      </c>
+      <c r="P28">
+        <v>0.1</v>
+      </c>
+      <c r="Q28">
+        <v>10</v>
+      </c>
+      <c r="R28">
+        <v>0.374999999999999</v>
+      </c>
+      <c r="S28">
+        <v>0.5</v>
+      </c>
+      <c r="T28">
+        <v>0.3</v>
+      </c>
+      <c r="U28">
+        <v>3</v>
+      </c>
+      <c r="V28">
+        <v>3</v>
+      </c>
+      <c r="W28">
+        <v>7</v>
+      </c>
+      <c r="X28">
+        <v>25</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>0.42857142857142799</v>
+      </c>
+      <c r="Z28">
+        <v>0.52941176470588203</v>
+      </c>
+      <c r="AA28">
+        <v>0.36</v>
+      </c>
+      <c r="AB28">
+        <v>9</v>
+      </c>
+      <c r="AC28">
+        <v>8</v>
+      </c>
+      <c r="AD28">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>134</v>
+      </c>
+      <c r="B29" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" t="s">
+        <v>259</v>
+      </c>
+      <c r="D29" t="s">
+        <v>260</v>
+      </c>
+      <c r="E29" t="s">
+        <v>261</v>
+      </c>
+      <c r="F29" t="s">
+        <v>179</v>
+      </c>
+      <c r="G29">
+        <v>0.99884958297382798</v>
+      </c>
+      <c r="H29" t="s">
+        <v>265</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>303</v>
+      </c>
+      <c r="K29">
+        <v>99.6699669966996</v>
+      </c>
+      <c r="L29">
+        <v>99.6699669966996</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0.5</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>1</v>
+      </c>
+      <c r="X29">
+        <v>4</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>134</v>
+      </c>
+      <c r="B30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" t="s">
+        <v>259</v>
+      </c>
+      <c r="D30" t="s">
+        <v>260</v>
+      </c>
+      <c r="E30" t="s">
+        <v>261</v>
+      </c>
+      <c r="F30" t="s">
+        <v>179</v>
+      </c>
+      <c r="G30">
+        <v>0.99108426804716698</v>
+      </c>
+      <c r="H30" t="s">
+        <v>335</v>
+      </c>
+      <c r="I30">
+        <v>0.57534246575342396</v>
+      </c>
+      <c r="J30">
+        <v>304</v>
+      </c>
+      <c r="K30">
+        <v>90.460526315789394</v>
+      </c>
+      <c r="L30">
+        <v>91.074561403508696</v>
+      </c>
+      <c r="M30">
+        <v>44</v>
+      </c>
+      <c r="N30">
+        <v>47.727272727272698</v>
+      </c>
+      <c r="O30">
+        <v>51.969696969696898</v>
+      </c>
+      <c r="P30">
+        <v>0.2</v>
+      </c>
+      <c r="Q30">
+        <v>15</v>
+      </c>
+      <c r="R30">
+        <v>0.749999999999999</v>
+      </c>
+      <c r="S30">
+        <v>1</v>
+      </c>
+      <c r="T30">
+        <v>0.6</v>
+      </c>
+      <c r="U30">
+        <v>9</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>6</v>
+      </c>
+      <c r="X30">
+        <v>43</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>0.57534246575342396</v>
+      </c>
+      <c r="Z30">
+        <v>0.7</v>
+      </c>
+      <c r="AA30">
+        <v>0.48837209302325502</v>
+      </c>
+      <c r="AB30">
+        <v>21</v>
+      </c>
+      <c r="AC30">
+        <v>9</v>
+      </c>
+      <c r="AD30">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>134</v>
+      </c>
+      <c r="B31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" t="s">
+        <v>259</v>
+      </c>
+      <c r="D31" t="s">
+        <v>260</v>
+      </c>
+      <c r="E31" t="s">
+        <v>261</v>
+      </c>
+      <c r="F31" t="s">
+        <v>179</v>
+      </c>
+      <c r="G31">
+        <v>0.98935864250790895</v>
+      </c>
+      <c r="H31" t="s">
+        <v>336</v>
+      </c>
+      <c r="I31">
+        <v>0.633663366336633</v>
+      </c>
+      <c r="J31">
+        <v>310</v>
+      </c>
+      <c r="K31">
+        <v>88.709677419354804</v>
+      </c>
+      <c r="L31">
+        <v>89.215053763440807</v>
+      </c>
+      <c r="M31">
+        <v>63</v>
+      </c>
+      <c r="N31">
+        <v>52.380952380952301</v>
+      </c>
+      <c r="O31">
+        <v>54.867724867724803</v>
+      </c>
+      <c r="P31">
+        <v>0.1</v>
+      </c>
+      <c r="Q31">
+        <v>36</v>
+      </c>
+      <c r="R31">
+        <v>0.634920634920635</v>
+      </c>
+      <c r="S31">
+        <v>0.74074074074074003</v>
+      </c>
+      <c r="T31">
+        <v>0.55555555555555503</v>
+      </c>
+      <c r="U31">
+        <v>20</v>
+      </c>
+      <c r="V31">
+        <v>7</v>
+      </c>
+      <c r="W31">
+        <v>16</v>
+      </c>
+      <c r="X31">
+        <v>57</v>
+      </c>
+      <c r="Y31" s="1">
+        <v>0.67272727272727195</v>
+      </c>
+      <c r="Z31">
+        <v>0.69811320754716899</v>
+      </c>
+      <c r="AA31">
+        <v>0.64912280701754299</v>
+      </c>
+      <c r="AB31">
+        <v>37</v>
+      </c>
+      <c r="AC31">
+        <v>16</v>
+      </c>
+      <c r="AD31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>160</v>
+      </c>
+      <c r="B32" t="s">
+        <v>161</v>
+      </c>
+      <c r="C32" t="s">
+        <v>268</v>
+      </c>
+      <c r="D32" t="s">
+        <v>269</v>
+      </c>
+      <c r="E32" t="s">
+        <v>270</v>
+      </c>
+      <c r="F32" t="s">
+        <v>179</v>
+      </c>
+      <c r="G32">
+        <v>0.97146605444407996</v>
+      </c>
+      <c r="H32" t="s">
+        <v>337</v>
+      </c>
+      <c r="I32">
+        <v>0.53475935828876997</v>
+      </c>
+      <c r="J32">
+        <v>306</v>
+      </c>
+      <c r="K32">
+        <v>71.568627450980301</v>
+      </c>
+      <c r="L32">
+        <v>71.568627450980301</v>
+      </c>
+      <c r="M32">
+        <v>61</v>
+      </c>
+      <c r="N32">
+        <v>81.967213114754102</v>
+      </c>
+      <c r="O32">
+        <v>81.967213114754102</v>
+      </c>
+      <c r="P32">
+        <v>0.9</v>
+      </c>
+      <c r="Q32">
+        <v>40</v>
+      </c>
+      <c r="R32">
+        <v>0.55670103092783496</v>
+      </c>
+      <c r="S32">
+        <v>0.47368421052631499</v>
+      </c>
+      <c r="T32">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="U32">
+        <v>27</v>
+      </c>
+      <c r="V32">
+        <v>30</v>
+      </c>
+      <c r="W32">
+        <v>13</v>
+      </c>
+      <c r="X32">
+        <v>61</v>
+      </c>
+      <c r="Y32" s="1">
+        <v>0.52112676056338003</v>
+      </c>
+      <c r="Z32">
+        <v>0.45679012345678999</v>
+      </c>
+      <c r="AA32">
+        <v>0.60655737704918</v>
+      </c>
+      <c r="AB32">
+        <v>37</v>
+      </c>
+      <c r="AC32">
+        <v>44</v>
+      </c>
+      <c r="AD32">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>160</v>
+      </c>
+      <c r="B33" t="s">
+        <v>166</v>
+      </c>
+      <c r="C33" t="s">
+        <v>268</v>
+      </c>
+      <c r="D33" t="s">
+        <v>269</v>
+      </c>
+      <c r="E33" t="s">
+        <v>270</v>
+      </c>
+      <c r="F33" t="s">
+        <v>179</v>
+      </c>
+      <c r="G33">
+        <v>0.96753033781567699</v>
+      </c>
+      <c r="H33" t="s">
+        <v>338</v>
+      </c>
+      <c r="I33">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="J33">
+        <v>344</v>
+      </c>
+      <c r="K33">
+        <v>75.8720930232558</v>
+      </c>
+      <c r="L33">
+        <v>80.049435383737702</v>
+      </c>
+      <c r="M33">
+        <v>159</v>
+      </c>
+      <c r="N33">
+        <v>63.522012578616298</v>
+      </c>
+      <c r="O33">
+        <v>72.559784729596004</v>
+      </c>
+      <c r="P33">
+        <v>0.9</v>
+      </c>
+      <c r="Q33">
+        <v>94</v>
+      </c>
+      <c r="R33">
+        <v>0.64088397790055196</v>
+      </c>
+      <c r="S33">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="T33">
+        <v>0.61702127659574402</v>
+      </c>
+      <c r="U33">
+        <v>58</v>
+      </c>
+      <c r="V33">
+        <v>29</v>
+      </c>
+      <c r="W33">
+        <v>36</v>
+      </c>
+      <c r="X33">
+        <v>137</v>
+      </c>
+      <c r="Y33" s="1">
+        <v>0.66425992779783305</v>
+      </c>
+      <c r="Z33">
+        <v>0.65714285714285703</v>
+      </c>
+      <c r="AA33">
+        <v>0.67153284671532798</v>
+      </c>
+      <c r="AB33">
+        <v>92</v>
+      </c>
+      <c r="AC33">
+        <v>48</v>
+      </c>
+      <c r="AD33">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>160</v>
+      </c>
+      <c r="B34" t="s">
+        <v>171</v>
+      </c>
+      <c r="C34" t="s">
+        <v>268</v>
+      </c>
+      <c r="D34" t="s">
+        <v>269</v>
+      </c>
+      <c r="E34" t="s">
+        <v>270</v>
+      </c>
+      <c r="F34" t="s">
+        <v>179</v>
+      </c>
+      <c r="G34">
+        <v>0.95178747130206598</v>
+      </c>
+      <c r="H34" t="s">
+        <v>339</v>
+      </c>
+      <c r="I34">
+        <v>0.473118279569892</v>
+      </c>
+      <c r="J34">
+        <v>334</v>
+      </c>
+      <c r="K34">
+        <v>59.880239520958</v>
+      </c>
+      <c r="L34">
+        <v>60.648702594810302</v>
+      </c>
+      <c r="M34">
+        <v>112</v>
+      </c>
+      <c r="N34">
+        <v>60.714285714285701</v>
+      </c>
+      <c r="O34">
+        <v>63.005952380952301</v>
+      </c>
+      <c r="P34">
+        <v>0.6</v>
+      </c>
+      <c r="Q34">
+        <v>65</v>
+      </c>
+      <c r="R34">
+        <v>0.52571428571428502</v>
+      </c>
+      <c r="S34">
+        <v>0.41818181818181799</v>
+      </c>
+      <c r="T34">
+        <v>0.70769230769230695</v>
+      </c>
+      <c r="U34">
+        <v>46</v>
+      </c>
+      <c r="V34">
+        <v>64</v>
+      </c>
+      <c r="W34">
+        <v>19</v>
+      </c>
+      <c r="X34">
+        <v>95</v>
+      </c>
+      <c r="Y34" s="1">
+        <v>0.46666666666666601</v>
+      </c>
+      <c r="Z34">
+        <v>0.36</v>
+      </c>
+      <c r="AA34">
+        <v>0.66315789473684195</v>
+      </c>
+      <c r="AB34">
+        <v>63</v>
+      </c>
+      <c r="AC34">
+        <v>112</v>
+      </c>
+      <c r="AD34">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96DB2610-41A0-4FBA-A977-EFC7065CE8F3}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8906,19 +15447,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2A5DC65-F61D-4915-92F9-4012B56D908D}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8583DFB6-1C5F-4E8D-BAA4-B0A26012EA60}">
   <dimension ref="A1:AE34"/>
   <sheetViews>
@@ -12157,7 +18686,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D9431E6-62E4-4A11-8254-C840C95A0DE2}">
   <dimension ref="A1:AD34"/>
   <sheetViews>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxwe\Google Drive\Code\Python\extract_COVID19_events_from_Twitter\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B3138D-7699-45C2-926C-590676B24B2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7055150E-CE60-4C0D-8970-DEA57E2A03FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{09ECAD97-3C1E-45DE-875A-3C5CD2F3C873}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="6" xr2:uid="{09ECAD97-3C1E-45DE-875A-3C5CD2F3C873}"/>
   </bookViews>
   <sheets>
     <sheet name="comparison" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1656" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1920" uniqueCount="400">
   <si>
     <t>Event</t>
   </si>
@@ -1160,6 +1160,87 @@
   </si>
   <si>
     <t>[[2932, 22], [56, 39]]</t>
+  </si>
+  <si>
+    <t>[[5671, 0], [18, 0]]</t>
+  </si>
+  <si>
+    <t>[[5627, 0], [62, 0]]</t>
+  </si>
+  <si>
+    <t>[[5586, 0], [103, 0]]</t>
+  </si>
+  <si>
+    <t>[[5566, 0], [123, 0]]</t>
+  </si>
+  <si>
+    <t>[[5644, 0], [45, 0]]</t>
+  </si>
+  <si>
+    <t>[[5204, 0], [485, 0]]</t>
+  </si>
+  <si>
+    <t>[[5643, 0], [46, 0]]</t>
+  </si>
+  <si>
+    <t>[[5676, 0], [13, 0]]</t>
+  </si>
+  <si>
+    <t>[[5661, 0], [28, 0]]</t>
+  </si>
+  <si>
+    <t>[[5508, 0], [181, 0]]</t>
+  </si>
+  <si>
+    <t>[[3115, 0], [51, 0]]</t>
+  </si>
+  <si>
+    <t>[[3146, 0], [20, 0]]</t>
+  </si>
+  <si>
+    <t>[[3018, 0], [148, 0]]</t>
+  </si>
+  <si>
+    <t>[[3142, 0], [24, 0]]</t>
+  </si>
+  <si>
+    <t>[[3145, 0], [21, 0]]</t>
+  </si>
+  <si>
+    <t>[[3160, 0], [126, 0]]</t>
+  </si>
+  <si>
+    <t>[[3242, 0], [44, 0]]</t>
+  </si>
+  <si>
+    <t>[[3230, 0], [56, 0]]</t>
+  </si>
+  <si>
+    <t>[[3247, 0], [39, 0]]</t>
+  </si>
+  <si>
+    <t>[[3438, 10], [7, 22]]</t>
+  </si>
+  <si>
+    <t>[[3286, 55], [34, 102]]</t>
+  </si>
+  <si>
+    <t>[[3450, 2], [16, 9]]</t>
+  </si>
+  <si>
+    <t>[[3421, 13], [19, 24]]</t>
+  </si>
+  <si>
+    <t>[[3390, 30], [14, 43]]</t>
+  </si>
+  <si>
+    <t>[[2988, 0], [61, 0]]</t>
+  </si>
+  <si>
+    <t>[[2912, 0], [137, 0]]</t>
+  </si>
+  <si>
+    <t>[[2954, 0], [95, 0]]</t>
   </si>
 </sst>
 </file>
@@ -1534,7 +1615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E09BEF8E-45BB-4FF8-8E9F-14976C2DFCDC}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -1611,15 +1692,15 @@
       </c>
       <c r="B6" s="4">
         <f>'electra-large'!AE$2</f>
-        <v>0</v>
+        <v>0.63914373088685017</v>
       </c>
       <c r="C6" s="4">
         <f>'electra-large'!AF$2</f>
-        <v>0</v>
+        <v>9.2930191196087156E-2</v>
       </c>
       <c r="D6" s="4">
         <f>'electra-large'!AG$2</f>
-        <v>0</v>
+        <v>0.16226708074534163</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
@@ -1649,7 +1730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A7C2FD4-A612-48B7-B14F-F3EAA1F8E07F}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
@@ -12269,7 +12350,7 @@
   <dimension ref="A1:AG34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AG3" sqref="AG3"/>
+      <selection activeCell="AE1" sqref="AE1:AG2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -15437,12 +15518,3170 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96DB2610-41A0-4FBA-A977-EFC7065CE8F3}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AG34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AG4" sqref="AG4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="24" width="0" hidden="1" customWidth="1"/>
+    <col min="26" max="30" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>309</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G2">
+        <v>0.99683599929688804</v>
+      </c>
+      <c r="H2" t="s">
+        <v>373</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>587</v>
+      </c>
+      <c r="K2">
+        <v>97.274275979557004</v>
+      </c>
+      <c r="L2">
+        <v>97.274275979557004</v>
+      </c>
+      <c r="M2">
+        <v>16</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0.5</v>
+      </c>
+      <c r="Q2">
+        <v>16</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>16</v>
+      </c>
+      <c r="X2">
+        <v>18</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>18</v>
+      </c>
+      <c r="AE2" s="2">
+        <f>SUM(AB2:AB34)/(SUM(AB2:AB34)+SUM(AC2:AC34))</f>
+        <v>0.63914373088685017</v>
+      </c>
+      <c r="AF2" s="2">
+        <f t="array" ref="AF2">SUM(AB2:AB34)/(SUM(AB2:AB34)+SUM(AD2:AD34))</f>
+        <v>9.2930191196087156E-2</v>
+      </c>
+      <c r="AG2" s="2">
+        <f>2*(AE2*AF2)/(AE2+AF2)</f>
+        <v>0.16226708074534163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G3">
+        <v>0.98910177535595001</v>
+      </c>
+      <c r="H3" t="s">
+        <v>374</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>587</v>
+      </c>
+      <c r="K3">
+        <v>90.800681431005103</v>
+      </c>
+      <c r="L3">
+        <v>90.800681431005103</v>
+      </c>
+      <c r="M3">
+        <v>54</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0.5</v>
+      </c>
+      <c r="Q3">
+        <v>27</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>27</v>
+      </c>
+      <c r="X3">
+        <v>62</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E4" t="s">
+        <v>228</v>
+      </c>
+      <c r="F4" t="s">
+        <v>179</v>
+      </c>
+      <c r="G4">
+        <v>0.98189488486553</v>
+      </c>
+      <c r="H4" t="s">
+        <v>375</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>587</v>
+      </c>
+      <c r="K4">
+        <v>83.134582623509303</v>
+      </c>
+      <c r="L4">
+        <v>83.134582623509303</v>
+      </c>
+      <c r="M4">
+        <v>99</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0.5</v>
+      </c>
+      <c r="Q4">
+        <v>47</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>47</v>
+      </c>
+      <c r="X4">
+        <v>103</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D5" t="s">
+        <v>227</v>
+      </c>
+      <c r="E5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F5" t="s">
+        <v>179</v>
+      </c>
+      <c r="G5">
+        <v>0.97837932852873899</v>
+      </c>
+      <c r="H5" t="s">
+        <v>376</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>587</v>
+      </c>
+      <c r="K5">
+        <v>92.674616695059598</v>
+      </c>
+      <c r="L5">
+        <v>92.674616695059598</v>
+      </c>
+      <c r="M5">
+        <v>43</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0.5</v>
+      </c>
+      <c r="Q5">
+        <v>67</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>67</v>
+      </c>
+      <c r="X5">
+        <v>123</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D6" t="s">
+        <v>227</v>
+      </c>
+      <c r="E6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F6" t="s">
+        <v>179</v>
+      </c>
+      <c r="G6">
+        <v>0.99208999824222099</v>
+      </c>
+      <c r="H6" t="s">
+        <v>377</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>587</v>
+      </c>
+      <c r="K6">
+        <v>97.785349233390093</v>
+      </c>
+      <c r="L6">
+        <v>97.785349233390093</v>
+      </c>
+      <c r="M6">
+        <v>13</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0.5</v>
+      </c>
+      <c r="Q6">
+        <v>29</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>29</v>
+      </c>
+      <c r="X6">
+        <v>45</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D7" t="s">
+        <v>227</v>
+      </c>
+      <c r="E7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G7">
+        <v>0.91474775883283499</v>
+      </c>
+      <c r="H7" t="s">
+        <v>378</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>587</v>
+      </c>
+      <c r="K7">
+        <v>25.2129471890971</v>
+      </c>
+      <c r="L7">
+        <v>25.2129471890971</v>
+      </c>
+      <c r="M7">
+        <v>439</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0.5</v>
+      </c>
+      <c r="Q7">
+        <v>300</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>300</v>
+      </c>
+      <c r="X7">
+        <v>485</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E8" t="s">
+        <v>228</v>
+      </c>
+      <c r="F8" t="s">
+        <v>179</v>
+      </c>
+      <c r="G8">
+        <v>0.99191422042538202</v>
+      </c>
+      <c r="H8" t="s">
+        <v>379</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>587</v>
+      </c>
+      <c r="K8">
+        <v>93.015332197614995</v>
+      </c>
+      <c r="L8">
+        <v>93.015332197614995</v>
+      </c>
+      <c r="M8">
+        <v>41</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0.5</v>
+      </c>
+      <c r="Q8">
+        <v>35</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>35</v>
+      </c>
+      <c r="X8">
+        <v>46</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D9" t="s">
+        <v>227</v>
+      </c>
+      <c r="E9" t="s">
+        <v>228</v>
+      </c>
+      <c r="F9" t="s">
+        <v>179</v>
+      </c>
+      <c r="G9">
+        <v>0.99771488838108602</v>
+      </c>
+      <c r="H9" t="s">
+        <v>380</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>587</v>
+      </c>
+      <c r="K9">
+        <v>99.488926746166896</v>
+      </c>
+      <c r="L9">
+        <v>99.488926746166896</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0.5</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>13</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" t="s">
+        <v>226</v>
+      </c>
+      <c r="D10" t="s">
+        <v>227</v>
+      </c>
+      <c r="E10" t="s">
+        <v>228</v>
+      </c>
+      <c r="F10" t="s">
+        <v>179</v>
+      </c>
+      <c r="G10">
+        <v>0.99507822112849298</v>
+      </c>
+      <c r="H10" t="s">
+        <v>381</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>587</v>
+      </c>
+      <c r="K10">
+        <v>95.229982964224803</v>
+      </c>
+      <c r="L10">
+        <v>95.229982964224803</v>
+      </c>
+      <c r="M10">
+        <v>28</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0.5</v>
+      </c>
+      <c r="Q10">
+        <v>20</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>20</v>
+      </c>
+      <c r="X10">
+        <v>28</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" t="s">
+        <v>226</v>
+      </c>
+      <c r="D11" t="s">
+        <v>227</v>
+      </c>
+      <c r="E11" t="s">
+        <v>228</v>
+      </c>
+      <c r="F11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G11">
+        <v>0.968184215152047</v>
+      </c>
+      <c r="H11" t="s">
+        <v>382</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>587</v>
+      </c>
+      <c r="K11">
+        <v>69.505962521294705</v>
+      </c>
+      <c r="L11">
+        <v>69.505962521294705</v>
+      </c>
+      <c r="M11">
+        <v>179</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0.5</v>
+      </c>
+      <c r="Q11">
+        <v>110</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>110</v>
+      </c>
+      <c r="X11">
+        <v>181</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>239</v>
+      </c>
+      <c r="D12" t="s">
+        <v>240</v>
+      </c>
+      <c r="E12" t="s">
+        <v>241</v>
+      </c>
+      <c r="F12" t="s">
+        <v>179</v>
+      </c>
+      <c r="G12">
+        <v>0.99905243209096595</v>
+      </c>
+      <c r="H12" t="s">
+        <v>242</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>282</v>
+      </c>
+      <c r="K12">
+        <v>98.936170212765902</v>
+      </c>
+      <c r="L12">
+        <v>98.936170212765902</v>
+      </c>
+      <c r="M12">
+        <v>3</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0.5</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>1</v>
+      </c>
+      <c r="X12">
+        <v>3</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>239</v>
+      </c>
+      <c r="D13" t="s">
+        <v>240</v>
+      </c>
+      <c r="E13" t="s">
+        <v>241</v>
+      </c>
+      <c r="F13" t="s">
+        <v>179</v>
+      </c>
+      <c r="G13">
+        <v>0.99652558433354299</v>
+      </c>
+      <c r="H13" t="s">
+        <v>321</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>282</v>
+      </c>
+      <c r="K13">
+        <v>96.453900709219795</v>
+      </c>
+      <c r="L13">
+        <v>96.453900709219795</v>
+      </c>
+      <c r="M13">
+        <v>10</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0.5</v>
+      </c>
+      <c r="Q13">
+        <v>7</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>7</v>
+      </c>
+      <c r="X13">
+        <v>11</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>239</v>
+      </c>
+      <c r="D14" t="s">
+        <v>240</v>
+      </c>
+      <c r="E14" t="s">
+        <v>241</v>
+      </c>
+      <c r="F14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G14">
+        <v>0.98389134554642999</v>
+      </c>
+      <c r="H14" t="s">
+        <v>383</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>282</v>
+      </c>
+      <c r="K14">
+        <v>93.262411347517698</v>
+      </c>
+      <c r="L14">
+        <v>93.262411347517698</v>
+      </c>
+      <c r="M14">
+        <v>19</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0.5</v>
+      </c>
+      <c r="Q14">
+        <v>16</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>16</v>
+      </c>
+      <c r="X14">
+        <v>51</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
+        <v>239</v>
+      </c>
+      <c r="D15" t="s">
+        <v>240</v>
+      </c>
+      <c r="E15" t="s">
+        <v>241</v>
+      </c>
+      <c r="F15" t="s">
+        <v>179</v>
+      </c>
+      <c r="G15">
+        <v>0.99368288060644305</v>
+      </c>
+      <c r="H15" t="s">
+        <v>384</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>282</v>
+      </c>
+      <c r="K15">
+        <v>97.163120567375799</v>
+      </c>
+      <c r="L15">
+        <v>97.163120567375799</v>
+      </c>
+      <c r="M15">
+        <v>8</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0.5</v>
+      </c>
+      <c r="Q15">
+        <v>19</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>19</v>
+      </c>
+      <c r="X15">
+        <v>20</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" t="s">
+        <v>239</v>
+      </c>
+      <c r="D16" t="s">
+        <v>240</v>
+      </c>
+      <c r="E16" t="s">
+        <v>241</v>
+      </c>
+      <c r="F16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G16">
+        <v>0.99905243209096595</v>
+      </c>
+      <c r="H16" t="s">
+        <v>242</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>282</v>
+      </c>
+      <c r="K16">
+        <v>98.936170212765902</v>
+      </c>
+      <c r="L16">
+        <v>98.936170212765902</v>
+      </c>
+      <c r="M16">
+        <v>3</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0.5</v>
+      </c>
+      <c r="Q16">
+        <v>6</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>6</v>
+      </c>
+      <c r="X16">
+        <v>3</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" t="s">
+        <v>239</v>
+      </c>
+      <c r="D17" t="s">
+        <v>240</v>
+      </c>
+      <c r="E17" t="s">
+        <v>241</v>
+      </c>
+      <c r="F17" t="s">
+        <v>179</v>
+      </c>
+      <c r="G17">
+        <v>0.95325331648768097</v>
+      </c>
+      <c r="H17" t="s">
+        <v>385</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>282</v>
+      </c>
+      <c r="K17">
+        <v>51.418439716312001</v>
+      </c>
+      <c r="L17">
+        <v>51.418439716312001</v>
+      </c>
+      <c r="M17">
+        <v>137</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0.5</v>
+      </c>
+      <c r="Q17">
+        <v>98</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>98</v>
+      </c>
+      <c r="X17">
+        <v>148</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" t="s">
+        <v>239</v>
+      </c>
+      <c r="D18" t="s">
+        <v>240</v>
+      </c>
+      <c r="E18" t="s">
+        <v>241</v>
+      </c>
+      <c r="F18" t="s">
+        <v>179</v>
+      </c>
+      <c r="G18">
+        <v>0.99241945672773202</v>
+      </c>
+      <c r="H18" t="s">
+        <v>386</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>282</v>
+      </c>
+      <c r="K18">
+        <v>98.581560283687907</v>
+      </c>
+      <c r="L18">
+        <v>98.581560283687907</v>
+      </c>
+      <c r="M18">
+        <v>4</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0.5</v>
+      </c>
+      <c r="Q18">
+        <v>17</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>17</v>
+      </c>
+      <c r="X18">
+        <v>24</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" t="s">
+        <v>239</v>
+      </c>
+      <c r="D19" t="s">
+        <v>240</v>
+      </c>
+      <c r="E19" t="s">
+        <v>241</v>
+      </c>
+      <c r="F19" t="s">
+        <v>179</v>
+      </c>
+      <c r="G19">
+        <v>0.99778900821225502</v>
+      </c>
+      <c r="H19" t="s">
+        <v>326</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>282</v>
+      </c>
+      <c r="K19">
+        <v>98.226950354609897</v>
+      </c>
+      <c r="L19">
+        <v>98.226950354609897</v>
+      </c>
+      <c r="M19">
+        <v>5</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0.5</v>
+      </c>
+      <c r="Q19">
+        <v>9</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>9</v>
+      </c>
+      <c r="X19">
+        <v>7</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" t="s">
+        <v>239</v>
+      </c>
+      <c r="D20" t="s">
+        <v>240</v>
+      </c>
+      <c r="E20" t="s">
+        <v>241</v>
+      </c>
+      <c r="F20" t="s">
+        <v>179</v>
+      </c>
+      <c r="G20">
+        <v>0.99336702463676496</v>
+      </c>
+      <c r="H20" t="s">
+        <v>387</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>282</v>
+      </c>
+      <c r="K20">
+        <v>92.907801418439703</v>
+      </c>
+      <c r="L20">
+        <v>92.907801418439703</v>
+      </c>
+      <c r="M20">
+        <v>20</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0.5</v>
+      </c>
+      <c r="Q20">
+        <v>28</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>28</v>
+      </c>
+      <c r="X20">
+        <v>22</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
+        <v>251</v>
+      </c>
+      <c r="D21" t="s">
+        <v>252</v>
+      </c>
+      <c r="E21" t="s">
+        <v>253</v>
+      </c>
+      <c r="F21" t="s">
+        <v>179</v>
+      </c>
+      <c r="G21">
+        <v>0.961655508216676</v>
+      </c>
+      <c r="H21" t="s">
+        <v>388</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>279</v>
+      </c>
+      <c r="K21">
+        <v>57.706093189964101</v>
+      </c>
+      <c r="L21">
+        <v>57.706093189964101</v>
+      </c>
+      <c r="M21">
+        <v>118</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0.5</v>
+      </c>
+      <c r="Q21">
+        <v>86</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>86</v>
+      </c>
+      <c r="X21">
+        <v>126</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" t="s">
+        <v>251</v>
+      </c>
+      <c r="D22" t="s">
+        <v>252</v>
+      </c>
+      <c r="E22" t="s">
+        <v>253</v>
+      </c>
+      <c r="F22" t="s">
+        <v>179</v>
+      </c>
+      <c r="G22">
+        <v>0.98660986001217199</v>
+      </c>
+      <c r="H22" t="s">
+        <v>389</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>279</v>
+      </c>
+      <c r="K22">
+        <v>96.057347670250806</v>
+      </c>
+      <c r="L22">
+        <v>96.057347670250806</v>
+      </c>
+      <c r="M22">
+        <v>11</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0.5</v>
+      </c>
+      <c r="Q22">
+        <v>31</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>31</v>
+      </c>
+      <c r="X22">
+        <v>44</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" t="s">
+        <v>147</v>
+      </c>
+      <c r="C23" t="s">
+        <v>251</v>
+      </c>
+      <c r="D23" t="s">
+        <v>252</v>
+      </c>
+      <c r="E23" t="s">
+        <v>253</v>
+      </c>
+      <c r="F23" t="s">
+        <v>179</v>
+      </c>
+      <c r="G23">
+        <v>0.98295800365185604</v>
+      </c>
+      <c r="H23" t="s">
+        <v>390</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>279</v>
+      </c>
+      <c r="K23">
+        <v>95.6989247311828</v>
+      </c>
+      <c r="L23">
+        <v>95.6989247311828</v>
+      </c>
+      <c r="M23">
+        <v>12</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0.5</v>
+      </c>
+      <c r="Q23">
+        <v>47</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>47</v>
+      </c>
+      <c r="X23">
+        <v>56</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>117</v>
+      </c>
+      <c r="B24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" t="s">
+        <v>251</v>
+      </c>
+      <c r="D24" t="s">
+        <v>252</v>
+      </c>
+      <c r="E24" t="s">
+        <v>253</v>
+      </c>
+      <c r="F24" t="s">
+        <v>179</v>
+      </c>
+      <c r="G24">
+        <v>0.99878271454656098</v>
+      </c>
+      <c r="H24" t="s">
+        <v>257</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>279</v>
+      </c>
+      <c r="K24">
+        <v>98.566308243727605</v>
+      </c>
+      <c r="L24">
+        <v>98.566308243727605</v>
+      </c>
+      <c r="M24">
+        <v>4</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0.5</v>
+      </c>
+      <c r="Q24">
+        <v>2</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>2</v>
+      </c>
+      <c r="X24">
+        <v>4</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" t="s">
+        <v>251</v>
+      </c>
+      <c r="D25" t="s">
+        <v>252</v>
+      </c>
+      <c r="E25" t="s">
+        <v>253</v>
+      </c>
+      <c r="F25" t="s">
+        <v>179</v>
+      </c>
+      <c r="G25">
+        <v>0.98813146682897102</v>
+      </c>
+      <c r="H25" t="s">
+        <v>391</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>279</v>
+      </c>
+      <c r="K25">
+        <v>86.021505376343995</v>
+      </c>
+      <c r="L25">
+        <v>86.021505376343995</v>
+      </c>
+      <c r="M25">
+        <v>39</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.5</v>
+      </c>
+      <c r="Q25">
+        <v>24</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>24</v>
+      </c>
+      <c r="X25">
+        <v>39</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>134</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" t="s">
+        <v>259</v>
+      </c>
+      <c r="D26" t="s">
+        <v>260</v>
+      </c>
+      <c r="E26" t="s">
+        <v>261</v>
+      </c>
+      <c r="F26" t="s">
+        <v>179</v>
+      </c>
+      <c r="G26">
+        <v>0.99511072763876895</v>
+      </c>
+      <c r="H26" t="s">
+        <v>392</v>
+      </c>
+      <c r="I26">
+        <v>0.72131147540983598</v>
+      </c>
+      <c r="J26">
+        <v>309</v>
+      </c>
+      <c r="K26">
+        <v>95.145631067961105</v>
+      </c>
+      <c r="L26">
+        <v>96.396979503775597</v>
+      </c>
+      <c r="M26">
+        <v>35</v>
+      </c>
+      <c r="N26">
+        <v>62.857142857142797</v>
+      </c>
+      <c r="O26">
+        <v>73.904761904761898</v>
+      </c>
+      <c r="P26">
+        <v>0.6</v>
+      </c>
+      <c r="Q26">
+        <v>17</v>
+      </c>
+      <c r="R26">
+        <v>0.94117647058823495</v>
+      </c>
+      <c r="S26">
+        <v>0.94117647058823495</v>
+      </c>
+      <c r="T26">
+        <v>0.94117647058823495</v>
+      </c>
+      <c r="U26">
+        <v>16</v>
+      </c>
+      <c r="V26">
+        <v>1</v>
+      </c>
+      <c r="W26">
+        <v>1</v>
+      </c>
+      <c r="X26">
+        <v>29</v>
+      </c>
+      <c r="Y26">
+        <v>0.73333333333333295</v>
+      </c>
+      <c r="Z26">
+        <v>0.70967741935483797</v>
+      </c>
+      <c r="AA26">
+        <v>0.75862068965517204</v>
+      </c>
+      <c r="AB26">
+        <v>22</v>
+      </c>
+      <c r="AC26">
+        <v>9</v>
+      </c>
+      <c r="AD26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>134</v>
+      </c>
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" t="s">
+        <v>259</v>
+      </c>
+      <c r="D27" t="s">
+        <v>260</v>
+      </c>
+      <c r="E27" t="s">
+        <v>261</v>
+      </c>
+      <c r="F27" t="s">
+        <v>179</v>
+      </c>
+      <c r="G27">
+        <v>0.97440322116767297</v>
+      </c>
+      <c r="H27" t="s">
+        <v>393</v>
+      </c>
+      <c r="I27">
+        <v>0.69624573378839505</v>
+      </c>
+      <c r="J27">
+        <v>337</v>
+      </c>
+      <c r="K27">
+        <v>76.261127596439096</v>
+      </c>
+      <c r="L27">
+        <v>80.358502361469704</v>
+      </c>
+      <c r="M27">
+        <v>161</v>
+      </c>
+      <c r="N27">
+        <v>63.354037267080699</v>
+      </c>
+      <c r="O27">
+        <v>71.930529787672597</v>
+      </c>
+      <c r="P27">
+        <v>0.3</v>
+      </c>
+      <c r="Q27">
+        <v>66</v>
+      </c>
+      <c r="R27">
+        <v>0.65806451612903205</v>
+      </c>
+      <c r="S27">
+        <v>0.57303370786516805</v>
+      </c>
+      <c r="T27">
+        <v>0.77272727272727204</v>
+      </c>
+      <c r="U27">
+        <v>51</v>
+      </c>
+      <c r="V27">
+        <v>38</v>
+      </c>
+      <c r="W27">
+        <v>15</v>
+      </c>
+      <c r="X27">
+        <v>136</v>
+      </c>
+      <c r="Y27">
+        <v>0.70033670033670004</v>
+      </c>
+      <c r="Z27">
+        <v>0.64596273291925399</v>
+      </c>
+      <c r="AA27">
+        <v>0.76470588235294101</v>
+      </c>
+      <c r="AB27">
+        <v>104</v>
+      </c>
+      <c r="AC27">
+        <v>57</v>
+      </c>
+      <c r="AD27">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>134</v>
+      </c>
+      <c r="B28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" t="s">
+        <v>259</v>
+      </c>
+      <c r="D28" t="s">
+        <v>260</v>
+      </c>
+      <c r="E28" t="s">
+        <v>261</v>
+      </c>
+      <c r="F28" t="s">
+        <v>179</v>
+      </c>
+      <c r="G28">
+        <v>0.994823123382226</v>
+      </c>
+      <c r="H28" t="s">
+        <v>394</v>
+      </c>
+      <c r="I28">
+        <v>0.5</v>
+      </c>
+      <c r="J28">
+        <v>304</v>
+      </c>
+      <c r="K28">
+        <v>95.065789473684205</v>
+      </c>
+      <c r="L28">
+        <v>95.328947368420998</v>
+      </c>
+      <c r="M28">
+        <v>23</v>
+      </c>
+      <c r="N28">
+        <v>39.130434782608603</v>
+      </c>
+      <c r="O28">
+        <v>42.6086956521739</v>
+      </c>
+      <c r="P28">
+        <v>0.5</v>
+      </c>
+      <c r="Q28">
+        <v>10</v>
+      </c>
+      <c r="R28">
+        <v>0.28571428571428498</v>
+      </c>
+      <c r="S28">
+        <v>0.5</v>
+      </c>
+      <c r="T28">
+        <v>0.2</v>
+      </c>
+      <c r="U28">
+        <v>2</v>
+      </c>
+      <c r="V28">
+        <v>2</v>
+      </c>
+      <c r="W28">
+        <v>8</v>
+      </c>
+      <c r="X28">
+        <v>25</v>
+      </c>
+      <c r="Y28">
+        <v>0.5</v>
+      </c>
+      <c r="Z28">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="AA28">
+        <v>0.36</v>
+      </c>
+      <c r="AB28">
+        <v>9</v>
+      </c>
+      <c r="AC28">
+        <v>2</v>
+      </c>
+      <c r="AD28">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>134</v>
+      </c>
+      <c r="B29" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" t="s">
+        <v>259</v>
+      </c>
+      <c r="D29" t="s">
+        <v>260</v>
+      </c>
+      <c r="E29" t="s">
+        <v>261</v>
+      </c>
+      <c r="F29" t="s">
+        <v>179</v>
+      </c>
+      <c r="G29">
+        <v>0.99884958297382798</v>
+      </c>
+      <c r="H29" t="s">
+        <v>265</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>303</v>
+      </c>
+      <c r="K29">
+        <v>99.6699669966996</v>
+      </c>
+      <c r="L29">
+        <v>99.6699669966996</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0.5</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>1</v>
+      </c>
+      <c r="X29">
+        <v>4</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>134</v>
+      </c>
+      <c r="B30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" t="s">
+        <v>259</v>
+      </c>
+      <c r="D30" t="s">
+        <v>260</v>
+      </c>
+      <c r="E30" t="s">
+        <v>261</v>
+      </c>
+      <c r="F30" t="s">
+        <v>179</v>
+      </c>
+      <c r="G30">
+        <v>0.99079666379062403</v>
+      </c>
+      <c r="H30" t="s">
+        <v>395</v>
+      </c>
+      <c r="I30">
+        <v>0.6</v>
+      </c>
+      <c r="J30">
+        <v>305</v>
+      </c>
+      <c r="K30">
+        <v>90.163934426229503</v>
+      </c>
+      <c r="L30">
+        <v>90.775956284152898</v>
+      </c>
+      <c r="M30">
+        <v>44</v>
+      </c>
+      <c r="N30">
+        <v>54.545454545454497</v>
+      </c>
+      <c r="O30">
+        <v>58.787878787878697</v>
+      </c>
+      <c r="P30">
+        <v>0.1</v>
+      </c>
+      <c r="Q30">
+        <v>15</v>
+      </c>
+      <c r="R30">
+        <v>0.83870967741935398</v>
+      </c>
+      <c r="S30">
+        <v>0.8125</v>
+      </c>
+      <c r="T30">
+        <v>0.86666666666666603</v>
+      </c>
+      <c r="U30">
+        <v>13</v>
+      </c>
+      <c r="V30">
+        <v>3</v>
+      </c>
+      <c r="W30">
+        <v>2</v>
+      </c>
+      <c r="X30">
+        <v>43</v>
+      </c>
+      <c r="Y30">
+        <v>0.659574468085106</v>
+      </c>
+      <c r="Z30">
+        <v>0.60784313725490102</v>
+      </c>
+      <c r="AA30">
+        <v>0.72093023255813904</v>
+      </c>
+      <c r="AB30">
+        <v>31</v>
+      </c>
+      <c r="AC30">
+        <v>20</v>
+      </c>
+      <c r="AD30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>134</v>
+      </c>
+      <c r="B31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" t="s">
+        <v>259</v>
+      </c>
+      <c r="D31" t="s">
+        <v>260</v>
+      </c>
+      <c r="E31" t="s">
+        <v>261</v>
+      </c>
+      <c r="F31" t="s">
+        <v>179</v>
+      </c>
+      <c r="G31">
+        <v>0.98734541271210796</v>
+      </c>
+      <c r="H31" t="s">
+        <v>396</v>
+      </c>
+      <c r="I31">
+        <v>0.66153846153846096</v>
+      </c>
+      <c r="J31">
+        <v>316</v>
+      </c>
+      <c r="K31">
+        <v>86.708860759493604</v>
+      </c>
+      <c r="L31">
+        <v>87.236286919831201</v>
+      </c>
+      <c r="M31">
+        <v>65</v>
+      </c>
+      <c r="N31">
+        <v>66.153846153846104</v>
+      </c>
+      <c r="O31">
+        <v>68.717948717948701</v>
+      </c>
+      <c r="P31">
+        <v>0.5</v>
+      </c>
+      <c r="Q31">
+        <v>36</v>
+      </c>
+      <c r="R31">
+        <v>0.65753424657534199</v>
+      </c>
+      <c r="S31">
+        <v>0.64864864864864802</v>
+      </c>
+      <c r="T31">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="U31">
+        <v>24</v>
+      </c>
+      <c r="V31">
+        <v>13</v>
+      </c>
+      <c r="W31">
+        <v>12</v>
+      </c>
+      <c r="X31">
+        <v>57</v>
+      </c>
+      <c r="Y31">
+        <v>0.66153846153846096</v>
+      </c>
+      <c r="Z31">
+        <v>0.58904109589041098</v>
+      </c>
+      <c r="AA31">
+        <v>0.75438596491228005</v>
+      </c>
+      <c r="AB31">
+        <v>43</v>
+      </c>
+      <c r="AC31">
+        <v>30</v>
+      </c>
+      <c r="AD31">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>160</v>
+      </c>
+      <c r="B32" t="s">
+        <v>161</v>
+      </c>
+      <c r="C32" t="s">
+        <v>268</v>
+      </c>
+      <c r="D32" t="s">
+        <v>269</v>
+      </c>
+      <c r="E32" t="s">
+        <v>270</v>
+      </c>
+      <c r="F32" t="s">
+        <v>179</v>
+      </c>
+      <c r="G32">
+        <v>0.97999344047228598</v>
+      </c>
+      <c r="H32" t="s">
+        <v>397</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>306</v>
+      </c>
+      <c r="K32">
+        <v>99.346405228758101</v>
+      </c>
+      <c r="L32">
+        <v>99.346405228758101</v>
+      </c>
+      <c r="M32">
+        <v>2</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0.5</v>
+      </c>
+      <c r="Q32">
+        <v>40</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>40</v>
+      </c>
+      <c r="X32">
+        <v>61</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>160</v>
+      </c>
+      <c r="B33" t="s">
+        <v>166</v>
+      </c>
+      <c r="C33" t="s">
+        <v>268</v>
+      </c>
+      <c r="D33" t="s">
+        <v>269</v>
+      </c>
+      <c r="E33" t="s">
+        <v>270</v>
+      </c>
+      <c r="F33" t="s">
+        <v>179</v>
+      </c>
+      <c r="G33">
+        <v>0.955067235159068</v>
+      </c>
+      <c r="H33" t="s">
+        <v>398</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>306</v>
+      </c>
+      <c r="K33">
+        <v>59.150326797385603</v>
+      </c>
+      <c r="L33">
+        <v>59.150326797385603</v>
+      </c>
+      <c r="M33">
+        <v>125</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0.5</v>
+      </c>
+      <c r="Q33">
+        <v>94</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>94</v>
+      </c>
+      <c r="X33">
+        <v>137</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>160</v>
+      </c>
+      <c r="B34" t="s">
+        <v>171</v>
+      </c>
+      <c r="C34" t="s">
+        <v>268</v>
+      </c>
+      <c r="D34" t="s">
+        <v>269</v>
+      </c>
+      <c r="E34" t="s">
+        <v>270</v>
+      </c>
+      <c r="F34" t="s">
+        <v>179</v>
+      </c>
+      <c r="G34">
+        <v>0.96884224335847802</v>
+      </c>
+      <c r="H34" t="s">
+        <v>399</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>306</v>
+      </c>
+      <c r="K34">
+        <v>69.281045751633897</v>
+      </c>
+      <c r="L34">
+        <v>69.281045751633897</v>
+      </c>
+      <c r="M34">
+        <v>94</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0.5</v>
+      </c>
+      <c r="Q34">
+        <v>65</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>65</v>
+      </c>
+      <c r="X34">
+        <v>95</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxwe\Google Drive\Code\Python\extract_COVID19_events_from_Twitter\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Code\Python\extract_COVID19_events_from_Twitter\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7055150E-CE60-4C0D-8970-DEA57E2A03FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8922DBC2-2BEF-4643-8C2F-37E8B53CB60A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="6" xr2:uid="{09ECAD97-3C1E-45DE-875A-3C5CD2F3C873}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{09ECAD97-3C1E-45DE-875A-3C5CD2F3C873}"/>
   </bookViews>
   <sheets>
     <sheet name="comparison" sheetId="7" r:id="rId1"/>
@@ -1247,7 +1247,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1264,6 +1264,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1292,12 +1300,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1616,15 +1626,15 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>309</v>
       </c>
@@ -1635,7 +1645,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>306</v>
       </c>
@@ -1652,7 +1662,7 @@
         <v>0.59208791208791212</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>307</v>
       </c>
@@ -1669,7 +1679,7 @@
         <v>0.57496796240922687</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>341</v>
       </c>
@@ -1686,7 +1696,7 @@
         <v>0.62478705281090285</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>340</v>
       </c>
@@ -1703,7 +1713,7 @@
         <v>0.16226708074534163</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>308</v>
       </c>
@@ -1730,22 +1740,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A7C2FD4-A612-48B7-B14F-F3EAA1F8E07F}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.46484375" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="11.59765625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="8.9296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1771,7 +1781,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -1790,11 +1800,11 @@
         <f>bert!$Y2</f>
         <v>0.63414634146341398</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="4">
         <f>biobert!$Y2</f>
         <v>0.68965517241379304</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <f>'covid-twitter-bert'!$Y2</f>
         <v>0.77419354838709598</v>
       </c>
@@ -1803,11 +1813,11 @@
         <v>0.66666666666666596</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C3" s="2">
@@ -1822,11 +1832,11 @@
         <f>bert!$Y3</f>
         <v>0.34426229508196698</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="4">
         <f>biobert!$Y3</f>
         <v>0.38961038961038902</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <f>'covid-twitter-bert'!$Y3</f>
         <v>0.44615384615384601</v>
       </c>
@@ -1835,11 +1845,11 @@
         <v>0.32258064516128998</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>31</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C4" s="2">
@@ -1867,7 +1877,7 @@
         <v>0.47567567567567498</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -1882,7 +1892,7 @@
         <f>'bert-paper'!$Z5</f>
         <v>0.72549019607843102</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="4">
         <f>bert!$Y5</f>
         <v>0.61751152073732696</v>
       </c>
@@ -1894,12 +1904,12 @@
         <f>'covid-twitter-bert'!$Y5</f>
         <v>0.66412213740458004</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <f>electra!$Y5</f>
         <v>0.67346938775510201</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -1914,7 +1924,7 @@
         <f>'bert-paper'!$Z6</f>
         <v>0.707317073170731</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="4">
         <f>bert!$Y6</f>
         <v>0.62222222222222201</v>
       </c>
@@ -1922,7 +1932,7 @@
         <f>biobert!$Y6</f>
         <v>0.5</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <f>'covid-twitter-bert'!$Y6</f>
         <v>0.6875</v>
       </c>
@@ -1931,7 +1941,7 @@
         <v>0.66666666666666596</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -1950,7 +1960,7 @@
         <f>bert!$Y7</f>
         <v>0.74104401228249706</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="4">
         <f>biobert!$Y7</f>
         <v>0.74285714285714199</v>
       </c>
@@ -1958,12 +1968,12 @@
         <f>'covid-twitter-bert'!$Y7</f>
         <v>0.76126126126126104</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <f>electra!$Y7</f>
         <v>0.76735459662288896</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -1978,15 +1988,15 @@
         <f>'bert-paper'!$Z8</f>
         <v>0.5</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="4">
         <f>bert!$Y8</f>
         <v>0.41463414634146301</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="4">
         <f>biobert!$Y8</f>
         <v>0.41463414634146301</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <f>'covid-twitter-bert'!$Y8</f>
         <v>0.452380952380952</v>
       </c>
@@ -1995,7 +2005,7 @@
         <v>0.430379746835443</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -2022,16 +2032,16 @@
         <f>'covid-twitter-bert'!$Y9</f>
         <v>0.53333333333333299</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <f>electra!$Y9</f>
         <v>0.57142857142857095</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="6" t="s">
         <v>73</v>
       </c>
       <c r="C10" s="2">
@@ -2042,7 +2052,7 @@
         <f>'bert-paper'!$Z10</f>
         <v>0.28125</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="4">
         <f>bert!$Y10</f>
         <v>0.44827586206896503</v>
       </c>
@@ -2050,7 +2060,7 @@
         <f>biobert!$Y10</f>
         <v>0.4375</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <f>'covid-twitter-bert'!$Y10</f>
         <v>0.50909090909090904</v>
       </c>
@@ -2059,7 +2069,7 @@
         <v>0.46153846153846101</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -2078,7 +2088,7 @@
         <f>bert!$Y11</f>
         <v>0.57142857142857095</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="4">
         <f>biobert!$Y11</f>
         <v>0.57289002557544699</v>
       </c>
@@ -2086,12 +2096,12 @@
         <f>'covid-twitter-bert'!$Y11</f>
         <v>0.59905660377358405</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <f>electra!$Y11</f>
         <v>0.62034739454094201</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -2123,7 +2133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -2155,7 +2165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>83</v>
       </c>
@@ -2170,7 +2180,7 @@
         <f>'bert-paper'!$Z14</f>
         <v>0.57894736842105199</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="4">
         <f>bert!$Y14</f>
         <v>0.63829787234042501</v>
       </c>
@@ -2178,7 +2188,7 @@
         <f>biobert!$Y14</f>
         <v>0.42105263157894701</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <f>'covid-twitter-bert'!$Y14</f>
         <v>0.65217391304347805</v>
       </c>
@@ -2187,7 +2197,7 @@
         <v>0.59340659340659296</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -2202,7 +2212,7 @@
         <f>'bert-paper'!$Z15</f>
         <v>0.54545454545454497</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="4">
         <f>bert!$Y15</f>
         <v>0.55000000000000004</v>
       </c>
@@ -2210,7 +2220,7 @@
         <f>biobert!$Y15</f>
         <v>0.41025641025641002</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <f>'covid-twitter-bert'!$Y15</f>
         <v>0.60465116279069697</v>
       </c>
@@ -2219,7 +2229,7 @@
         <v>0.58064516129032195</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>83</v>
       </c>
@@ -2251,7 +2261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>83</v>
       </c>
@@ -2266,7 +2276,7 @@
         <f>'bert-paper'!$Z17</f>
         <v>0.49397590361445698</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="4">
         <f>bert!$Y17</f>
         <v>0.60586319218241003</v>
       </c>
@@ -2274,7 +2284,7 @@
         <f>biobert!$Y17</f>
         <v>0.55830388692579502</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="3">
         <f>'covid-twitter-bert'!$Y17</f>
         <v>0.68259385665529004</v>
       </c>
@@ -2283,7 +2293,7 @@
         <v>0.65084745762711804</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>83</v>
       </c>
@@ -2298,7 +2308,7 @@
         <f>'bert-paper'!$Z18</f>
         <v>0.63157894736842102</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="4">
         <f>bert!$Y18</f>
         <v>0.60465116279069697</v>
       </c>
@@ -2306,7 +2316,7 @@
         <f>biobert!$Y18</f>
         <v>0.46511627906976699</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="3">
         <f>'covid-twitter-bert'!$Y18</f>
         <v>0.71111111111111103</v>
       </c>
@@ -2315,7 +2325,7 @@
         <v>0.62222222222222201</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>83</v>
       </c>
@@ -2347,7 +2357,7 @@
         <v>0.16666666666666599</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>83</v>
       </c>
@@ -2366,7 +2376,7 @@
         <f>bert!$Y20</f>
         <v>0.375</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="4">
         <f>biobert!$Y20</f>
         <v>0.42857142857142799</v>
       </c>
@@ -2374,12 +2384,12 @@
         <f>'covid-twitter-bert'!$Y20</f>
         <v>0.439024390243902</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="3">
         <f>electra!$Y20</f>
         <v>0.45714285714285702</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>117</v>
       </c>
@@ -2398,11 +2408,11 @@
         <f>bert!$Y21</f>
         <v>0.50476190476190397</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="4">
         <f>biobert!$Y21</f>
         <v>0.54634146341463397</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="3">
         <f>'covid-twitter-bert'!$Y21</f>
         <v>0.57261410788381695</v>
       </c>
@@ -2411,7 +2421,7 @@
         <v>0.56410256410256399</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>117</v>
       </c>
@@ -2443,7 +2453,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>117</v>
       </c>
@@ -2458,7 +2468,7 @@
         <f>'bert-paper'!$Z23</f>
         <v>0.49275362318840499</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="4">
         <f>bert!$Y23</f>
         <v>0.55855855855855796</v>
       </c>
@@ -2466,7 +2476,7 @@
         <f>biobert!$Y23</f>
         <v>0.54716981132075404</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="3">
         <f>'covid-twitter-bert'!$Y23</f>
         <v>0.57999999999999996</v>
       </c>
@@ -2475,7 +2485,7 @@
         <v>0.507692307692307</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>117</v>
       </c>
@@ -2490,15 +2500,15 @@
         <f>'bert-paper'!$Z24</f>
         <v>0.53846153846153799</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="4">
         <f>bert!$Y24</f>
         <v>0</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="4">
         <f>biobert!$Y24</f>
         <v>0</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="3">
         <f>'covid-twitter-bert'!$Y24</f>
         <v>0.46153846153846101</v>
       </c>
@@ -2507,7 +2517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>117</v>
       </c>
@@ -2526,11 +2536,11 @@
         <f>bert!$Y25</f>
         <v>0.52307692307692299</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="4">
         <f>biobert!$Y25</f>
         <v>0.537313432835821</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="3">
         <f>'covid-twitter-bert'!$Y25</f>
         <v>0.64</v>
       </c>
@@ -2539,7 +2549,7 @@
         <v>0.61971830985915499</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>134</v>
       </c>
@@ -2558,7 +2568,7 @@
         <f>bert!$Y26</f>
         <v>0.75</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="4">
         <f>biobert!$Y26</f>
         <v>0.76923076923076905</v>
       </c>
@@ -2566,12 +2576,12 @@
         <f>'covid-twitter-bert'!$Y26</f>
         <v>0.73015873015873001</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="3">
         <f>electra!$Y26</f>
         <v>0.80645161290322498</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>134</v>
       </c>
@@ -2586,7 +2596,7 @@
         <f>'bert-paper'!$Z27</f>
         <v>0.57142857142857095</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="4">
         <f>bert!$Y27</f>
         <v>0.66867469879518004</v>
       </c>
@@ -2598,12 +2608,12 @@
         <f>'covid-twitter-bert'!$Y27</f>
         <v>0.69648562300319405</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="3">
         <f>electra!$Y27</f>
         <v>0.70503597122302097</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>134</v>
       </c>
@@ -2618,7 +2628,7 @@
         <f>'bert-paper'!$Z28</f>
         <v>0</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="4">
         <f>bert!$Y28</f>
         <v>0.63636363636363602</v>
       </c>
@@ -2626,7 +2636,7 @@
         <f>biobert!$Y28</f>
         <v>0.43243243243243201</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="3">
         <f>'covid-twitter-bert'!$Y28</f>
         <v>0.65116279069767402</v>
       </c>
@@ -2635,7 +2645,7 @@
         <v>0.42857142857142799</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>134</v>
       </c>
@@ -2667,7 +2677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>134</v>
       </c>
@@ -2686,11 +2696,11 @@
         <f>bert!$Y30</f>
         <v>0.59770114942528696</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="4">
         <f>biobert!$Y30</f>
         <v>0.63736263736263699</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="3">
         <f>'covid-twitter-bert'!$Y30</f>
         <v>0.65060240963855398</v>
       </c>
@@ -2699,7 +2709,7 @@
         <v>0.57534246575342396</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>134</v>
       </c>
@@ -2714,7 +2724,7 @@
         <f>'bert-paper'!$Z31</f>
         <v>0.371428571428571</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="4">
         <f>bert!$Y31</f>
         <v>0.61870503597122295</v>
       </c>
@@ -2726,12 +2736,12 @@
         <f>'covid-twitter-bert'!$Y31</f>
         <v>0.63888888888888895</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="3">
         <f>electra!$Y31</f>
         <v>0.67272727272727195</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>160</v>
       </c>
@@ -2750,11 +2760,11 @@
         <f>bert!$Y32</f>
         <v>0.47368421052631499</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="4">
         <f>biobert!$Y32</f>
         <v>0.475728155339805</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="3">
         <f>'covid-twitter-bert'!$Y32</f>
         <v>0.54666666666666597</v>
       </c>
@@ -2763,7 +2773,7 @@
         <v>0.52112676056338003</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>160</v>
       </c>
@@ -2778,7 +2788,7 @@
         <f>'bert-paper'!$Z33</f>
         <v>0.30392156862745001</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="4">
         <f>bert!$Y33</f>
         <v>0.61702127659574402</v>
       </c>
@@ -2790,12 +2800,12 @@
         <f>'covid-twitter-bert'!$Y33</f>
         <v>0.61052631578947303</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33" s="3">
         <f>electra!$Y33</f>
         <v>0.66425992779783305</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>160</v>
       </c>
@@ -2810,7 +2820,7 @@
         <f>'bert-paper'!$Z34</f>
         <v>0</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="4">
         <f>bert!$Y34</f>
         <v>0.44776119402984998</v>
       </c>
@@ -2818,7 +2828,7 @@
         <f>biobert!$Y34</f>
         <v>0.42231075697211101</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="3">
         <f>'covid-twitter-bert'!$Y34</f>
         <v>0.520231213872832</v>
       </c>
@@ -2836,20 +2846,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{645B2E46-A973-4F43-A440-0DFDA26D52C4}">
   <dimension ref="A1:AG34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AE12" sqref="AE12"/>
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="AE4" sqref="AE4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.53125" bestFit="1" customWidth="1"/>
-    <col min="3" max="24" width="9.06640625" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="9.06640625" style="1"/>
-    <col min="26" max="30" width="9.06640625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="24" width="9.109375" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="9.109375" style="1"/>
+    <col min="26" max="30" width="9.109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2950,7 +2960,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -3054,7 +3064,7 @@
         <v>0.59208791208791212</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -3127,7 +3137,7 @@
       <c r="X3">
         <v>62</v>
       </c>
-      <c r="Y3" s="1">
+      <c r="Y3" s="5">
         <v>0.34426229508196698</v>
       </c>
       <c r="Z3">
@@ -3146,7 +3156,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -3219,7 +3229,7 @@
       <c r="X4">
         <v>103</v>
       </c>
-      <c r="Y4" s="1">
+      <c r="Y4" s="5">
         <v>0.480392156862745</v>
       </c>
       <c r="Z4">
@@ -3238,7 +3248,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -3330,7 +3340,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -3422,7 +3432,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -3514,7 +3524,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -3606,7 +3616,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -3698,7 +3708,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -3790,7 +3800,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -3882,7 +3892,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -3974,7 +3984,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -4066,7 +4076,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>83</v>
       </c>
@@ -4158,7 +4168,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -4250,7 +4260,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>83</v>
       </c>
@@ -4342,7 +4352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>83</v>
       </c>
@@ -4434,7 +4444,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>83</v>
       </c>
@@ -4526,7 +4536,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>83</v>
       </c>
@@ -4618,7 +4628,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>83</v>
       </c>
@@ -4710,7 +4720,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>117</v>
       </c>
@@ -4802,7 +4812,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>117</v>
       </c>
@@ -4894,7 +4904,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>117</v>
       </c>
@@ -4986,7 +4996,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>117</v>
       </c>
@@ -5078,7 +5088,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>117</v>
       </c>
@@ -5170,7 +5180,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>134</v>
       </c>
@@ -5262,7 +5272,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>134</v>
       </c>
@@ -5354,7 +5364,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>134</v>
       </c>
@@ -5446,7 +5456,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>134</v>
       </c>
@@ -5538,7 +5548,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>134</v>
       </c>
@@ -5630,7 +5640,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>134</v>
       </c>
@@ -5722,7 +5732,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>160</v>
       </c>
@@ -5814,7 +5824,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>160</v>
       </c>
@@ -5906,7 +5916,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>160</v>
       </c>
@@ -6000,6 +6010,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6011,16 +6022,16 @@
       <selection activeCell="AE1" sqref="AE1:AG2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.53125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="24" width="0" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="11.265625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="11.21875" style="1" customWidth="1"/>
     <col min="26" max="30" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6121,7 +6132,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -6225,7 +6236,7 @@
         <v>0.57496796240922687</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -6317,7 +6328,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -6409,7 +6420,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -6501,7 +6512,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -6593,7 +6604,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -6685,7 +6696,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -6777,7 +6788,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -6869,7 +6880,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -6961,7 +6972,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -7053,7 +7064,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -7145,7 +7156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -7237,7 +7248,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>83</v>
       </c>
@@ -7329,7 +7340,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -7421,7 +7432,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>83</v>
       </c>
@@ -7513,7 +7524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>83</v>
       </c>
@@ -7605,7 +7616,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>83</v>
       </c>
@@ -7697,7 +7708,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>83</v>
       </c>
@@ -7789,7 +7800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>83</v>
       </c>
@@ -7881,7 +7892,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>117</v>
       </c>
@@ -7973,7 +7984,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>117</v>
       </c>
@@ -8065,7 +8076,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>117</v>
       </c>
@@ -8157,7 +8168,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>117</v>
       </c>
@@ -8249,7 +8260,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>117</v>
       </c>
@@ -8341,7 +8352,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>134</v>
       </c>
@@ -8433,7 +8444,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>134</v>
       </c>
@@ -8525,7 +8536,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>134</v>
       </c>
@@ -8617,7 +8628,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>134</v>
       </c>
@@ -8709,7 +8720,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>134</v>
       </c>
@@ -8801,7 +8812,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>134</v>
       </c>
@@ -8893,7 +8904,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>160</v>
       </c>
@@ -8985,7 +8996,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>160</v>
       </c>
@@ -9077,7 +9088,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>160</v>
       </c>
@@ -9178,20 +9189,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40168F0E-FC16-4362-B18F-2CE5356F0709}">
   <dimension ref="A1:AG34"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AG3" sqref="AG3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.53125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="24" width="0" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="9.06640625" style="1"/>
+    <col min="25" max="25" width="9.109375" style="1"/>
     <col min="26" max="30" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9292,7 +9303,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -9396,7 +9407,7 @@
         <v>0.63035714285714284</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -9488,7 +9499,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -9580,7 +9591,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -9672,7 +9683,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -9764,7 +9775,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -9856,7 +9867,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -9948,7 +9959,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -10040,7 +10051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -10132,7 +10143,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -10224,7 +10235,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -10316,7 +10327,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -10408,7 +10419,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>83</v>
       </c>
@@ -10500,7 +10511,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -10592,7 +10603,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>83</v>
       </c>
@@ -10684,7 +10695,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>83</v>
       </c>
@@ -10776,7 +10787,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>83</v>
       </c>
@@ -10868,7 +10879,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>83</v>
       </c>
@@ -10960,7 +10971,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>83</v>
       </c>
@@ -11052,7 +11063,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>117</v>
       </c>
@@ -11144,7 +11155,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>117</v>
       </c>
@@ -11236,7 +11247,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>117</v>
       </c>
@@ -11328,7 +11339,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>117</v>
       </c>
@@ -11420,7 +11431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>117</v>
       </c>
@@ -11512,7 +11523,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>134</v>
       </c>
@@ -11604,7 +11615,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>134</v>
       </c>
@@ -11696,7 +11707,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>134</v>
       </c>
@@ -11788,7 +11799,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>134</v>
       </c>
@@ -11880,7 +11891,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>134</v>
       </c>
@@ -11972,7 +11983,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>134</v>
       </c>
@@ -12064,7 +12075,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>160</v>
       </c>
@@ -12156,7 +12167,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>160</v>
       </c>
@@ -12248,7 +12259,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>160</v>
       </c>
@@ -12350,19 +12361,19 @@
   <dimension ref="A1:AG34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AE1" sqref="AE1:AG2"/>
+      <selection activeCell="AH19" sqref="AH19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.53125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="24" width="0" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="9.06640625" style="1"/>
+    <col min="25" max="25" width="9.109375" style="1"/>
     <col min="26" max="30" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12463,7 +12474,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -12567,7 +12578,7 @@
         <v>0.62478705281090285</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -12659,7 +12670,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -12751,7 +12762,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -12843,7 +12854,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -12935,7 +12946,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -13027,7 +13038,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -13119,7 +13130,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -13211,7 +13222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -13303,7 +13314,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -13395,7 +13406,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -13487,7 +13498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -13579,7 +13590,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>83</v>
       </c>
@@ -13671,7 +13682,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -13763,7 +13774,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>83</v>
       </c>
@@ -13855,7 +13866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>83</v>
       </c>
@@ -13947,7 +13958,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>83</v>
       </c>
@@ -14039,7 +14050,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>83</v>
       </c>
@@ -14131,7 +14142,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>83</v>
       </c>
@@ -14223,7 +14234,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>117</v>
       </c>
@@ -14315,7 +14326,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>117</v>
       </c>
@@ -14407,7 +14418,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>117</v>
       </c>
@@ -14499,7 +14510,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>117</v>
       </c>
@@ -14591,7 +14602,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>117</v>
       </c>
@@ -14683,7 +14694,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>134</v>
       </c>
@@ -14775,7 +14786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>134</v>
       </c>
@@ -14867,7 +14878,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>134</v>
       </c>
@@ -14959,7 +14970,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>134</v>
       </c>
@@ -15051,7 +15062,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>134</v>
       </c>
@@ -15143,7 +15154,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>134</v>
       </c>
@@ -15235,7 +15246,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>160</v>
       </c>
@@ -15327,7 +15338,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>160</v>
       </c>
@@ -15419,7 +15430,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>160</v>
       </c>
@@ -15520,19 +15531,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96DB2610-41A0-4FBA-A977-EFC7065CE8F3}">
   <dimension ref="A1:AG34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AG4" sqref="AG4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.53125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="24" width="0" hidden="1" customWidth="1"/>
     <col min="26" max="30" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15633,7 +15644,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -15737,7 +15748,7 @@
         <v>0.16226708074534163</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -15829,7 +15840,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -15921,7 +15932,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -16013,7 +16024,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -16105,7 +16116,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -16197,7 +16208,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -16289,7 +16300,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -16381,7 +16392,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -16473,7 +16484,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -16565,7 +16576,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -16657,7 +16668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -16749,7 +16760,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>83</v>
       </c>
@@ -16841,7 +16852,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -16933,7 +16944,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>83</v>
       </c>
@@ -17025,7 +17036,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>83</v>
       </c>
@@ -17117,7 +17128,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>83</v>
       </c>
@@ -17209,7 +17220,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>83</v>
       </c>
@@ -17301,7 +17312,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>83</v>
       </c>
@@ -17393,7 +17404,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>117</v>
       </c>
@@ -17485,7 +17496,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>117</v>
       </c>
@@ -17577,7 +17588,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>117</v>
       </c>
@@ -17669,7 +17680,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>117</v>
       </c>
@@ -17761,7 +17772,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>117</v>
       </c>
@@ -17853,7 +17864,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>134</v>
       </c>
@@ -17945,7 +17956,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>134</v>
       </c>
@@ -18037,7 +18048,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>134</v>
       </c>
@@ -18129,7 +18140,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>134</v>
       </c>
@@ -18221,7 +18232,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>134</v>
       </c>
@@ -18313,7 +18324,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>134</v>
       </c>
@@ -18405,7 +18416,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>160</v>
       </c>
@@ -18497,7 +18508,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>160</v>
       </c>
@@ -18589,7 +18600,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>160</v>
       </c>
@@ -18694,17 +18705,17 @@
       <selection activeCell="Z25" sqref="Z25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.53125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="25" width="0" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="9.06640625" style="1"/>
+    <col min="26" max="26" width="9.109375" style="1"/>
     <col min="27" max="28" width="0" style="1" hidden="1" customWidth="1"/>
     <col min="29" max="31" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -18799,7 +18810,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -18894,7 +18905,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -18989,7 +19000,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -19084,7 +19095,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -19179,7 +19190,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -19274,7 +19285,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -19369,7 +19380,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -19464,7 +19475,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -19559,7 +19570,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -19654,7 +19665,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -19749,7 +19760,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -19844,7 +19855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -19939,7 +19950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>83</v>
       </c>
@@ -20034,7 +20045,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -20129,7 +20140,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>83</v>
       </c>
@@ -20224,7 +20235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>83</v>
       </c>
@@ -20319,7 +20330,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>83</v>
       </c>
@@ -20414,7 +20425,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>83</v>
       </c>
@@ -20509,7 +20520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>83</v>
       </c>
@@ -20604,7 +20615,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>117</v>
       </c>
@@ -20699,7 +20710,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>117</v>
       </c>
@@ -20794,7 +20805,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>117</v>
       </c>
@@ -20889,7 +20900,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>117</v>
       </c>
@@ -20984,7 +20995,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>117</v>
       </c>
@@ -21079,7 +21090,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>134</v>
       </c>
@@ -21174,7 +21185,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>134</v>
       </c>
@@ -21269,7 +21280,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>134</v>
       </c>
@@ -21364,7 +21375,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>134</v>
       </c>
@@ -21459,7 +21470,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>134</v>
       </c>
@@ -21554,7 +21565,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>134</v>
       </c>
@@ -21649,7 +21660,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>160</v>
       </c>
@@ -21744,7 +21755,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>160</v>
       </c>
@@ -21839,7 +21850,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>160</v>
       </c>
@@ -21933,17 +21944,17 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.53125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="24" width="0" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="9.06640625" style="1"/>
+    <col min="25" max="25" width="9.109375" style="1"/>
     <col min="26" max="27" width="0" style="1" hidden="1" customWidth="1"/>
     <col min="28" max="30" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -22035,7 +22046,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -22127,7 +22138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -22219,7 +22230,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -22311,7 +22322,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -22403,7 +22414,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -22495,7 +22506,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -22587,7 +22598,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -22679,7 +22690,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -22771,7 +22782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -22863,7 +22874,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -22955,7 +22966,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -23047,7 +23058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -23139,7 +23150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>83</v>
       </c>
@@ -23231,7 +23242,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -23323,7 +23334,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>83</v>
       </c>
@@ -23415,7 +23426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>83</v>
       </c>
@@ -23507,7 +23518,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>83</v>
       </c>
@@ -23599,7 +23610,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>83</v>
       </c>
@@ -23691,7 +23702,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>83</v>
       </c>
@@ -23783,7 +23794,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>117</v>
       </c>
@@ -23875,7 +23886,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>117</v>
       </c>
@@ -23967,7 +23978,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>117</v>
       </c>
@@ -24059,7 +24070,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>117</v>
       </c>
@@ -24085,7 +24096,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>117</v>
       </c>
@@ -24177,7 +24188,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>134</v>
       </c>
@@ -24269,7 +24280,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>134</v>
       </c>
@@ -24361,7 +24372,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>134</v>
       </c>
@@ -24453,7 +24464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>134</v>
       </c>
@@ -24545,7 +24556,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>134</v>
       </c>
@@ -24637,7 +24648,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>134</v>
       </c>
@@ -24729,7 +24740,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>160</v>
       </c>
@@ -24821,7 +24832,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>160</v>
       </c>
@@ -24913,7 +24924,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>160</v>
       </c>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxwe\Google Drive\Code\Python\extract_COVID19_events_from_Twitter\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733A6D79-D345-4D77-8546-7BB4670E1390}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF4E367-9EEA-4001-8E4A-133DEF17F26D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="5" xr2:uid="{09ECAD97-3C1E-45DE-875A-3C5CD2F3C873}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{09ECAD97-3C1E-45DE-875A-3C5CD2F3C873}"/>
   </bookViews>
   <sheets>
     <sheet name="comparison" sheetId="7" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2184" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2236" uniqueCount="404">
   <si>
     <t>Event</t>
   </si>
@@ -1064,9 +1064,6 @@
     <t>[[2836, 118], [29, 66]]</t>
   </si>
   <si>
-    <t>electra-large</t>
-  </si>
-  <si>
     <t>electra-base</t>
   </si>
   <si>
@@ -1242,6 +1239,21 @@
   </si>
   <si>
     <t>[[2954, 0], [95, 0]]</t>
+  </si>
+  <si>
+    <t>tested_positive Micro-F1</t>
+  </si>
+  <si>
+    <t>tested_negative Micro-F1</t>
+  </si>
+  <si>
+    <t>can_not_test Micro-F1</t>
+  </si>
+  <si>
+    <t>death Micro-F1</t>
+  </si>
+  <si>
+    <t>cure Micro-F1</t>
   </si>
 </sst>
 </file>
@@ -1624,18 +1636,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E09BEF8E-45BB-4FF8-8E9F-14976C2DFCDC}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.06640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>309</v>
       </c>
@@ -1645,8 +1662,23 @@
       <c r="D1" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F1" t="s">
+        <v>400</v>
+      </c>
+      <c r="G1" t="s">
+        <v>401</v>
+      </c>
+      <c r="H1" t="s">
+        <v>402</v>
+      </c>
+      <c r="I1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>306</v>
       </c>
@@ -1662,8 +1694,28 @@
         <f>bert!AG$2</f>
         <v>0.59208791208791212</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E3" s="2">
+        <f>bert!$AL2</f>
+        <v>0.62232346241457859</v>
+      </c>
+      <c r="F3" s="2">
+        <f>bert!$AL3</f>
+        <v>0.54483925549915402</v>
+      </c>
+      <c r="G3" s="2">
+        <f>bert!$AL4</f>
+        <v>0.50980392156862742</v>
+      </c>
+      <c r="H3" s="2">
+        <f>bert!$AL5</f>
+        <v>0.65074626865671648</v>
+      </c>
+      <c r="I3" s="2">
+        <f>bert!$AL6</f>
+        <v>0.52913385826771653</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>307</v>
       </c>
@@ -1679,10 +1731,30 @@
         <f>biobert!AG$2</f>
         <v>0.57496796240922687</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E4" s="2">
+        <f>biobert!$AL2</f>
+        <v>0.62222222222222212</v>
+      </c>
+      <c r="F4" s="2">
+        <f>biobert!$AL3</f>
+        <v>0.45632798573975042</v>
+      </c>
+      <c r="G4" s="2">
+        <f>biobert!$AL4</f>
+        <v>0.53043478260869559</v>
+      </c>
+      <c r="H4" s="2">
+        <f>biobert!$AL5</f>
+        <v>0.62045060658578854</v>
+      </c>
+      <c r="I4" s="2">
+        <f>biobert!$AL6</f>
+        <v>0.50806451612903236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B5" s="4">
         <f>electra!AE$2</f>
@@ -1696,39 +1768,62 @@
         <f>electra!AG$2</f>
         <v>0.62478705281090285</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E5" s="3">
+        <f>electra!$AL2</f>
+        <v>0.66183368869936032</v>
+      </c>
+      <c r="F5" s="2">
+        <f>electra!$AL3</f>
+        <v>0.58935361216730031</v>
+      </c>
+      <c r="G5" s="2">
+        <f>electra!$AL4</f>
+        <v>0.54320987654320985</v>
+      </c>
+      <c r="H5" s="2">
+        <f>electra!$AL5</f>
+        <v>0.66783831282952555</v>
+      </c>
+      <c r="I5" s="2">
+        <f>electra!$AL6</f>
+        <v>0.55732946298984032</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>340</v>
-      </c>
-      <c r="B6" s="4">
-        <f>'electra-large'!AE$2</f>
-        <v>0.63914373088685017</v>
-      </c>
-      <c r="C6" s="4">
-        <f>'electra-large'!AF$2</f>
-        <v>9.2930191196087156E-2</v>
-      </c>
-      <c r="D6" s="4">
-        <f>'electra-large'!AG$2</f>
-        <v>0.16226708074534163</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
         <v>308</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B6" s="3">
         <f>'covid-twitter-bert'!AE$2</f>
         <v>0.63290004482294937</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C6" s="2">
         <f>'covid-twitter-bert'!AF$2</f>
         <v>0.62783459315251222</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D6" s="3">
         <f>'covid-twitter-bert'!AG$2</f>
         <v>0.63035714285714284</v>
+      </c>
+      <c r="E6" s="2">
+        <f>'covid-twitter-bert'!$AL2</f>
+        <v>0.65243619489559179</v>
+      </c>
+      <c r="F6" s="3">
+        <f>'covid-twitter-bert'!$AL3</f>
+        <v>0.62018348623853214</v>
+      </c>
+      <c r="G6" s="3">
+        <f>'covid-twitter-bert'!$AL4</f>
+        <v>0.56704980842911867</v>
+      </c>
+      <c r="H6" s="3">
+        <f>'covid-twitter-bert'!$AL5</f>
+        <v>0.67384615384615387</v>
+      </c>
+      <c r="I6" s="3">
+        <f>'covid-twitter-bert'!$AL6</f>
+        <v>0.56907894736842113</v>
       </c>
     </row>
   </sheetData>
@@ -5915,10 +6010,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{645B2E46-A973-4F43-A440-0DFDA26D52C4}">
-  <dimension ref="A1:AG34"/>
+  <dimension ref="A1:AL34"/>
   <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="AE4" sqref="AE4"/>
+    <sheetView zoomScale="117" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="AL6" sqref="AL6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5928,9 +6023,10 @@
     <col min="3" max="24" width="9.1328125" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="9.1328125" style="1"/>
     <col min="26" max="30" width="9.1328125" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6030,8 +6126,17 @@
       <c r="AG1" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="AJ1" t="s">
+        <v>309</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -6134,8 +6239,23 @@
         <f>2*(AE2*AF2)/(AE2+AF2)</f>
         <v>0.59208791208791212</v>
       </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="AI2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ2" s="1">
+        <f>SUM(AB2:AB11)/(SUM(AB2:AB11)+SUM(AC2:AC11))</f>
+        <v>0.62603116406966086</v>
+      </c>
+      <c r="AK2" s="1">
+        <f>SUM(AB2:AB11)/(SUM(AB2:AB11)+SUM(AD2:AD11))</f>
+        <v>0.6186594202898551</v>
+      </c>
+      <c r="AL2" s="1">
+        <f>2*(AJ2*AK2)/(AJ2+AK2)</f>
+        <v>0.62232346241457859</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -6226,8 +6346,23 @@
       <c r="AD3">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="AI3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ3" s="1">
+        <f>SUM(AB12:AB20)/(SUM(AB12:AB20)+SUM(AC12:AC20))</f>
+        <v>0.5331125827814569</v>
+      </c>
+      <c r="AK3" s="1">
+        <f>SUM(AB12:AB20)/(SUM(AB12:AB20)+SUM(AD12:AD20))</f>
+        <v>0.55709342560553632</v>
+      </c>
+      <c r="AL3" s="1">
+        <f>2*(AJ3*AK3)/(AJ3+AK3)</f>
+        <v>0.54483925549915402</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -6318,8 +6453,23 @@
       <c r="AD4">
         <v>54</v>
       </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="AI4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ4" s="1">
+        <f>SUM(AB21:AB25)/(SUM(AB21:AB25)+SUM(AC21:AC25))</f>
+        <v>0.61578947368421055</v>
+      </c>
+      <c r="AK4" s="1">
+        <f>SUM(AB21:AB25)/(SUM(AB21:AB25)+SUM(AD21:AD25))</f>
+        <v>0.43494423791821563</v>
+      </c>
+      <c r="AL4" s="1">
+        <f t="shared" ref="AL4:AL6" si="0">2*(AJ4*AK4)/(AJ4+AK4)</f>
+        <v>0.50980392156862742</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -6410,8 +6560,23 @@
       <c r="AD5">
         <v>56</v>
       </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="AI5" t="s">
+        <v>134</v>
+      </c>
+      <c r="AJ5" s="1">
+        <f>SUM(AB26:AB31)/(SUM(AB26:AB31)+SUM(AC26:AC31))</f>
+        <v>0.57978723404255317</v>
+      </c>
+      <c r="AK5" s="1">
+        <f>SUM(AB26:AB31)/(SUM(AB26:AB31)+SUM(AD26:AD31))</f>
+        <v>0.74149659863945583</v>
+      </c>
+      <c r="AL5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.65074626865671648</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -6502,8 +6667,23 @@
       <c r="AD6">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="AI6" t="s">
+        <v>160</v>
+      </c>
+      <c r="AJ6" s="1">
+        <f>SUM(AB32:AB34)/(SUM(AB32:AB34)+SUM(AC32:AC34))</f>
+        <v>0.49122807017543857</v>
+      </c>
+      <c r="AK6" s="1">
+        <f>SUM(AB32:AB34)/(SUM(AB32:AB34)+SUM(AD32:AD34))</f>
+        <v>0.57337883959044367</v>
+      </c>
+      <c r="AL6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.52913385826771653</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -6595,7 +6775,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -6687,7 +6867,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -6779,7 +6959,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -6871,7 +7051,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -6963,7 +7143,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -7055,7 +7235,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -7147,7 +7327,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>83</v>
       </c>
@@ -7239,7 +7419,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -7331,7 +7511,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>83</v>
       </c>
@@ -9087,10 +9267,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B399EB9A-55D3-405C-BE82-39995B32E924}">
-  <dimension ref="A1:AG34"/>
+  <dimension ref="A1:AL34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AE1" sqref="AE1:AG2"/>
+      <selection activeCell="AI1" sqref="AI1:AL6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -9102,7 +9282,7 @@
     <col min="26" max="30" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9202,8 +9382,17 @@
       <c r="AG1" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="AJ1" t="s">
+        <v>309</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -9306,8 +9495,23 @@
         <f>2*(AE2*AF2)/(AE2+AF2)</f>
         <v>0.57496796240922687</v>
       </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="AI2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ2" s="1">
+        <f>SUM(AB2:AB11)/(SUM(AB2:AB11)+SUM(AC2:AC11))</f>
+        <v>0.5889967637540453</v>
+      </c>
+      <c r="AK2" s="1">
+        <f>SUM(AB2:AB11)/(SUM(AB2:AB11)+SUM(AD2:AD11))</f>
+        <v>0.65942028985507251</v>
+      </c>
+      <c r="AL2" s="1">
+        <f>2*(AJ2*AK2)/(AJ2+AK2)</f>
+        <v>0.62222222222222212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -9398,8 +9602,23 @@
       <c r="AD3">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="AI3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ3" s="1">
+        <f>SUM(AB12:AB20)/(SUM(AB12:AB20)+SUM(AC12:AC20))</f>
+        <v>0.47058823529411764</v>
+      </c>
+      <c r="AK3" s="1">
+        <f>SUM(AB12:AB20)/(SUM(AB12:AB20)+SUM(AD12:AD20))</f>
+        <v>0.44290657439446368</v>
+      </c>
+      <c r="AL3" s="1">
+        <f>2*(AJ3*AK3)/(AJ3+AK3)</f>
+        <v>0.45632798573975042</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -9490,8 +9709,23 @@
       <c r="AD4">
         <v>63</v>
       </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="AI4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ4" s="1">
+        <f>SUM(AB21:AB25)/(SUM(AB21:AB25)+SUM(AC21:AC25))</f>
+        <v>0.63874345549738221</v>
+      </c>
+      <c r="AK4" s="1">
+        <f>SUM(AB21:AB25)/(SUM(AB21:AB25)+SUM(AD21:AD25))</f>
+        <v>0.45353159851301117</v>
+      </c>
+      <c r="AL4" s="1">
+        <f t="shared" ref="AL4:AL6" si="0">2*(AJ4*AK4)/(AJ4+AK4)</f>
+        <v>0.53043478260869559</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -9582,8 +9816,23 @@
       <c r="AD5">
         <v>48</v>
       </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="AI5" t="s">
+        <v>134</v>
+      </c>
+      <c r="AJ5" s="1">
+        <f>SUM(AB26:AB31)/(SUM(AB26:AB31)+SUM(AC26:AC31))</f>
+        <v>0.63250883392226154</v>
+      </c>
+      <c r="AK5" s="1">
+        <f>SUM(AB26:AB31)/(SUM(AB26:AB31)+SUM(AD26:AD31))</f>
+        <v>0.608843537414966</v>
+      </c>
+      <c r="AL5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.62045060658578854</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -9674,8 +9923,23 @@
       <c r="AD6">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="AI6" t="s">
+        <v>160</v>
+      </c>
+      <c r="AJ6" s="1">
+        <f>SUM(AB32:AB34)/(SUM(AB32:AB34)+SUM(AC32:AC34))</f>
+        <v>0.41906873614190687</v>
+      </c>
+      <c r="AK6" s="1">
+        <f>SUM(AB32:AB34)/(SUM(AB32:AB34)+SUM(AD32:AD34))</f>
+        <v>0.6450511945392492</v>
+      </c>
+      <c r="AL6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.50806451612903236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -9767,7 +10031,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -9859,7 +10123,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -9951,7 +10215,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -10043,7 +10307,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -10135,7 +10399,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -10227,7 +10491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -10319,7 +10583,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>83</v>
       </c>
@@ -10411,7 +10675,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -10503,7 +10767,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>83</v>
       </c>
@@ -12258,9 +12522,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40168F0E-FC16-4362-B18F-2CE5356F0709}">
-  <dimension ref="A1:AG34"/>
+  <dimension ref="A1:AL34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AI2" sqref="AI2:AI6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -12269,9 +12535,10 @@
     <col min="3" max="24" width="0" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="9.1328125" style="1"/>
     <col min="26" max="30" width="0" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="13.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12371,8 +12638,17 @@
       <c r="AG1" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="AJ1" t="s">
+        <v>309</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -12395,7 +12671,7 @@
         <v>0.99841799964844402</v>
       </c>
       <c r="H2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I2">
         <v>0.68965517241379304</v>
@@ -12475,8 +12751,23 @@
         <f>2*(AE2*AF2)/(AE2+AF2)</f>
         <v>0.63035714285714284</v>
       </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="AI2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ2" s="1">
+        <f>SUM(AB2:AB11)/(SUM(AB2:AB11)+SUM(AC2:AC11))</f>
+        <v>0.66888677450047573</v>
+      </c>
+      <c r="AK2" s="1">
+        <f>SUM(AB2:AB11)/(SUM(AB2:AB11)+SUM(AD2:AD11))</f>
+        <v>0.63677536231884058</v>
+      </c>
+      <c r="AL2" s="1">
+        <f>2*(AJ2*AK2)/(AJ2+AK2)</f>
+        <v>0.65243619489559179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -12499,7 +12790,7 @@
         <v>0.98734399718755494</v>
       </c>
       <c r="H3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I3">
         <v>0.37931034482758602</v>
@@ -12567,8 +12858,23 @@
       <c r="AD3">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="AI3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ3" s="1">
+        <f>SUM(AB12:AB20)/(SUM(AB12:AB20)+SUM(AC12:AC20))</f>
+        <v>0.66015625</v>
+      </c>
+      <c r="AK3" s="1">
+        <f>SUM(AB12:AB20)/(SUM(AB12:AB20)+SUM(AD12:AD20))</f>
+        <v>0.58477508650519028</v>
+      </c>
+      <c r="AL3" s="1">
+        <f>2*(AJ3*AK3)/(AJ3+AK3)</f>
+        <v>0.62018348623853214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -12591,7 +12897,7 @@
         <v>0.98558621901915899</v>
       </c>
       <c r="H4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I4">
         <v>0.47435897435897401</v>
@@ -12659,8 +12965,23 @@
       <c r="AD4">
         <v>67</v>
       </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="AI4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ4" s="1">
+        <f>SUM(AB21:AB25)/(SUM(AB21:AB25)+SUM(AC21:AC25))</f>
+        <v>0.58498023715415015</v>
+      </c>
+      <c r="AK4" s="1">
+        <f>SUM(AB21:AB25)/(SUM(AB21:AB25)+SUM(AD21:AD25))</f>
+        <v>0.55018587360594795</v>
+      </c>
+      <c r="AL4" s="1">
+        <f t="shared" ref="AL4:AL6" si="0">2*(AJ4*AK4)/(AJ4+AK4)</f>
+        <v>0.56704980842911867</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -12683,7 +13004,7 @@
         <v>0.98470732993496202</v>
       </c>
       <c r="H5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I5">
         <v>0.65060240963855398</v>
@@ -12751,8 +13072,23 @@
       <c r="AD5">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="AI5" t="s">
+        <v>134</v>
+      </c>
+      <c r="AJ5" s="1">
+        <f>SUM(AB26:AB31)/(SUM(AB26:AB31)+SUM(AC26:AC31))</f>
+        <v>0.6151685393258427</v>
+      </c>
+      <c r="AK5" s="1">
+        <f>SUM(AB26:AB31)/(SUM(AB26:AB31)+SUM(AD26:AD31))</f>
+        <v>0.74489795918367352</v>
+      </c>
+      <c r="AL5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.67384615384615387</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -12775,7 +13111,7 @@
         <v>0.99507822112849298</v>
       </c>
       <c r="H6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I6">
         <v>0.688888888888888</v>
@@ -12843,8 +13179,23 @@
       <c r="AD6">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="AI6" t="s">
+        <v>160</v>
+      </c>
+      <c r="AJ6" s="1">
+        <f>SUM(AB32:AB34)/(SUM(AB32:AB34)+SUM(AC32:AC34))</f>
+        <v>0.54920634920634925</v>
+      </c>
+      <c r="AK6" s="1">
+        <f>SUM(AB32:AB34)/(SUM(AB32:AB34)+SUM(AD32:AD34))</f>
+        <v>0.59044368600682595</v>
+      </c>
+      <c r="AL6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.56907894736842113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -12867,7 +13218,7 @@
         <v>0.96255932501318298</v>
       </c>
       <c r="H7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I7">
         <v>0.76359600443951103</v>
@@ -12936,7 +13287,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -12959,7 +13310,7 @@
         <v>0.99173844260854205</v>
       </c>
       <c r="H8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I8">
         <v>0.48351648351648302</v>
@@ -13028,7 +13379,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -13051,7 +13402,7 @@
         <v>0.99753911056424605</v>
       </c>
       <c r="H9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I9">
         <v>0.53333333333333299</v>
@@ -13120,7 +13471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -13143,7 +13494,7 @@
         <v>0.99525399894533295</v>
       </c>
       <c r="H10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I10">
         <v>0.50909090909090904</v>
@@ -13212,7 +13563,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -13235,7 +13586,7 @@
         <v>0.967481103884689</v>
       </c>
       <c r="H11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I11">
         <v>0.58239277652370103</v>
@@ -13304,7 +13655,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -13396,7 +13747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -13419,7 +13770,7 @@
         <v>0.99557801642451005</v>
       </c>
       <c r="H13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I13">
         <v>0.125</v>
@@ -13488,7 +13839,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>83</v>
       </c>
@@ -13511,7 +13862,7 @@
         <v>0.99020846493998704</v>
       </c>
       <c r="H14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I14">
         <v>0.66666666666666596</v>
@@ -13580,7 +13931,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -13603,7 +13954,7 @@
         <v>0.99431459254579901</v>
       </c>
       <c r="H15" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I15">
         <v>0.57142857142857095</v>
@@ -13672,7 +14023,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>83</v>
       </c>
@@ -13695,7 +14046,7 @@
         <v>0.99873657612128797</v>
       </c>
       <c r="H16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -13787,7 +14138,7 @@
         <v>0.97062539481996202</v>
       </c>
       <c r="H17" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I17">
         <v>0.68259385665529004</v>
@@ -13879,7 +14230,7 @@
         <v>0.99589387239418803</v>
       </c>
       <c r="H18" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I18">
         <v>0.71111111111111103</v>
@@ -13971,7 +14322,7 @@
         <v>0.99747315224257704</v>
       </c>
       <c r="H19" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -14063,7 +14414,7 @@
         <v>0.99305116866708698</v>
       </c>
       <c r="H20" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I20">
         <v>0.476190476190476</v>
@@ -14155,7 +14506,7 @@
         <v>0.96682897139379098</v>
       </c>
       <c r="H21" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I21">
         <v>0.57254901960784299</v>
@@ -14247,7 +14598,7 @@
         <v>0.98508825319537396</v>
       </c>
       <c r="H22" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I22">
         <v>0.48421052631578898</v>
@@ -14339,7 +14690,7 @@
         <v>0.98569689592209297</v>
       </c>
       <c r="H23" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I23">
         <v>0.56880733944954098</v>
@@ -14431,7 +14782,7 @@
         <v>0.99756542909312196</v>
       </c>
       <c r="H24" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I24">
         <v>0.42857142857142799</v>
@@ -14523,7 +14874,7 @@
         <v>0.99178332318928697</v>
       </c>
       <c r="H25" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I25">
         <v>0.64</v>
@@ -14615,7 +14966,7 @@
         <v>0.99539833189531202</v>
       </c>
       <c r="H26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I26">
         <v>0.74193548387096697</v>
@@ -14707,7 +15058,7 @@
         <v>0.97411561691113002</v>
       </c>
       <c r="H27" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I27">
         <v>0.69594594594594505</v>
@@ -14799,7 +15150,7 @@
         <v>0.99539833189531202</v>
       </c>
       <c r="H28" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I28">
         <v>0.57894736842105199</v>
@@ -14983,7 +15334,7 @@
         <v>0.99165947656025299</v>
       </c>
       <c r="H30" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I30">
         <v>0.65060240963855398</v>
@@ -15075,7 +15426,7 @@
         <v>0.98705780845556501</v>
       </c>
       <c r="H31" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I31">
         <v>0.67153284671532798</v>
@@ -15167,7 +15518,7 @@
         <v>0.97933748770088502</v>
       </c>
       <c r="H32" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I32">
         <v>0.55319148936170204</v>
@@ -15259,7 +15610,7 @@
         <v>0.96392259757297405</v>
       </c>
       <c r="H33" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I33">
         <v>0.60144927536231796</v>
@@ -15351,7 +15702,7 @@
         <v>0.97441784191538205</v>
       </c>
       <c r="H34" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I34">
         <v>0.5</v>
@@ -15427,10 +15778,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F91AE893-288C-43FA-B756-3BC4E71EFEEA}">
-  <dimension ref="A1:AG34"/>
+  <dimension ref="A1:AL34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE4" sqref="AE4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AG30" sqref="AG30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -15438,12 +15789,15 @@
     <col min="1" max="1" width="13.3984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" customWidth="1"/>
     <col min="3" max="23" width="0" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="3.73046875" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="9.06640625" style="1"/>
+    <col min="24" max="24" width="4.9296875" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="30" width="0" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.796875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15543,8 +15897,17 @@
       <c r="AG1" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="AJ1" t="s">
+        <v>309</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -15567,7 +15930,7 @@
         <v>0.99841799964844402</v>
       </c>
       <c r="H2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I2">
         <v>0.68965517241379304</v>
@@ -15647,8 +16010,23 @@
         <f>2*(AE2*AF2)/(AE2+AF2)</f>
         <v>0.63035714285714284</v>
       </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="AI2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ2" s="1">
+        <f>SUM(AB2:AB11)/(SUM(AB2:AB11)+SUM(AC2:AC11))</f>
+        <v>0.66888677450047573</v>
+      </c>
+      <c r="AK2" s="1">
+        <f>SUM(AB2:AB11)/(SUM(AB2:AB11)+SUM(AD2:AD11))</f>
+        <v>0.63677536231884058</v>
+      </c>
+      <c r="AL2" s="1">
+        <f>2*(AJ2*AK2)/(AJ2+AK2)</f>
+        <v>0.65243619489559179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -15671,7 +16049,7 @@
         <v>0.98734399718755494</v>
       </c>
       <c r="H3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I3">
         <v>0.37931034482758602</v>
@@ -15739,8 +16117,23 @@
       <c r="AD3">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="AI3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ3" s="1">
+        <f>SUM(AB12:AB20)/(SUM(AB12:AB20)+SUM(AC12:AC20))</f>
+        <v>0.66015625</v>
+      </c>
+      <c r="AK3" s="1">
+        <f>SUM(AB12:AB20)/(SUM(AB12:AB20)+SUM(AD12:AD20))</f>
+        <v>0.58477508650519028</v>
+      </c>
+      <c r="AL3" s="1">
+        <f>2*(AJ3*AK3)/(AJ3+AK3)</f>
+        <v>0.62018348623853214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -15763,7 +16156,7 @@
         <v>0.98558621901915899</v>
       </c>
       <c r="H4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I4">
         <v>0.47435897435897401</v>
@@ -15831,8 +16224,23 @@
       <c r="AD4">
         <v>67</v>
       </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="AI4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ4" s="1">
+        <f>SUM(AB21:AB25)/(SUM(AB21:AB25)+SUM(AC21:AC25))</f>
+        <v>0.58498023715415015</v>
+      </c>
+      <c r="AK4" s="1">
+        <f>SUM(AB21:AB25)/(SUM(AB21:AB25)+SUM(AD21:AD25))</f>
+        <v>0.55018587360594795</v>
+      </c>
+      <c r="AL4" s="1">
+        <f t="shared" ref="AL4:AL6" si="0">2*(AJ4*AK4)/(AJ4+AK4)</f>
+        <v>0.56704980842911867</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -15855,7 +16263,7 @@
         <v>0.98470732993496202</v>
       </c>
       <c r="H5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I5">
         <v>0.65060240963855398</v>
@@ -15923,8 +16331,23 @@
       <c r="AD5">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="AI5" t="s">
+        <v>134</v>
+      </c>
+      <c r="AJ5" s="1">
+        <f>SUM(AB26:AB31)/(SUM(AB26:AB31)+SUM(AC26:AC31))</f>
+        <v>0.6151685393258427</v>
+      </c>
+      <c r="AK5" s="1">
+        <f>SUM(AB26:AB31)/(SUM(AB26:AB31)+SUM(AD26:AD31))</f>
+        <v>0.74489795918367352</v>
+      </c>
+      <c r="AL5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.67384615384615387</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -15947,7 +16370,7 @@
         <v>0.99507822112849298</v>
       </c>
       <c r="H6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I6">
         <v>0.688888888888888</v>
@@ -16015,8 +16438,23 @@
       <c r="AD6">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="AI6" t="s">
+        <v>160</v>
+      </c>
+      <c r="AJ6" s="1">
+        <f>SUM(AB32:AB34)/(SUM(AB32:AB34)+SUM(AC32:AC34))</f>
+        <v>0.54920634920634925</v>
+      </c>
+      <c r="AK6" s="1">
+        <f>SUM(AB32:AB34)/(SUM(AB32:AB34)+SUM(AD32:AD34))</f>
+        <v>0.59044368600682595</v>
+      </c>
+      <c r="AL6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.56907894736842113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -16039,7 +16477,7 @@
         <v>0.96255932501318298</v>
       </c>
       <c r="H7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I7">
         <v>0.76359600443951103</v>
@@ -16108,7 +16546,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -16131,7 +16569,7 @@
         <v>0.99173844260854205</v>
       </c>
       <c r="H8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I8">
         <v>0.48351648351648302</v>
@@ -16200,7 +16638,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -16223,7 +16661,7 @@
         <v>0.99753911056424605</v>
       </c>
       <c r="H9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I9">
         <v>0.53333333333333299</v>
@@ -16292,7 +16730,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -16315,7 +16753,7 @@
         <v>0.99525399894533295</v>
       </c>
       <c r="H10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I10">
         <v>0.50909090909090904</v>
@@ -16384,7 +16822,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -16407,7 +16845,7 @@
         <v>0.967481103884689</v>
       </c>
       <c r="H11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I11">
         <v>0.58239277652370103</v>
@@ -16476,7 +16914,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -16568,7 +17006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -16591,7 +17029,7 @@
         <v>0.99557801642451005</v>
       </c>
       <c r="H13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I13">
         <v>0.125</v>
@@ -16660,7 +17098,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>83</v>
       </c>
@@ -16683,7 +17121,7 @@
         <v>0.99020846493998704</v>
       </c>
       <c r="H14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I14">
         <v>0.66666666666666596</v>
@@ -16752,7 +17190,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -16775,7 +17213,7 @@
         <v>0.99431459254579901</v>
       </c>
       <c r="H15" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I15">
         <v>0.57142857142857095</v>
@@ -16844,7 +17282,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>83</v>
       </c>
@@ -16867,7 +17305,7 @@
         <v>0.99873657612128797</v>
       </c>
       <c r="H16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -16959,7 +17397,7 @@
         <v>0.97062539481996202</v>
       </c>
       <c r="H17" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I17">
         <v>0.68259385665529004</v>
@@ -17051,7 +17489,7 @@
         <v>0.99589387239418803</v>
       </c>
       <c r="H18" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I18">
         <v>0.71111111111111103</v>
@@ -17143,7 +17581,7 @@
         <v>0.99747315224257704</v>
       </c>
       <c r="H19" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -17235,7 +17673,7 @@
         <v>0.99305116866708698</v>
       </c>
       <c r="H20" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I20">
         <v>0.476190476190476</v>
@@ -17327,7 +17765,7 @@
         <v>0.96682897139379098</v>
       </c>
       <c r="H21" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I21">
         <v>0.57254901960784299</v>
@@ -17419,7 +17857,7 @@
         <v>0.98508825319537396</v>
       </c>
       <c r="H22" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I22">
         <v>0.48421052631578898</v>
@@ -17511,7 +17949,7 @@
         <v>0.98569689592209297</v>
       </c>
       <c r="H23" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I23">
         <v>0.56880733944954098</v>
@@ -17603,7 +18041,7 @@
         <v>0.99756542909312196</v>
       </c>
       <c r="H24" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I24">
         <v>0.42857142857142799</v>
@@ -17695,7 +18133,7 @@
         <v>0.99178332318928697</v>
       </c>
       <c r="H25" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I25">
         <v>0.64</v>
@@ -17787,7 +18225,7 @@
         <v>0.99539833189531202</v>
       </c>
       <c r="H26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I26">
         <v>0.74193548387096697</v>
@@ -17879,7 +18317,7 @@
         <v>0.97411561691113002</v>
       </c>
       <c r="H27" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I27">
         <v>0.69594594594594505</v>
@@ -17971,7 +18409,7 @@
         <v>0.99539833189531202</v>
       </c>
       <c r="H28" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I28">
         <v>0.57894736842105199</v>
@@ -18155,7 +18593,7 @@
         <v>0.99165947656025299</v>
       </c>
       <c r="H30" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I30">
         <v>0.65060240963855398</v>
@@ -18247,7 +18685,7 @@
         <v>0.98705780845556501</v>
       </c>
       <c r="H31" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I31">
         <v>0.67153284671532798</v>
@@ -18339,7 +18777,7 @@
         <v>0.97933748770088502</v>
       </c>
       <c r="H32" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I32">
         <v>0.55319148936170204</v>
@@ -18431,7 +18869,7 @@
         <v>0.96392259757297405</v>
       </c>
       <c r="H33" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I33">
         <v>0.60144927536231796</v>
@@ -18523,7 +18961,7 @@
         <v>0.97441784191538205</v>
       </c>
       <c r="H34" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I34">
         <v>0.5</v>
@@ -18599,10 +19037,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2A5DC65-F61D-4915-92F9-4012B56D908D}">
-  <dimension ref="A1:AG34"/>
+  <dimension ref="A1:AL34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AH19" sqref="AH19"/>
+      <selection activeCell="AI1" sqref="AI1:AL6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -18614,7 +19052,7 @@
     <col min="26" max="30" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -18714,8 +19152,17 @@
       <c r="AG1" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="AJ1" t="s">
+        <v>309</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -18818,8 +19265,23 @@
         <f>2*(AE2*AF2)/(AE2+AF2)</f>
         <v>0.62478705281090285</v>
       </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="AI2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ2" s="1">
+        <f>SUM(AB2:AB11)/(SUM(AB2:AB11)+SUM(AC2:AC11))</f>
+        <v>0.62530217566478641</v>
+      </c>
+      <c r="AK2" s="1">
+        <f>SUM(AB2:AB11)/(SUM(AB2:AB11)+SUM(AD2:AD11))</f>
+        <v>0.70289855072463769</v>
+      </c>
+      <c r="AL2" s="1">
+        <f>2*(AJ2*AK2)/(AJ2+AK2)</f>
+        <v>0.66183368869936032</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -18910,8 +19372,23 @@
       <c r="AD3">
         <v>47</v>
       </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="AI3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ3" s="1">
+        <f>SUM(AB12:AB20)/(SUM(AB12:AB20)+SUM(AC12:AC20))</f>
+        <v>0.65400843881856541</v>
+      </c>
+      <c r="AK3" s="1">
+        <f>SUM(AB12:AB20)/(SUM(AB12:AB20)+SUM(AD12:AD20))</f>
+        <v>0.53633217993079585</v>
+      </c>
+      <c r="AL3" s="1">
+        <f>2*(AJ3*AK3)/(AJ3+AK3)</f>
+        <v>0.58935361216730031</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -19002,8 +19479,23 @@
       <c r="AD4">
         <v>59</v>
       </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="AI4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ4" s="1">
+        <f>SUM(AB21:AB25)/(SUM(AB21:AB25)+SUM(AC21:AC25))</f>
+        <v>0.51677852348993292</v>
+      </c>
+      <c r="AK4" s="1">
+        <f>SUM(AB21:AB25)/(SUM(AB21:AB25)+SUM(AD21:AD25))</f>
+        <v>0.57249070631970256</v>
+      </c>
+      <c r="AL4" s="1">
+        <f t="shared" ref="AL4:AL6" si="0">2*(AJ4*AK4)/(AJ4+AK4)</f>
+        <v>0.54320987654320985</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -19094,8 +19586,23 @@
       <c r="AD5">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="AI5" t="s">
+        <v>134</v>
+      </c>
+      <c r="AJ5" s="1">
+        <f>SUM(AB26:AB31)/(SUM(AB26:AB31)+SUM(AC26:AC31))</f>
+        <v>0.69090909090909092</v>
+      </c>
+      <c r="AK5" s="1">
+        <f>SUM(AB26:AB31)/(SUM(AB26:AB31)+SUM(AD26:AD31))</f>
+        <v>0.6462585034013606</v>
+      </c>
+      <c r="AL5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.66783831282952555</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -19186,8 +19693,23 @@
       <c r="AD6">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="AI6" t="s">
+        <v>160</v>
+      </c>
+      <c r="AJ6" s="1">
+        <f>SUM(AB32:AB34)/(SUM(AB32:AB34)+SUM(AC32:AC34))</f>
+        <v>0.48484848484848486</v>
+      </c>
+      <c r="AK6" s="1">
+        <f>SUM(AB32:AB34)/(SUM(AB32:AB34)+SUM(AD32:AD34))</f>
+        <v>0.65529010238907848</v>
+      </c>
+      <c r="AL6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.55732946298984032</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -19279,7 +19801,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -19371,7 +19893,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -19463,7 +19985,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -19555,7 +20077,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -19647,7 +20169,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -19739,7 +20261,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -19831,7 +20353,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>83</v>
       </c>
@@ -19923,7 +20445,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -20015,7 +20537,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>83</v>
       </c>
@@ -21770,10 +22292,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96DB2610-41A0-4FBA-A977-EFC7065CE8F3}">
-  <dimension ref="A1:AG34"/>
+  <dimension ref="A1:AL34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AG4" sqref="AG4"/>
+      <selection activeCell="AI1" sqref="AI1:AL6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -21784,7 +22306,7 @@
     <col min="26" max="30" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -21884,8 +22406,17 @@
       <c r="AG1" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="AJ1" t="s">
+        <v>309</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -21908,7 +22439,7 @@
         <v>0.99683599929688804</v>
       </c>
       <c r="H2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -21988,8 +22519,23 @@
         <f>2*(AE2*AF2)/(AE2+AF2)</f>
         <v>0.16226708074534163</v>
       </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="AI2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ2" s="1" t="e">
+        <f>SUM(AB2:AB11)/(SUM(AB2:AB11)+SUM(AC2:AC11))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK2" s="1">
+        <f>SUM(AB2:AB11)/(SUM(AB2:AB11)+SUM(AD2:AD11))</f>
+        <v>0</v>
+      </c>
+      <c r="AL2" s="1" t="e">
+        <f>2*(AJ2*AK2)/(AJ2+AK2)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -22012,7 +22558,7 @@
         <v>0.98910177535595001</v>
       </c>
       <c r="H3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -22080,8 +22626,23 @@
       <c r="AD3">
         <v>62</v>
       </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="AI3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ3" s="1" t="e">
+        <f>SUM(AB12:AB20)/(SUM(AB12:AB20)+SUM(AC12:AC20))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK3" s="1">
+        <f>SUM(AB12:AB20)/(SUM(AB12:AB20)+SUM(AD12:AD20))</f>
+        <v>0</v>
+      </c>
+      <c r="AL3" s="1" t="e">
+        <f>2*(AJ3*AK3)/(AJ3+AK3)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -22104,7 +22665,7 @@
         <v>0.98189488486553</v>
       </c>
       <c r="H4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -22172,8 +22733,23 @@
       <c r="AD4">
         <v>103</v>
       </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="AI4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ4" s="1" t="e">
+        <f>SUM(AB21:AB25)/(SUM(AB21:AB25)+SUM(AC21:AC25))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK4" s="1">
+        <f>SUM(AB21:AB25)/(SUM(AB21:AB25)+SUM(AD21:AD25))</f>
+        <v>0</v>
+      </c>
+      <c r="AL4" s="1" t="e">
+        <f t="shared" ref="AL4:AL6" si="0">2*(AJ4*AK4)/(AJ4+AK4)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -22196,7 +22772,7 @@
         <v>0.97837932852873899</v>
       </c>
       <c r="H5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -22264,8 +22840,23 @@
       <c r="AD5">
         <v>123</v>
       </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="AI5" t="s">
+        <v>134</v>
+      </c>
+      <c r="AJ5" s="1">
+        <f>SUM(AB26:AB31)/(SUM(AB26:AB31)+SUM(AC26:AC31))</f>
+        <v>0.63914373088685017</v>
+      </c>
+      <c r="AK5" s="1">
+        <f>SUM(AB26:AB31)/(SUM(AB26:AB31)+SUM(AD26:AD31))</f>
+        <v>0.71088435374149661</v>
+      </c>
+      <c r="AL5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.67310789049919484</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -22288,7 +22879,7 @@
         <v>0.99208999824222099</v>
       </c>
       <c r="H6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -22356,8 +22947,23 @@
       <c r="AD6">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="AI6" t="s">
+        <v>160</v>
+      </c>
+      <c r="AJ6" s="1" t="e">
+        <f>SUM(AB32:AB34)/(SUM(AB32:AB34)+SUM(AC32:AC34))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK6" s="1">
+        <f>SUM(AB32:AB34)/(SUM(AB32:AB34)+SUM(AD32:AD34))</f>
+        <v>0</v>
+      </c>
+      <c r="AL6" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -22380,7 +22986,7 @@
         <v>0.91474775883283499</v>
       </c>
       <c r="H7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -22449,7 +23055,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -22472,7 +23078,7 @@
         <v>0.99191422042538202</v>
       </c>
       <c r="H8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -22541,7 +23147,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -22564,7 +23170,7 @@
         <v>0.99771488838108602</v>
       </c>
       <c r="H9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -22633,7 +23239,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -22656,7 +23262,7 @@
         <v>0.99507822112849298</v>
       </c>
       <c r="H10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -22725,7 +23331,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -22748,7 +23354,7 @@
         <v>0.968184215152047</v>
       </c>
       <c r="H11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -22817,7 +23423,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -22909,7 +23515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -23001,7 +23607,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>83</v>
       </c>
@@ -23024,7 +23630,7 @@
         <v>0.98389134554642999</v>
       </c>
       <c r="H14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -23093,7 +23699,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -23116,7 +23722,7 @@
         <v>0.99368288060644305</v>
       </c>
       <c r="H15" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -23185,7 +23791,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>83</v>
       </c>
@@ -23300,7 +23906,7 @@
         <v>0.95325331648768097</v>
       </c>
       <c r="H17" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -23392,7 +23998,7 @@
         <v>0.99241945672773202</v>
       </c>
       <c r="H18" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -23576,7 +24182,7 @@
         <v>0.99336702463676496</v>
       </c>
       <c r="H20" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -23668,7 +24274,7 @@
         <v>0.961655508216676</v>
       </c>
       <c r="H21" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -23760,7 +24366,7 @@
         <v>0.98660986001217199</v>
       </c>
       <c r="H22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -23852,7 +24458,7 @@
         <v>0.98295800365185604</v>
       </c>
       <c r="H23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -24036,7 +24642,7 @@
         <v>0.98813146682897102</v>
       </c>
       <c r="H25" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -24128,7 +24734,7 @@
         <v>0.99511072763876895</v>
       </c>
       <c r="H26" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I26">
         <v>0.72131147540983598</v>
@@ -24220,7 +24826,7 @@
         <v>0.97440322116767297</v>
       </c>
       <c r="H27" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I27">
         <v>0.69624573378839505</v>
@@ -24312,7 +24918,7 @@
         <v>0.994823123382226</v>
       </c>
       <c r="H28" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I28">
         <v>0.5</v>
@@ -24496,7 +25102,7 @@
         <v>0.99079666379062403</v>
       </c>
       <c r="H30" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I30">
         <v>0.6</v>
@@ -24588,7 +25194,7 @@
         <v>0.98734541271210796</v>
       </c>
       <c r="H31" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I31">
         <v>0.66153846153846096</v>
@@ -24680,7 +25286,7 @@
         <v>0.97999344047228598</v>
       </c>
       <c r="H32" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -24772,7 +25378,7 @@
         <v>0.955067235159068</v>
       </c>
       <c r="H33" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -24864,7 +25470,7 @@
         <v>0.96884224335847802</v>
       </c>
       <c r="H34" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I34">
         <v>0</v>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxwe\Google Drive\Code\Python\extract_COVID19_events_from_Twitter\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF4E367-9EEA-4001-8E4A-133DEF17F26D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B028D9E4-BDC0-4B98-8EBD-5D77209D75DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{09ECAD97-3C1E-45DE-875A-3C5CD2F3C873}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="5" xr2:uid="{09ECAD97-3C1E-45DE-875A-3C5CD2F3C873}"/>
   </bookViews>
   <sheets>
     <sheet name="comparison" sheetId="7" r:id="rId1"/>
@@ -18,11 +18,12 @@
     <sheet name="bert" sheetId="4" r:id="rId3"/>
     <sheet name="biobert" sheetId="5" r:id="rId4"/>
     <sheet name="covid-twitter-bert" sheetId="8" r:id="rId5"/>
-    <sheet name="covid-twitter-bert2" sheetId="10" r:id="rId6"/>
-    <sheet name="electra" sheetId="6" r:id="rId7"/>
-    <sheet name="electra-large" sheetId="9" r:id="rId8"/>
-    <sheet name="lr-paper" sheetId="1" r:id="rId9"/>
-    <sheet name="bert-paper" sheetId="2" r:id="rId10"/>
+    <sheet name="pos_pooled" sheetId="10" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="11" r:id="rId7"/>
+    <sheet name="electra" sheetId="6" r:id="rId8"/>
+    <sheet name="electra-large" sheetId="9" r:id="rId9"/>
+    <sheet name="lr-paper" sheetId="1" r:id="rId10"/>
+    <sheet name="bert-paper" sheetId="2" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1638,7 +1639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E09BEF8E-45BB-4FF8-8E9F-14976C2DFCDC}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -1833,6 +1834,3245 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8583DFB6-1C5F-4E8D-BAA4-B0A26012EA60}">
+  <dimension ref="A1:AE34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z25" sqref="Z25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="13.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="25" width="0" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="9.1328125" style="1"/>
+    <col min="27" max="28" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="29" max="31" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2">
+        <v>97794</v>
+      </c>
+      <c r="H2">
+        <v>0.99711093990754995</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>624</v>
+      </c>
+      <c r="L2">
+        <v>97.596153846153797</v>
+      </c>
+      <c r="M2">
+        <v>97.596153846153797</v>
+      </c>
+      <c r="N2">
+        <v>15</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0.5</v>
+      </c>
+      <c r="R2">
+        <v>15</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>15</v>
+      </c>
+      <c r="Y2">
+        <v>15</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3">
+        <v>100189</v>
+      </c>
+      <c r="H3">
+        <v>0.99432599724896797</v>
+      </c>
+      <c r="I3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>625</v>
+      </c>
+      <c r="L3">
+        <v>95.04</v>
+      </c>
+      <c r="M3">
+        <v>95.04</v>
+      </c>
+      <c r="N3">
+        <v>31</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0.5</v>
+      </c>
+      <c r="R3">
+        <v>18</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>18</v>
+      </c>
+      <c r="Y3">
+        <v>33</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4">
+        <v>100189</v>
+      </c>
+      <c r="H4">
+        <v>0.98968363136175996</v>
+      </c>
+      <c r="I4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4">
+        <v>3.2258064516128997E-2</v>
+      </c>
+      <c r="K4">
+        <v>625</v>
+      </c>
+      <c r="L4">
+        <v>89.76</v>
+      </c>
+      <c r="M4">
+        <v>89.76</v>
+      </c>
+      <c r="N4">
+        <v>65</v>
+      </c>
+      <c r="O4">
+        <v>1.5384615384615301</v>
+      </c>
+      <c r="P4">
+        <v>1.5384615384615301</v>
+      </c>
+      <c r="Q4">
+        <v>0.1</v>
+      </c>
+      <c r="R4">
+        <v>29</v>
+      </c>
+      <c r="S4">
+        <v>0.146341463414634</v>
+      </c>
+      <c r="T4">
+        <v>0.25</v>
+      </c>
+      <c r="U4">
+        <v>0.10344827586206801</v>
+      </c>
+      <c r="V4">
+        <v>3</v>
+      </c>
+      <c r="W4">
+        <v>9</v>
+      </c>
+      <c r="X4">
+        <v>26</v>
+      </c>
+      <c r="Y4">
+        <v>61</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>0.20224719101123501</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>0.32142857142857101</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>0.14754098360655701</v>
+      </c>
+      <c r="AC4">
+        <v>9</v>
+      </c>
+      <c r="AD4">
+        <v>19</v>
+      </c>
+      <c r="AE4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5">
+        <v>100189</v>
+      </c>
+      <c r="H5">
+        <v>0.97850756533700101</v>
+      </c>
+      <c r="I5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5">
+        <v>6.01503759398496E-2</v>
+      </c>
+      <c r="K5">
+        <v>626</v>
+      </c>
+      <c r="L5">
+        <v>84.984025559105405</v>
+      </c>
+      <c r="M5">
+        <v>84.984025559105405</v>
+      </c>
+      <c r="N5">
+        <v>93</v>
+      </c>
+      <c r="O5">
+        <v>4.3010752688171996</v>
+      </c>
+      <c r="P5">
+        <v>4.3010752688171996</v>
+      </c>
+      <c r="Q5">
+        <v>0.1</v>
+      </c>
+      <c r="R5">
+        <v>64</v>
+      </c>
+      <c r="S5">
+        <v>0.27210884353741399</v>
+      </c>
+      <c r="T5">
+        <v>0.240963855421686</v>
+      </c>
+      <c r="U5">
+        <v>0.3125</v>
+      </c>
+      <c r="V5">
+        <v>20</v>
+      </c>
+      <c r="W5">
+        <v>63</v>
+      </c>
+      <c r="X5">
+        <v>44</v>
+      </c>
+      <c r="Y5">
+        <v>124</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>0.29875518672199097</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>0.30769230769230699</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>0.29032258064516098</v>
+      </c>
+      <c r="AC5">
+        <v>36</v>
+      </c>
+      <c r="AD5">
+        <v>81</v>
+      </c>
+      <c r="AE5">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6">
+        <v>100189</v>
+      </c>
+      <c r="H6">
+        <v>0.99226272352131994</v>
+      </c>
+      <c r="I6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>625</v>
+      </c>
+      <c r="L6">
+        <v>94.56</v>
+      </c>
+      <c r="M6">
+        <v>94.56</v>
+      </c>
+      <c r="N6">
+        <v>34</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0.5</v>
+      </c>
+      <c r="R6">
+        <v>27</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>27</v>
+      </c>
+      <c r="Y6">
+        <v>45</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7">
+        <v>100189</v>
+      </c>
+      <c r="H7">
+        <v>0.93225584594222799</v>
+      </c>
+      <c r="I7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7">
+        <v>0.45730027548209301</v>
+      </c>
+      <c r="K7">
+        <v>689</v>
+      </c>
+      <c r="L7">
+        <v>48.330914368650198</v>
+      </c>
+      <c r="M7">
+        <v>52.598365994592399</v>
+      </c>
+      <c r="N7">
+        <v>486</v>
+      </c>
+      <c r="O7">
+        <v>34.362139917695401</v>
+      </c>
+      <c r="P7">
+        <v>40.412086770111401</v>
+      </c>
+      <c r="Q7">
+        <v>0.3</v>
+      </c>
+      <c r="R7">
+        <v>263</v>
+      </c>
+      <c r="S7">
+        <v>0.51698113207547103</v>
+      </c>
+      <c r="T7">
+        <v>0.51310861423220899</v>
+      </c>
+      <c r="U7">
+        <v>0.52091254752851701</v>
+      </c>
+      <c r="V7">
+        <v>137</v>
+      </c>
+      <c r="W7">
+        <v>130</v>
+      </c>
+      <c r="X7">
+        <v>126</v>
+      </c>
+      <c r="Y7">
+        <v>450</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>0.49195402298850499</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>0.50952380952380905</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>0.47555555555555501</v>
+      </c>
+      <c r="AC7">
+        <v>214</v>
+      </c>
+      <c r="AD7">
+        <v>206</v>
+      </c>
+      <c r="AE7">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8">
+        <v>100189</v>
+      </c>
+      <c r="H8">
+        <v>0.99580810433162503</v>
+      </c>
+      <c r="I8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>625</v>
+      </c>
+      <c r="L8">
+        <v>95.52</v>
+      </c>
+      <c r="M8">
+        <v>95.52</v>
+      </c>
+      <c r="N8">
+        <v>28</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0.2</v>
+      </c>
+      <c r="R8">
+        <v>20</v>
+      </c>
+      <c r="S8">
+        <v>9.5238095238095205E-2</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>0.05</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>19</v>
+      </c>
+      <c r="Y8">
+        <v>27</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9">
+        <v>100189</v>
+      </c>
+      <c r="H9">
+        <v>0.99829219065362496</v>
+      </c>
+      <c r="I9" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>625</v>
+      </c>
+      <c r="L9">
+        <v>98.56</v>
+      </c>
+      <c r="M9">
+        <v>98.56</v>
+      </c>
+      <c r="N9">
+        <v>9</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0.4</v>
+      </c>
+      <c r="R9">
+        <v>2</v>
+      </c>
+      <c r="S9">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>0.5</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>11</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10">
+        <v>100189</v>
+      </c>
+      <c r="H10">
+        <v>0.99782642446824998</v>
+      </c>
+      <c r="I10" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>625</v>
+      </c>
+      <c r="L10">
+        <v>97.76</v>
+      </c>
+      <c r="M10">
+        <v>97.76</v>
+      </c>
+      <c r="N10">
+        <v>14</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0.5</v>
+      </c>
+      <c r="R10">
+        <v>7</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>7</v>
+      </c>
+      <c r="Y10">
+        <v>14</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11">
+        <v>100189</v>
+      </c>
+      <c r="H11">
+        <v>0.97841950007762701</v>
+      </c>
+      <c r="I11" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11">
+        <v>0.15757575757575701</v>
+      </c>
+      <c r="K11">
+        <v>636</v>
+      </c>
+      <c r="L11">
+        <v>78.930817610062803</v>
+      </c>
+      <c r="M11">
+        <v>78.993710691823793</v>
+      </c>
+      <c r="N11">
+        <v>136</v>
+      </c>
+      <c r="O11">
+        <v>10.294117647058799</v>
+      </c>
+      <c r="P11">
+        <v>10.588235294117601</v>
+      </c>
+      <c r="Q11">
+        <v>0.2</v>
+      </c>
+      <c r="R11">
+        <v>71</v>
+      </c>
+      <c r="S11">
+        <v>0.29508196721311403</v>
+      </c>
+      <c r="T11">
+        <v>0.35294117647058798</v>
+      </c>
+      <c r="U11">
+        <v>0.25352112676056299</v>
+      </c>
+      <c r="V11">
+        <v>18</v>
+      </c>
+      <c r="W11">
+        <v>33</v>
+      </c>
+      <c r="X11">
+        <v>53</v>
+      </c>
+      <c r="Y11">
+        <v>133</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>0.23175965665236001</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>0.203007518796992</v>
+      </c>
+      <c r="AC11">
+        <v>27</v>
+      </c>
+      <c r="AD11">
+        <v>73</v>
+      </c>
+      <c r="AE11">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12">
+        <v>53374</v>
+      </c>
+      <c r="H12">
+        <v>0.99900662251655603</v>
+      </c>
+      <c r="I12" t="s">
+        <v>87</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>301</v>
+      </c>
+      <c r="L12">
+        <v>99.003322259136198</v>
+      </c>
+      <c r="M12">
+        <v>99.003322259136198</v>
+      </c>
+      <c r="N12">
+        <v>3</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0.5</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>3</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13">
+        <v>54632</v>
+      </c>
+      <c r="H13">
+        <v>0.99939448985770496</v>
+      </c>
+      <c r="I13" t="s">
+        <v>91</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>300</v>
+      </c>
+      <c r="L13">
+        <v>98.3333333333333</v>
+      </c>
+      <c r="M13">
+        <v>98.3333333333333</v>
+      </c>
+      <c r="N13">
+        <v>5</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.5</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
+      <c r="Y13">
+        <v>2</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14">
+        <v>54632</v>
+      </c>
+      <c r="H14">
+        <v>0.98577051165606999</v>
+      </c>
+      <c r="I14" t="s">
+        <v>95</v>
+      </c>
+      <c r="J14">
+        <v>7.8431372549019607E-2</v>
+      </c>
+      <c r="K14">
+        <v>300</v>
+      </c>
+      <c r="L14">
+        <v>87.6666666666666</v>
+      </c>
+      <c r="M14">
+        <v>87.6666666666666</v>
+      </c>
+      <c r="N14">
+        <v>37</v>
+      </c>
+      <c r="O14">
+        <v>5.4054054054053999</v>
+      </c>
+      <c r="P14">
+        <v>5.4054054054053999</v>
+      </c>
+      <c r="Q14">
+        <v>0.1</v>
+      </c>
+      <c r="R14">
+        <v>21</v>
+      </c>
+      <c r="S14">
+        <v>0.20689655172413701</v>
+      </c>
+      <c r="T14">
+        <v>0.162162162162162</v>
+      </c>
+      <c r="U14">
+        <v>0.28571428571428498</v>
+      </c>
+      <c r="V14">
+        <v>6</v>
+      </c>
+      <c r="W14">
+        <v>31</v>
+      </c>
+      <c r="X14">
+        <v>15</v>
+      </c>
+      <c r="Y14">
+        <v>47</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>0.31578947368421001</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>0.3125</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>0.31914893617021201</v>
+      </c>
+      <c r="AC14">
+        <v>15</v>
+      </c>
+      <c r="AD14">
+        <v>33</v>
+      </c>
+      <c r="AE14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15">
+        <v>54632</v>
+      </c>
+      <c r="H15">
+        <v>0.993339388434756</v>
+      </c>
+      <c r="I15" t="s">
+        <v>98</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>300</v>
+      </c>
+      <c r="L15">
+        <v>93.6666666666666</v>
+      </c>
+      <c r="M15">
+        <v>93.6666666666666</v>
+      </c>
+      <c r="N15">
+        <v>19</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.1</v>
+      </c>
+      <c r="R15">
+        <v>21</v>
+      </c>
+      <c r="S15">
+        <v>0.17391304347826</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>9.5238095238095205E-2</v>
+      </c>
+      <c r="V15">
+        <v>2</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>19</v>
+      </c>
+      <c r="Y15">
+        <v>22</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>6.6666666666666596E-2</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>4.54545454545454E-2</v>
+      </c>
+      <c r="AC15">
+        <v>1</v>
+      </c>
+      <c r="AD15">
+        <v>7</v>
+      </c>
+      <c r="AE15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16">
+        <v>54632</v>
+      </c>
+      <c r="H16">
+        <v>0.99939448985770496</v>
+      </c>
+      <c r="I16" t="s">
+        <v>91</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>300</v>
+      </c>
+      <c r="L16">
+        <v>99.3333333333333</v>
+      </c>
+      <c r="M16">
+        <v>99.3333333333333</v>
+      </c>
+      <c r="N16">
+        <v>2</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.5</v>
+      </c>
+      <c r="R16">
+        <v>5</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>5</v>
+      </c>
+      <c r="Y16">
+        <v>2</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17">
+        <v>54632</v>
+      </c>
+      <c r="H17">
+        <v>0.95216469875870402</v>
+      </c>
+      <c r="I17" t="s">
+        <v>105</v>
+      </c>
+      <c r="J17">
+        <v>0.26168224299065401</v>
+      </c>
+      <c r="K17">
+        <v>338</v>
+      </c>
+      <c r="L17">
+        <v>54.142011834319497</v>
+      </c>
+      <c r="M17">
+        <v>54.997758651604798</v>
+      </c>
+      <c r="N17">
+        <v>154</v>
+      </c>
+      <c r="O17">
+        <v>18.181818181818102</v>
+      </c>
+      <c r="P17">
+        <v>20.060015741833901</v>
+      </c>
+      <c r="Q17">
+        <v>0.3</v>
+      </c>
+      <c r="R17">
+        <v>93</v>
+      </c>
+      <c r="S17">
+        <v>0.305732484076433</v>
+      </c>
+      <c r="T17">
+        <v>0.375</v>
+      </c>
+      <c r="U17">
+        <v>0.25806451612903197</v>
+      </c>
+      <c r="V17">
+        <v>24</v>
+      </c>
+      <c r="W17">
+        <v>40</v>
+      </c>
+      <c r="X17">
+        <v>69</v>
+      </c>
+      <c r="Y17">
+        <v>134</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>0.32958801498127299</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>0.33082706766917203</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>0.328358208955223</v>
+      </c>
+      <c r="AC17">
+        <v>44</v>
+      </c>
+      <c r="AD17">
+        <v>89</v>
+      </c>
+      <c r="AE17">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18">
+        <v>54632</v>
+      </c>
+      <c r="H18">
+        <v>0.99212836815016603</v>
+      </c>
+      <c r="I18" t="s">
+        <v>109</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>300</v>
+      </c>
+      <c r="L18">
+        <v>92.3333333333333</v>
+      </c>
+      <c r="M18">
+        <v>92.3333333333333</v>
+      </c>
+      <c r="N18">
+        <v>23</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.1</v>
+      </c>
+      <c r="R18">
+        <v>17</v>
+      </c>
+      <c r="S18">
+        <v>9.0909090909090898E-2</v>
+      </c>
+      <c r="T18">
+        <v>0.2</v>
+      </c>
+      <c r="U18">
+        <v>5.8823529411764698E-2</v>
+      </c>
+      <c r="V18">
+        <v>1</v>
+      </c>
+      <c r="W18">
+        <v>4</v>
+      </c>
+      <c r="X18">
+        <v>16</v>
+      </c>
+      <c r="Y18">
+        <v>26</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>5.1282051282051197E-2</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>7.69230769230769E-2</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>3.8461538461538401E-2</v>
+      </c>
+      <c r="AC18">
+        <v>1</v>
+      </c>
+      <c r="AD18">
+        <v>12</v>
+      </c>
+      <c r="AE18">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19">
+        <v>54632</v>
+      </c>
+      <c r="H19">
+        <v>0.999091734786557</v>
+      </c>
+      <c r="I19" t="s">
+        <v>112</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>300</v>
+      </c>
+      <c r="L19">
+        <v>99</v>
+      </c>
+      <c r="M19">
+        <v>99</v>
+      </c>
+      <c r="N19">
+        <v>3</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0.5</v>
+      </c>
+      <c r="R19">
+        <v>5</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>5</v>
+      </c>
+      <c r="Y19">
+        <v>3</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" t="s">
+        <v>114</v>
+      </c>
+      <c r="E20" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20">
+        <v>54632</v>
+      </c>
+      <c r="H20">
+        <v>0.99500416319733498</v>
+      </c>
+      <c r="I20" t="s">
+        <v>116</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>300</v>
+      </c>
+      <c r="L20">
+        <v>93</v>
+      </c>
+      <c r="M20">
+        <v>93</v>
+      </c>
+      <c r="N20">
+        <v>21</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0.1</v>
+      </c>
+      <c r="R20">
+        <v>22</v>
+      </c>
+      <c r="S20">
+        <v>7.69230769230769E-2</v>
+      </c>
+      <c r="T20">
+        <v>0.25</v>
+      </c>
+      <c r="U20">
+        <v>4.54545454545454E-2</v>
+      </c>
+      <c r="V20">
+        <v>1</v>
+      </c>
+      <c r="W20">
+        <v>3</v>
+      </c>
+      <c r="X20">
+        <v>21</v>
+      </c>
+      <c r="Y20">
+        <v>18</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>0.105263157894736</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>5.5555555555555497E-2</v>
+      </c>
+      <c r="AC20">
+        <v>1</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
+        <v>126</v>
+      </c>
+      <c r="D21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21">
+        <v>59776</v>
+      </c>
+      <c r="H21">
+        <v>0.96913055791560399</v>
+      </c>
+      <c r="I21" t="s">
+        <v>129</v>
+      </c>
+      <c r="J21">
+        <v>0.128</v>
+      </c>
+      <c r="K21">
+        <v>306</v>
+      </c>
+      <c r="L21">
+        <v>64.705882352941103</v>
+      </c>
+      <c r="M21">
+        <v>64.705882352941103</v>
+      </c>
+      <c r="N21">
+        <v>115</v>
+      </c>
+      <c r="O21">
+        <v>6.9565217391304301</v>
+      </c>
+      <c r="P21">
+        <v>6.9565217391304301</v>
+      </c>
+      <c r="Q21">
+        <v>0.1</v>
+      </c>
+      <c r="R21">
+        <v>77</v>
+      </c>
+      <c r="S21">
+        <v>0.16184971098265799</v>
+      </c>
+      <c r="T21">
+        <v>0.14583333333333301</v>
+      </c>
+      <c r="U21">
+        <v>0.18181818181818099</v>
+      </c>
+      <c r="V21">
+        <v>14</v>
+      </c>
+      <c r="W21">
+        <v>82</v>
+      </c>
+      <c r="X21">
+        <v>63</v>
+      </c>
+      <c r="Y21">
+        <v>110</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>0.20338983050847401</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>0.128205128205128</v>
+      </c>
+      <c r="AC21">
+        <v>5</v>
+      </c>
+      <c r="AD21">
+        <v>3</v>
+      </c>
+      <c r="AE21">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" t="s">
+        <v>120</v>
+      </c>
+      <c r="F22" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22">
+        <v>58860</v>
+      </c>
+      <c r="H22">
+        <v>0.98827160493827104</v>
+      </c>
+      <c r="I22" t="s">
+        <v>121</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>301</v>
+      </c>
+      <c r="L22">
+        <v>90.697674418604606</v>
+      </c>
+      <c r="M22">
+        <v>90.697674418604606</v>
+      </c>
+      <c r="N22">
+        <v>28</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0.1</v>
+      </c>
+      <c r="R22">
+        <v>30</v>
+      </c>
+      <c r="S22">
+        <v>0.22857142857142801</v>
+      </c>
+      <c r="T22">
+        <v>0.8</v>
+      </c>
+      <c r="U22">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="V22">
+        <v>4</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <v>26</v>
+      </c>
+      <c r="Y22">
+        <v>39</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>0.21276595744680801</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>0.28571428571428498</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>5.5555555555555497E-2</v>
+      </c>
+      <c r="AC22">
+        <v>2</v>
+      </c>
+      <c r="AD22">
+        <v>5</v>
+      </c>
+      <c r="AE22">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" t="s">
+        <v>147</v>
+      </c>
+      <c r="C23" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23" t="s">
+        <v>124</v>
+      </c>
+      <c r="F23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23">
+        <v>58860</v>
+      </c>
+      <c r="H23">
+        <v>0.98888888888888804</v>
+      </c>
+      <c r="I23" t="s">
+        <v>125</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>301</v>
+      </c>
+      <c r="L23">
+        <v>91.029900332225907</v>
+      </c>
+      <c r="M23">
+        <v>91.029900332225907</v>
+      </c>
+      <c r="N23">
+        <v>27</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0.1</v>
+      </c>
+      <c r="R23">
+        <v>34</v>
+      </c>
+      <c r="S23">
+        <v>0.217391304347826</v>
+      </c>
+      <c r="T23">
+        <v>0.41666666666666602</v>
+      </c>
+      <c r="U23">
+        <v>0.14705882352941099</v>
+      </c>
+      <c r="V23">
+        <v>5</v>
+      </c>
+      <c r="W23">
+        <v>7</v>
+      </c>
+      <c r="X23">
+        <v>29</v>
+      </c>
+      <c r="Y23">
+        <v>36</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>9.3023255813953404E-2</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>0.19047619047618999</v>
+      </c>
+      <c r="AB23" s="1">
+        <v>0.218181818181818</v>
+      </c>
+      <c r="AC23">
+        <v>24</v>
+      </c>
+      <c r="AD23">
+        <v>102</v>
+      </c>
+      <c r="AE23">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>117</v>
+      </c>
+      <c r="B24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" t="s">
+        <v>251</v>
+      </c>
+      <c r="D24" t="s">
+        <v>252</v>
+      </c>
+      <c r="E24" t="s">
+        <v>253</v>
+      </c>
+      <c r="F24" t="s">
+        <v>179</v>
+      </c>
+      <c r="G24">
+        <v>0.99878271454656098</v>
+      </c>
+      <c r="H24" t="s">
+        <v>257</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>279</v>
+      </c>
+      <c r="K24">
+        <v>98.566308243727605</v>
+      </c>
+      <c r="L24">
+        <v>98.566308243727605</v>
+      </c>
+      <c r="M24">
+        <v>4</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0.5</v>
+      </c>
+      <c r="Q24">
+        <v>2</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>2</v>
+      </c>
+      <c r="X24">
+        <v>4</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>4.3478260869565202E-2</v>
+      </c>
+      <c r="AC24">
+        <v>1</v>
+      </c>
+      <c r="AD24">
+        <v>7</v>
+      </c>
+      <c r="AE24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" t="s">
+        <v>130</v>
+      </c>
+      <c r="D25" t="s">
+        <v>131</v>
+      </c>
+      <c r="E25" t="s">
+        <v>132</v>
+      </c>
+      <c r="F25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25">
+        <v>59776</v>
+      </c>
+      <c r="H25">
+        <v>0.99399634560167005</v>
+      </c>
+      <c r="I25" t="s">
+        <v>133</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>300</v>
+      </c>
+      <c r="L25">
+        <v>92.3333333333333</v>
+      </c>
+      <c r="M25">
+        <v>92.3333333333333</v>
+      </c>
+      <c r="N25">
+        <v>23</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0.1</v>
+      </c>
+      <c r="R25">
+        <v>14</v>
+      </c>
+      <c r="S25">
+        <v>0.32</v>
+      </c>
+      <c r="T25">
+        <v>0.36363636363636298</v>
+      </c>
+      <c r="U25">
+        <v>0.28571428571428498</v>
+      </c>
+      <c r="V25">
+        <v>4</v>
+      </c>
+      <c r="W25">
+        <v>7</v>
+      </c>
+      <c r="X25">
+        <v>10</v>
+      </c>
+      <c r="Y25">
+        <v>23</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>6.4516129032257993E-2</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AB25" s="1">
+        <v>3.2258064516128997E-2</v>
+      </c>
+      <c r="AC25">
+        <v>1</v>
+      </c>
+      <c r="AD25">
+        <v>1</v>
+      </c>
+      <c r="AE25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>134</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" t="s">
+        <v>135</v>
+      </c>
+      <c r="D26" t="s">
+        <v>136</v>
+      </c>
+      <c r="E26" t="s">
+        <v>137</v>
+      </c>
+      <c r="F26" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26">
+        <v>61742</v>
+      </c>
+      <c r="H26">
+        <v>0.990771062816314</v>
+      </c>
+      <c r="I26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J26">
+        <v>6.0606060606060601E-2</v>
+      </c>
+      <c r="K26">
+        <v>326</v>
+      </c>
+      <c r="L26">
+        <v>90.490797546012203</v>
+      </c>
+      <c r="M26">
+        <v>90.6952965235173</v>
+      </c>
+      <c r="N26">
+        <v>32</v>
+      </c>
+      <c r="O26">
+        <v>3.125</v>
+      </c>
+      <c r="P26">
+        <v>5.2083333333333304</v>
+      </c>
+      <c r="Q26">
+        <v>0.5</v>
+      </c>
+      <c r="R26">
+        <v>18</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>18</v>
+      </c>
+      <c r="Y26">
+        <v>31</v>
+      </c>
+      <c r="Z26" s="1">
+        <v>6.0606060606060601E-2</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>0.31360946745562102</v>
+      </c>
+      <c r="AB26" s="1">
+        <v>0.37588652482269502</v>
+      </c>
+      <c r="AC26">
+        <v>53</v>
+      </c>
+      <c r="AD26">
+        <v>116</v>
+      </c>
+      <c r="AE26">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>134</v>
+      </c>
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" t="s">
+        <v>139</v>
+      </c>
+      <c r="D27" t="s">
+        <v>140</v>
+      </c>
+      <c r="E27" t="s">
+        <v>141</v>
+      </c>
+      <c r="F27" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27">
+        <v>63033</v>
+      </c>
+      <c r="H27">
+        <v>0.96244897959183595</v>
+      </c>
+      <c r="I27" t="s">
+        <v>142</v>
+      </c>
+      <c r="J27">
+        <v>9.2105263157894704E-2</v>
+      </c>
+      <c r="K27">
+        <v>328</v>
+      </c>
+      <c r="L27">
+        <v>58.231707317073102</v>
+      </c>
+      <c r="M27">
+        <v>58.572220462464301</v>
+      </c>
+      <c r="N27">
+        <v>143</v>
+      </c>
+      <c r="O27">
+        <v>4.8951048951048897</v>
+      </c>
+      <c r="P27">
+        <v>5.6761420397783997</v>
+      </c>
+      <c r="Q27">
+        <v>0.1</v>
+      </c>
+      <c r="R27">
+        <v>64</v>
+      </c>
+      <c r="S27">
+        <v>0.34375</v>
+      </c>
+      <c r="T27">
+        <v>0.34375</v>
+      </c>
+      <c r="U27">
+        <v>0.34375</v>
+      </c>
+      <c r="V27">
+        <v>22</v>
+      </c>
+      <c r="W27">
+        <v>42</v>
+      </c>
+      <c r="X27">
+        <v>42</v>
+      </c>
+      <c r="Y27">
+        <v>141</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>0.34193548387096701</v>
+      </c>
+      <c r="AA27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>134</v>
+      </c>
+      <c r="B28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" t="s">
+        <v>143</v>
+      </c>
+      <c r="D28" t="s">
+        <v>144</v>
+      </c>
+      <c r="E28" t="s">
+        <v>145</v>
+      </c>
+      <c r="F28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28">
+        <v>63033</v>
+      </c>
+      <c r="H28">
+        <v>0.99210884353741502</v>
+      </c>
+      <c r="I28" t="s">
+        <v>146</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>325</v>
+      </c>
+      <c r="L28">
+        <v>94.769230769230703</v>
+      </c>
+      <c r="M28">
+        <v>94.769230769230703</v>
+      </c>
+      <c r="N28">
+        <v>17</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0.5</v>
+      </c>
+      <c r="R28">
+        <v>8</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>8</v>
+      </c>
+      <c r="Y28">
+        <v>29</v>
+      </c>
+      <c r="Z28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>134</v>
+      </c>
+      <c r="B29" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" t="s">
+        <v>148</v>
+      </c>
+      <c r="D29" t="s">
+        <v>149</v>
+      </c>
+      <c r="E29" t="s">
+        <v>150</v>
+      </c>
+      <c r="F29" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29">
+        <v>63033</v>
+      </c>
+      <c r="H29">
+        <v>0.99891156462584996</v>
+      </c>
+      <c r="I29" t="s">
+        <v>151</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>325</v>
+      </c>
+      <c r="L29">
+        <v>99.692307692307693</v>
+      </c>
+      <c r="M29">
+        <v>99.692307692307693</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0.5</v>
+      </c>
+      <c r="R29">
+        <v>1</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>1</v>
+      </c>
+      <c r="Y29">
+        <v>4</v>
+      </c>
+      <c r="Z29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>134</v>
+      </c>
+      <c r="B30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" t="s">
+        <v>152</v>
+      </c>
+      <c r="D30" t="s">
+        <v>153</v>
+      </c>
+      <c r="E30" t="s">
+        <v>154</v>
+      </c>
+      <c r="F30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30">
+        <v>63033</v>
+      </c>
+      <c r="H30">
+        <v>0.99129251700680199</v>
+      </c>
+      <c r="I30" t="s">
+        <v>155</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>325</v>
+      </c>
+      <c r="L30">
+        <v>89.538461538461505</v>
+      </c>
+      <c r="M30">
+        <v>89.538461538461505</v>
+      </c>
+      <c r="N30">
+        <v>34</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0.5</v>
+      </c>
+      <c r="R30">
+        <v>10</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>10</v>
+      </c>
+      <c r="Y30">
+        <v>32</v>
+      </c>
+      <c r="Z30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="1">
+        <v>0.3125</v>
+      </c>
+      <c r="AB30" s="1">
+        <v>9.8039215686274495E-2</v>
+      </c>
+      <c r="AC30">
+        <v>5</v>
+      </c>
+      <c r="AD30">
+        <v>11</v>
+      </c>
+      <c r="AE30">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>134</v>
+      </c>
+      <c r="B31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" t="s">
+        <v>156</v>
+      </c>
+      <c r="D31" t="s">
+        <v>157</v>
+      </c>
+      <c r="E31" t="s">
+        <v>158</v>
+      </c>
+      <c r="F31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31">
+        <v>63033</v>
+      </c>
+      <c r="H31">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="I31" t="s">
+        <v>159</v>
+      </c>
+      <c r="J31">
+        <v>3.8461538461538401E-2</v>
+      </c>
+      <c r="K31">
+        <v>325</v>
+      </c>
+      <c r="L31">
+        <v>84.923076923076906</v>
+      </c>
+      <c r="M31">
+        <v>84.923076923076906</v>
+      </c>
+      <c r="N31">
+        <v>50</v>
+      </c>
+      <c r="O31">
+        <v>2</v>
+      </c>
+      <c r="P31">
+        <v>2</v>
+      </c>
+      <c r="Q31">
+        <v>0.1</v>
+      </c>
+      <c r="R31">
+        <v>24</v>
+      </c>
+      <c r="S31">
+        <v>0.26315789473684198</v>
+      </c>
+      <c r="T31">
+        <v>0.35714285714285698</v>
+      </c>
+      <c r="U31">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="V31">
+        <v>5</v>
+      </c>
+      <c r="W31">
+        <v>9</v>
+      </c>
+      <c r="X31">
+        <v>19</v>
+      </c>
+      <c r="Y31">
+        <v>51</v>
+      </c>
+      <c r="Z31" s="1">
+        <v>0.14925373134328301</v>
+      </c>
+      <c r="AA31" s="1">
+        <v>0.28205128205128199</v>
+      </c>
+      <c r="AB31" s="1">
+        <v>0.150684931506849</v>
+      </c>
+      <c r="AC31">
+        <v>11</v>
+      </c>
+      <c r="AD31">
+        <v>28</v>
+      </c>
+      <c r="AE31">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>160</v>
+      </c>
+      <c r="B32" t="s">
+        <v>161</v>
+      </c>
+      <c r="C32" t="s">
+        <v>162</v>
+      </c>
+      <c r="D32" t="s">
+        <v>163</v>
+      </c>
+      <c r="E32" t="s">
+        <v>164</v>
+      </c>
+      <c r="F32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32">
+        <v>58493</v>
+      </c>
+      <c r="H32">
+        <v>0.97614379084967295</v>
+      </c>
+      <c r="I32" t="s">
+        <v>165</v>
+      </c>
+      <c r="J32">
+        <v>2.6666666666666599E-2</v>
+      </c>
+      <c r="K32">
+        <v>326</v>
+      </c>
+      <c r="L32">
+        <v>85.889570552147205</v>
+      </c>
+      <c r="M32">
+        <v>85.889570552147205</v>
+      </c>
+      <c r="N32">
+        <v>46</v>
+      </c>
+      <c r="O32">
+        <v>2.1739130434782599</v>
+      </c>
+      <c r="P32">
+        <v>2.1739130434782599</v>
+      </c>
+      <c r="Q32">
+        <v>0.1</v>
+      </c>
+      <c r="R32">
+        <v>53</v>
+      </c>
+      <c r="S32">
+        <v>0.21333333333333299</v>
+      </c>
+      <c r="T32">
+        <v>0.36363636363636298</v>
+      </c>
+      <c r="U32">
+        <v>0.15094339622641501</v>
+      </c>
+      <c r="V32">
+        <v>8</v>
+      </c>
+      <c r="W32">
+        <v>14</v>
+      </c>
+      <c r="X32">
+        <v>45</v>
+      </c>
+      <c r="Y32">
+        <v>73</v>
+      </c>
+      <c r="Z32" s="1">
+        <v>0.19642857142857101</v>
+      </c>
+      <c r="AA32" s="1">
+        <v>0.47142857142857097</v>
+      </c>
+      <c r="AB32" s="1">
+        <v>0.24264705882352899</v>
+      </c>
+      <c r="AC32">
+        <v>33</v>
+      </c>
+      <c r="AD32">
+        <v>37</v>
+      </c>
+      <c r="AE32">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>160</v>
+      </c>
+      <c r="B33" t="s">
+        <v>166</v>
+      </c>
+      <c r="C33" t="s">
+        <v>167</v>
+      </c>
+      <c r="D33" t="s">
+        <v>168</v>
+      </c>
+      <c r="E33" t="s">
+        <v>169</v>
+      </c>
+      <c r="F33" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33">
+        <v>58493</v>
+      </c>
+      <c r="H33">
+        <v>0.95686274509803904</v>
+      </c>
+      <c r="I33" t="s">
+        <v>170</v>
+      </c>
+      <c r="J33">
+        <v>0.13157894736842099</v>
+      </c>
+      <c r="K33">
+        <v>327</v>
+      </c>
+      <c r="L33">
+        <v>59.327217125382198</v>
+      </c>
+      <c r="M33">
+        <v>60.224260958205903</v>
+      </c>
+      <c r="N33">
+        <v>142</v>
+      </c>
+      <c r="O33">
+        <v>7.0422535211267601</v>
+      </c>
+      <c r="P33">
+        <v>9.1079812206572708</v>
+      </c>
+      <c r="Q33">
+        <v>0.2</v>
+      </c>
+      <c r="R33">
+        <v>74</v>
+      </c>
+      <c r="S33">
+        <v>0.37168141592920301</v>
+      </c>
+      <c r="T33">
+        <v>0.53846153846153799</v>
+      </c>
+      <c r="U33">
+        <v>0.28378378378378299</v>
+      </c>
+      <c r="V33">
+        <v>21</v>
+      </c>
+      <c r="W33">
+        <v>18</v>
+      </c>
+      <c r="X33">
+        <v>53</v>
+      </c>
+      <c r="Y33">
+        <v>136</v>
+      </c>
+      <c r="Z33" s="1">
+        <v>0.32038834951456302</v>
+      </c>
+      <c r="AA33" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="AB33" s="1">
+        <v>1.53846153846153E-2</v>
+      </c>
+      <c r="AC33">
+        <v>1</v>
+      </c>
+      <c r="AD33">
+        <v>3</v>
+      </c>
+      <c r="AE33">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>160</v>
+      </c>
+      <c r="B34" t="s">
+        <v>171</v>
+      </c>
+      <c r="C34" t="s">
+        <v>172</v>
+      </c>
+      <c r="D34" t="s">
+        <v>173</v>
+      </c>
+      <c r="E34" t="s">
+        <v>174</v>
+      </c>
+      <c r="F34" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34">
+        <v>58493</v>
+      </c>
+      <c r="H34">
+        <v>0.97810457516339799</v>
+      </c>
+      <c r="I34" t="s">
+        <v>175</v>
+      </c>
+      <c r="J34">
+        <v>2.8985507246376802E-2</v>
+      </c>
+      <c r="K34">
+        <v>328</v>
+      </c>
+      <c r="L34">
+        <v>78.3536585365853</v>
+      </c>
+      <c r="M34">
+        <v>78.3536585365853</v>
+      </c>
+      <c r="N34">
+        <v>72</v>
+      </c>
+      <c r="O34">
+        <v>1.38888888888888</v>
+      </c>
+      <c r="P34">
+        <v>1.38888888888888</v>
+      </c>
+      <c r="Q34">
+        <v>0.5</v>
+      </c>
+      <c r="R34">
+        <v>42</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>42</v>
+      </c>
+      <c r="Y34">
+        <v>65</v>
+      </c>
+      <c r="Z34" s="1">
+        <v>2.8985507246376802E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D9431E6-62E4-4A11-8254-C840C95A0DE2}">
   <dimension ref="A1:AD34"/>
   <sheetViews>
@@ -15780,8 +19020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F91AE893-288C-43FA-B756-3BC4E71EFEEA}">
   <dimension ref="A1:AL34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AG30" sqref="AG30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -15789,7 +19029,7 @@
     <col min="1" max="1" width="13.3984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" customWidth="1"/>
     <col min="3" max="23" width="0" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="4.9296875" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="4.3984375" customWidth="1"/>
     <col min="25" max="25" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="30" width="0" hidden="1" customWidth="1"/>
     <col min="31" max="31" width="13.3984375" bestFit="1" customWidth="1"/>
@@ -19036,6 +22276,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02E7B49C-8ED4-4A10-9DE8-61DC40F7BF61}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2A5DC65-F61D-4915-92F9-4012B56D908D}">
   <dimension ref="A1:AL34"/>
   <sheetViews>
@@ -22290,7 +25544,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96DB2610-41A0-4FBA-A977-EFC7065CE8F3}">
   <dimension ref="A1:AL34"/>
   <sheetViews>
@@ -25542,3243 +28796,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8583DFB6-1C5F-4E8D-BAA4-B0A26012EA60}">
-  <dimension ref="A1:AE34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Z25" sqref="Z25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="13.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.53125" bestFit="1" customWidth="1"/>
-    <col min="3" max="25" width="0" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="9.1328125" style="1"/>
-    <col min="27" max="28" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="29" max="31" width="0" hidden="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2">
-        <v>97794</v>
-      </c>
-      <c r="H2">
-        <v>0.99711093990754995</v>
-      </c>
-      <c r="I2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>624</v>
-      </c>
-      <c r="L2">
-        <v>97.596153846153797</v>
-      </c>
-      <c r="M2">
-        <v>97.596153846153797</v>
-      </c>
-      <c r="N2">
-        <v>15</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0.5</v>
-      </c>
-      <c r="R2">
-        <v>15</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>15</v>
-      </c>
-      <c r="Y2">
-        <v>15</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3">
-        <v>100189</v>
-      </c>
-      <c r="H3">
-        <v>0.99432599724896797</v>
-      </c>
-      <c r="I3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>625</v>
-      </c>
-      <c r="L3">
-        <v>95.04</v>
-      </c>
-      <c r="M3">
-        <v>95.04</v>
-      </c>
-      <c r="N3">
-        <v>31</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0.5</v>
-      </c>
-      <c r="R3">
-        <v>18</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>18</v>
-      </c>
-      <c r="Y3">
-        <v>33</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4">
-        <v>100189</v>
-      </c>
-      <c r="H4">
-        <v>0.98968363136175996</v>
-      </c>
-      <c r="I4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4">
-        <v>3.2258064516128997E-2</v>
-      </c>
-      <c r="K4">
-        <v>625</v>
-      </c>
-      <c r="L4">
-        <v>89.76</v>
-      </c>
-      <c r="M4">
-        <v>89.76</v>
-      </c>
-      <c r="N4">
-        <v>65</v>
-      </c>
-      <c r="O4">
-        <v>1.5384615384615301</v>
-      </c>
-      <c r="P4">
-        <v>1.5384615384615301</v>
-      </c>
-      <c r="Q4">
-        <v>0.1</v>
-      </c>
-      <c r="R4">
-        <v>29</v>
-      </c>
-      <c r="S4">
-        <v>0.146341463414634</v>
-      </c>
-      <c r="T4">
-        <v>0.25</v>
-      </c>
-      <c r="U4">
-        <v>0.10344827586206801</v>
-      </c>
-      <c r="V4">
-        <v>3</v>
-      </c>
-      <c r="W4">
-        <v>9</v>
-      </c>
-      <c r="X4">
-        <v>26</v>
-      </c>
-      <c r="Y4">
-        <v>61</v>
-      </c>
-      <c r="Z4" s="1">
-        <v>0.20224719101123501</v>
-      </c>
-      <c r="AA4" s="1">
-        <v>0.32142857142857101</v>
-      </c>
-      <c r="AB4" s="1">
-        <v>0.14754098360655701</v>
-      </c>
-      <c r="AC4">
-        <v>9</v>
-      </c>
-      <c r="AD4">
-        <v>19</v>
-      </c>
-      <c r="AE4">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5">
-        <v>100189</v>
-      </c>
-      <c r="H5">
-        <v>0.97850756533700101</v>
-      </c>
-      <c r="I5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J5">
-        <v>6.01503759398496E-2</v>
-      </c>
-      <c r="K5">
-        <v>626</v>
-      </c>
-      <c r="L5">
-        <v>84.984025559105405</v>
-      </c>
-      <c r="M5">
-        <v>84.984025559105405</v>
-      </c>
-      <c r="N5">
-        <v>93</v>
-      </c>
-      <c r="O5">
-        <v>4.3010752688171996</v>
-      </c>
-      <c r="P5">
-        <v>4.3010752688171996</v>
-      </c>
-      <c r="Q5">
-        <v>0.1</v>
-      </c>
-      <c r="R5">
-        <v>64</v>
-      </c>
-      <c r="S5">
-        <v>0.27210884353741399</v>
-      </c>
-      <c r="T5">
-        <v>0.240963855421686</v>
-      </c>
-      <c r="U5">
-        <v>0.3125</v>
-      </c>
-      <c r="V5">
-        <v>20</v>
-      </c>
-      <c r="W5">
-        <v>63</v>
-      </c>
-      <c r="X5">
-        <v>44</v>
-      </c>
-      <c r="Y5">
-        <v>124</v>
-      </c>
-      <c r="Z5" s="1">
-        <v>0.29875518672199097</v>
-      </c>
-      <c r="AA5" s="1">
-        <v>0.30769230769230699</v>
-      </c>
-      <c r="AB5" s="1">
-        <v>0.29032258064516098</v>
-      </c>
-      <c r="AC5">
-        <v>36</v>
-      </c>
-      <c r="AD5">
-        <v>81</v>
-      </c>
-      <c r="AE5">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6">
-        <v>100189</v>
-      </c>
-      <c r="H6">
-        <v>0.99226272352131994</v>
-      </c>
-      <c r="I6" t="s">
-        <v>57</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>625</v>
-      </c>
-      <c r="L6">
-        <v>94.56</v>
-      </c>
-      <c r="M6">
-        <v>94.56</v>
-      </c>
-      <c r="N6">
-        <v>34</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0.5</v>
-      </c>
-      <c r="R6">
-        <v>27</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>27</v>
-      </c>
-      <c r="Y6">
-        <v>45</v>
-      </c>
-      <c r="Z6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7">
-        <v>100189</v>
-      </c>
-      <c r="H7">
-        <v>0.93225584594222799</v>
-      </c>
-      <c r="I7" t="s">
-        <v>62</v>
-      </c>
-      <c r="J7">
-        <v>0.45730027548209301</v>
-      </c>
-      <c r="K7">
-        <v>689</v>
-      </c>
-      <c r="L7">
-        <v>48.330914368650198</v>
-      </c>
-      <c r="M7">
-        <v>52.598365994592399</v>
-      </c>
-      <c r="N7">
-        <v>486</v>
-      </c>
-      <c r="O7">
-        <v>34.362139917695401</v>
-      </c>
-      <c r="P7">
-        <v>40.412086770111401</v>
-      </c>
-      <c r="Q7">
-        <v>0.3</v>
-      </c>
-      <c r="R7">
-        <v>263</v>
-      </c>
-      <c r="S7">
-        <v>0.51698113207547103</v>
-      </c>
-      <c r="T7">
-        <v>0.51310861423220899</v>
-      </c>
-      <c r="U7">
-        <v>0.52091254752851701</v>
-      </c>
-      <c r="V7">
-        <v>137</v>
-      </c>
-      <c r="W7">
-        <v>130</v>
-      </c>
-      <c r="X7">
-        <v>126</v>
-      </c>
-      <c r="Y7">
-        <v>450</v>
-      </c>
-      <c r="Z7" s="1">
-        <v>0.49195402298850499</v>
-      </c>
-      <c r="AA7" s="1">
-        <v>0.50952380952380905</v>
-      </c>
-      <c r="AB7" s="1">
-        <v>0.47555555555555501</v>
-      </c>
-      <c r="AC7">
-        <v>214</v>
-      </c>
-      <c r="AD7">
-        <v>206</v>
-      </c>
-      <c r="AE7">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8">
-        <v>100189</v>
-      </c>
-      <c r="H8">
-        <v>0.99580810433162503</v>
-      </c>
-      <c r="I8" t="s">
-        <v>67</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>625</v>
-      </c>
-      <c r="L8">
-        <v>95.52</v>
-      </c>
-      <c r="M8">
-        <v>95.52</v>
-      </c>
-      <c r="N8">
-        <v>28</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0.2</v>
-      </c>
-      <c r="R8">
-        <v>20</v>
-      </c>
-      <c r="S8">
-        <v>9.5238095238095205E-2</v>
-      </c>
-      <c r="T8">
-        <v>1</v>
-      </c>
-      <c r="U8">
-        <v>0.05</v>
-      </c>
-      <c r="V8">
-        <v>1</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>19</v>
-      </c>
-      <c r="Y8">
-        <v>27</v>
-      </c>
-      <c r="Z8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9">
-        <v>100189</v>
-      </c>
-      <c r="H9">
-        <v>0.99829219065362496</v>
-      </c>
-      <c r="I9" t="s">
-        <v>72</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>625</v>
-      </c>
-      <c r="L9">
-        <v>98.56</v>
-      </c>
-      <c r="M9">
-        <v>98.56</v>
-      </c>
-      <c r="N9">
-        <v>9</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0.4</v>
-      </c>
-      <c r="R9">
-        <v>2</v>
-      </c>
-      <c r="S9">
-        <v>0.66666666666666596</v>
-      </c>
-      <c r="T9">
-        <v>1</v>
-      </c>
-      <c r="U9">
-        <v>0.5</v>
-      </c>
-      <c r="V9">
-        <v>1</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>1</v>
-      </c>
-      <c r="Y9">
-        <v>11</v>
-      </c>
-      <c r="Z9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
-      <c r="AE9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10">
-        <v>100189</v>
-      </c>
-      <c r="H10">
-        <v>0.99782642446824998</v>
-      </c>
-      <c r="I10" t="s">
-        <v>77</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>625</v>
-      </c>
-      <c r="L10">
-        <v>97.76</v>
-      </c>
-      <c r="M10">
-        <v>97.76</v>
-      </c>
-      <c r="N10">
-        <v>14</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0.5</v>
-      </c>
-      <c r="R10">
-        <v>7</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>7</v>
-      </c>
-      <c r="Y10">
-        <v>14</v>
-      </c>
-      <c r="Z10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11">
-        <v>100189</v>
-      </c>
-      <c r="H11">
-        <v>0.97841950007762701</v>
-      </c>
-      <c r="I11" t="s">
-        <v>82</v>
-      </c>
-      <c r="J11">
-        <v>0.15757575757575701</v>
-      </c>
-      <c r="K11">
-        <v>636</v>
-      </c>
-      <c r="L11">
-        <v>78.930817610062803</v>
-      </c>
-      <c r="M11">
-        <v>78.993710691823793</v>
-      </c>
-      <c r="N11">
-        <v>136</v>
-      </c>
-      <c r="O11">
-        <v>10.294117647058799</v>
-      </c>
-      <c r="P11">
-        <v>10.588235294117601</v>
-      </c>
-      <c r="Q11">
-        <v>0.2</v>
-      </c>
-      <c r="R11">
-        <v>71</v>
-      </c>
-      <c r="S11">
-        <v>0.29508196721311403</v>
-      </c>
-      <c r="T11">
-        <v>0.35294117647058798</v>
-      </c>
-      <c r="U11">
-        <v>0.25352112676056299</v>
-      </c>
-      <c r="V11">
-        <v>18</v>
-      </c>
-      <c r="W11">
-        <v>33</v>
-      </c>
-      <c r="X11">
-        <v>53</v>
-      </c>
-      <c r="Y11">
-        <v>133</v>
-      </c>
-      <c r="Z11" s="1">
-        <v>0.23175965665236001</v>
-      </c>
-      <c r="AA11" s="1">
-        <v>0.27</v>
-      </c>
-      <c r="AB11" s="1">
-        <v>0.203007518796992</v>
-      </c>
-      <c r="AC11">
-        <v>27</v>
-      </c>
-      <c r="AD11">
-        <v>73</v>
-      </c>
-      <c r="AE11">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" t="s">
-        <v>85</v>
-      </c>
-      <c r="E12" t="s">
-        <v>86</v>
-      </c>
-      <c r="F12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12">
-        <v>53374</v>
-      </c>
-      <c r="H12">
-        <v>0.99900662251655603</v>
-      </c>
-      <c r="I12" t="s">
-        <v>87</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>301</v>
-      </c>
-      <c r="L12">
-        <v>99.003322259136198</v>
-      </c>
-      <c r="M12">
-        <v>99.003322259136198</v>
-      </c>
-      <c r="N12">
-        <v>3</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0.5</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <v>3</v>
-      </c>
-      <c r="Z12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
-      <c r="AE12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E13" t="s">
-        <v>90</v>
-      </c>
-      <c r="F13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13">
-        <v>54632</v>
-      </c>
-      <c r="H13">
-        <v>0.99939448985770496</v>
-      </c>
-      <c r="I13" t="s">
-        <v>91</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>300</v>
-      </c>
-      <c r="L13">
-        <v>98.3333333333333</v>
-      </c>
-      <c r="M13">
-        <v>98.3333333333333</v>
-      </c>
-      <c r="N13">
-        <v>5</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0.5</v>
-      </c>
-      <c r="R13">
-        <v>1</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <v>1</v>
-      </c>
-      <c r="Y13">
-        <v>2</v>
-      </c>
-      <c r="Z13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
-      <c r="AE13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D14" t="s">
-        <v>93</v>
-      </c>
-      <c r="E14" t="s">
-        <v>94</v>
-      </c>
-      <c r="F14" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14">
-        <v>54632</v>
-      </c>
-      <c r="H14">
-        <v>0.98577051165606999</v>
-      </c>
-      <c r="I14" t="s">
-        <v>95</v>
-      </c>
-      <c r="J14">
-        <v>7.8431372549019607E-2</v>
-      </c>
-      <c r="K14">
-        <v>300</v>
-      </c>
-      <c r="L14">
-        <v>87.6666666666666</v>
-      </c>
-      <c r="M14">
-        <v>87.6666666666666</v>
-      </c>
-      <c r="N14">
-        <v>37</v>
-      </c>
-      <c r="O14">
-        <v>5.4054054054053999</v>
-      </c>
-      <c r="P14">
-        <v>5.4054054054053999</v>
-      </c>
-      <c r="Q14">
-        <v>0.1</v>
-      </c>
-      <c r="R14">
-        <v>21</v>
-      </c>
-      <c r="S14">
-        <v>0.20689655172413701</v>
-      </c>
-      <c r="T14">
-        <v>0.162162162162162</v>
-      </c>
-      <c r="U14">
-        <v>0.28571428571428498</v>
-      </c>
-      <c r="V14">
-        <v>6</v>
-      </c>
-      <c r="W14">
-        <v>31</v>
-      </c>
-      <c r="X14">
-        <v>15</v>
-      </c>
-      <c r="Y14">
-        <v>47</v>
-      </c>
-      <c r="Z14" s="1">
-        <v>0.31578947368421001</v>
-      </c>
-      <c r="AA14" s="1">
-        <v>0.3125</v>
-      </c>
-      <c r="AB14" s="1">
-        <v>0.31914893617021201</v>
-      </c>
-      <c r="AC14">
-        <v>15</v>
-      </c>
-      <c r="AD14">
-        <v>33</v>
-      </c>
-      <c r="AE14">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" t="s">
-        <v>93</v>
-      </c>
-      <c r="E15" t="s">
-        <v>97</v>
-      </c>
-      <c r="F15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15">
-        <v>54632</v>
-      </c>
-      <c r="H15">
-        <v>0.993339388434756</v>
-      </c>
-      <c r="I15" t="s">
-        <v>98</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>300</v>
-      </c>
-      <c r="L15">
-        <v>93.6666666666666</v>
-      </c>
-      <c r="M15">
-        <v>93.6666666666666</v>
-      </c>
-      <c r="N15">
-        <v>19</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0.1</v>
-      </c>
-      <c r="R15">
-        <v>21</v>
-      </c>
-      <c r="S15">
-        <v>0.17391304347826</v>
-      </c>
-      <c r="T15">
-        <v>1</v>
-      </c>
-      <c r="U15">
-        <v>9.5238095238095205E-2</v>
-      </c>
-      <c r="V15">
-        <v>2</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <v>19</v>
-      </c>
-      <c r="Y15">
-        <v>22</v>
-      </c>
-      <c r="Z15" s="1">
-        <v>6.6666666666666596E-2</v>
-      </c>
-      <c r="AA15" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="AB15" s="1">
-        <v>4.54545454545454E-2</v>
-      </c>
-      <c r="AC15">
-        <v>1</v>
-      </c>
-      <c r="AD15">
-        <v>7</v>
-      </c>
-      <c r="AE15">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B16" t="s">
-        <v>99</v>
-      </c>
-      <c r="C16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D16" t="s">
-        <v>101</v>
-      </c>
-      <c r="E16" t="s">
-        <v>90</v>
-      </c>
-      <c r="F16" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16">
-        <v>54632</v>
-      </c>
-      <c r="H16">
-        <v>0.99939448985770496</v>
-      </c>
-      <c r="I16" t="s">
-        <v>91</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>300</v>
-      </c>
-      <c r="L16">
-        <v>99.3333333333333</v>
-      </c>
-      <c r="M16">
-        <v>99.3333333333333</v>
-      </c>
-      <c r="N16">
-        <v>2</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0.5</v>
-      </c>
-      <c r="R16">
-        <v>5</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <v>5</v>
-      </c>
-      <c r="Y16">
-        <v>2</v>
-      </c>
-      <c r="Z16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC16">
-        <v>0</v>
-      </c>
-      <c r="AD16">
-        <v>0</v>
-      </c>
-      <c r="AE16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" t="s">
-        <v>103</v>
-      </c>
-      <c r="E17" t="s">
-        <v>104</v>
-      </c>
-      <c r="F17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17">
-        <v>54632</v>
-      </c>
-      <c r="H17">
-        <v>0.95216469875870402</v>
-      </c>
-      <c r="I17" t="s">
-        <v>105</v>
-      </c>
-      <c r="J17">
-        <v>0.26168224299065401</v>
-      </c>
-      <c r="K17">
-        <v>338</v>
-      </c>
-      <c r="L17">
-        <v>54.142011834319497</v>
-      </c>
-      <c r="M17">
-        <v>54.997758651604798</v>
-      </c>
-      <c r="N17">
-        <v>154</v>
-      </c>
-      <c r="O17">
-        <v>18.181818181818102</v>
-      </c>
-      <c r="P17">
-        <v>20.060015741833901</v>
-      </c>
-      <c r="Q17">
-        <v>0.3</v>
-      </c>
-      <c r="R17">
-        <v>93</v>
-      </c>
-      <c r="S17">
-        <v>0.305732484076433</v>
-      </c>
-      <c r="T17">
-        <v>0.375</v>
-      </c>
-      <c r="U17">
-        <v>0.25806451612903197</v>
-      </c>
-      <c r="V17">
-        <v>24</v>
-      </c>
-      <c r="W17">
-        <v>40</v>
-      </c>
-      <c r="X17">
-        <v>69</v>
-      </c>
-      <c r="Y17">
-        <v>134</v>
-      </c>
-      <c r="Z17" s="1">
-        <v>0.32958801498127299</v>
-      </c>
-      <c r="AA17" s="1">
-        <v>0.33082706766917203</v>
-      </c>
-      <c r="AB17" s="1">
-        <v>0.328358208955223</v>
-      </c>
-      <c r="AC17">
-        <v>44</v>
-      </c>
-      <c r="AD17">
-        <v>89</v>
-      </c>
-      <c r="AE17">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>83</v>
-      </c>
-      <c r="B18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" t="s">
-        <v>106</v>
-      </c>
-      <c r="D18" t="s">
-        <v>107</v>
-      </c>
-      <c r="E18" t="s">
-        <v>108</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18">
-        <v>54632</v>
-      </c>
-      <c r="H18">
-        <v>0.99212836815016603</v>
-      </c>
-      <c r="I18" t="s">
-        <v>109</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>300</v>
-      </c>
-      <c r="L18">
-        <v>92.3333333333333</v>
-      </c>
-      <c r="M18">
-        <v>92.3333333333333</v>
-      </c>
-      <c r="N18">
-        <v>23</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0.1</v>
-      </c>
-      <c r="R18">
-        <v>17</v>
-      </c>
-      <c r="S18">
-        <v>9.0909090909090898E-2</v>
-      </c>
-      <c r="T18">
-        <v>0.2</v>
-      </c>
-      <c r="U18">
-        <v>5.8823529411764698E-2</v>
-      </c>
-      <c r="V18">
-        <v>1</v>
-      </c>
-      <c r="W18">
-        <v>4</v>
-      </c>
-      <c r="X18">
-        <v>16</v>
-      </c>
-      <c r="Y18">
-        <v>26</v>
-      </c>
-      <c r="Z18" s="1">
-        <v>5.1282051282051197E-2</v>
-      </c>
-      <c r="AA18" s="1">
-        <v>7.69230769230769E-2</v>
-      </c>
-      <c r="AB18" s="1">
-        <v>3.8461538461538401E-2</v>
-      </c>
-      <c r="AC18">
-        <v>1</v>
-      </c>
-      <c r="AD18">
-        <v>12</v>
-      </c>
-      <c r="AE18">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>83</v>
-      </c>
-      <c r="B19" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" t="s">
-        <v>110</v>
-      </c>
-      <c r="D19" t="s">
-        <v>101</v>
-      </c>
-      <c r="E19" t="s">
-        <v>111</v>
-      </c>
-      <c r="F19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19">
-        <v>54632</v>
-      </c>
-      <c r="H19">
-        <v>0.999091734786557</v>
-      </c>
-      <c r="I19" t="s">
-        <v>112</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>300</v>
-      </c>
-      <c r="L19">
-        <v>99</v>
-      </c>
-      <c r="M19">
-        <v>99</v>
-      </c>
-      <c r="N19">
-        <v>3</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0.5</v>
-      </c>
-      <c r="R19">
-        <v>5</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>5</v>
-      </c>
-      <c r="Y19">
-        <v>3</v>
-      </c>
-      <c r="Z19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC19">
-        <v>0</v>
-      </c>
-      <c r="AD19">
-        <v>0</v>
-      </c>
-      <c r="AE19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" t="s">
-        <v>113</v>
-      </c>
-      <c r="D20" t="s">
-        <v>114</v>
-      </c>
-      <c r="E20" t="s">
-        <v>115</v>
-      </c>
-      <c r="F20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20">
-        <v>54632</v>
-      </c>
-      <c r="H20">
-        <v>0.99500416319733498</v>
-      </c>
-      <c r="I20" t="s">
-        <v>116</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>300</v>
-      </c>
-      <c r="L20">
-        <v>93</v>
-      </c>
-      <c r="M20">
-        <v>93</v>
-      </c>
-      <c r="N20">
-        <v>21</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0.1</v>
-      </c>
-      <c r="R20">
-        <v>22</v>
-      </c>
-      <c r="S20">
-        <v>7.69230769230769E-2</v>
-      </c>
-      <c r="T20">
-        <v>0.25</v>
-      </c>
-      <c r="U20">
-        <v>4.54545454545454E-2</v>
-      </c>
-      <c r="V20">
-        <v>1</v>
-      </c>
-      <c r="W20">
-        <v>3</v>
-      </c>
-      <c r="X20">
-        <v>21</v>
-      </c>
-      <c r="Y20">
-        <v>18</v>
-      </c>
-      <c r="Z20" s="1">
-        <v>0.105263157894736</v>
-      </c>
-      <c r="AA20" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB20" s="1">
-        <v>5.5555555555555497E-2</v>
-      </c>
-      <c r="AC20">
-        <v>1</v>
-      </c>
-      <c r="AD20">
-        <v>0</v>
-      </c>
-      <c r="AE20">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>117</v>
-      </c>
-      <c r="B21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" t="s">
-        <v>126</v>
-      </c>
-      <c r="D21" t="s">
-        <v>127</v>
-      </c>
-      <c r="E21" t="s">
-        <v>128</v>
-      </c>
-      <c r="F21" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21">
-        <v>59776</v>
-      </c>
-      <c r="H21">
-        <v>0.96913055791560399</v>
-      </c>
-      <c r="I21" t="s">
-        <v>129</v>
-      </c>
-      <c r="J21">
-        <v>0.128</v>
-      </c>
-      <c r="K21">
-        <v>306</v>
-      </c>
-      <c r="L21">
-        <v>64.705882352941103</v>
-      </c>
-      <c r="M21">
-        <v>64.705882352941103</v>
-      </c>
-      <c r="N21">
-        <v>115</v>
-      </c>
-      <c r="O21">
-        <v>6.9565217391304301</v>
-      </c>
-      <c r="P21">
-        <v>6.9565217391304301</v>
-      </c>
-      <c r="Q21">
-        <v>0.1</v>
-      </c>
-      <c r="R21">
-        <v>77</v>
-      </c>
-      <c r="S21">
-        <v>0.16184971098265799</v>
-      </c>
-      <c r="T21">
-        <v>0.14583333333333301</v>
-      </c>
-      <c r="U21">
-        <v>0.18181818181818099</v>
-      </c>
-      <c r="V21">
-        <v>14</v>
-      </c>
-      <c r="W21">
-        <v>82</v>
-      </c>
-      <c r="X21">
-        <v>63</v>
-      </c>
-      <c r="Y21">
-        <v>110</v>
-      </c>
-      <c r="Z21" s="1">
-        <v>0.20338983050847401</v>
-      </c>
-      <c r="AA21" s="1">
-        <v>0.625</v>
-      </c>
-      <c r="AB21" s="1">
-        <v>0.128205128205128</v>
-      </c>
-      <c r="AC21">
-        <v>5</v>
-      </c>
-      <c r="AD21">
-        <v>3</v>
-      </c>
-      <c r="AE21">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>117</v>
-      </c>
-      <c r="B22" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" t="s">
-        <v>118</v>
-      </c>
-      <c r="D22" t="s">
-        <v>119</v>
-      </c>
-      <c r="E22" t="s">
-        <v>120</v>
-      </c>
-      <c r="F22" t="s">
-        <v>36</v>
-      </c>
-      <c r="G22">
-        <v>58860</v>
-      </c>
-      <c r="H22">
-        <v>0.98827160493827104</v>
-      </c>
-      <c r="I22" t="s">
-        <v>121</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>301</v>
-      </c>
-      <c r="L22">
-        <v>90.697674418604606</v>
-      </c>
-      <c r="M22">
-        <v>90.697674418604606</v>
-      </c>
-      <c r="N22">
-        <v>28</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0.1</v>
-      </c>
-      <c r="R22">
-        <v>30</v>
-      </c>
-      <c r="S22">
-        <v>0.22857142857142801</v>
-      </c>
-      <c r="T22">
-        <v>0.8</v>
-      </c>
-      <c r="U22">
-        <v>0.133333333333333</v>
-      </c>
-      <c r="V22">
-        <v>4</v>
-      </c>
-      <c r="W22">
-        <v>1</v>
-      </c>
-      <c r="X22">
-        <v>26</v>
-      </c>
-      <c r="Y22">
-        <v>39</v>
-      </c>
-      <c r="Z22" s="1">
-        <v>0.21276595744680801</v>
-      </c>
-      <c r="AA22" s="1">
-        <v>0.28571428571428498</v>
-      </c>
-      <c r="AB22" s="1">
-        <v>5.5555555555555497E-2</v>
-      </c>
-      <c r="AC22">
-        <v>2</v>
-      </c>
-      <c r="AD22">
-        <v>5</v>
-      </c>
-      <c r="AE22">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>117</v>
-      </c>
-      <c r="B23" t="s">
-        <v>147</v>
-      </c>
-      <c r="C23" t="s">
-        <v>122</v>
-      </c>
-      <c r="D23" t="s">
-        <v>123</v>
-      </c>
-      <c r="E23" t="s">
-        <v>124</v>
-      </c>
-      <c r="F23" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23">
-        <v>58860</v>
-      </c>
-      <c r="H23">
-        <v>0.98888888888888804</v>
-      </c>
-      <c r="I23" t="s">
-        <v>125</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>301</v>
-      </c>
-      <c r="L23">
-        <v>91.029900332225907</v>
-      </c>
-      <c r="M23">
-        <v>91.029900332225907</v>
-      </c>
-      <c r="N23">
-        <v>27</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0.1</v>
-      </c>
-      <c r="R23">
-        <v>34</v>
-      </c>
-      <c r="S23">
-        <v>0.217391304347826</v>
-      </c>
-      <c r="T23">
-        <v>0.41666666666666602</v>
-      </c>
-      <c r="U23">
-        <v>0.14705882352941099</v>
-      </c>
-      <c r="V23">
-        <v>5</v>
-      </c>
-      <c r="W23">
-        <v>7</v>
-      </c>
-      <c r="X23">
-        <v>29</v>
-      </c>
-      <c r="Y23">
-        <v>36</v>
-      </c>
-      <c r="Z23" s="1">
-        <v>9.3023255813953404E-2</v>
-      </c>
-      <c r="AA23" s="1">
-        <v>0.19047619047618999</v>
-      </c>
-      <c r="AB23" s="1">
-        <v>0.218181818181818</v>
-      </c>
-      <c r="AC23">
-        <v>24</v>
-      </c>
-      <c r="AD23">
-        <v>102</v>
-      </c>
-      <c r="AE23">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>117</v>
-      </c>
-      <c r="B24" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" t="s">
-        <v>251</v>
-      </c>
-      <c r="D24" t="s">
-        <v>252</v>
-      </c>
-      <c r="E24" t="s">
-        <v>253</v>
-      </c>
-      <c r="F24" t="s">
-        <v>179</v>
-      </c>
-      <c r="G24">
-        <v>0.99878271454656098</v>
-      </c>
-      <c r="H24" t="s">
-        <v>257</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>279</v>
-      </c>
-      <c r="K24">
-        <v>98.566308243727605</v>
-      </c>
-      <c r="L24">
-        <v>98.566308243727605</v>
-      </c>
-      <c r="M24">
-        <v>4</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>0.5</v>
-      </c>
-      <c r="Q24">
-        <v>2</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24">
-        <v>2</v>
-      </c>
-      <c r="X24">
-        <v>4</v>
-      </c>
-      <c r="Y24" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="AB24" s="1">
-        <v>4.3478260869565202E-2</v>
-      </c>
-      <c r="AC24">
-        <v>1</v>
-      </c>
-      <c r="AD24">
-        <v>7</v>
-      </c>
-      <c r="AE24">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>117</v>
-      </c>
-      <c r="B25" t="s">
-        <v>78</v>
-      </c>
-      <c r="C25" t="s">
-        <v>130</v>
-      </c>
-      <c r="D25" t="s">
-        <v>131</v>
-      </c>
-      <c r="E25" t="s">
-        <v>132</v>
-      </c>
-      <c r="F25" t="s">
-        <v>36</v>
-      </c>
-      <c r="G25">
-        <v>59776</v>
-      </c>
-      <c r="H25">
-        <v>0.99399634560167005</v>
-      </c>
-      <c r="I25" t="s">
-        <v>133</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>300</v>
-      </c>
-      <c r="L25">
-        <v>92.3333333333333</v>
-      </c>
-      <c r="M25">
-        <v>92.3333333333333</v>
-      </c>
-      <c r="N25">
-        <v>23</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0.1</v>
-      </c>
-      <c r="R25">
-        <v>14</v>
-      </c>
-      <c r="S25">
-        <v>0.32</v>
-      </c>
-      <c r="T25">
-        <v>0.36363636363636298</v>
-      </c>
-      <c r="U25">
-        <v>0.28571428571428498</v>
-      </c>
-      <c r="V25">
-        <v>4</v>
-      </c>
-      <c r="W25">
-        <v>7</v>
-      </c>
-      <c r="X25">
-        <v>10</v>
-      </c>
-      <c r="Y25">
-        <v>23</v>
-      </c>
-      <c r="Z25" s="1">
-        <v>6.4516129032257993E-2</v>
-      </c>
-      <c r="AA25" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AB25" s="1">
-        <v>3.2258064516128997E-2</v>
-      </c>
-      <c r="AC25">
-        <v>1</v>
-      </c>
-      <c r="AD25">
-        <v>1</v>
-      </c>
-      <c r="AE25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>134</v>
-      </c>
-      <c r="B26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" t="s">
-        <v>135</v>
-      </c>
-      <c r="D26" t="s">
-        <v>136</v>
-      </c>
-      <c r="E26" t="s">
-        <v>137</v>
-      </c>
-      <c r="F26" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26">
-        <v>61742</v>
-      </c>
-      <c r="H26">
-        <v>0.990771062816314</v>
-      </c>
-      <c r="I26" t="s">
-        <v>138</v>
-      </c>
-      <c r="J26">
-        <v>6.0606060606060601E-2</v>
-      </c>
-      <c r="K26">
-        <v>326</v>
-      </c>
-      <c r="L26">
-        <v>90.490797546012203</v>
-      </c>
-      <c r="M26">
-        <v>90.6952965235173</v>
-      </c>
-      <c r="N26">
-        <v>32</v>
-      </c>
-      <c r="O26">
-        <v>3.125</v>
-      </c>
-      <c r="P26">
-        <v>5.2083333333333304</v>
-      </c>
-      <c r="Q26">
-        <v>0.5</v>
-      </c>
-      <c r="R26">
-        <v>18</v>
-      </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
-      <c r="T26">
-        <v>0</v>
-      </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="X26">
-        <v>18</v>
-      </c>
-      <c r="Y26">
-        <v>31</v>
-      </c>
-      <c r="Z26" s="1">
-        <v>6.0606060606060601E-2</v>
-      </c>
-      <c r="AA26" s="1">
-        <v>0.31360946745562102</v>
-      </c>
-      <c r="AB26" s="1">
-        <v>0.37588652482269502</v>
-      </c>
-      <c r="AC26">
-        <v>53</v>
-      </c>
-      <c r="AD26">
-        <v>116</v>
-      </c>
-      <c r="AE26">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>134</v>
-      </c>
-      <c r="B27" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" t="s">
-        <v>139</v>
-      </c>
-      <c r="D27" t="s">
-        <v>140</v>
-      </c>
-      <c r="E27" t="s">
-        <v>141</v>
-      </c>
-      <c r="F27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27">
-        <v>63033</v>
-      </c>
-      <c r="H27">
-        <v>0.96244897959183595</v>
-      </c>
-      <c r="I27" t="s">
-        <v>142</v>
-      </c>
-      <c r="J27">
-        <v>9.2105263157894704E-2</v>
-      </c>
-      <c r="K27">
-        <v>328</v>
-      </c>
-      <c r="L27">
-        <v>58.231707317073102</v>
-      </c>
-      <c r="M27">
-        <v>58.572220462464301</v>
-      </c>
-      <c r="N27">
-        <v>143</v>
-      </c>
-      <c r="O27">
-        <v>4.8951048951048897</v>
-      </c>
-      <c r="P27">
-        <v>5.6761420397783997</v>
-      </c>
-      <c r="Q27">
-        <v>0.1</v>
-      </c>
-      <c r="R27">
-        <v>64</v>
-      </c>
-      <c r="S27">
-        <v>0.34375</v>
-      </c>
-      <c r="T27">
-        <v>0.34375</v>
-      </c>
-      <c r="U27">
-        <v>0.34375</v>
-      </c>
-      <c r="V27">
-        <v>22</v>
-      </c>
-      <c r="W27">
-        <v>42</v>
-      </c>
-      <c r="X27">
-        <v>42</v>
-      </c>
-      <c r="Y27">
-        <v>141</v>
-      </c>
-      <c r="Z27" s="1">
-        <v>0.34193548387096701</v>
-      </c>
-      <c r="AA27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC27">
-        <v>0</v>
-      </c>
-      <c r="AD27">
-        <v>0</v>
-      </c>
-      <c r="AE27">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>134</v>
-      </c>
-      <c r="B28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" t="s">
-        <v>143</v>
-      </c>
-      <c r="D28" t="s">
-        <v>144</v>
-      </c>
-      <c r="E28" t="s">
-        <v>145</v>
-      </c>
-      <c r="F28" t="s">
-        <v>36</v>
-      </c>
-      <c r="G28">
-        <v>63033</v>
-      </c>
-      <c r="H28">
-        <v>0.99210884353741502</v>
-      </c>
-      <c r="I28" t="s">
-        <v>146</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>325</v>
-      </c>
-      <c r="L28">
-        <v>94.769230769230703</v>
-      </c>
-      <c r="M28">
-        <v>94.769230769230703</v>
-      </c>
-      <c r="N28">
-        <v>17</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>0.5</v>
-      </c>
-      <c r="R28">
-        <v>8</v>
-      </c>
-      <c r="S28">
-        <v>0</v>
-      </c>
-      <c r="T28">
-        <v>0</v>
-      </c>
-      <c r="U28">
-        <v>0</v>
-      </c>
-      <c r="V28">
-        <v>0</v>
-      </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-      <c r="X28">
-        <v>8</v>
-      </c>
-      <c r="Y28">
-        <v>29</v>
-      </c>
-      <c r="Z28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC28">
-        <v>0</v>
-      </c>
-      <c r="AD28">
-        <v>0</v>
-      </c>
-      <c r="AE28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>134</v>
-      </c>
-      <c r="B29" t="s">
-        <v>147</v>
-      </c>
-      <c r="C29" t="s">
-        <v>148</v>
-      </c>
-      <c r="D29" t="s">
-        <v>149</v>
-      </c>
-      <c r="E29" t="s">
-        <v>150</v>
-      </c>
-      <c r="F29" t="s">
-        <v>36</v>
-      </c>
-      <c r="G29">
-        <v>63033</v>
-      </c>
-      <c r="H29">
-        <v>0.99891156462584996</v>
-      </c>
-      <c r="I29" t="s">
-        <v>151</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>325</v>
-      </c>
-      <c r="L29">
-        <v>99.692307692307693</v>
-      </c>
-      <c r="M29">
-        <v>99.692307692307693</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0.5</v>
-      </c>
-      <c r="R29">
-        <v>1</v>
-      </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-      <c r="X29">
-        <v>1</v>
-      </c>
-      <c r="Y29">
-        <v>4</v>
-      </c>
-      <c r="Z29" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC29">
-        <v>0</v>
-      </c>
-      <c r="AD29">
-        <v>0</v>
-      </c>
-      <c r="AE29">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>134</v>
-      </c>
-      <c r="B30" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" t="s">
-        <v>152</v>
-      </c>
-      <c r="D30" t="s">
-        <v>153</v>
-      </c>
-      <c r="E30" t="s">
-        <v>154</v>
-      </c>
-      <c r="F30" t="s">
-        <v>36</v>
-      </c>
-      <c r="G30">
-        <v>63033</v>
-      </c>
-      <c r="H30">
-        <v>0.99129251700680199</v>
-      </c>
-      <c r="I30" t="s">
-        <v>155</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>325</v>
-      </c>
-      <c r="L30">
-        <v>89.538461538461505</v>
-      </c>
-      <c r="M30">
-        <v>89.538461538461505</v>
-      </c>
-      <c r="N30">
-        <v>34</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>0.5</v>
-      </c>
-      <c r="R30">
-        <v>10</v>
-      </c>
-      <c r="S30">
-        <v>0</v>
-      </c>
-      <c r="T30">
-        <v>0</v>
-      </c>
-      <c r="U30">
-        <v>0</v>
-      </c>
-      <c r="V30">
-        <v>0</v>
-      </c>
-      <c r="W30">
-        <v>0</v>
-      </c>
-      <c r="X30">
-        <v>10</v>
-      </c>
-      <c r="Y30">
-        <v>32</v>
-      </c>
-      <c r="Z30" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="1">
-        <v>0.3125</v>
-      </c>
-      <c r="AB30" s="1">
-        <v>9.8039215686274495E-2</v>
-      </c>
-      <c r="AC30">
-        <v>5</v>
-      </c>
-      <c r="AD30">
-        <v>11</v>
-      </c>
-      <c r="AE30">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>134</v>
-      </c>
-      <c r="B31" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" t="s">
-        <v>156</v>
-      </c>
-      <c r="D31" t="s">
-        <v>157</v>
-      </c>
-      <c r="E31" t="s">
-        <v>158</v>
-      </c>
-      <c r="F31" t="s">
-        <v>36</v>
-      </c>
-      <c r="G31">
-        <v>63033</v>
-      </c>
-      <c r="H31">
-        <v>0.98750000000000004</v>
-      </c>
-      <c r="I31" t="s">
-        <v>159</v>
-      </c>
-      <c r="J31">
-        <v>3.8461538461538401E-2</v>
-      </c>
-      <c r="K31">
-        <v>325</v>
-      </c>
-      <c r="L31">
-        <v>84.923076923076906</v>
-      </c>
-      <c r="M31">
-        <v>84.923076923076906</v>
-      </c>
-      <c r="N31">
-        <v>50</v>
-      </c>
-      <c r="O31">
-        <v>2</v>
-      </c>
-      <c r="P31">
-        <v>2</v>
-      </c>
-      <c r="Q31">
-        <v>0.1</v>
-      </c>
-      <c r="R31">
-        <v>24</v>
-      </c>
-      <c r="S31">
-        <v>0.26315789473684198</v>
-      </c>
-      <c r="T31">
-        <v>0.35714285714285698</v>
-      </c>
-      <c r="U31">
-        <v>0.20833333333333301</v>
-      </c>
-      <c r="V31">
-        <v>5</v>
-      </c>
-      <c r="W31">
-        <v>9</v>
-      </c>
-      <c r="X31">
-        <v>19</v>
-      </c>
-      <c r="Y31">
-        <v>51</v>
-      </c>
-      <c r="Z31" s="1">
-        <v>0.14925373134328301</v>
-      </c>
-      <c r="AA31" s="1">
-        <v>0.28205128205128199</v>
-      </c>
-      <c r="AB31" s="1">
-        <v>0.150684931506849</v>
-      </c>
-      <c r="AC31">
-        <v>11</v>
-      </c>
-      <c r="AD31">
-        <v>28</v>
-      </c>
-      <c r="AE31">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>160</v>
-      </c>
-      <c r="B32" t="s">
-        <v>161</v>
-      </c>
-      <c r="C32" t="s">
-        <v>162</v>
-      </c>
-      <c r="D32" t="s">
-        <v>163</v>
-      </c>
-      <c r="E32" t="s">
-        <v>164</v>
-      </c>
-      <c r="F32" t="s">
-        <v>36</v>
-      </c>
-      <c r="G32">
-        <v>58493</v>
-      </c>
-      <c r="H32">
-        <v>0.97614379084967295</v>
-      </c>
-      <c r="I32" t="s">
-        <v>165</v>
-      </c>
-      <c r="J32">
-        <v>2.6666666666666599E-2</v>
-      </c>
-      <c r="K32">
-        <v>326</v>
-      </c>
-      <c r="L32">
-        <v>85.889570552147205</v>
-      </c>
-      <c r="M32">
-        <v>85.889570552147205</v>
-      </c>
-      <c r="N32">
-        <v>46</v>
-      </c>
-      <c r="O32">
-        <v>2.1739130434782599</v>
-      </c>
-      <c r="P32">
-        <v>2.1739130434782599</v>
-      </c>
-      <c r="Q32">
-        <v>0.1</v>
-      </c>
-      <c r="R32">
-        <v>53</v>
-      </c>
-      <c r="S32">
-        <v>0.21333333333333299</v>
-      </c>
-      <c r="T32">
-        <v>0.36363636363636298</v>
-      </c>
-      <c r="U32">
-        <v>0.15094339622641501</v>
-      </c>
-      <c r="V32">
-        <v>8</v>
-      </c>
-      <c r="W32">
-        <v>14</v>
-      </c>
-      <c r="X32">
-        <v>45</v>
-      </c>
-      <c r="Y32">
-        <v>73</v>
-      </c>
-      <c r="Z32" s="1">
-        <v>0.19642857142857101</v>
-      </c>
-      <c r="AA32" s="1">
-        <v>0.47142857142857097</v>
-      </c>
-      <c r="AB32" s="1">
-        <v>0.24264705882352899</v>
-      </c>
-      <c r="AC32">
-        <v>33</v>
-      </c>
-      <c r="AD32">
-        <v>37</v>
-      </c>
-      <c r="AE32">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
-        <v>160</v>
-      </c>
-      <c r="B33" t="s">
-        <v>166</v>
-      </c>
-      <c r="C33" t="s">
-        <v>167</v>
-      </c>
-      <c r="D33" t="s">
-        <v>168</v>
-      </c>
-      <c r="E33" t="s">
-        <v>169</v>
-      </c>
-      <c r="F33" t="s">
-        <v>36</v>
-      </c>
-      <c r="G33">
-        <v>58493</v>
-      </c>
-      <c r="H33">
-        <v>0.95686274509803904</v>
-      </c>
-      <c r="I33" t="s">
-        <v>170</v>
-      </c>
-      <c r="J33">
-        <v>0.13157894736842099</v>
-      </c>
-      <c r="K33">
-        <v>327</v>
-      </c>
-      <c r="L33">
-        <v>59.327217125382198</v>
-      </c>
-      <c r="M33">
-        <v>60.224260958205903</v>
-      </c>
-      <c r="N33">
-        <v>142</v>
-      </c>
-      <c r="O33">
-        <v>7.0422535211267601</v>
-      </c>
-      <c r="P33">
-        <v>9.1079812206572708</v>
-      </c>
-      <c r="Q33">
-        <v>0.2</v>
-      </c>
-      <c r="R33">
-        <v>74</v>
-      </c>
-      <c r="S33">
-        <v>0.37168141592920301</v>
-      </c>
-      <c r="T33">
-        <v>0.53846153846153799</v>
-      </c>
-      <c r="U33">
-        <v>0.28378378378378299</v>
-      </c>
-      <c r="V33">
-        <v>21</v>
-      </c>
-      <c r="W33">
-        <v>18</v>
-      </c>
-      <c r="X33">
-        <v>53</v>
-      </c>
-      <c r="Y33">
-        <v>136</v>
-      </c>
-      <c r="Z33" s="1">
-        <v>0.32038834951456302</v>
-      </c>
-      <c r="AA33" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="AB33" s="1">
-        <v>1.53846153846153E-2</v>
-      </c>
-      <c r="AC33">
-        <v>1</v>
-      </c>
-      <c r="AD33">
-        <v>3</v>
-      </c>
-      <c r="AE33">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
-        <v>160</v>
-      </c>
-      <c r="B34" t="s">
-        <v>171</v>
-      </c>
-      <c r="C34" t="s">
-        <v>172</v>
-      </c>
-      <c r="D34" t="s">
-        <v>173</v>
-      </c>
-      <c r="E34" t="s">
-        <v>174</v>
-      </c>
-      <c r="F34" t="s">
-        <v>36</v>
-      </c>
-      <c r="G34">
-        <v>58493</v>
-      </c>
-      <c r="H34">
-        <v>0.97810457516339799</v>
-      </c>
-      <c r="I34" t="s">
-        <v>175</v>
-      </c>
-      <c r="J34">
-        <v>2.8985507246376802E-2</v>
-      </c>
-      <c r="K34">
-        <v>328</v>
-      </c>
-      <c r="L34">
-        <v>78.3536585365853</v>
-      </c>
-      <c r="M34">
-        <v>78.3536585365853</v>
-      </c>
-      <c r="N34">
-        <v>72</v>
-      </c>
-      <c r="O34">
-        <v>1.38888888888888</v>
-      </c>
-      <c r="P34">
-        <v>1.38888888888888</v>
-      </c>
-      <c r="Q34">
-        <v>0.5</v>
-      </c>
-      <c r="R34">
-        <v>42</v>
-      </c>
-      <c r="S34">
-        <v>0</v>
-      </c>
-      <c r="T34">
-        <v>0</v>
-      </c>
-      <c r="U34">
-        <v>0</v>
-      </c>
-      <c r="V34">
-        <v>0</v>
-      </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
-      <c r="X34">
-        <v>42</v>
-      </c>
-      <c r="Y34">
-        <v>65</v>
-      </c>
-      <c r="Z34" s="1">
-        <v>2.8985507246376802E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
 </file>
--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxwe\Google Drive\Code\Python\extract_COVID19_events_from_Twitter\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B028D9E4-BDC0-4B98-8EBD-5D77209D75DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4287BFE-9521-4BE8-9F82-450335DA2229}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="5" xr2:uid="{09ECAD97-3C1E-45DE-875A-3C5CD2F3C873}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{09ECAD97-3C1E-45DE-875A-3C5CD2F3C873}"/>
   </bookViews>
   <sheets>
     <sheet name="comparison" sheetId="7" r:id="rId1"/>
-    <sheet name="comparison-detailed" sheetId="3" r:id="rId2"/>
-    <sheet name="bert" sheetId="4" r:id="rId3"/>
-    <sheet name="biobert" sheetId="5" r:id="rId4"/>
-    <sheet name="covid-twitter-bert" sheetId="8" r:id="rId5"/>
-    <sheet name="pos_pooled" sheetId="10" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="11" r:id="rId7"/>
-    <sheet name="electra" sheetId="6" r:id="rId8"/>
-    <sheet name="electra-large" sheetId="9" r:id="rId9"/>
-    <sheet name="lr-paper" sheetId="1" r:id="rId10"/>
-    <sheet name="bert-paper" sheetId="2" r:id="rId11"/>
+    <sheet name="tested_positive" sheetId="13" r:id="rId2"/>
+    <sheet name="comparison-detailed" sheetId="3" r:id="rId3"/>
+    <sheet name="bert" sheetId="4" r:id="rId4"/>
+    <sheet name="biobert" sheetId="5" r:id="rId5"/>
+    <sheet name="covid-twitter-bert" sheetId="8" r:id="rId6"/>
+    <sheet name="pos_pooled" sheetId="10" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="11" r:id="rId8"/>
+    <sheet name="electra" sheetId="6" r:id="rId9"/>
+    <sheet name="electra-large" sheetId="9" r:id="rId10"/>
+    <sheet name="lr-paper" sheetId="1" r:id="rId11"/>
+    <sheet name="bert-paper" sheetId="2" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2236" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2274" uniqueCount="438">
   <si>
     <t>Event</t>
   </si>
@@ -1255,6 +1256,108 @@
   </si>
   <si>
     <t>cure Micro-F1</t>
+  </si>
+  <si>
+    <t>age-P</t>
+  </si>
+  <si>
+    <t>age-R</t>
+  </si>
+  <si>
+    <t>age-F1</t>
+  </si>
+  <si>
+    <t>close_contact-P</t>
+  </si>
+  <si>
+    <t>close_contact-R</t>
+  </si>
+  <si>
+    <t>close_contact-F1</t>
+  </si>
+  <si>
+    <t>employer-P</t>
+  </si>
+  <si>
+    <t>employer-R</t>
+  </si>
+  <si>
+    <t>employer-F1</t>
+  </si>
+  <si>
+    <t>gender_male-P</t>
+  </si>
+  <si>
+    <t>gender_male-R</t>
+  </si>
+  <si>
+    <t>gender_male-F1</t>
+  </si>
+  <si>
+    <t>gender_female-P</t>
+  </si>
+  <si>
+    <t>gender_female-R</t>
+  </si>
+  <si>
+    <t>gender_female-F1</t>
+  </si>
+  <si>
+    <t>name-P</t>
+  </si>
+  <si>
+    <t>name-R</t>
+  </si>
+  <si>
+    <t>name-F1</t>
+  </si>
+  <si>
+    <t>recent_travel-P</t>
+  </si>
+  <si>
+    <t>recent_travel-R</t>
+  </si>
+  <si>
+    <t>recent_travel-F1</t>
+  </si>
+  <si>
+    <t>relation-P</t>
+  </si>
+  <si>
+    <t>relation-R</t>
+  </si>
+  <si>
+    <t>relation-F1</t>
+  </si>
+  <si>
+    <t>when-P</t>
+  </si>
+  <si>
+    <t>when-R</t>
+  </si>
+  <si>
+    <t>when-F1</t>
+  </si>
+  <si>
+    <t>where-P</t>
+  </si>
+  <si>
+    <t>where-R</t>
+  </si>
+  <si>
+    <t>where-F1</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>pooled</t>
+  </si>
+  <si>
+    <t>pooled_width</t>
+  </si>
+  <si>
+    <t>baseline</t>
   </si>
 </sst>
 </file>
@@ -1834,6 +1937,3260 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96DB2610-41A0-4FBA-A977-EFC7065CE8F3}">
+  <dimension ref="A1:AL34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AI1" sqref="AI1:AL6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="13.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="24" width="0" hidden="1" customWidth="1"/>
+    <col min="26" max="30" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>309</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>311</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>309</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G2">
+        <v>0.99683599929688804</v>
+      </c>
+      <c r="H2" t="s">
+        <v>372</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>587</v>
+      </c>
+      <c r="K2">
+        <v>97.274275979557004</v>
+      </c>
+      <c r="L2">
+        <v>97.274275979557004</v>
+      </c>
+      <c r="M2">
+        <v>16</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0.5</v>
+      </c>
+      <c r="Q2">
+        <v>16</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>16</v>
+      </c>
+      <c r="X2">
+        <v>18</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>18</v>
+      </c>
+      <c r="AE2" s="2">
+        <f>SUM(AB2:AB34)/(SUM(AB2:AB34)+SUM(AC2:AC34))</f>
+        <v>0.63914373088685017</v>
+      </c>
+      <c r="AF2" s="2">
+        <f t="array" ref="AF2">SUM(AB2:AB34)/(SUM(AB2:AB34)+SUM(AD2:AD34))</f>
+        <v>9.2930191196087156E-2</v>
+      </c>
+      <c r="AG2" s="2">
+        <f>2*(AE2*AF2)/(AE2+AF2)</f>
+        <v>0.16226708074534163</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ2" s="1" t="e">
+        <f>SUM(AB2:AB11)/(SUM(AB2:AB11)+SUM(AC2:AC11))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK2" s="1">
+        <f>SUM(AB2:AB11)/(SUM(AB2:AB11)+SUM(AD2:AD11))</f>
+        <v>0</v>
+      </c>
+      <c r="AL2" s="1" t="e">
+        <f>2*(AJ2*AK2)/(AJ2+AK2)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G3">
+        <v>0.98910177535595001</v>
+      </c>
+      <c r="H3" t="s">
+        <v>373</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>587</v>
+      </c>
+      <c r="K3">
+        <v>90.800681431005103</v>
+      </c>
+      <c r="L3">
+        <v>90.800681431005103</v>
+      </c>
+      <c r="M3">
+        <v>54</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0.5</v>
+      </c>
+      <c r="Q3">
+        <v>27</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>27</v>
+      </c>
+      <c r="X3">
+        <v>62</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>62</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ3" s="1" t="e">
+        <f>SUM(AB12:AB20)/(SUM(AB12:AB20)+SUM(AC12:AC20))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK3" s="1">
+        <f>SUM(AB12:AB20)/(SUM(AB12:AB20)+SUM(AD12:AD20))</f>
+        <v>0</v>
+      </c>
+      <c r="AL3" s="1" t="e">
+        <f>2*(AJ3*AK3)/(AJ3+AK3)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E4" t="s">
+        <v>228</v>
+      </c>
+      <c r="F4" t="s">
+        <v>179</v>
+      </c>
+      <c r="G4">
+        <v>0.98189488486553</v>
+      </c>
+      <c r="H4" t="s">
+        <v>374</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>587</v>
+      </c>
+      <c r="K4">
+        <v>83.134582623509303</v>
+      </c>
+      <c r="L4">
+        <v>83.134582623509303</v>
+      </c>
+      <c r="M4">
+        <v>99</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0.5</v>
+      </c>
+      <c r="Q4">
+        <v>47</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>47</v>
+      </c>
+      <c r="X4">
+        <v>103</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>103</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ4" s="1" t="e">
+        <f>SUM(AB21:AB25)/(SUM(AB21:AB25)+SUM(AC21:AC25))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK4" s="1">
+        <f>SUM(AB21:AB25)/(SUM(AB21:AB25)+SUM(AD21:AD25))</f>
+        <v>0</v>
+      </c>
+      <c r="AL4" s="1" t="e">
+        <f t="shared" ref="AL4:AL6" si="0">2*(AJ4*AK4)/(AJ4+AK4)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D5" t="s">
+        <v>227</v>
+      </c>
+      <c r="E5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F5" t="s">
+        <v>179</v>
+      </c>
+      <c r="G5">
+        <v>0.97837932852873899</v>
+      </c>
+      <c r="H5" t="s">
+        <v>375</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>587</v>
+      </c>
+      <c r="K5">
+        <v>92.674616695059598</v>
+      </c>
+      <c r="L5">
+        <v>92.674616695059598</v>
+      </c>
+      <c r="M5">
+        <v>43</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0.5</v>
+      </c>
+      <c r="Q5">
+        <v>67</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>67</v>
+      </c>
+      <c r="X5">
+        <v>123</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>123</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>134</v>
+      </c>
+      <c r="AJ5" s="1">
+        <f>SUM(AB26:AB31)/(SUM(AB26:AB31)+SUM(AC26:AC31))</f>
+        <v>0.63914373088685017</v>
+      </c>
+      <c r="AK5" s="1">
+        <f>SUM(AB26:AB31)/(SUM(AB26:AB31)+SUM(AD26:AD31))</f>
+        <v>0.71088435374149661</v>
+      </c>
+      <c r="AL5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.67310789049919484</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D6" t="s">
+        <v>227</v>
+      </c>
+      <c r="E6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F6" t="s">
+        <v>179</v>
+      </c>
+      <c r="G6">
+        <v>0.99208999824222099</v>
+      </c>
+      <c r="H6" t="s">
+        <v>376</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>587</v>
+      </c>
+      <c r="K6">
+        <v>97.785349233390093</v>
+      </c>
+      <c r="L6">
+        <v>97.785349233390093</v>
+      </c>
+      <c r="M6">
+        <v>13</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0.5</v>
+      </c>
+      <c r="Q6">
+        <v>29</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>29</v>
+      </c>
+      <c r="X6">
+        <v>45</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>45</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>160</v>
+      </c>
+      <c r="AJ6" s="1" t="e">
+        <f>SUM(AB32:AB34)/(SUM(AB32:AB34)+SUM(AC32:AC34))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK6" s="1">
+        <f>SUM(AB32:AB34)/(SUM(AB32:AB34)+SUM(AD32:AD34))</f>
+        <v>0</v>
+      </c>
+      <c r="AL6" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D7" t="s">
+        <v>227</v>
+      </c>
+      <c r="E7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G7">
+        <v>0.91474775883283499</v>
+      </c>
+      <c r="H7" t="s">
+        <v>377</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>587</v>
+      </c>
+      <c r="K7">
+        <v>25.2129471890971</v>
+      </c>
+      <c r="L7">
+        <v>25.2129471890971</v>
+      </c>
+      <c r="M7">
+        <v>439</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0.5</v>
+      </c>
+      <c r="Q7">
+        <v>300</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>300</v>
+      </c>
+      <c r="X7">
+        <v>485</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E8" t="s">
+        <v>228</v>
+      </c>
+      <c r="F8" t="s">
+        <v>179</v>
+      </c>
+      <c r="G8">
+        <v>0.99191422042538202</v>
+      </c>
+      <c r="H8" t="s">
+        <v>378</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>587</v>
+      </c>
+      <c r="K8">
+        <v>93.015332197614995</v>
+      </c>
+      <c r="L8">
+        <v>93.015332197614995</v>
+      </c>
+      <c r="M8">
+        <v>41</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0.5</v>
+      </c>
+      <c r="Q8">
+        <v>35</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>35</v>
+      </c>
+      <c r="X8">
+        <v>46</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D9" t="s">
+        <v>227</v>
+      </c>
+      <c r="E9" t="s">
+        <v>228</v>
+      </c>
+      <c r="F9" t="s">
+        <v>179</v>
+      </c>
+      <c r="G9">
+        <v>0.99771488838108602</v>
+      </c>
+      <c r="H9" t="s">
+        <v>379</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>587</v>
+      </c>
+      <c r="K9">
+        <v>99.488926746166896</v>
+      </c>
+      <c r="L9">
+        <v>99.488926746166896</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0.5</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>13</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" t="s">
+        <v>226</v>
+      </c>
+      <c r="D10" t="s">
+        <v>227</v>
+      </c>
+      <c r="E10" t="s">
+        <v>228</v>
+      </c>
+      <c r="F10" t="s">
+        <v>179</v>
+      </c>
+      <c r="G10">
+        <v>0.99507822112849298</v>
+      </c>
+      <c r="H10" t="s">
+        <v>380</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>587</v>
+      </c>
+      <c r="K10">
+        <v>95.229982964224803</v>
+      </c>
+      <c r="L10">
+        <v>95.229982964224803</v>
+      </c>
+      <c r="M10">
+        <v>28</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0.5</v>
+      </c>
+      <c r="Q10">
+        <v>20</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>20</v>
+      </c>
+      <c r="X10">
+        <v>28</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" t="s">
+        <v>226</v>
+      </c>
+      <c r="D11" t="s">
+        <v>227</v>
+      </c>
+      <c r="E11" t="s">
+        <v>228</v>
+      </c>
+      <c r="F11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G11">
+        <v>0.968184215152047</v>
+      </c>
+      <c r="H11" t="s">
+        <v>381</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>587</v>
+      </c>
+      <c r="K11">
+        <v>69.505962521294705</v>
+      </c>
+      <c r="L11">
+        <v>69.505962521294705</v>
+      </c>
+      <c r="M11">
+        <v>179</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0.5</v>
+      </c>
+      <c r="Q11">
+        <v>110</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>110</v>
+      </c>
+      <c r="X11">
+        <v>181</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>239</v>
+      </c>
+      <c r="D12" t="s">
+        <v>240</v>
+      </c>
+      <c r="E12" t="s">
+        <v>241</v>
+      </c>
+      <c r="F12" t="s">
+        <v>179</v>
+      </c>
+      <c r="G12">
+        <v>0.99905243209096595</v>
+      </c>
+      <c r="H12" t="s">
+        <v>242</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>282</v>
+      </c>
+      <c r="K12">
+        <v>98.936170212765902</v>
+      </c>
+      <c r="L12">
+        <v>98.936170212765902</v>
+      </c>
+      <c r="M12">
+        <v>3</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0.5</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>1</v>
+      </c>
+      <c r="X12">
+        <v>3</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>239</v>
+      </c>
+      <c r="D13" t="s">
+        <v>240</v>
+      </c>
+      <c r="E13" t="s">
+        <v>241</v>
+      </c>
+      <c r="F13" t="s">
+        <v>179</v>
+      </c>
+      <c r="G13">
+        <v>0.99652558433354299</v>
+      </c>
+      <c r="H13" t="s">
+        <v>321</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>282</v>
+      </c>
+      <c r="K13">
+        <v>96.453900709219795</v>
+      </c>
+      <c r="L13">
+        <v>96.453900709219795</v>
+      </c>
+      <c r="M13">
+        <v>10</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0.5</v>
+      </c>
+      <c r="Q13">
+        <v>7</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>7</v>
+      </c>
+      <c r="X13">
+        <v>11</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>239</v>
+      </c>
+      <c r="D14" t="s">
+        <v>240</v>
+      </c>
+      <c r="E14" t="s">
+        <v>241</v>
+      </c>
+      <c r="F14" t="s">
+        <v>179</v>
+      </c>
+      <c r="G14">
+        <v>0.98389134554642999</v>
+      </c>
+      <c r="H14" t="s">
+        <v>382</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>282</v>
+      </c>
+      <c r="K14">
+        <v>93.262411347517698</v>
+      </c>
+      <c r="L14">
+        <v>93.262411347517698</v>
+      </c>
+      <c r="M14">
+        <v>19</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0.5</v>
+      </c>
+      <c r="Q14">
+        <v>16</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>16</v>
+      </c>
+      <c r="X14">
+        <v>51</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
+        <v>239</v>
+      </c>
+      <c r="D15" t="s">
+        <v>240</v>
+      </c>
+      <c r="E15" t="s">
+        <v>241</v>
+      </c>
+      <c r="F15" t="s">
+        <v>179</v>
+      </c>
+      <c r="G15">
+        <v>0.99368288060644305</v>
+      </c>
+      <c r="H15" t="s">
+        <v>383</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>282</v>
+      </c>
+      <c r="K15">
+        <v>97.163120567375799</v>
+      </c>
+      <c r="L15">
+        <v>97.163120567375799</v>
+      </c>
+      <c r="M15">
+        <v>8</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0.5</v>
+      </c>
+      <c r="Q15">
+        <v>19</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>19</v>
+      </c>
+      <c r="X15">
+        <v>20</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" t="s">
+        <v>239</v>
+      </c>
+      <c r="D16" t="s">
+        <v>240</v>
+      </c>
+      <c r="E16" t="s">
+        <v>241</v>
+      </c>
+      <c r="F16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G16">
+        <v>0.99905243209096595</v>
+      </c>
+      <c r="H16" t="s">
+        <v>242</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>282</v>
+      </c>
+      <c r="K16">
+        <v>98.936170212765902</v>
+      </c>
+      <c r="L16">
+        <v>98.936170212765902</v>
+      </c>
+      <c r="M16">
+        <v>3</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0.5</v>
+      </c>
+      <c r="Q16">
+        <v>6</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>6</v>
+      </c>
+      <c r="X16">
+        <v>3</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" t="s">
+        <v>239</v>
+      </c>
+      <c r="D17" t="s">
+        <v>240</v>
+      </c>
+      <c r="E17" t="s">
+        <v>241</v>
+      </c>
+      <c r="F17" t="s">
+        <v>179</v>
+      </c>
+      <c r="G17">
+        <v>0.95325331648768097</v>
+      </c>
+      <c r="H17" t="s">
+        <v>384</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>282</v>
+      </c>
+      <c r="K17">
+        <v>51.418439716312001</v>
+      </c>
+      <c r="L17">
+        <v>51.418439716312001</v>
+      </c>
+      <c r="M17">
+        <v>137</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0.5</v>
+      </c>
+      <c r="Q17">
+        <v>98</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>98</v>
+      </c>
+      <c r="X17">
+        <v>148</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" t="s">
+        <v>239</v>
+      </c>
+      <c r="D18" t="s">
+        <v>240</v>
+      </c>
+      <c r="E18" t="s">
+        <v>241</v>
+      </c>
+      <c r="F18" t="s">
+        <v>179</v>
+      </c>
+      <c r="G18">
+        <v>0.99241945672773202</v>
+      </c>
+      <c r="H18" t="s">
+        <v>385</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>282</v>
+      </c>
+      <c r="K18">
+        <v>98.581560283687907</v>
+      </c>
+      <c r="L18">
+        <v>98.581560283687907</v>
+      </c>
+      <c r="M18">
+        <v>4</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0.5</v>
+      </c>
+      <c r="Q18">
+        <v>17</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>17</v>
+      </c>
+      <c r="X18">
+        <v>24</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" t="s">
+        <v>239</v>
+      </c>
+      <c r="D19" t="s">
+        <v>240</v>
+      </c>
+      <c r="E19" t="s">
+        <v>241</v>
+      </c>
+      <c r="F19" t="s">
+        <v>179</v>
+      </c>
+      <c r="G19">
+        <v>0.99778900821225502</v>
+      </c>
+      <c r="H19" t="s">
+        <v>326</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>282</v>
+      </c>
+      <c r="K19">
+        <v>98.226950354609897</v>
+      </c>
+      <c r="L19">
+        <v>98.226950354609897</v>
+      </c>
+      <c r="M19">
+        <v>5</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0.5</v>
+      </c>
+      <c r="Q19">
+        <v>9</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>9</v>
+      </c>
+      <c r="X19">
+        <v>7</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" t="s">
+        <v>239</v>
+      </c>
+      <c r="D20" t="s">
+        <v>240</v>
+      </c>
+      <c r="E20" t="s">
+        <v>241</v>
+      </c>
+      <c r="F20" t="s">
+        <v>179</v>
+      </c>
+      <c r="G20">
+        <v>0.99336702463676496</v>
+      </c>
+      <c r="H20" t="s">
+        <v>386</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>282</v>
+      </c>
+      <c r="K20">
+        <v>92.907801418439703</v>
+      </c>
+      <c r="L20">
+        <v>92.907801418439703</v>
+      </c>
+      <c r="M20">
+        <v>20</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0.5</v>
+      </c>
+      <c r="Q20">
+        <v>28</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>28</v>
+      </c>
+      <c r="X20">
+        <v>22</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
+        <v>251</v>
+      </c>
+      <c r="D21" t="s">
+        <v>252</v>
+      </c>
+      <c r="E21" t="s">
+        <v>253</v>
+      </c>
+      <c r="F21" t="s">
+        <v>179</v>
+      </c>
+      <c r="G21">
+        <v>0.961655508216676</v>
+      </c>
+      <c r="H21" t="s">
+        <v>387</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>279</v>
+      </c>
+      <c r="K21">
+        <v>57.706093189964101</v>
+      </c>
+      <c r="L21">
+        <v>57.706093189964101</v>
+      </c>
+      <c r="M21">
+        <v>118</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0.5</v>
+      </c>
+      <c r="Q21">
+        <v>86</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>86</v>
+      </c>
+      <c r="X21">
+        <v>126</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" t="s">
+        <v>251</v>
+      </c>
+      <c r="D22" t="s">
+        <v>252</v>
+      </c>
+      <c r="E22" t="s">
+        <v>253</v>
+      </c>
+      <c r="F22" t="s">
+        <v>179</v>
+      </c>
+      <c r="G22">
+        <v>0.98660986001217199</v>
+      </c>
+      <c r="H22" t="s">
+        <v>388</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>279</v>
+      </c>
+      <c r="K22">
+        <v>96.057347670250806</v>
+      </c>
+      <c r="L22">
+        <v>96.057347670250806</v>
+      </c>
+      <c r="M22">
+        <v>11</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0.5</v>
+      </c>
+      <c r="Q22">
+        <v>31</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>31</v>
+      </c>
+      <c r="X22">
+        <v>44</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" t="s">
+        <v>147</v>
+      </c>
+      <c r="C23" t="s">
+        <v>251</v>
+      </c>
+      <c r="D23" t="s">
+        <v>252</v>
+      </c>
+      <c r="E23" t="s">
+        <v>253</v>
+      </c>
+      <c r="F23" t="s">
+        <v>179</v>
+      </c>
+      <c r="G23">
+        <v>0.98295800365185604</v>
+      </c>
+      <c r="H23" t="s">
+        <v>389</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>279</v>
+      </c>
+      <c r="K23">
+        <v>95.6989247311828</v>
+      </c>
+      <c r="L23">
+        <v>95.6989247311828</v>
+      </c>
+      <c r="M23">
+        <v>12</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0.5</v>
+      </c>
+      <c r="Q23">
+        <v>47</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>47</v>
+      </c>
+      <c r="X23">
+        <v>56</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>117</v>
+      </c>
+      <c r="B24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" t="s">
+        <v>251</v>
+      </c>
+      <c r="D24" t="s">
+        <v>252</v>
+      </c>
+      <c r="E24" t="s">
+        <v>253</v>
+      </c>
+      <c r="F24" t="s">
+        <v>179</v>
+      </c>
+      <c r="G24">
+        <v>0.99878271454656098</v>
+      </c>
+      <c r="H24" t="s">
+        <v>257</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>279</v>
+      </c>
+      <c r="K24">
+        <v>98.566308243727605</v>
+      </c>
+      <c r="L24">
+        <v>98.566308243727605</v>
+      </c>
+      <c r="M24">
+        <v>4</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0.5</v>
+      </c>
+      <c r="Q24">
+        <v>2</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>2</v>
+      </c>
+      <c r="X24">
+        <v>4</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" t="s">
+        <v>251</v>
+      </c>
+      <c r="D25" t="s">
+        <v>252</v>
+      </c>
+      <c r="E25" t="s">
+        <v>253</v>
+      </c>
+      <c r="F25" t="s">
+        <v>179</v>
+      </c>
+      <c r="G25">
+        <v>0.98813146682897102</v>
+      </c>
+      <c r="H25" t="s">
+        <v>390</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>279</v>
+      </c>
+      <c r="K25">
+        <v>86.021505376343995</v>
+      </c>
+      <c r="L25">
+        <v>86.021505376343995</v>
+      </c>
+      <c r="M25">
+        <v>39</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.5</v>
+      </c>
+      <c r="Q25">
+        <v>24</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>24</v>
+      </c>
+      <c r="X25">
+        <v>39</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>134</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" t="s">
+        <v>259</v>
+      </c>
+      <c r="D26" t="s">
+        <v>260</v>
+      </c>
+      <c r="E26" t="s">
+        <v>261</v>
+      </c>
+      <c r="F26" t="s">
+        <v>179</v>
+      </c>
+      <c r="G26">
+        <v>0.99511072763876895</v>
+      </c>
+      <c r="H26" t="s">
+        <v>391</v>
+      </c>
+      <c r="I26">
+        <v>0.72131147540983598</v>
+      </c>
+      <c r="J26">
+        <v>309</v>
+      </c>
+      <c r="K26">
+        <v>95.145631067961105</v>
+      </c>
+      <c r="L26">
+        <v>96.396979503775597</v>
+      </c>
+      <c r="M26">
+        <v>35</v>
+      </c>
+      <c r="N26">
+        <v>62.857142857142797</v>
+      </c>
+      <c r="O26">
+        <v>73.904761904761898</v>
+      </c>
+      <c r="P26">
+        <v>0.6</v>
+      </c>
+      <c r="Q26">
+        <v>17</v>
+      </c>
+      <c r="R26">
+        <v>0.94117647058823495</v>
+      </c>
+      <c r="S26">
+        <v>0.94117647058823495</v>
+      </c>
+      <c r="T26">
+        <v>0.94117647058823495</v>
+      </c>
+      <c r="U26">
+        <v>16</v>
+      </c>
+      <c r="V26">
+        <v>1</v>
+      </c>
+      <c r="W26">
+        <v>1</v>
+      </c>
+      <c r="X26">
+        <v>29</v>
+      </c>
+      <c r="Y26">
+        <v>0.73333333333333295</v>
+      </c>
+      <c r="Z26">
+        <v>0.70967741935483797</v>
+      </c>
+      <c r="AA26">
+        <v>0.75862068965517204</v>
+      </c>
+      <c r="AB26">
+        <v>22</v>
+      </c>
+      <c r="AC26">
+        <v>9</v>
+      </c>
+      <c r="AD26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>134</v>
+      </c>
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" t="s">
+        <v>259</v>
+      </c>
+      <c r="D27" t="s">
+        <v>260</v>
+      </c>
+      <c r="E27" t="s">
+        <v>261</v>
+      </c>
+      <c r="F27" t="s">
+        <v>179</v>
+      </c>
+      <c r="G27">
+        <v>0.97440322116767297</v>
+      </c>
+      <c r="H27" t="s">
+        <v>392</v>
+      </c>
+      <c r="I27">
+        <v>0.69624573378839505</v>
+      </c>
+      <c r="J27">
+        <v>337</v>
+      </c>
+      <c r="K27">
+        <v>76.261127596439096</v>
+      </c>
+      <c r="L27">
+        <v>80.358502361469704</v>
+      </c>
+      <c r="M27">
+        <v>161</v>
+      </c>
+      <c r="N27">
+        <v>63.354037267080699</v>
+      </c>
+      <c r="O27">
+        <v>71.930529787672597</v>
+      </c>
+      <c r="P27">
+        <v>0.3</v>
+      </c>
+      <c r="Q27">
+        <v>66</v>
+      </c>
+      <c r="R27">
+        <v>0.65806451612903205</v>
+      </c>
+      <c r="S27">
+        <v>0.57303370786516805</v>
+      </c>
+      <c r="T27">
+        <v>0.77272727272727204</v>
+      </c>
+      <c r="U27">
+        <v>51</v>
+      </c>
+      <c r="V27">
+        <v>38</v>
+      </c>
+      <c r="W27">
+        <v>15</v>
+      </c>
+      <c r="X27">
+        <v>136</v>
+      </c>
+      <c r="Y27">
+        <v>0.70033670033670004</v>
+      </c>
+      <c r="Z27">
+        <v>0.64596273291925399</v>
+      </c>
+      <c r="AA27">
+        <v>0.76470588235294101</v>
+      </c>
+      <c r="AB27">
+        <v>104</v>
+      </c>
+      <c r="AC27">
+        <v>57</v>
+      </c>
+      <c r="AD27">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>134</v>
+      </c>
+      <c r="B28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" t="s">
+        <v>259</v>
+      </c>
+      <c r="D28" t="s">
+        <v>260</v>
+      </c>
+      <c r="E28" t="s">
+        <v>261</v>
+      </c>
+      <c r="F28" t="s">
+        <v>179</v>
+      </c>
+      <c r="G28">
+        <v>0.994823123382226</v>
+      </c>
+      <c r="H28" t="s">
+        <v>393</v>
+      </c>
+      <c r="I28">
+        <v>0.5</v>
+      </c>
+      <c r="J28">
+        <v>304</v>
+      </c>
+      <c r="K28">
+        <v>95.065789473684205</v>
+      </c>
+      <c r="L28">
+        <v>95.328947368420998</v>
+      </c>
+      <c r="M28">
+        <v>23</v>
+      </c>
+      <c r="N28">
+        <v>39.130434782608603</v>
+      </c>
+      <c r="O28">
+        <v>42.6086956521739</v>
+      </c>
+      <c r="P28">
+        <v>0.5</v>
+      </c>
+      <c r="Q28">
+        <v>10</v>
+      </c>
+      <c r="R28">
+        <v>0.28571428571428498</v>
+      </c>
+      <c r="S28">
+        <v>0.5</v>
+      </c>
+      <c r="T28">
+        <v>0.2</v>
+      </c>
+      <c r="U28">
+        <v>2</v>
+      </c>
+      <c r="V28">
+        <v>2</v>
+      </c>
+      <c r="W28">
+        <v>8</v>
+      </c>
+      <c r="X28">
+        <v>25</v>
+      </c>
+      <c r="Y28">
+        <v>0.5</v>
+      </c>
+      <c r="Z28">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="AA28">
+        <v>0.36</v>
+      </c>
+      <c r="AB28">
+        <v>9</v>
+      </c>
+      <c r="AC28">
+        <v>2</v>
+      </c>
+      <c r="AD28">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>134</v>
+      </c>
+      <c r="B29" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" t="s">
+        <v>259</v>
+      </c>
+      <c r="D29" t="s">
+        <v>260</v>
+      </c>
+      <c r="E29" t="s">
+        <v>261</v>
+      </c>
+      <c r="F29" t="s">
+        <v>179</v>
+      </c>
+      <c r="G29">
+        <v>0.99884958297382798</v>
+      </c>
+      <c r="H29" t="s">
+        <v>265</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>303</v>
+      </c>
+      <c r="K29">
+        <v>99.6699669966996</v>
+      </c>
+      <c r="L29">
+        <v>99.6699669966996</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0.5</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>1</v>
+      </c>
+      <c r="X29">
+        <v>4</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>134</v>
+      </c>
+      <c r="B30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" t="s">
+        <v>259</v>
+      </c>
+      <c r="D30" t="s">
+        <v>260</v>
+      </c>
+      <c r="E30" t="s">
+        <v>261</v>
+      </c>
+      <c r="F30" t="s">
+        <v>179</v>
+      </c>
+      <c r="G30">
+        <v>0.99079666379062403</v>
+      </c>
+      <c r="H30" t="s">
+        <v>394</v>
+      </c>
+      <c r="I30">
+        <v>0.6</v>
+      </c>
+      <c r="J30">
+        <v>305</v>
+      </c>
+      <c r="K30">
+        <v>90.163934426229503</v>
+      </c>
+      <c r="L30">
+        <v>90.775956284152898</v>
+      </c>
+      <c r="M30">
+        <v>44</v>
+      </c>
+      <c r="N30">
+        <v>54.545454545454497</v>
+      </c>
+      <c r="O30">
+        <v>58.787878787878697</v>
+      </c>
+      <c r="P30">
+        <v>0.1</v>
+      </c>
+      <c r="Q30">
+        <v>15</v>
+      </c>
+      <c r="R30">
+        <v>0.83870967741935398</v>
+      </c>
+      <c r="S30">
+        <v>0.8125</v>
+      </c>
+      <c r="T30">
+        <v>0.86666666666666603</v>
+      </c>
+      <c r="U30">
+        <v>13</v>
+      </c>
+      <c r="V30">
+        <v>3</v>
+      </c>
+      <c r="W30">
+        <v>2</v>
+      </c>
+      <c r="X30">
+        <v>43</v>
+      </c>
+      <c r="Y30">
+        <v>0.659574468085106</v>
+      </c>
+      <c r="Z30">
+        <v>0.60784313725490102</v>
+      </c>
+      <c r="AA30">
+        <v>0.72093023255813904</v>
+      </c>
+      <c r="AB30">
+        <v>31</v>
+      </c>
+      <c r="AC30">
+        <v>20</v>
+      </c>
+      <c r="AD30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>134</v>
+      </c>
+      <c r="B31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" t="s">
+        <v>259</v>
+      </c>
+      <c r="D31" t="s">
+        <v>260</v>
+      </c>
+      <c r="E31" t="s">
+        <v>261</v>
+      </c>
+      <c r="F31" t="s">
+        <v>179</v>
+      </c>
+      <c r="G31">
+        <v>0.98734541271210796</v>
+      </c>
+      <c r="H31" t="s">
+        <v>395</v>
+      </c>
+      <c r="I31">
+        <v>0.66153846153846096</v>
+      </c>
+      <c r="J31">
+        <v>316</v>
+      </c>
+      <c r="K31">
+        <v>86.708860759493604</v>
+      </c>
+      <c r="L31">
+        <v>87.236286919831201</v>
+      </c>
+      <c r="M31">
+        <v>65</v>
+      </c>
+      <c r="N31">
+        <v>66.153846153846104</v>
+      </c>
+      <c r="O31">
+        <v>68.717948717948701</v>
+      </c>
+      <c r="P31">
+        <v>0.5</v>
+      </c>
+      <c r="Q31">
+        <v>36</v>
+      </c>
+      <c r="R31">
+        <v>0.65753424657534199</v>
+      </c>
+      <c r="S31">
+        <v>0.64864864864864802</v>
+      </c>
+      <c r="T31">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="U31">
+        <v>24</v>
+      </c>
+      <c r="V31">
+        <v>13</v>
+      </c>
+      <c r="W31">
+        <v>12</v>
+      </c>
+      <c r="X31">
+        <v>57</v>
+      </c>
+      <c r="Y31">
+        <v>0.66153846153846096</v>
+      </c>
+      <c r="Z31">
+        <v>0.58904109589041098</v>
+      </c>
+      <c r="AA31">
+        <v>0.75438596491228005</v>
+      </c>
+      <c r="AB31">
+        <v>43</v>
+      </c>
+      <c r="AC31">
+        <v>30</v>
+      </c>
+      <c r="AD31">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>160</v>
+      </c>
+      <c r="B32" t="s">
+        <v>161</v>
+      </c>
+      <c r="C32" t="s">
+        <v>268</v>
+      </c>
+      <c r="D32" t="s">
+        <v>269</v>
+      </c>
+      <c r="E32" t="s">
+        <v>270</v>
+      </c>
+      <c r="F32" t="s">
+        <v>179</v>
+      </c>
+      <c r="G32">
+        <v>0.97999344047228598</v>
+      </c>
+      <c r="H32" t="s">
+        <v>396</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>306</v>
+      </c>
+      <c r="K32">
+        <v>99.346405228758101</v>
+      </c>
+      <c r="L32">
+        <v>99.346405228758101</v>
+      </c>
+      <c r="M32">
+        <v>2</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0.5</v>
+      </c>
+      <c r="Q32">
+        <v>40</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>40</v>
+      </c>
+      <c r="X32">
+        <v>61</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>160</v>
+      </c>
+      <c r="B33" t="s">
+        <v>166</v>
+      </c>
+      <c r="C33" t="s">
+        <v>268</v>
+      </c>
+      <c r="D33" t="s">
+        <v>269</v>
+      </c>
+      <c r="E33" t="s">
+        <v>270</v>
+      </c>
+      <c r="F33" t="s">
+        <v>179</v>
+      </c>
+      <c r="G33">
+        <v>0.955067235159068</v>
+      </c>
+      <c r="H33" t="s">
+        <v>397</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>306</v>
+      </c>
+      <c r="K33">
+        <v>59.150326797385603</v>
+      </c>
+      <c r="L33">
+        <v>59.150326797385603</v>
+      </c>
+      <c r="M33">
+        <v>125</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0.5</v>
+      </c>
+      <c r="Q33">
+        <v>94</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>94</v>
+      </c>
+      <c r="X33">
+        <v>137</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>160</v>
+      </c>
+      <c r="B34" t="s">
+        <v>171</v>
+      </c>
+      <c r="C34" t="s">
+        <v>268</v>
+      </c>
+      <c r="D34" t="s">
+        <v>269</v>
+      </c>
+      <c r="E34" t="s">
+        <v>270</v>
+      </c>
+      <c r="F34" t="s">
+        <v>179</v>
+      </c>
+      <c r="G34">
+        <v>0.96884224335847802</v>
+      </c>
+      <c r="H34" t="s">
+        <v>398</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>306</v>
+      </c>
+      <c r="K34">
+        <v>69.281045751633897</v>
+      </c>
+      <c r="L34">
+        <v>69.281045751633897</v>
+      </c>
+      <c r="M34">
+        <v>94</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0.5</v>
+      </c>
+      <c r="Q34">
+        <v>65</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>65</v>
+      </c>
+      <c r="X34">
+        <v>95</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8583DFB6-1C5F-4E8D-BAA4-B0A26012EA60}">
   <dimension ref="A1:AE34"/>
   <sheetViews>
@@ -5072,7 +8429,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D9431E6-62E4-4A11-8254-C840C95A0DE2}">
   <dimension ref="A1:AD34"/>
   <sheetViews>
@@ -8143,6 +11500,750 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B249222A-8B55-4CA0-959E-BCB50C050E76}">
+  <dimension ref="A1:AH12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="12.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.9296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="6.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.53125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.06640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.796875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.59765625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.9296875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.73046875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.53125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.53125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.265625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.1328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E1" t="s">
+        <v>404</v>
+      </c>
+      <c r="F1" t="s">
+        <v>405</v>
+      </c>
+      <c r="G1" t="s">
+        <v>406</v>
+      </c>
+      <c r="H1" t="s">
+        <v>407</v>
+      </c>
+      <c r="I1" t="s">
+        <v>408</v>
+      </c>
+      <c r="J1" t="s">
+        <v>409</v>
+      </c>
+      <c r="K1" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1" t="s">
+        <v>411</v>
+      </c>
+      <c r="M1" t="s">
+        <v>412</v>
+      </c>
+      <c r="N1" t="s">
+        <v>413</v>
+      </c>
+      <c r="O1" t="s">
+        <v>414</v>
+      </c>
+      <c r="P1" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>416</v>
+      </c>
+      <c r="R1" t="s">
+        <v>417</v>
+      </c>
+      <c r="S1" t="s">
+        <v>418</v>
+      </c>
+      <c r="T1" t="s">
+        <v>419</v>
+      </c>
+      <c r="U1" t="s">
+        <v>420</v>
+      </c>
+      <c r="V1" t="s">
+        <v>421</v>
+      </c>
+      <c r="W1" t="s">
+        <v>422</v>
+      </c>
+      <c r="X1" t="s">
+        <v>423</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>424</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>425</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>426</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>427</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>428</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>429</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>430</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>431</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>432</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>437</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.70569999999999999</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.67749999999999999</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.69130000000000003</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.70589999999999997</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.68569999999999998</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.61360000000000003</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.4355</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.50939999999999996</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0.58020000000000005</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0.45629999999999998</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0.51090000000000002</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0.68379999999999996</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0.75609999999999999</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0.71809999999999996</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0.67390000000000005</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0.68889999999999996</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0.68130000000000002</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0.82769999999999999</v>
+      </c>
+      <c r="U2" s="1">
+        <v>0.76290000000000002</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="W2" s="1">
+        <v>0.45450000000000002</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0.3261</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>0.37969999999999998</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>0.69230000000000003</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>0.5806</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>0.57140000000000002</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>0.5333</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>0.62139999999999995</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>0.70720000000000005</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>0.66149999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>435</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.62209999999999999</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.64859999999999995</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.29349999999999998</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.4355</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.35060000000000002</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0.43690000000000001</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0.48909999999999998</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0.69920000000000004</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0.69350000000000001</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0.4889</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0.43140000000000001</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0.79649999999999999</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0.75880000000000003</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0.7772</v>
+      </c>
+      <c r="W3" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="X3" s="1">
+        <v>0.52170000000000005</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>0.61539999999999995</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>0.61539999999999995</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>0.61539999999999995</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>0.29630000000000001</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>0.57140000000000002</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>0.39019999999999999</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>0.60299999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>434</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.68830000000000002</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.67390000000000005</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.70589999999999997</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.53059999999999996</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.4194</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.46850000000000003</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.56159999999999999</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.39810000000000001</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0.46589999999999998</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0.7107</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0.69920000000000004</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0.70489999999999997</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0.70730000000000004</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0.64439999999999997</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0.6744</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0.77939999999999998</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0.80859999999999999</v>
+      </c>
+      <c r="W4" s="1">
+        <v>0.45650000000000002</v>
+      </c>
+      <c r="X4" s="1">
+        <v>0.45650000000000002</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>0.45650000000000002</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>0.5625</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>0.69230000000000003</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>0.62070000000000003</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>0.53849999999999998</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>0.51849999999999996</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>0.52669999999999995</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>0.70720000000000005</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>0.6038</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>436</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.70189999999999997</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.69110000000000005</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.69650000000000001</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.68179999999999996</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.83330000000000004</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.3871</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.43640000000000001</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.6724</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.37859999999999999</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.48449999999999999</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0.69169999999999998</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0.748</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0.71879999999999999</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0.68089999999999995</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0.71109999999999995</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0.69569999999999999</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0.83620000000000005</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0.81769999999999998</v>
+      </c>
+      <c r="W5" s="1">
+        <v>0.51160000000000005</v>
+      </c>
+      <c r="X5" s="1">
+        <v>0.4783</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>0.49440000000000001</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>0.69230000000000003</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>0.69230000000000003</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>0.69230000000000003</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>0.51719999999999999</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>0.53569999999999995</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>0.52629999999999999</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>0.55220000000000002</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>0.70169999999999999</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>0.61799999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A7C2FD4-A612-48B7-B14F-F3EAA1F8E07F}">
   <dimension ref="A1:H34"/>
   <sheetViews>
@@ -9248,7 +13349,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{645B2E46-A973-4F43-A440-0DFDA26D52C4}">
   <dimension ref="A1:AL34"/>
   <sheetViews>
@@ -12505,7 +16606,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B399EB9A-55D3-405C-BE82-39995B32E924}">
   <dimension ref="A1:AL34"/>
   <sheetViews>
@@ -15760,12 +19861,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40168F0E-FC16-4362-B18F-2CE5356F0709}">
   <dimension ref="A1:AL34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AI2" sqref="AI2:AI6"/>
+    <sheetView topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2:Y11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -19016,12 +23117,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F91AE893-288C-43FA-B756-3BC4E71EFEEA}">
   <dimension ref="A1:AL34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y7" sqref="Y7"/>
+    <sheetView topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:Y1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -22275,7 +26376,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02E7B49C-8ED4-4A10-9DE8-61DC40F7BF61}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -22289,7 +26390,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2A5DC65-F61D-4915-92F9-4012B56D908D}">
   <dimension ref="A1:AL34"/>
   <sheetViews>
@@ -25542,3258 +29643,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96DB2610-41A0-4FBA-A977-EFC7065CE8F3}">
-  <dimension ref="A1:AL34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AI1" sqref="AI1:AL6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="13.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.53125" bestFit="1" customWidth="1"/>
-    <col min="3" max="24" width="0" hidden="1" customWidth="1"/>
-    <col min="26" max="30" width="0" hidden="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" t="s">
-        <v>18</v>
-      </c>
-      <c r="S1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T1" t="s">
-        <v>20</v>
-      </c>
-      <c r="U1" t="s">
-        <v>21</v>
-      </c>
-      <c r="V1" t="s">
-        <v>22</v>
-      </c>
-      <c r="W1" t="s">
-        <v>23</v>
-      </c>
-      <c r="X1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>309</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>310</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>311</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>309</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>310</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" t="s">
-        <v>226</v>
-      </c>
-      <c r="D2" t="s">
-        <v>227</v>
-      </c>
-      <c r="E2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F2" t="s">
-        <v>179</v>
-      </c>
-      <c r="G2">
-        <v>0.99683599929688804</v>
-      </c>
-      <c r="H2" t="s">
-        <v>372</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>587</v>
-      </c>
-      <c r="K2">
-        <v>97.274275979557004</v>
-      </c>
-      <c r="L2">
-        <v>97.274275979557004</v>
-      </c>
-      <c r="M2">
-        <v>16</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0.5</v>
-      </c>
-      <c r="Q2">
-        <v>16</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>16</v>
-      </c>
-      <c r="X2">
-        <v>18</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>18</v>
-      </c>
-      <c r="AE2" s="2">
-        <f>SUM(AB2:AB34)/(SUM(AB2:AB34)+SUM(AC2:AC34))</f>
-        <v>0.63914373088685017</v>
-      </c>
-      <c r="AF2" s="2">
-        <f t="array" ref="AF2">SUM(AB2:AB34)/(SUM(AB2:AB34)+SUM(AD2:AD34))</f>
-        <v>9.2930191196087156E-2</v>
-      </c>
-      <c r="AG2" s="2">
-        <f>2*(AE2*AF2)/(AE2+AF2)</f>
-        <v>0.16226708074534163</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AJ2" s="1" t="e">
-        <f>SUM(AB2:AB11)/(SUM(AB2:AB11)+SUM(AC2:AC11))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK2" s="1">
-        <f>SUM(AB2:AB11)/(SUM(AB2:AB11)+SUM(AD2:AD11))</f>
-        <v>0</v>
-      </c>
-      <c r="AL2" s="1" t="e">
-        <f>2*(AJ2*AK2)/(AJ2+AK2)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D3" t="s">
-        <v>227</v>
-      </c>
-      <c r="E3" t="s">
-        <v>228</v>
-      </c>
-      <c r="F3" t="s">
-        <v>179</v>
-      </c>
-      <c r="G3">
-        <v>0.98910177535595001</v>
-      </c>
-      <c r="H3" t="s">
-        <v>373</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>587</v>
-      </c>
-      <c r="K3">
-        <v>90.800681431005103</v>
-      </c>
-      <c r="L3">
-        <v>90.800681431005103</v>
-      </c>
-      <c r="M3">
-        <v>54</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0.5</v>
-      </c>
-      <c r="Q3">
-        <v>27</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>27</v>
-      </c>
-      <c r="X3">
-        <v>62</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>62</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ3" s="1" t="e">
-        <f>SUM(AB12:AB20)/(SUM(AB12:AB20)+SUM(AC12:AC20))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK3" s="1">
-        <f>SUM(AB12:AB20)/(SUM(AB12:AB20)+SUM(AD12:AD20))</f>
-        <v>0</v>
-      </c>
-      <c r="AL3" s="1" t="e">
-        <f>2*(AJ3*AK3)/(AJ3+AK3)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" t="s">
-        <v>226</v>
-      </c>
-      <c r="D4" t="s">
-        <v>227</v>
-      </c>
-      <c r="E4" t="s">
-        <v>228</v>
-      </c>
-      <c r="F4" t="s">
-        <v>179</v>
-      </c>
-      <c r="G4">
-        <v>0.98189488486553</v>
-      </c>
-      <c r="H4" t="s">
-        <v>374</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>587</v>
-      </c>
-      <c r="K4">
-        <v>83.134582623509303</v>
-      </c>
-      <c r="L4">
-        <v>83.134582623509303</v>
-      </c>
-      <c r="M4">
-        <v>99</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0.5</v>
-      </c>
-      <c r="Q4">
-        <v>47</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>47</v>
-      </c>
-      <c r="X4">
-        <v>103</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>103</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ4" s="1" t="e">
-        <f>SUM(AB21:AB25)/(SUM(AB21:AB25)+SUM(AC21:AC25))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK4" s="1">
-        <f>SUM(AB21:AB25)/(SUM(AB21:AB25)+SUM(AD21:AD25))</f>
-        <v>0</v>
-      </c>
-      <c r="AL4" s="1" t="e">
-        <f t="shared" ref="AL4:AL6" si="0">2*(AJ4*AK4)/(AJ4+AK4)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" t="s">
-        <v>226</v>
-      </c>
-      <c r="D5" t="s">
-        <v>227</v>
-      </c>
-      <c r="E5" t="s">
-        <v>228</v>
-      </c>
-      <c r="F5" t="s">
-        <v>179</v>
-      </c>
-      <c r="G5">
-        <v>0.97837932852873899</v>
-      </c>
-      <c r="H5" t="s">
-        <v>375</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>587</v>
-      </c>
-      <c r="K5">
-        <v>92.674616695059598</v>
-      </c>
-      <c r="L5">
-        <v>92.674616695059598</v>
-      </c>
-      <c r="M5">
-        <v>43</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0.5</v>
-      </c>
-      <c r="Q5">
-        <v>67</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>67</v>
-      </c>
-      <c r="X5">
-        <v>123</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>123</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>134</v>
-      </c>
-      <c r="AJ5" s="1">
-        <f>SUM(AB26:AB31)/(SUM(AB26:AB31)+SUM(AC26:AC31))</f>
-        <v>0.63914373088685017</v>
-      </c>
-      <c r="AK5" s="1">
-        <f>SUM(AB26:AB31)/(SUM(AB26:AB31)+SUM(AD26:AD31))</f>
-        <v>0.71088435374149661</v>
-      </c>
-      <c r="AL5" s="1">
-        <f t="shared" si="0"/>
-        <v>0.67310789049919484</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" t="s">
-        <v>226</v>
-      </c>
-      <c r="D6" t="s">
-        <v>227</v>
-      </c>
-      <c r="E6" t="s">
-        <v>228</v>
-      </c>
-      <c r="F6" t="s">
-        <v>179</v>
-      </c>
-      <c r="G6">
-        <v>0.99208999824222099</v>
-      </c>
-      <c r="H6" t="s">
-        <v>376</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>587</v>
-      </c>
-      <c r="K6">
-        <v>97.785349233390093</v>
-      </c>
-      <c r="L6">
-        <v>97.785349233390093</v>
-      </c>
-      <c r="M6">
-        <v>13</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0.5</v>
-      </c>
-      <c r="Q6">
-        <v>29</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>29</v>
-      </c>
-      <c r="X6">
-        <v>45</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>45</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>160</v>
-      </c>
-      <c r="AJ6" s="1" t="e">
-        <f>SUM(AB32:AB34)/(SUM(AB32:AB34)+SUM(AC32:AC34))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK6" s="1">
-        <f>SUM(AB32:AB34)/(SUM(AB32:AB34)+SUM(AD32:AD34))</f>
-        <v>0</v>
-      </c>
-      <c r="AL6" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" t="s">
-        <v>226</v>
-      </c>
-      <c r="D7" t="s">
-        <v>227</v>
-      </c>
-      <c r="E7" t="s">
-        <v>228</v>
-      </c>
-      <c r="F7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G7">
-        <v>0.91474775883283499</v>
-      </c>
-      <c r="H7" t="s">
-        <v>377</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>587</v>
-      </c>
-      <c r="K7">
-        <v>25.2129471890971</v>
-      </c>
-      <c r="L7">
-        <v>25.2129471890971</v>
-      </c>
-      <c r="M7">
-        <v>439</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0.5</v>
-      </c>
-      <c r="Q7">
-        <v>300</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>300</v>
-      </c>
-      <c r="X7">
-        <v>485</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" t="s">
-        <v>226</v>
-      </c>
-      <c r="D8" t="s">
-        <v>227</v>
-      </c>
-      <c r="E8" t="s">
-        <v>228</v>
-      </c>
-      <c r="F8" t="s">
-        <v>179</v>
-      </c>
-      <c r="G8">
-        <v>0.99191422042538202</v>
-      </c>
-      <c r="H8" t="s">
-        <v>378</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>587</v>
-      </c>
-      <c r="K8">
-        <v>93.015332197614995</v>
-      </c>
-      <c r="L8">
-        <v>93.015332197614995</v>
-      </c>
-      <c r="M8">
-        <v>41</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0.5</v>
-      </c>
-      <c r="Q8">
-        <v>35</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>35</v>
-      </c>
-      <c r="X8">
-        <v>46</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" t="s">
-        <v>226</v>
-      </c>
-      <c r="D9" t="s">
-        <v>227</v>
-      </c>
-      <c r="E9" t="s">
-        <v>228</v>
-      </c>
-      <c r="F9" t="s">
-        <v>179</v>
-      </c>
-      <c r="G9">
-        <v>0.99771488838108602</v>
-      </c>
-      <c r="H9" t="s">
-        <v>379</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>587</v>
-      </c>
-      <c r="K9">
-        <v>99.488926746166896</v>
-      </c>
-      <c r="L9">
-        <v>99.488926746166896</v>
-      </c>
-      <c r="M9">
-        <v>3</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0.5</v>
-      </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>1</v>
-      </c>
-      <c r="X9">
-        <v>13</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
-      <c r="AD9">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" t="s">
-        <v>226</v>
-      </c>
-      <c r="D10" t="s">
-        <v>227</v>
-      </c>
-      <c r="E10" t="s">
-        <v>228</v>
-      </c>
-      <c r="F10" t="s">
-        <v>179</v>
-      </c>
-      <c r="G10">
-        <v>0.99507822112849298</v>
-      </c>
-      <c r="H10" t="s">
-        <v>380</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>587</v>
-      </c>
-      <c r="K10">
-        <v>95.229982964224803</v>
-      </c>
-      <c r="L10">
-        <v>95.229982964224803</v>
-      </c>
-      <c r="M10">
-        <v>28</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0.5</v>
-      </c>
-      <c r="Q10">
-        <v>20</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>20</v>
-      </c>
-      <c r="X10">
-        <v>28</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" t="s">
-        <v>226</v>
-      </c>
-      <c r="D11" t="s">
-        <v>227</v>
-      </c>
-      <c r="E11" t="s">
-        <v>228</v>
-      </c>
-      <c r="F11" t="s">
-        <v>179</v>
-      </c>
-      <c r="G11">
-        <v>0.968184215152047</v>
-      </c>
-      <c r="H11" t="s">
-        <v>381</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>587</v>
-      </c>
-      <c r="K11">
-        <v>69.505962521294705</v>
-      </c>
-      <c r="L11">
-        <v>69.505962521294705</v>
-      </c>
-      <c r="M11">
-        <v>179</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0.5</v>
-      </c>
-      <c r="Q11">
-        <v>110</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>110</v>
-      </c>
-      <c r="X11">
-        <v>181</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
-      <c r="AD11">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" t="s">
-        <v>239</v>
-      </c>
-      <c r="D12" t="s">
-        <v>240</v>
-      </c>
-      <c r="E12" t="s">
-        <v>241</v>
-      </c>
-      <c r="F12" t="s">
-        <v>179</v>
-      </c>
-      <c r="G12">
-        <v>0.99905243209096595</v>
-      </c>
-      <c r="H12" t="s">
-        <v>242</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>282</v>
-      </c>
-      <c r="K12">
-        <v>98.936170212765902</v>
-      </c>
-      <c r="L12">
-        <v>98.936170212765902</v>
-      </c>
-      <c r="M12">
-        <v>3</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0.5</v>
-      </c>
-      <c r="Q12">
-        <v>1</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>1</v>
-      </c>
-      <c r="X12">
-        <v>3</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-      <c r="AD12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" t="s">
-        <v>239</v>
-      </c>
-      <c r="D13" t="s">
-        <v>240</v>
-      </c>
-      <c r="E13" t="s">
-        <v>241</v>
-      </c>
-      <c r="F13" t="s">
-        <v>179</v>
-      </c>
-      <c r="G13">
-        <v>0.99652558433354299</v>
-      </c>
-      <c r="H13" t="s">
-        <v>321</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>282</v>
-      </c>
-      <c r="K13">
-        <v>96.453900709219795</v>
-      </c>
-      <c r="L13">
-        <v>96.453900709219795</v>
-      </c>
-      <c r="M13">
-        <v>10</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0.5</v>
-      </c>
-      <c r="Q13">
-        <v>7</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>7</v>
-      </c>
-      <c r="X13">
-        <v>11</v>
-      </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
-      <c r="AD13">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" t="s">
-        <v>239</v>
-      </c>
-      <c r="D14" t="s">
-        <v>240</v>
-      </c>
-      <c r="E14" t="s">
-        <v>241</v>
-      </c>
-      <c r="F14" t="s">
-        <v>179</v>
-      </c>
-      <c r="G14">
-        <v>0.98389134554642999</v>
-      </c>
-      <c r="H14" t="s">
-        <v>382</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>282</v>
-      </c>
-      <c r="K14">
-        <v>93.262411347517698</v>
-      </c>
-      <c r="L14">
-        <v>93.262411347517698</v>
-      </c>
-      <c r="M14">
-        <v>19</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0.5</v>
-      </c>
-      <c r="Q14">
-        <v>16</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>16</v>
-      </c>
-      <c r="X14">
-        <v>51</v>
-      </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14">
-        <v>0</v>
-      </c>
-      <c r="AD14">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" t="s">
-        <v>239</v>
-      </c>
-      <c r="D15" t="s">
-        <v>240</v>
-      </c>
-      <c r="E15" t="s">
-        <v>241</v>
-      </c>
-      <c r="F15" t="s">
-        <v>179</v>
-      </c>
-      <c r="G15">
-        <v>0.99368288060644305</v>
-      </c>
-      <c r="H15" t="s">
-        <v>383</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>282</v>
-      </c>
-      <c r="K15">
-        <v>97.163120567375799</v>
-      </c>
-      <c r="L15">
-        <v>97.163120567375799</v>
-      </c>
-      <c r="M15">
-        <v>8</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0.5</v>
-      </c>
-      <c r="Q15">
-        <v>19</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>19</v>
-      </c>
-      <c r="X15">
-        <v>20</v>
-      </c>
-      <c r="Y15">
-        <v>0</v>
-      </c>
-      <c r="Z15">
-        <v>0</v>
-      </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
-      <c r="AC15">
-        <v>0</v>
-      </c>
-      <c r="AD15">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B16" t="s">
-        <v>99</v>
-      </c>
-      <c r="C16" t="s">
-        <v>239</v>
-      </c>
-      <c r="D16" t="s">
-        <v>240</v>
-      </c>
-      <c r="E16" t="s">
-        <v>241</v>
-      </c>
-      <c r="F16" t="s">
-        <v>179</v>
-      </c>
-      <c r="G16">
-        <v>0.99905243209096595</v>
-      </c>
-      <c r="H16" t="s">
-        <v>242</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>282</v>
-      </c>
-      <c r="K16">
-        <v>98.936170212765902</v>
-      </c>
-      <c r="L16">
-        <v>98.936170212765902</v>
-      </c>
-      <c r="M16">
-        <v>3</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0.5</v>
-      </c>
-      <c r="Q16">
-        <v>6</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>6</v>
-      </c>
-      <c r="X16">
-        <v>3</v>
-      </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-      <c r="AC16">
-        <v>0</v>
-      </c>
-      <c r="AD16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" t="s">
-        <v>239</v>
-      </c>
-      <c r="D17" t="s">
-        <v>240</v>
-      </c>
-      <c r="E17" t="s">
-        <v>241</v>
-      </c>
-      <c r="F17" t="s">
-        <v>179</v>
-      </c>
-      <c r="G17">
-        <v>0.95325331648768097</v>
-      </c>
-      <c r="H17" t="s">
-        <v>384</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>282</v>
-      </c>
-      <c r="K17">
-        <v>51.418439716312001</v>
-      </c>
-      <c r="L17">
-        <v>51.418439716312001</v>
-      </c>
-      <c r="M17">
-        <v>137</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0.5</v>
-      </c>
-      <c r="Q17">
-        <v>98</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>98</v>
-      </c>
-      <c r="X17">
-        <v>148</v>
-      </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
-      <c r="AC17">
-        <v>0</v>
-      </c>
-      <c r="AD17">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>83</v>
-      </c>
-      <c r="B18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" t="s">
-        <v>239</v>
-      </c>
-      <c r="D18" t="s">
-        <v>240</v>
-      </c>
-      <c r="E18" t="s">
-        <v>241</v>
-      </c>
-      <c r="F18" t="s">
-        <v>179</v>
-      </c>
-      <c r="G18">
-        <v>0.99241945672773202</v>
-      </c>
-      <c r="H18" t="s">
-        <v>385</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>282</v>
-      </c>
-      <c r="K18">
-        <v>98.581560283687907</v>
-      </c>
-      <c r="L18">
-        <v>98.581560283687907</v>
-      </c>
-      <c r="M18">
-        <v>4</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0.5</v>
-      </c>
-      <c r="Q18">
-        <v>17</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>17</v>
-      </c>
-      <c r="X18">
-        <v>24</v>
-      </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
-      <c r="AB18">
-        <v>0</v>
-      </c>
-      <c r="AC18">
-        <v>0</v>
-      </c>
-      <c r="AD18">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>83</v>
-      </c>
-      <c r="B19" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" t="s">
-        <v>239</v>
-      </c>
-      <c r="D19" t="s">
-        <v>240</v>
-      </c>
-      <c r="E19" t="s">
-        <v>241</v>
-      </c>
-      <c r="F19" t="s">
-        <v>179</v>
-      </c>
-      <c r="G19">
-        <v>0.99778900821225502</v>
-      </c>
-      <c r="H19" t="s">
-        <v>326</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>282</v>
-      </c>
-      <c r="K19">
-        <v>98.226950354609897</v>
-      </c>
-      <c r="L19">
-        <v>98.226950354609897</v>
-      </c>
-      <c r="M19">
-        <v>5</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0.5</v>
-      </c>
-      <c r="Q19">
-        <v>9</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>9</v>
-      </c>
-      <c r="X19">
-        <v>7</v>
-      </c>
-      <c r="Y19">
-        <v>0</v>
-      </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-      <c r="AB19">
-        <v>0</v>
-      </c>
-      <c r="AC19">
-        <v>0</v>
-      </c>
-      <c r="AD19">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" t="s">
-        <v>239</v>
-      </c>
-      <c r="D20" t="s">
-        <v>240</v>
-      </c>
-      <c r="E20" t="s">
-        <v>241</v>
-      </c>
-      <c r="F20" t="s">
-        <v>179</v>
-      </c>
-      <c r="G20">
-        <v>0.99336702463676496</v>
-      </c>
-      <c r="H20" t="s">
-        <v>386</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>282</v>
-      </c>
-      <c r="K20">
-        <v>92.907801418439703</v>
-      </c>
-      <c r="L20">
-        <v>92.907801418439703</v>
-      </c>
-      <c r="M20">
-        <v>20</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0.5</v>
-      </c>
-      <c r="Q20">
-        <v>28</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <v>28</v>
-      </c>
-      <c r="X20">
-        <v>22</v>
-      </c>
-      <c r="Y20">
-        <v>0</v>
-      </c>
-      <c r="Z20">
-        <v>0</v>
-      </c>
-      <c r="AA20">
-        <v>0</v>
-      </c>
-      <c r="AB20">
-        <v>0</v>
-      </c>
-      <c r="AC20">
-        <v>0</v>
-      </c>
-      <c r="AD20">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>117</v>
-      </c>
-      <c r="B21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" t="s">
-        <v>251</v>
-      </c>
-      <c r="D21" t="s">
-        <v>252</v>
-      </c>
-      <c r="E21" t="s">
-        <v>253</v>
-      </c>
-      <c r="F21" t="s">
-        <v>179</v>
-      </c>
-      <c r="G21">
-        <v>0.961655508216676</v>
-      </c>
-      <c r="H21" t="s">
-        <v>387</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>279</v>
-      </c>
-      <c r="K21">
-        <v>57.706093189964101</v>
-      </c>
-      <c r="L21">
-        <v>57.706093189964101</v>
-      </c>
-      <c r="M21">
-        <v>118</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0.5</v>
-      </c>
-      <c r="Q21">
-        <v>86</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>86</v>
-      </c>
-      <c r="X21">
-        <v>126</v>
-      </c>
-      <c r="Y21">
-        <v>0</v>
-      </c>
-      <c r="Z21">
-        <v>0</v>
-      </c>
-      <c r="AA21">
-        <v>0</v>
-      </c>
-      <c r="AB21">
-        <v>0</v>
-      </c>
-      <c r="AC21">
-        <v>0</v>
-      </c>
-      <c r="AD21">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>117</v>
-      </c>
-      <c r="B22" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" t="s">
-        <v>251</v>
-      </c>
-      <c r="D22" t="s">
-        <v>252</v>
-      </c>
-      <c r="E22" t="s">
-        <v>253</v>
-      </c>
-      <c r="F22" t="s">
-        <v>179</v>
-      </c>
-      <c r="G22">
-        <v>0.98660986001217199</v>
-      </c>
-      <c r="H22" t="s">
-        <v>388</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>279</v>
-      </c>
-      <c r="K22">
-        <v>96.057347670250806</v>
-      </c>
-      <c r="L22">
-        <v>96.057347670250806</v>
-      </c>
-      <c r="M22">
-        <v>11</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>0.5</v>
-      </c>
-      <c r="Q22">
-        <v>31</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <v>31</v>
-      </c>
-      <c r="X22">
-        <v>44</v>
-      </c>
-      <c r="Y22">
-        <v>0</v>
-      </c>
-      <c r="Z22">
-        <v>0</v>
-      </c>
-      <c r="AA22">
-        <v>0</v>
-      </c>
-      <c r="AB22">
-        <v>0</v>
-      </c>
-      <c r="AC22">
-        <v>0</v>
-      </c>
-      <c r="AD22">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>117</v>
-      </c>
-      <c r="B23" t="s">
-        <v>147</v>
-      </c>
-      <c r="C23" t="s">
-        <v>251</v>
-      </c>
-      <c r="D23" t="s">
-        <v>252</v>
-      </c>
-      <c r="E23" t="s">
-        <v>253</v>
-      </c>
-      <c r="F23" t="s">
-        <v>179</v>
-      </c>
-      <c r="G23">
-        <v>0.98295800365185604</v>
-      </c>
-      <c r="H23" t="s">
-        <v>389</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>279</v>
-      </c>
-      <c r="K23">
-        <v>95.6989247311828</v>
-      </c>
-      <c r="L23">
-        <v>95.6989247311828</v>
-      </c>
-      <c r="M23">
-        <v>12</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0.5</v>
-      </c>
-      <c r="Q23">
-        <v>47</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23">
-        <v>47</v>
-      </c>
-      <c r="X23">
-        <v>56</v>
-      </c>
-      <c r="Y23">
-        <v>0</v>
-      </c>
-      <c r="Z23">
-        <v>0</v>
-      </c>
-      <c r="AA23">
-        <v>0</v>
-      </c>
-      <c r="AB23">
-        <v>0</v>
-      </c>
-      <c r="AC23">
-        <v>0</v>
-      </c>
-      <c r="AD23">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>117</v>
-      </c>
-      <c r="B24" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" t="s">
-        <v>251</v>
-      </c>
-      <c r="D24" t="s">
-        <v>252</v>
-      </c>
-      <c r="E24" t="s">
-        <v>253</v>
-      </c>
-      <c r="F24" t="s">
-        <v>179</v>
-      </c>
-      <c r="G24">
-        <v>0.99878271454656098</v>
-      </c>
-      <c r="H24" t="s">
-        <v>257</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>279</v>
-      </c>
-      <c r="K24">
-        <v>98.566308243727605</v>
-      </c>
-      <c r="L24">
-        <v>98.566308243727605</v>
-      </c>
-      <c r="M24">
-        <v>4</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>0.5</v>
-      </c>
-      <c r="Q24">
-        <v>2</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24">
-        <v>2</v>
-      </c>
-      <c r="X24">
-        <v>4</v>
-      </c>
-      <c r="Y24">
-        <v>0</v>
-      </c>
-      <c r="Z24">
-        <v>0</v>
-      </c>
-      <c r="AA24">
-        <v>0</v>
-      </c>
-      <c r="AB24">
-        <v>0</v>
-      </c>
-      <c r="AC24">
-        <v>0</v>
-      </c>
-      <c r="AD24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>117</v>
-      </c>
-      <c r="B25" t="s">
-        <v>78</v>
-      </c>
-      <c r="C25" t="s">
-        <v>251</v>
-      </c>
-      <c r="D25" t="s">
-        <v>252</v>
-      </c>
-      <c r="E25" t="s">
-        <v>253</v>
-      </c>
-      <c r="F25" t="s">
-        <v>179</v>
-      </c>
-      <c r="G25">
-        <v>0.98813146682897102</v>
-      </c>
-      <c r="H25" t="s">
-        <v>390</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>279</v>
-      </c>
-      <c r="K25">
-        <v>86.021505376343995</v>
-      </c>
-      <c r="L25">
-        <v>86.021505376343995</v>
-      </c>
-      <c r="M25">
-        <v>39</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25">
-        <v>0.5</v>
-      </c>
-      <c r="Q25">
-        <v>24</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-      <c r="W25">
-        <v>24</v>
-      </c>
-      <c r="X25">
-        <v>39</v>
-      </c>
-      <c r="Y25">
-        <v>0</v>
-      </c>
-      <c r="Z25">
-        <v>0</v>
-      </c>
-      <c r="AA25">
-        <v>0</v>
-      </c>
-      <c r="AB25">
-        <v>0</v>
-      </c>
-      <c r="AC25">
-        <v>0</v>
-      </c>
-      <c r="AD25">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>134</v>
-      </c>
-      <c r="B26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" t="s">
-        <v>259</v>
-      </c>
-      <c r="D26" t="s">
-        <v>260</v>
-      </c>
-      <c r="E26" t="s">
-        <v>261</v>
-      </c>
-      <c r="F26" t="s">
-        <v>179</v>
-      </c>
-      <c r="G26">
-        <v>0.99511072763876895</v>
-      </c>
-      <c r="H26" t="s">
-        <v>391</v>
-      </c>
-      <c r="I26">
-        <v>0.72131147540983598</v>
-      </c>
-      <c r="J26">
-        <v>309</v>
-      </c>
-      <c r="K26">
-        <v>95.145631067961105</v>
-      </c>
-      <c r="L26">
-        <v>96.396979503775597</v>
-      </c>
-      <c r="M26">
-        <v>35</v>
-      </c>
-      <c r="N26">
-        <v>62.857142857142797</v>
-      </c>
-      <c r="O26">
-        <v>73.904761904761898</v>
-      </c>
-      <c r="P26">
-        <v>0.6</v>
-      </c>
-      <c r="Q26">
-        <v>17</v>
-      </c>
-      <c r="R26">
-        <v>0.94117647058823495</v>
-      </c>
-      <c r="S26">
-        <v>0.94117647058823495</v>
-      </c>
-      <c r="T26">
-        <v>0.94117647058823495</v>
-      </c>
-      <c r="U26">
-        <v>16</v>
-      </c>
-      <c r="V26">
-        <v>1</v>
-      </c>
-      <c r="W26">
-        <v>1</v>
-      </c>
-      <c r="X26">
-        <v>29</v>
-      </c>
-      <c r="Y26">
-        <v>0.73333333333333295</v>
-      </c>
-      <c r="Z26">
-        <v>0.70967741935483797</v>
-      </c>
-      <c r="AA26">
-        <v>0.75862068965517204</v>
-      </c>
-      <c r="AB26">
-        <v>22</v>
-      </c>
-      <c r="AC26">
-        <v>9</v>
-      </c>
-      <c r="AD26">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>134</v>
-      </c>
-      <c r="B27" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" t="s">
-        <v>259</v>
-      </c>
-      <c r="D27" t="s">
-        <v>260</v>
-      </c>
-      <c r="E27" t="s">
-        <v>261</v>
-      </c>
-      <c r="F27" t="s">
-        <v>179</v>
-      </c>
-      <c r="G27">
-        <v>0.97440322116767297</v>
-      </c>
-      <c r="H27" t="s">
-        <v>392</v>
-      </c>
-      <c r="I27">
-        <v>0.69624573378839505</v>
-      </c>
-      <c r="J27">
-        <v>337</v>
-      </c>
-      <c r="K27">
-        <v>76.261127596439096</v>
-      </c>
-      <c r="L27">
-        <v>80.358502361469704</v>
-      </c>
-      <c r="M27">
-        <v>161</v>
-      </c>
-      <c r="N27">
-        <v>63.354037267080699</v>
-      </c>
-      <c r="O27">
-        <v>71.930529787672597</v>
-      </c>
-      <c r="P27">
-        <v>0.3</v>
-      </c>
-      <c r="Q27">
-        <v>66</v>
-      </c>
-      <c r="R27">
-        <v>0.65806451612903205</v>
-      </c>
-      <c r="S27">
-        <v>0.57303370786516805</v>
-      </c>
-      <c r="T27">
-        <v>0.77272727272727204</v>
-      </c>
-      <c r="U27">
-        <v>51</v>
-      </c>
-      <c r="V27">
-        <v>38</v>
-      </c>
-      <c r="W27">
-        <v>15</v>
-      </c>
-      <c r="X27">
-        <v>136</v>
-      </c>
-      <c r="Y27">
-        <v>0.70033670033670004</v>
-      </c>
-      <c r="Z27">
-        <v>0.64596273291925399</v>
-      </c>
-      <c r="AA27">
-        <v>0.76470588235294101</v>
-      </c>
-      <c r="AB27">
-        <v>104</v>
-      </c>
-      <c r="AC27">
-        <v>57</v>
-      </c>
-      <c r="AD27">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>134</v>
-      </c>
-      <c r="B28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" t="s">
-        <v>259</v>
-      </c>
-      <c r="D28" t="s">
-        <v>260</v>
-      </c>
-      <c r="E28" t="s">
-        <v>261</v>
-      </c>
-      <c r="F28" t="s">
-        <v>179</v>
-      </c>
-      <c r="G28">
-        <v>0.994823123382226</v>
-      </c>
-      <c r="H28" t="s">
-        <v>393</v>
-      </c>
-      <c r="I28">
-        <v>0.5</v>
-      </c>
-      <c r="J28">
-        <v>304</v>
-      </c>
-      <c r="K28">
-        <v>95.065789473684205</v>
-      </c>
-      <c r="L28">
-        <v>95.328947368420998</v>
-      </c>
-      <c r="M28">
-        <v>23</v>
-      </c>
-      <c r="N28">
-        <v>39.130434782608603</v>
-      </c>
-      <c r="O28">
-        <v>42.6086956521739</v>
-      </c>
-      <c r="P28">
-        <v>0.5</v>
-      </c>
-      <c r="Q28">
-        <v>10</v>
-      </c>
-      <c r="R28">
-        <v>0.28571428571428498</v>
-      </c>
-      <c r="S28">
-        <v>0.5</v>
-      </c>
-      <c r="T28">
-        <v>0.2</v>
-      </c>
-      <c r="U28">
-        <v>2</v>
-      </c>
-      <c r="V28">
-        <v>2</v>
-      </c>
-      <c r="W28">
-        <v>8</v>
-      </c>
-      <c r="X28">
-        <v>25</v>
-      </c>
-      <c r="Y28">
-        <v>0.5</v>
-      </c>
-      <c r="Z28">
-        <v>0.81818181818181801</v>
-      </c>
-      <c r="AA28">
-        <v>0.36</v>
-      </c>
-      <c r="AB28">
-        <v>9</v>
-      </c>
-      <c r="AC28">
-        <v>2</v>
-      </c>
-      <c r="AD28">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>134</v>
-      </c>
-      <c r="B29" t="s">
-        <v>147</v>
-      </c>
-      <c r="C29" t="s">
-        <v>259</v>
-      </c>
-      <c r="D29" t="s">
-        <v>260</v>
-      </c>
-      <c r="E29" t="s">
-        <v>261</v>
-      </c>
-      <c r="F29" t="s">
-        <v>179</v>
-      </c>
-      <c r="G29">
-        <v>0.99884958297382798</v>
-      </c>
-      <c r="H29" t="s">
-        <v>265</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>303</v>
-      </c>
-      <c r="K29">
-        <v>99.6699669966996</v>
-      </c>
-      <c r="L29">
-        <v>99.6699669966996</v>
-      </c>
-      <c r="M29">
-        <v>1</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29">
-        <v>0.5</v>
-      </c>
-      <c r="Q29">
-        <v>1</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
-      <c r="W29">
-        <v>1</v>
-      </c>
-      <c r="X29">
-        <v>4</v>
-      </c>
-      <c r="Y29">
-        <v>0</v>
-      </c>
-      <c r="Z29">
-        <v>0</v>
-      </c>
-      <c r="AA29">
-        <v>0</v>
-      </c>
-      <c r="AB29">
-        <v>0</v>
-      </c>
-      <c r="AC29">
-        <v>0</v>
-      </c>
-      <c r="AD29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>134</v>
-      </c>
-      <c r="B30" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" t="s">
-        <v>259</v>
-      </c>
-      <c r="D30" t="s">
-        <v>260</v>
-      </c>
-      <c r="E30" t="s">
-        <v>261</v>
-      </c>
-      <c r="F30" t="s">
-        <v>179</v>
-      </c>
-      <c r="G30">
-        <v>0.99079666379062403</v>
-      </c>
-      <c r="H30" t="s">
-        <v>394</v>
-      </c>
-      <c r="I30">
-        <v>0.6</v>
-      </c>
-      <c r="J30">
-        <v>305</v>
-      </c>
-      <c r="K30">
-        <v>90.163934426229503</v>
-      </c>
-      <c r="L30">
-        <v>90.775956284152898</v>
-      </c>
-      <c r="M30">
-        <v>44</v>
-      </c>
-      <c r="N30">
-        <v>54.545454545454497</v>
-      </c>
-      <c r="O30">
-        <v>58.787878787878697</v>
-      </c>
-      <c r="P30">
-        <v>0.1</v>
-      </c>
-      <c r="Q30">
-        <v>15</v>
-      </c>
-      <c r="R30">
-        <v>0.83870967741935398</v>
-      </c>
-      <c r="S30">
-        <v>0.8125</v>
-      </c>
-      <c r="T30">
-        <v>0.86666666666666603</v>
-      </c>
-      <c r="U30">
-        <v>13</v>
-      </c>
-      <c r="V30">
-        <v>3</v>
-      </c>
-      <c r="W30">
-        <v>2</v>
-      </c>
-      <c r="X30">
-        <v>43</v>
-      </c>
-      <c r="Y30">
-        <v>0.659574468085106</v>
-      </c>
-      <c r="Z30">
-        <v>0.60784313725490102</v>
-      </c>
-      <c r="AA30">
-        <v>0.72093023255813904</v>
-      </c>
-      <c r="AB30">
-        <v>31</v>
-      </c>
-      <c r="AC30">
-        <v>20</v>
-      </c>
-      <c r="AD30">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>134</v>
-      </c>
-      <c r="B31" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" t="s">
-        <v>259</v>
-      </c>
-      <c r="D31" t="s">
-        <v>260</v>
-      </c>
-      <c r="E31" t="s">
-        <v>261</v>
-      </c>
-      <c r="F31" t="s">
-        <v>179</v>
-      </c>
-      <c r="G31">
-        <v>0.98734541271210796</v>
-      </c>
-      <c r="H31" t="s">
-        <v>395</v>
-      </c>
-      <c r="I31">
-        <v>0.66153846153846096</v>
-      </c>
-      <c r="J31">
-        <v>316</v>
-      </c>
-      <c r="K31">
-        <v>86.708860759493604</v>
-      </c>
-      <c r="L31">
-        <v>87.236286919831201</v>
-      </c>
-      <c r="M31">
-        <v>65</v>
-      </c>
-      <c r="N31">
-        <v>66.153846153846104</v>
-      </c>
-      <c r="O31">
-        <v>68.717948717948701</v>
-      </c>
-      <c r="P31">
-        <v>0.5</v>
-      </c>
-      <c r="Q31">
-        <v>36</v>
-      </c>
-      <c r="R31">
-        <v>0.65753424657534199</v>
-      </c>
-      <c r="S31">
-        <v>0.64864864864864802</v>
-      </c>
-      <c r="T31">
-        <v>0.66666666666666596</v>
-      </c>
-      <c r="U31">
-        <v>24</v>
-      </c>
-      <c r="V31">
-        <v>13</v>
-      </c>
-      <c r="W31">
-        <v>12</v>
-      </c>
-      <c r="X31">
-        <v>57</v>
-      </c>
-      <c r="Y31">
-        <v>0.66153846153846096</v>
-      </c>
-      <c r="Z31">
-        <v>0.58904109589041098</v>
-      </c>
-      <c r="AA31">
-        <v>0.75438596491228005</v>
-      </c>
-      <c r="AB31">
-        <v>43</v>
-      </c>
-      <c r="AC31">
-        <v>30</v>
-      </c>
-      <c r="AD31">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>160</v>
-      </c>
-      <c r="B32" t="s">
-        <v>161</v>
-      </c>
-      <c r="C32" t="s">
-        <v>268</v>
-      </c>
-      <c r="D32" t="s">
-        <v>269</v>
-      </c>
-      <c r="E32" t="s">
-        <v>270</v>
-      </c>
-      <c r="F32" t="s">
-        <v>179</v>
-      </c>
-      <c r="G32">
-        <v>0.97999344047228598</v>
-      </c>
-      <c r="H32" t="s">
-        <v>396</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>306</v>
-      </c>
-      <c r="K32">
-        <v>99.346405228758101</v>
-      </c>
-      <c r="L32">
-        <v>99.346405228758101</v>
-      </c>
-      <c r="M32">
-        <v>2</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32">
-        <v>0.5</v>
-      </c>
-      <c r="Q32">
-        <v>40</v>
-      </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-      <c r="S32">
-        <v>0</v>
-      </c>
-      <c r="T32">
-        <v>0</v>
-      </c>
-      <c r="U32">
-        <v>0</v>
-      </c>
-      <c r="V32">
-        <v>0</v>
-      </c>
-      <c r="W32">
-        <v>40</v>
-      </c>
-      <c r="X32">
-        <v>61</v>
-      </c>
-      <c r="Y32">
-        <v>0</v>
-      </c>
-      <c r="Z32">
-        <v>0</v>
-      </c>
-      <c r="AA32">
-        <v>0</v>
-      </c>
-      <c r="AB32">
-        <v>0</v>
-      </c>
-      <c r="AC32">
-        <v>0</v>
-      </c>
-      <c r="AD32">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
-        <v>160</v>
-      </c>
-      <c r="B33" t="s">
-        <v>166</v>
-      </c>
-      <c r="C33" t="s">
-        <v>268</v>
-      </c>
-      <c r="D33" t="s">
-        <v>269</v>
-      </c>
-      <c r="E33" t="s">
-        <v>270</v>
-      </c>
-      <c r="F33" t="s">
-        <v>179</v>
-      </c>
-      <c r="G33">
-        <v>0.955067235159068</v>
-      </c>
-      <c r="H33" t="s">
-        <v>397</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>306</v>
-      </c>
-      <c r="K33">
-        <v>59.150326797385603</v>
-      </c>
-      <c r="L33">
-        <v>59.150326797385603</v>
-      </c>
-      <c r="M33">
-        <v>125</v>
-      </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33">
-        <v>0.5</v>
-      </c>
-      <c r="Q33">
-        <v>94</v>
-      </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
-      <c r="S33">
-        <v>0</v>
-      </c>
-      <c r="T33">
-        <v>0</v>
-      </c>
-      <c r="U33">
-        <v>0</v>
-      </c>
-      <c r="V33">
-        <v>0</v>
-      </c>
-      <c r="W33">
-        <v>94</v>
-      </c>
-      <c r="X33">
-        <v>137</v>
-      </c>
-      <c r="Y33">
-        <v>0</v>
-      </c>
-      <c r="Z33">
-        <v>0</v>
-      </c>
-      <c r="AA33">
-        <v>0</v>
-      </c>
-      <c r="AB33">
-        <v>0</v>
-      </c>
-      <c r="AC33">
-        <v>0</v>
-      </c>
-      <c r="AD33">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
-        <v>160</v>
-      </c>
-      <c r="B34" t="s">
-        <v>171</v>
-      </c>
-      <c r="C34" t="s">
-        <v>268</v>
-      </c>
-      <c r="D34" t="s">
-        <v>269</v>
-      </c>
-      <c r="E34" t="s">
-        <v>270</v>
-      </c>
-      <c r="F34" t="s">
-        <v>179</v>
-      </c>
-      <c r="G34">
-        <v>0.96884224335847802</v>
-      </c>
-      <c r="H34" t="s">
-        <v>398</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>306</v>
-      </c>
-      <c r="K34">
-        <v>69.281045751633897</v>
-      </c>
-      <c r="L34">
-        <v>69.281045751633897</v>
-      </c>
-      <c r="M34">
-        <v>94</v>
-      </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34">
-        <v>0.5</v>
-      </c>
-      <c r="Q34">
-        <v>65</v>
-      </c>
-      <c r="R34">
-        <v>0</v>
-      </c>
-      <c r="S34">
-        <v>0</v>
-      </c>
-      <c r="T34">
-        <v>0</v>
-      </c>
-      <c r="U34">
-        <v>0</v>
-      </c>
-      <c r="V34">
-        <v>0</v>
-      </c>
-      <c r="W34">
-        <v>65</v>
-      </c>
-      <c r="X34">
-        <v>95</v>
-      </c>
-      <c r="Y34">
-        <v>0</v>
-      </c>
-      <c r="Z34">
-        <v>0</v>
-      </c>
-      <c r="AA34">
-        <v>0</v>
-      </c>
-      <c r="AB34">
-        <v>0</v>
-      </c>
-      <c r="AC34">
-        <v>0</v>
-      </c>
-      <c r="AD34">
-        <v>95</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxwe\Google Drive\Code\Python\extract_COVID19_events_from_Twitter\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Code\Python\extract_COVID19_events_from_Twitter\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4287BFE-9521-4BE8-9F82-450335DA2229}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3540E06E-8B0E-4D3A-A099-51359D0487BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{09ECAD97-3C1E-45DE-875A-3C5CD2F3C873}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{09ECAD97-3C1E-45DE-875A-3C5CD2F3C873}"/>
   </bookViews>
   <sheets>
     <sheet name="comparison" sheetId="7" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2274" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2311" uniqueCount="440">
   <si>
     <t>Event</t>
   </si>
@@ -1358,6 +1358,12 @@
   </si>
   <si>
     <t>baseline</t>
+  </si>
+  <si>
+    <t>fixed</t>
+  </si>
+  <si>
+    <t>incorrect bert masking</t>
   </si>
 </sst>
 </file>
@@ -1746,17 +1752,17 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.86328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.06640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>309</v>
       </c>
@@ -1782,7 +1788,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>306</v>
       </c>
@@ -1819,7 +1825,7 @@
         <v>0.52913385826771653</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>307</v>
       </c>
@@ -1856,7 +1862,7 @@
         <v>0.50806451612903236</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>340</v>
       </c>
@@ -1893,7 +1899,7 @@
         <v>0.55732946298984032</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>308</v>
       </c>
@@ -1944,15 +1950,15 @@
       <selection activeCell="AI1" sqref="AI1:AL6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.53125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="24" width="0" hidden="1" customWidth="1"/>
     <col min="26" max="30" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2062,7 +2068,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -2181,7 +2187,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -2288,7 +2294,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -2395,7 +2401,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -2502,7 +2508,7 @@
         <v>0.67310789049919484</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -2609,7 +2615,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -2701,7 +2707,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -2793,7 +2799,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -2885,7 +2891,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -2977,7 +2983,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -3069,7 +3075,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -3161,7 +3167,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -3253,7 +3259,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>83</v>
       </c>
@@ -3345,7 +3351,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -3437,7 +3443,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>83</v>
       </c>
@@ -3529,7 +3535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>83</v>
       </c>
@@ -3621,7 +3627,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>83</v>
       </c>
@@ -3713,7 +3719,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>83</v>
       </c>
@@ -3805,7 +3811,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>83</v>
       </c>
@@ -3897,7 +3903,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>117</v>
       </c>
@@ -3989,7 +3995,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>117</v>
       </c>
@@ -4081,7 +4087,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>117</v>
       </c>
@@ -4173,7 +4179,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>117</v>
       </c>
@@ -4265,7 +4271,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>117</v>
       </c>
@@ -4357,7 +4363,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>134</v>
       </c>
@@ -4449,7 +4455,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>134</v>
       </c>
@@ -4541,7 +4547,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>134</v>
       </c>
@@ -4633,7 +4639,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>134</v>
       </c>
@@ -4725,7 +4731,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>134</v>
       </c>
@@ -4817,7 +4823,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>134</v>
       </c>
@@ -4909,7 +4915,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>160</v>
       </c>
@@ -5001,7 +5007,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>160</v>
       </c>
@@ -5093,7 +5099,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>160</v>
       </c>
@@ -5198,17 +5204,17 @@
       <selection activeCell="Z25" sqref="Z25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.53125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="25" width="0" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="9.1328125" style="1"/>
+    <col min="26" max="26" width="9.109375" style="1"/>
     <col min="27" max="28" width="0" style="1" hidden="1" customWidth="1"/>
     <col min="29" max="31" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5303,7 +5309,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -5398,7 +5404,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -5493,7 +5499,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -5588,7 +5594,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -5683,7 +5689,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -5778,7 +5784,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -5873,7 +5879,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -5968,7 +5974,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -6063,7 +6069,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -6158,7 +6164,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -6253,7 +6259,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -6348,7 +6354,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -6443,7 +6449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>83</v>
       </c>
@@ -6538,7 +6544,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -6633,7 +6639,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>83</v>
       </c>
@@ -6728,7 +6734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>83</v>
       </c>
@@ -6823,7 +6829,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>83</v>
       </c>
@@ -6918,7 +6924,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>83</v>
       </c>
@@ -7013,7 +7019,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>83</v>
       </c>
@@ -7108,7 +7114,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>117</v>
       </c>
@@ -7203,7 +7209,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>117</v>
       </c>
@@ -7298,7 +7304,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>117</v>
       </c>
@@ -7393,7 +7399,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>117</v>
       </c>
@@ -7488,7 +7494,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>117</v>
       </c>
@@ -7583,7 +7589,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>134</v>
       </c>
@@ -7678,7 +7684,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>134</v>
       </c>
@@ -7773,7 +7779,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>134</v>
       </c>
@@ -7868,7 +7874,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>134</v>
       </c>
@@ -7963,7 +7969,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>134</v>
       </c>
@@ -8058,7 +8064,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>134</v>
       </c>
@@ -8153,7 +8159,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>160</v>
       </c>
@@ -8248,7 +8254,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>160</v>
       </c>
@@ -8343,7 +8349,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>160</v>
       </c>
@@ -8437,17 +8443,17 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.53125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="24" width="0" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="9.1328125" style="1"/>
+    <col min="25" max="25" width="9.109375" style="1"/>
     <col min="26" max="27" width="0" style="1" hidden="1" customWidth="1"/>
     <col min="28" max="30" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8539,7 +8545,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -8631,7 +8637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -8723,7 +8729,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -8815,7 +8821,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -8907,7 +8913,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -8999,7 +9005,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -9091,7 +9097,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -9183,7 +9189,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -9275,7 +9281,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -9367,7 +9373,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -9459,7 +9465,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -9551,7 +9557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -9643,7 +9649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>83</v>
       </c>
@@ -9735,7 +9741,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -9827,7 +9833,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>83</v>
       </c>
@@ -9919,7 +9925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>83</v>
       </c>
@@ -10011,7 +10017,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>83</v>
       </c>
@@ -10103,7 +10109,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>83</v>
       </c>
@@ -10195,7 +10201,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>83</v>
       </c>
@@ -10287,7 +10293,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>117</v>
       </c>
@@ -10379,7 +10385,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>117</v>
       </c>
@@ -10471,7 +10477,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>117</v>
       </c>
@@ -10563,7 +10569,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>117</v>
       </c>
@@ -10589,7 +10595,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>117</v>
       </c>
@@ -10681,7 +10687,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>134</v>
       </c>
@@ -10773,7 +10779,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>134</v>
       </c>
@@ -10865,7 +10871,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>134</v>
       </c>
@@ -10957,7 +10963,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>134</v>
       </c>
@@ -11049,7 +11055,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>134</v>
       </c>
@@ -11141,7 +11147,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>134</v>
       </c>
@@ -11233,7 +11239,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>160</v>
       </c>
@@ -11325,7 +11331,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>160</v>
       </c>
@@ -11417,7 +11423,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>160</v>
       </c>
@@ -11504,601 +11510,683 @@
   <dimension ref="A1:AH12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.9296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="6.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.19921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.73046875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.53125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.19921875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.265625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.06640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.73046875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.796875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.59765625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.86328125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.9296875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.73046875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.46484375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.53125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.73046875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.53125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.265625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>31</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>309</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>310</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>311</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>404</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
         <v>405</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" t="s">
         <v>406</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H2" t="s">
         <v>407</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I2" t="s">
         <v>408</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J2" t="s">
         <v>409</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K2" t="s">
         <v>410</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L2" t="s">
         <v>411</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M2" t="s">
         <v>412</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N2" t="s">
         <v>413</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O2" t="s">
         <v>414</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P2" t="s">
         <v>415</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q2" t="s">
         <v>416</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R2" t="s">
         <v>417</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S2" t="s">
         <v>418</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T2" t="s">
         <v>419</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U2" t="s">
         <v>420</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V2" t="s">
         <v>421</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W2" t="s">
         <v>422</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X2" t="s">
         <v>423</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y2" t="s">
         <v>424</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z2" t="s">
         <v>425</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA2" t="s">
         <v>426</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB2" t="s">
         <v>427</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC2" t="s">
         <v>428</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD2" t="s">
         <v>429</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE2" t="s">
         <v>430</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF2" t="s">
         <v>431</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG2" t="s">
         <v>432</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH2" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>437</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B3" s="1">
         <v>0.70569999999999999</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C3" s="1">
         <v>0.67749999999999999</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D3" s="1">
         <v>0.69130000000000003</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E3" s="1">
         <v>0.70589999999999997</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F3" s="1">
         <v>0.66669999999999996</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G3" s="1">
         <v>0.68569999999999998</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H3" s="1">
         <v>0.61360000000000003</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0.4355</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0.50939999999999996</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0.58020000000000005</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0.45629999999999998</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0.51090000000000002</v>
-      </c>
-      <c r="N2" s="1">
-        <v>0.68379999999999996</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0.75609999999999999</v>
-      </c>
-      <c r="P2" s="1">
-        <v>0.71809999999999996</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>0.67390000000000005</v>
-      </c>
-      <c r="R2" s="1">
-        <v>0.68889999999999996</v>
-      </c>
-      <c r="S2" s="1">
-        <v>0.68130000000000002</v>
-      </c>
-      <c r="T2" s="1">
-        <v>0.82769999999999999</v>
-      </c>
-      <c r="U2" s="1">
-        <v>0.76290000000000002</v>
-      </c>
-      <c r="V2" s="1">
-        <v>0.79400000000000004</v>
-      </c>
-      <c r="W2" s="1">
-        <v>0.45450000000000002</v>
-      </c>
-      <c r="X2" s="1">
-        <v>0.3261</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>0.37969999999999998</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>0.69230000000000003</v>
-      </c>
-      <c r="AB2" s="1">
-        <v>0.5806</v>
-      </c>
-      <c r="AC2" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AD2" s="1">
-        <v>0.57140000000000002</v>
-      </c>
-      <c r="AE2" s="1">
-        <v>0.5333</v>
-      </c>
-      <c r="AF2" s="1">
-        <v>0.62139999999999995</v>
-      </c>
-      <c r="AG2" s="1">
-        <v>0.70720000000000005</v>
-      </c>
-      <c r="AH2" s="1">
-        <v>0.66149999999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>435</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.62209999999999999</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.64859999999999995</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.63500000000000001</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0.29349999999999998</v>
       </c>
       <c r="I3" s="1">
         <v>0.4355</v>
       </c>
       <c r="J3" s="1">
-        <v>0.35060000000000002</v>
+        <v>0.50939999999999996</v>
       </c>
       <c r="K3" s="1">
-        <v>0.55559999999999998</v>
+        <v>0.58020000000000005</v>
       </c>
       <c r="L3" s="1">
-        <v>0.43690000000000001</v>
+        <v>0.45629999999999998</v>
       </c>
       <c r="M3" s="1">
-        <v>0.48909999999999998</v>
+        <v>0.51090000000000002</v>
       </c>
       <c r="N3" s="1">
-        <v>0.68799999999999994</v>
+        <v>0.68379999999999996</v>
       </c>
       <c r="O3" s="1">
-        <v>0.69920000000000004</v>
+        <v>0.75609999999999999</v>
       </c>
       <c r="P3" s="1">
-        <v>0.69350000000000001</v>
+        <v>0.71809999999999996</v>
       </c>
       <c r="Q3" s="1">
-        <v>0.38600000000000001</v>
+        <v>0.67390000000000005</v>
       </c>
       <c r="R3" s="1">
-        <v>0.4889</v>
+        <v>0.68889999999999996</v>
       </c>
       <c r="S3" s="1">
-        <v>0.43140000000000001</v>
+        <v>0.68130000000000002</v>
       </c>
       <c r="T3" s="1">
-        <v>0.79649999999999999</v>
+        <v>0.82769999999999999</v>
       </c>
       <c r="U3" s="1">
-        <v>0.75880000000000003</v>
+        <v>0.76290000000000002</v>
       </c>
       <c r="V3" s="1">
-        <v>0.7772</v>
+        <v>0.79400000000000004</v>
       </c>
       <c r="W3" s="1">
-        <v>0.48</v>
+        <v>0.45450000000000002</v>
       </c>
       <c r="X3" s="1">
-        <v>0.52170000000000005</v>
+        <v>0.3261</v>
       </c>
       <c r="Y3" s="1">
+        <v>0.37969999999999998</v>
+      </c>
+      <c r="Z3" s="1">
         <v>0.5</v>
       </c>
-      <c r="Z3" s="1">
-        <v>0.61539999999999995</v>
-      </c>
       <c r="AA3" s="1">
-        <v>0.61539999999999995</v>
+        <v>0.69230000000000003</v>
       </c>
       <c r="AB3" s="1">
-        <v>0.61539999999999995</v>
+        <v>0.5806</v>
       </c>
       <c r="AC3" s="1">
-        <v>0.29630000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AD3" s="1">
         <v>0.57140000000000002</v>
       </c>
       <c r="AE3" s="1">
-        <v>0.39019999999999999</v>
+        <v>0.5333</v>
       </c>
       <c r="AF3" s="1">
-        <v>0.55300000000000005</v>
+        <v>0.62139999999999995</v>
       </c>
       <c r="AG3" s="1">
-        <v>0.66300000000000003</v>
+        <v>0.70720000000000005</v>
       </c>
       <c r="AH3" s="1">
-        <v>0.60299999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.45">
+        <v>0.66149999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B4" s="1">
-        <v>0.68830000000000002</v>
+        <v>0.62209999999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>0.67390000000000005</v>
+        <v>0.64859999999999995</v>
       </c>
       <c r="D4" s="1">
-        <v>0.68100000000000005</v>
+        <v>0.63500000000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>0.66669999999999996</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>0.70589999999999997</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1">
-        <v>0.53059999999999996</v>
+        <v>0.29349999999999998</v>
       </c>
       <c r="I4" s="1">
-        <v>0.4194</v>
+        <v>0.4355</v>
       </c>
       <c r="J4" s="1">
-        <v>0.46850000000000003</v>
+        <v>0.35060000000000002</v>
       </c>
       <c r="K4" s="1">
-        <v>0.56159999999999999</v>
+        <v>0.55559999999999998</v>
       </c>
       <c r="L4" s="1">
-        <v>0.39810000000000001</v>
+        <v>0.43690000000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>0.46589999999999998</v>
+        <v>0.48909999999999998</v>
       </c>
       <c r="N4" s="1">
-        <v>0.7107</v>
+        <v>0.68799999999999994</v>
       </c>
       <c r="O4" s="1">
         <v>0.69920000000000004</v>
       </c>
       <c r="P4" s="1">
+        <v>0.69350000000000001</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0.4889</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0.43140000000000001</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0.79649999999999999</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0.75880000000000003</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0.7772</v>
+      </c>
+      <c r="W4" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="X4" s="1">
+        <v>0.52170000000000005</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>0.61539999999999995</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>0.61539999999999995</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>0.61539999999999995</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>0.29630000000000001</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>0.57140000000000002</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>0.39019999999999999</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>0.60299999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>434</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.68830000000000002</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.67390000000000005</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.70589999999999997</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.53059999999999996</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.4194</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.46850000000000003</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.56159999999999999</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.39810000000000001</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.46589999999999998</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0.7107</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0.69920000000000004</v>
+      </c>
+      <c r="P5" s="1">
         <v>0.70489999999999997</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q5" s="1">
         <v>0.70730000000000004</v>
       </c>
-      <c r="R4" s="1">
+      <c r="R5" s="1">
         <v>0.64439999999999997</v>
       </c>
-      <c r="S4" s="1">
+      <c r="S5" s="1">
         <v>0.6744</v>
       </c>
-      <c r="T4" s="1">
+      <c r="T5" s="1">
         <v>0.84</v>
       </c>
-      <c r="U4" s="1">
+      <c r="U5" s="1">
         <v>0.77939999999999998</v>
       </c>
-      <c r="V4" s="1">
+      <c r="V5" s="1">
         <v>0.80859999999999999</v>
       </c>
-      <c r="W4" s="1">
+      <c r="W5" s="1">
         <v>0.45650000000000002</v>
       </c>
-      <c r="X4" s="1">
+      <c r="X5" s="1">
         <v>0.45650000000000002</v>
       </c>
-      <c r="Y4" s="1">
+      <c r="Y5" s="1">
         <v>0.45650000000000002</v>
       </c>
-      <c r="Z4" s="1">
+      <c r="Z5" s="1">
         <v>0.5625</v>
-      </c>
-      <c r="AA4" s="1">
-        <v>0.69230000000000003</v>
-      </c>
-      <c r="AB4" s="1">
-        <v>0.62070000000000003</v>
-      </c>
-      <c r="AC4" s="1">
-        <v>0.53849999999999998</v>
-      </c>
-      <c r="AD4" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AE4" s="1">
-        <v>0.51849999999999996</v>
-      </c>
-      <c r="AF4" s="1">
-        <v>0.52669999999999995</v>
-      </c>
-      <c r="AG4" s="1">
-        <v>0.70720000000000005</v>
-      </c>
-      <c r="AH4" s="1">
-        <v>0.6038</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>436</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0.70189999999999997</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.69110000000000005</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.69650000000000001</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.68179999999999996</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.83330000000000004</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.3871</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0.43640000000000001</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0.6724</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0.37859999999999999</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0.48449999999999999</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0.69169999999999998</v>
-      </c>
-      <c r="O5" s="1">
-        <v>0.748</v>
-      </c>
-      <c r="P5" s="1">
-        <v>0.71879999999999999</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>0.68089999999999995</v>
-      </c>
-      <c r="R5" s="1">
-        <v>0.71109999999999995</v>
-      </c>
-      <c r="S5" s="1">
-        <v>0.69569999999999999</v>
-      </c>
-      <c r="T5" s="1">
-        <v>0.83620000000000005</v>
-      </c>
-      <c r="U5" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="V5" s="1">
-        <v>0.81769999999999998</v>
-      </c>
-      <c r="W5" s="1">
-        <v>0.51160000000000005</v>
-      </c>
-      <c r="X5" s="1">
-        <v>0.4783</v>
-      </c>
-      <c r="Y5" s="1">
-        <v>0.49440000000000001</v>
-      </c>
-      <c r="Z5" s="1">
-        <v>0.69230000000000003</v>
       </c>
       <c r="AA5" s="1">
         <v>0.69230000000000003</v>
       </c>
       <c r="AB5" s="1">
+        <v>0.62070000000000003</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>0.53849999999999998</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>0.51849999999999996</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>0.52669999999999995</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>0.70720000000000005</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>0.6038</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>436</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.70189999999999997</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.69110000000000005</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.69650000000000001</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.68179999999999996</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.83330000000000004</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.3871</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.43640000000000001</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.6724</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.37859999999999999</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0.48449999999999999</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.69169999999999998</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0.748</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0.71879999999999999</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0.68089999999999995</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0.71109999999999995</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0.69569999999999999</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0.83620000000000005</v>
+      </c>
+      <c r="U6" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0.81769999999999998</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0.51160000000000005</v>
+      </c>
+      <c r="X6" s="1">
+        <v>0.4783</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>0.49440000000000001</v>
+      </c>
+      <c r="Z6" s="1">
         <v>0.69230000000000003</v>
       </c>
-      <c r="AC5" s="1">
+      <c r="AA6" s="1">
+        <v>0.69230000000000003</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>0.69230000000000003</v>
+      </c>
+      <c r="AC6" s="1">
         <v>0.51719999999999999</v>
       </c>
-      <c r="AD5" s="1">
+      <c r="AD6" s="1">
         <v>0.53569999999999995</v>
       </c>
-      <c r="AE5" s="1">
+      <c r="AE6" s="1">
         <v>0.52629999999999999</v>
       </c>
-      <c r="AF5" s="1">
+      <c r="AF6" s="1">
         <v>0.55220000000000002</v>
       </c>
-      <c r="AG5" s="1">
+      <c r="AG6" s="1">
         <v>0.70169999999999999</v>
       </c>
-      <c r="AH5" s="1">
+      <c r="AH6" s="1">
         <v>0.61799999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
-      <c r="AD8" s="1"/>
-      <c r="AE8" s="1"/>
-      <c r="AF8" s="1"/>
-      <c r="AG8" s="1"/>
-      <c r="AH8" s="1"/>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>309</v>
+      </c>
+      <c r="C8" t="s">
+        <v>310</v>
+      </c>
+      <c r="D8" t="s">
+        <v>311</v>
+      </c>
+      <c r="E8" t="s">
+        <v>404</v>
+      </c>
+      <c r="F8" t="s">
+        <v>405</v>
+      </c>
+      <c r="G8" t="s">
+        <v>406</v>
+      </c>
+      <c r="H8" t="s">
+        <v>407</v>
+      </c>
+      <c r="I8" t="s">
+        <v>408</v>
+      </c>
+      <c r="J8" t="s">
+        <v>409</v>
+      </c>
+      <c r="K8" t="s">
+        <v>410</v>
+      </c>
+      <c r="L8" t="s">
+        <v>411</v>
+      </c>
+      <c r="M8" t="s">
+        <v>412</v>
+      </c>
+      <c r="N8" t="s">
+        <v>413</v>
+      </c>
+      <c r="O8" t="s">
+        <v>414</v>
+      </c>
+      <c r="P8" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>416</v>
+      </c>
+      <c r="R8" t="s">
+        <v>417</v>
+      </c>
+      <c r="S8" t="s">
+        <v>418</v>
+      </c>
+      <c r="T8" t="s">
+        <v>419</v>
+      </c>
+      <c r="U8" t="s">
+        <v>420</v>
+      </c>
+      <c r="V8" t="s">
+        <v>421</v>
+      </c>
+      <c r="W8" t="s">
+        <v>422</v>
+      </c>
+      <c r="X8" t="s">
+        <v>423</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>424</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>425</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>426</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>427</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>428</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>429</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>430</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>431</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>432</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>436</v>
+      </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -12133,7 +12221,7 @@
       <c r="AG9" s="1"/>
       <c r="AH9" s="1"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -12168,7 +12256,7 @@
       <c r="AG10" s="1"/>
       <c r="AH10" s="1"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -12203,7 +12291,7 @@
       <c r="AG11" s="1"/>
       <c r="AH11" s="1"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -12251,18 +12339,18 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.53125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.46484375" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="11.53125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="9.53125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.53125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12288,7 +12376,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -12320,7 +12408,7 @@
         <v>0.66666666666666596</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -12352,7 +12440,7 @@
         <v>0.32258064516128998</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -12384,7 +12472,7 @@
         <v>0.47567567567567498</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -12416,7 +12504,7 @@
         <v>0.67346938775510201</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -12448,7 +12536,7 @@
         <v>0.66666666666666596</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -12480,7 +12568,7 @@
         <v>0.76735459662288896</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -12512,7 +12600,7 @@
         <v>0.430379746835443</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -12544,7 +12632,7 @@
         <v>0.57142857142857095</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -12576,7 +12664,7 @@
         <v>0.46153846153846101</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -12608,7 +12696,7 @@
         <v>0.62034739454094201</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -12640,7 +12728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -12672,7 +12760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>83</v>
       </c>
@@ -12704,7 +12792,7 @@
         <v>0.59340659340659296</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -12736,7 +12824,7 @@
         <v>0.58064516129032195</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>83</v>
       </c>
@@ -12768,7 +12856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>83</v>
       </c>
@@ -12800,7 +12888,7 @@
         <v>0.65084745762711804</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>83</v>
       </c>
@@ -12832,7 +12920,7 @@
         <v>0.62222222222222201</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>83</v>
       </c>
@@ -12864,7 +12952,7 @@
         <v>0.16666666666666599</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>83</v>
       </c>
@@ -12896,7 +12984,7 @@
         <v>0.45714285714285702</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>117</v>
       </c>
@@ -12928,7 +13016,7 @@
         <v>0.56410256410256399</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>117</v>
       </c>
@@ -12960,7 +13048,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>117</v>
       </c>
@@ -12992,7 +13080,7 @@
         <v>0.507692307692307</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>117</v>
       </c>
@@ -13024,7 +13112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>117</v>
       </c>
@@ -13056,7 +13144,7 @@
         <v>0.61971830985915499</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>134</v>
       </c>
@@ -13088,7 +13176,7 @@
         <v>0.80645161290322498</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>134</v>
       </c>
@@ -13120,7 +13208,7 @@
         <v>0.70503597122302097</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>134</v>
       </c>
@@ -13152,7 +13240,7 @@
         <v>0.42857142857142799</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>134</v>
       </c>
@@ -13184,7 +13272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>134</v>
       </c>
@@ -13216,7 +13304,7 @@
         <v>0.57534246575342396</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>134</v>
       </c>
@@ -13248,7 +13336,7 @@
         <v>0.67272727272727195</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>160</v>
       </c>
@@ -13280,7 +13368,7 @@
         <v>0.52112676056338003</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>160</v>
       </c>
@@ -13312,7 +13400,7 @@
         <v>0.66425992779783305</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>160</v>
       </c>
@@ -13357,17 +13445,17 @@
       <selection activeCell="AL6" sqref="AL6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="24" width="9.1328125" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="9.1328125" style="1"/>
-    <col min="26" max="30" width="9.1328125" hidden="1" customWidth="1"/>
+    <col min="3" max="24" width="9.109375" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="9.109375" style="1"/>
+    <col min="26" max="30" width="9.109375" hidden="1" customWidth="1"/>
     <col min="35" max="35" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13477,7 +13565,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -13596,7 +13684,7 @@
         <v>0.62232346241457859</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -13703,7 +13791,7 @@
         <v>0.54483925549915402</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -13810,7 +13898,7 @@
         <v>0.50980392156862742</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -13917,7 +14005,7 @@
         <v>0.65074626865671648</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -14024,7 +14112,7 @@
         <v>0.52913385826771653</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -14116,7 +14204,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -14208,7 +14296,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -14300,7 +14388,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -14392,7 +14480,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -14484,7 +14572,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -14576,7 +14664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -14668,7 +14756,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>83</v>
       </c>
@@ -14760,7 +14848,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -14852,7 +14940,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>83</v>
       </c>
@@ -14944,7 +15032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>83</v>
       </c>
@@ -15036,7 +15124,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>83</v>
       </c>
@@ -15128,7 +15216,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>83</v>
       </c>
@@ -15220,7 +15308,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>83</v>
       </c>
@@ -15312,7 +15400,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>117</v>
       </c>
@@ -15404,7 +15492,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>117</v>
       </c>
@@ -15496,7 +15584,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>117</v>
       </c>
@@ -15588,7 +15676,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>117</v>
       </c>
@@ -15680,7 +15768,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>117</v>
       </c>
@@ -15772,7 +15860,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>134</v>
       </c>
@@ -15864,7 +15952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>134</v>
       </c>
@@ -15956,7 +16044,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>134</v>
       </c>
@@ -16048,7 +16136,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>134</v>
       </c>
@@ -16140,7 +16228,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>134</v>
       </c>
@@ -16232,7 +16320,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>134</v>
       </c>
@@ -16324,7 +16412,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>160</v>
       </c>
@@ -16416,7 +16504,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>160</v>
       </c>
@@ -16508,7 +16596,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>160</v>
       </c>
@@ -16614,16 +16702,16 @@
       <selection activeCell="AI1" sqref="AI1:AL6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.53125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="24" width="0" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="11.19921875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="11.21875" style="1" customWidth="1"/>
     <col min="26" max="30" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -16733,7 +16821,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -16852,7 +16940,7 @@
         <v>0.62222222222222212</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -16959,7 +17047,7 @@
         <v>0.45632798573975042</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -17066,7 +17154,7 @@
         <v>0.53043478260869559</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -17173,7 +17261,7 @@
         <v>0.62045060658578854</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -17280,7 +17368,7 @@
         <v>0.50806451612903236</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -17372,7 +17460,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -17464,7 +17552,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -17556,7 +17644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -17648,7 +17736,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -17740,7 +17828,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -17832,7 +17920,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -17924,7 +18012,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>83</v>
       </c>
@@ -18016,7 +18104,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -18108,7 +18196,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>83</v>
       </c>
@@ -18200,7 +18288,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>83</v>
       </c>
@@ -18292,7 +18380,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>83</v>
       </c>
@@ -18384,7 +18472,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>83</v>
       </c>
@@ -18476,7 +18564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>83</v>
       </c>
@@ -18568,7 +18656,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>117</v>
       </c>
@@ -18660,7 +18748,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>117</v>
       </c>
@@ -18752,7 +18840,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>117</v>
       </c>
@@ -18844,7 +18932,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>117</v>
       </c>
@@ -18936,7 +19024,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>117</v>
       </c>
@@ -19028,7 +19116,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>134</v>
       </c>
@@ -19120,7 +19208,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>134</v>
       </c>
@@ -19212,7 +19300,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>134</v>
       </c>
@@ -19304,7 +19392,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>134</v>
       </c>
@@ -19396,7 +19484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>134</v>
       </c>
@@ -19488,7 +19576,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>134</v>
       </c>
@@ -19580,7 +19668,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>160</v>
       </c>
@@ -19672,7 +19760,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>160</v>
       </c>
@@ -19764,7 +19852,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>160</v>
       </c>
@@ -19869,17 +19957,17 @@
       <selection activeCell="Y2" sqref="Y2:Y11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.53125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="24" width="0" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="9.1328125" style="1"/>
+    <col min="25" max="25" width="9.109375" style="1"/>
     <col min="26" max="30" width="0" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -19989,7 +20077,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -20108,7 +20196,7 @@
         <v>0.65243619489559179</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -20215,7 +20303,7 @@
         <v>0.62018348623853214</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -20322,7 +20410,7 @@
         <v>0.56704980842911867</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -20429,7 +20517,7 @@
         <v>0.67384615384615387</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -20536,7 +20624,7 @@
         <v>0.56907894736842113</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -20628,7 +20716,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -20720,7 +20808,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -20812,7 +20900,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -20904,7 +20992,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -20996,7 +21084,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -21088,7 +21176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -21180,7 +21268,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>83</v>
       </c>
@@ -21272,7 +21360,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -21364,7 +21452,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>83</v>
       </c>
@@ -21456,7 +21544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>83</v>
       </c>
@@ -21548,7 +21636,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>83</v>
       </c>
@@ -21640,7 +21728,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>83</v>
       </c>
@@ -21732,7 +21820,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>83</v>
       </c>
@@ -21824,7 +21912,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>117</v>
       </c>
@@ -21916,7 +22004,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>117</v>
       </c>
@@ -22008,7 +22096,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>117</v>
       </c>
@@ -22100,7 +22188,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>117</v>
       </c>
@@ -22192,7 +22280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>117</v>
       </c>
@@ -22284,7 +22372,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>134</v>
       </c>
@@ -22376,7 +22464,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>134</v>
       </c>
@@ -22468,7 +22556,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>134</v>
       </c>
@@ -22560,7 +22648,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>134</v>
       </c>
@@ -22652,7 +22740,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>134</v>
       </c>
@@ -22744,7 +22832,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>134</v>
       </c>
@@ -22836,7 +22924,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>160</v>
       </c>
@@ -22928,7 +23016,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>160</v>
       </c>
@@ -23020,7 +23108,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>160</v>
       </c>
@@ -23125,20 +23213,20 @@
       <selection activeCell="Y1" sqref="Y1:Y1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" customWidth="1"/>
     <col min="3" max="23" width="0" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="4.3984375" customWidth="1"/>
-    <col min="25" max="25" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.44140625" customWidth="1"/>
+    <col min="25" max="25" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="30" width="0" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.796875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -23248,7 +23336,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -23367,7 +23455,7 @@
         <v>0.65243619489559179</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -23474,7 +23562,7 @@
         <v>0.62018348623853214</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -23581,7 +23669,7 @@
         <v>0.56704980842911867</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -23688,7 +23776,7 @@
         <v>0.67384615384615387</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -23795,7 +23883,7 @@
         <v>0.56907894736842113</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -23887,7 +23975,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -23979,7 +24067,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -24071,7 +24159,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -24163,7 +24251,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -24255,7 +24343,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -24347,7 +24435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -24439,7 +24527,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>83</v>
       </c>
@@ -24531,7 +24619,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -24623,7 +24711,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>83</v>
       </c>
@@ -24715,7 +24803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>83</v>
       </c>
@@ -24807,7 +24895,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>83</v>
       </c>
@@ -24899,7 +24987,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>83</v>
       </c>
@@ -24991,7 +25079,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>83</v>
       </c>
@@ -25083,7 +25171,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>117</v>
       </c>
@@ -25175,7 +25263,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>117</v>
       </c>
@@ -25267,7 +25355,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>117</v>
       </c>
@@ -25359,7 +25447,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>117</v>
       </c>
@@ -25451,7 +25539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>117</v>
       </c>
@@ -25543,7 +25631,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>134</v>
       </c>
@@ -25635,7 +25723,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>134</v>
       </c>
@@ -25727,7 +25815,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>134</v>
       </c>
@@ -25819,7 +25907,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>134</v>
       </c>
@@ -25911,7 +25999,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>134</v>
       </c>
@@ -26003,7 +26091,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>134</v>
       </c>
@@ -26095,7 +26183,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>160</v>
       </c>
@@ -26187,7 +26275,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>160</v>
       </c>
@@ -26279,7 +26367,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>160</v>
       </c>
@@ -26384,7 +26472,7 @@
       <selection sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -26398,16 +26486,16 @@
       <selection activeCell="AI1" sqref="AI1:AL6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.53125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="24" width="0" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="9.1328125" style="1"/>
+    <col min="25" max="25" width="9.109375" style="1"/>
     <col min="26" max="30" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -26517,7 +26605,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -26636,7 +26724,7 @@
         <v>0.66183368869936032</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -26743,7 +26831,7 @@
         <v>0.58935361216730031</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -26850,7 +26938,7 @@
         <v>0.54320987654320985</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -26957,7 +27045,7 @@
         <v>0.66783831282952555</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -27064,7 +27152,7 @@
         <v>0.55732946298984032</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -27156,7 +27244,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -27248,7 +27336,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -27340,7 +27428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -27432,7 +27520,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -27524,7 +27612,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -27616,7 +27704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -27708,7 +27796,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>83</v>
       </c>
@@ -27800,7 +27888,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -27892,7 +27980,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>83</v>
       </c>
@@ -27984,7 +28072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>83</v>
       </c>
@@ -28076,7 +28164,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>83</v>
       </c>
@@ -28168,7 +28256,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>83</v>
       </c>
@@ -28260,7 +28348,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>83</v>
       </c>
@@ -28352,7 +28440,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>117</v>
       </c>
@@ -28444,7 +28532,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>117</v>
       </c>
@@ -28536,7 +28624,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>117</v>
       </c>
@@ -28628,7 +28716,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>117</v>
       </c>
@@ -28720,7 +28808,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>117</v>
       </c>
@@ -28812,7 +28900,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>134</v>
       </c>
@@ -28904,7 +28992,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>134</v>
       </c>
@@ -28996,7 +29084,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>134</v>
       </c>
@@ -29088,7 +29176,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>134</v>
       </c>
@@ -29180,7 +29268,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>134</v>
       </c>
@@ -29272,7 +29360,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>134</v>
       </c>
@@ -29364,7 +29452,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>160</v>
       </c>
@@ -29456,7 +29544,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>160</v>
       </c>
@@ -29548,7 +29636,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>160</v>
       </c>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Code\Python\extract_COVID19_events_from_Twitter\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E025AB-5278-46CB-8D93-65F4F6D00029}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701971C5-1F44-4ACC-89FE-B50B6FB67885}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{09ECAD97-3C1E-45DE-875A-3C5CD2F3C873}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="4" xr2:uid="{09ECAD97-3C1E-45DE-875A-3C5CD2F3C873}"/>
   </bookViews>
   <sheets>
     <sheet name="comparison" sheetId="7" r:id="rId1"/>
     <sheet name="tested_positive" sheetId="13" r:id="rId2"/>
     <sheet name="tested_negative" sheetId="14" r:id="rId3"/>
-    <sheet name="death" sheetId="15" r:id="rId4"/>
-    <sheet name="can_not_test" sheetId="16" r:id="rId5"/>
+    <sheet name="can_not_test" sheetId="16" r:id="rId4"/>
+    <sheet name="death" sheetId="15" r:id="rId5"/>
     <sheet name="cure" sheetId="17" r:id="rId6"/>
     <sheet name="comparison-detailed" sheetId="3" r:id="rId7"/>
     <sheet name="bert" sheetId="4" r:id="rId8"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2399" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2364" uniqueCount="453">
   <si>
     <t>Event</t>
   </si>
@@ -1352,21 +1352,9 @@
     <t>where-F1</t>
   </si>
   <si>
-    <t>width</t>
-  </si>
-  <si>
-    <t>pooled</t>
-  </si>
-  <si>
     <t>pooled_width</t>
   </si>
   <si>
-    <t>baseline</t>
-  </si>
-  <si>
-    <t>incorrect bert masking</t>
-  </si>
-  <si>
     <t>how_long-P</t>
   </si>
   <si>
@@ -1416,6 +1404,9 @@
   </si>
   <si>
     <t>notes</t>
+  </si>
+  <si>
+    <t>hopfield_width</t>
   </si>
 </sst>
 </file>
@@ -1802,7 +1793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E09BEF8E-45BB-4FF8-8E9F-14976C2DFCDC}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -1836,7 +1827,7 @@
         <v>403</v>
       </c>
       <c r="G1" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1941,7 +1932,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B7" s="3">
         <f>tested_positive!$D$2</f>
@@ -1964,7 +1955,7 @@
         <v>0.59450000000000003</v>
       </c>
       <c r="G7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -21325,7 +21316,7 @@
   <dimension ref="A1:AH16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21470,7 +21461,7 @@
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B2" s="8">
         <v>0.70209999999999995</v>
@@ -21573,564 +21564,248 @@
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
-      <c r="AG3" s="1"/>
-      <c r="AH3" s="1"/>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" t="s">
-        <v>309</v>
-      </c>
-      <c r="C12" t="s">
-        <v>310</v>
-      </c>
-      <c r="D12" t="s">
-        <v>311</v>
-      </c>
-      <c r="E12" t="s">
-        <v>404</v>
-      </c>
-      <c r="F12" t="s">
-        <v>405</v>
-      </c>
-      <c r="G12" t="s">
-        <v>406</v>
-      </c>
-      <c r="H12" t="s">
-        <v>407</v>
-      </c>
-      <c r="I12" t="s">
-        <v>408</v>
-      </c>
-      <c r="J12" t="s">
-        <v>409</v>
-      </c>
-      <c r="K12" t="s">
-        <v>410</v>
-      </c>
-      <c r="L12" t="s">
-        <v>411</v>
-      </c>
-      <c r="M12" t="s">
-        <v>412</v>
-      </c>
-      <c r="N12" t="s">
-        <v>413</v>
-      </c>
-      <c r="O12" t="s">
-        <v>414</v>
-      </c>
-      <c r="P12" t="s">
-        <v>415</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>416</v>
-      </c>
-      <c r="R12" t="s">
-        <v>417</v>
-      </c>
-      <c r="S12" t="s">
-        <v>418</v>
-      </c>
-      <c r="T12" t="s">
-        <v>419</v>
-      </c>
-      <c r="U12" t="s">
-        <v>420</v>
-      </c>
-      <c r="V12" t="s">
-        <v>421</v>
-      </c>
-      <c r="W12" t="s">
-        <v>422</v>
-      </c>
-      <c r="X12" t="s">
-        <v>423</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>424</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>425</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>426</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>427</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>428</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>429</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>430</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>431</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>432</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>433</v>
+      <c r="A3" t="s">
+        <v>452</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.69589999999999996</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.68210000000000004</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.68889999999999996</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.70589999999999997</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.49180000000000001</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.4839</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.48780000000000001</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.54220000000000002</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0.43690000000000001</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0.4839</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0.71430000000000005</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0.69110000000000005</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0.70250000000000001</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0.69769999999999999</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0.68179999999999996</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0.79139999999999999</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0.79790000000000005</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0.79469999999999996</v>
+      </c>
+      <c r="W3" s="1">
+        <v>0.51219999999999999</v>
+      </c>
+      <c r="X3" s="1">
+        <v>0.45650000000000002</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>0.48280000000000001</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>0.52939999999999998</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>0.69230000000000003</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>0.57140000000000002</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>0.61539999999999995</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>0.62429999999999997</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>0.65190000000000003</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>0.63780000000000003</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>437</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0.70569999999999999</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.67749999999999999</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0.69130000000000003</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0.70589999999999997</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0.66669999999999996</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0.68569999999999998</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0.61360000000000003</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0.4355</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0.50939999999999996</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0.58020000000000005</v>
-      </c>
-      <c r="L13" s="1">
-        <v>0.45629999999999998</v>
-      </c>
-      <c r="M13" s="1">
-        <v>0.51090000000000002</v>
-      </c>
-      <c r="N13" s="1">
-        <v>0.68379999999999996</v>
-      </c>
-      <c r="O13" s="1">
-        <v>0.75609999999999999</v>
-      </c>
-      <c r="P13" s="1">
-        <v>0.71809999999999996</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>0.67390000000000005</v>
-      </c>
-      <c r="R13" s="1">
-        <v>0.68889999999999996</v>
-      </c>
-      <c r="S13" s="1">
-        <v>0.68130000000000002</v>
-      </c>
-      <c r="T13" s="1">
-        <v>0.82769999999999999</v>
-      </c>
-      <c r="U13" s="1">
-        <v>0.76290000000000002</v>
-      </c>
-      <c r="V13" s="1">
-        <v>0.79400000000000004</v>
-      </c>
-      <c r="W13" s="1">
-        <v>0.45450000000000002</v>
-      </c>
-      <c r="X13" s="1">
-        <v>0.3261</v>
-      </c>
-      <c r="Y13" s="1">
-        <v>0.37969999999999998</v>
-      </c>
-      <c r="Z13" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AA13" s="1">
-        <v>0.69230000000000003</v>
-      </c>
-      <c r="AB13" s="1">
-        <v>0.5806</v>
-      </c>
-      <c r="AC13" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AD13" s="1">
-        <v>0.57140000000000002</v>
-      </c>
-      <c r="AE13" s="1">
-        <v>0.5333</v>
-      </c>
-      <c r="AF13" s="1">
-        <v>0.62139999999999995</v>
-      </c>
-      <c r="AG13" s="1">
-        <v>0.70720000000000005</v>
-      </c>
-      <c r="AH13" s="1">
-        <v>0.66149999999999998</v>
-      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>435</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0.62209999999999999</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.64859999999999995</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.63500000000000001</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0.29349999999999998</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0.4355</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0.35060000000000002</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0.55559999999999998</v>
-      </c>
-      <c r="L14" s="1">
-        <v>0.43690000000000001</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0.48909999999999998</v>
-      </c>
-      <c r="N14" s="1">
-        <v>0.68799999999999994</v>
-      </c>
-      <c r="O14" s="1">
-        <v>0.69920000000000004</v>
-      </c>
-      <c r="P14" s="1">
-        <v>0.69350000000000001</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>0.38600000000000001</v>
-      </c>
-      <c r="R14" s="1">
-        <v>0.4889</v>
-      </c>
-      <c r="S14" s="1">
-        <v>0.43140000000000001</v>
-      </c>
-      <c r="T14" s="1">
-        <v>0.79649999999999999</v>
-      </c>
-      <c r="U14" s="1">
-        <v>0.75880000000000003</v>
-      </c>
-      <c r="V14" s="1">
-        <v>0.7772</v>
-      </c>
-      <c r="W14" s="1">
-        <v>0.48</v>
-      </c>
-      <c r="X14" s="1">
-        <v>0.52170000000000005</v>
-      </c>
-      <c r="Y14" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="Z14" s="1">
-        <v>0.61539999999999995</v>
-      </c>
-      <c r="AA14" s="1">
-        <v>0.61539999999999995</v>
-      </c>
-      <c r="AB14" s="1">
-        <v>0.61539999999999995</v>
-      </c>
-      <c r="AC14" s="1">
-        <v>0.29630000000000001</v>
-      </c>
-      <c r="AD14" s="1">
-        <v>0.57140000000000002</v>
-      </c>
-      <c r="AE14" s="1">
-        <v>0.39019999999999999</v>
-      </c>
-      <c r="AF14" s="1">
-        <v>0.55300000000000005</v>
-      </c>
-      <c r="AG14" s="1">
-        <v>0.66300000000000003</v>
-      </c>
-      <c r="AH14" s="1">
-        <v>0.60299999999999998</v>
-      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>434</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0.68830000000000002</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0.67390000000000005</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.68100000000000005</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.66669999999999996</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0.70589999999999997</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0.53059999999999996</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0.4194</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0.46850000000000003</v>
-      </c>
-      <c r="K15" s="1">
-        <v>0.56159999999999999</v>
-      </c>
-      <c r="L15" s="1">
-        <v>0.39810000000000001</v>
-      </c>
-      <c r="M15" s="1">
-        <v>0.46589999999999998</v>
-      </c>
-      <c r="N15" s="1">
-        <v>0.7107</v>
-      </c>
-      <c r="O15" s="1">
-        <v>0.69920000000000004</v>
-      </c>
-      <c r="P15" s="1">
-        <v>0.70489999999999997</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>0.70730000000000004</v>
-      </c>
-      <c r="R15" s="1">
-        <v>0.64439999999999997</v>
-      </c>
-      <c r="S15" s="1">
-        <v>0.6744</v>
-      </c>
-      <c r="T15" s="1">
-        <v>0.84</v>
-      </c>
-      <c r="U15" s="1">
-        <v>0.77939999999999998</v>
-      </c>
-      <c r="V15" s="1">
-        <v>0.80859999999999999</v>
-      </c>
-      <c r="W15" s="1">
-        <v>0.45650000000000002</v>
-      </c>
-      <c r="X15" s="1">
-        <v>0.45650000000000002</v>
-      </c>
-      <c r="Y15" s="1">
-        <v>0.45650000000000002</v>
-      </c>
-      <c r="Z15" s="1">
-        <v>0.5625</v>
-      </c>
-      <c r="AA15" s="1">
-        <v>0.69230000000000003</v>
-      </c>
-      <c r="AB15" s="1">
-        <v>0.62070000000000003</v>
-      </c>
-      <c r="AC15" s="1">
-        <v>0.53849999999999998</v>
-      </c>
-      <c r="AD15" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AE15" s="1">
-        <v>0.51849999999999996</v>
-      </c>
-      <c r="AF15" s="1">
-        <v>0.52669999999999995</v>
-      </c>
-      <c r="AG15" s="1">
-        <v>0.70720000000000005</v>
-      </c>
-      <c r="AH15" s="1">
-        <v>0.6038</v>
-      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1"/>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>436</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0.70189999999999997</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0.69110000000000005</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0.69650000000000001</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0.68179999999999996</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0.83330000000000004</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0.3871</v>
-      </c>
-      <c r="J16" s="1">
-        <v>0.43640000000000001</v>
-      </c>
-      <c r="K16" s="1">
-        <v>0.6724</v>
-      </c>
-      <c r="L16" s="1">
-        <v>0.37859999999999999</v>
-      </c>
-      <c r="M16" s="1">
-        <v>0.48449999999999999</v>
-      </c>
-      <c r="N16" s="1">
-        <v>0.69169999999999998</v>
-      </c>
-      <c r="O16" s="1">
-        <v>0.748</v>
-      </c>
-      <c r="P16" s="1">
-        <v>0.71879999999999999</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>0.68089999999999995</v>
-      </c>
-      <c r="R16" s="1">
-        <v>0.71109999999999995</v>
-      </c>
-      <c r="S16" s="1">
-        <v>0.69569999999999999</v>
-      </c>
-      <c r="T16" s="1">
-        <v>0.83620000000000005</v>
-      </c>
-      <c r="U16" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="V16" s="1">
-        <v>0.81769999999999998</v>
-      </c>
-      <c r="W16" s="1">
-        <v>0.51160000000000005</v>
-      </c>
-      <c r="X16" s="1">
-        <v>0.4783</v>
-      </c>
-      <c r="Y16" s="1">
-        <v>0.49440000000000001</v>
-      </c>
-      <c r="Z16" s="1">
-        <v>0.69230000000000003</v>
-      </c>
-      <c r="AA16" s="1">
-        <v>0.69230000000000003</v>
-      </c>
-      <c r="AB16" s="1">
-        <v>0.69230000000000003</v>
-      </c>
-      <c r="AC16" s="1">
-        <v>0.51719999999999999</v>
-      </c>
-      <c r="AD16" s="1">
-        <v>0.53569999999999995</v>
-      </c>
-      <c r="AE16" s="1">
-        <v>0.52629999999999999</v>
-      </c>
-      <c r="AF16" s="1">
-        <v>0.55220000000000002</v>
-      </c>
-      <c r="AG16" s="1">
-        <v>0.70169999999999999</v>
-      </c>
-      <c r="AH16" s="1">
-        <v>0.61799999999999999</v>
-      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22142,7 +21817,7 @@
   <dimension ref="A1:AE12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22229,13 +21904,13 @@
         <v>418</v>
       </c>
       <c r="Q1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="R1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="S1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="T1" t="s">
         <v>419</v>
@@ -22276,7 +21951,7 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B2" s="8">
         <v>0.70720000000000005</v>
@@ -22370,36 +22045,99 @@
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
+      <c r="A3" t="s">
+        <v>452</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.6643</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.70830000000000004</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0.68689999999999996</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0.76470000000000005</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0.70269999999999999</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0.72970000000000002</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0.7248</v>
+      </c>
+      <c r="W3" s="1">
+        <v>0.71430000000000005</v>
+      </c>
+      <c r="X3" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>0.42859999999999998</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>0.60870000000000002</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>0.63639999999999997</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>0.62219999999999998</v>
+      </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
@@ -22695,18 +22433,470 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A214F2D-3129-4543-8AC6-4F3AA2D864E4}">
+  <dimension ref="A1:S15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="E1" t="s">
+        <v>419</v>
+      </c>
+      <c r="F1" t="s">
+        <v>420</v>
+      </c>
+      <c r="G1" t="s">
+        <v>421</v>
+      </c>
+      <c r="H1" t="s">
+        <v>425</v>
+      </c>
+      <c r="I1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J1" t="s">
+        <v>427</v>
+      </c>
+      <c r="K1" t="s">
+        <v>438</v>
+      </c>
+      <c r="L1" t="s">
+        <v>439</v>
+      </c>
+      <c r="M1" t="s">
+        <v>440</v>
+      </c>
+      <c r="N1" t="s">
+        <v>428</v>
+      </c>
+      <c r="O1" t="s">
+        <v>429</v>
+      </c>
+      <c r="P1" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>431</v>
+      </c>
+      <c r="R1" t="s">
+        <v>432</v>
+      </c>
+      <c r="S1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B2" s="8">
+        <v>0.74880000000000002</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0.56510000000000005</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0.64410000000000001</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.7379</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.60319999999999996</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.66379999999999995</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.82609999999999995</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.43180000000000002</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.56720000000000004</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0.72340000000000004</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0.60709999999999997</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0.66020000000000001</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0.76919999999999999</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0.51280000000000003</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0.61539999999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>452</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.68469999999999998</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.56510000000000005</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.61909999999999998</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.65790000000000004</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.59519999999999995</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.73329999999999995</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.59460000000000002</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0.58930000000000005</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0.65620000000000001</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0.53849999999999998</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0.59150000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBB23D50-5D7E-4177-884A-1A03B066ACAE}">
   <dimension ref="A1:V15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.33203125" bestFit="1" customWidth="1"/>
@@ -22766,13 +22956,13 @@
         <v>427</v>
       </c>
       <c r="N1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="O1" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="P1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="Q1" t="s">
         <v>428</v>
@@ -22795,7 +22985,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B2" s="8">
         <v>0.72199999999999998</v>
@@ -22862,27 +23052,72 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
+      <c r="A3" t="s">
+        <v>452</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.70569999999999999</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.7177</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.71160000000000001</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.68420000000000003</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.89659999999999995</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.77610000000000001</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.71530000000000005</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.75739999999999996</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.73570000000000002</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.71430000000000005</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0.6522</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0.69440000000000002</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0.58140000000000003</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0.63290000000000002</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0.73680000000000001</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0.71789999999999998</v>
+      </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
@@ -23163,420 +23398,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A214F2D-3129-4543-8AC6-4F3AA2D864E4}">
-  <dimension ref="A1:S15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="E1" t="s">
-        <v>419</v>
-      </c>
-      <c r="F1" t="s">
-        <v>420</v>
-      </c>
-      <c r="G1" t="s">
-        <v>421</v>
-      </c>
-      <c r="H1" t="s">
-        <v>425</v>
-      </c>
-      <c r="I1" t="s">
-        <v>426</v>
-      </c>
-      <c r="J1" t="s">
-        <v>427</v>
-      </c>
-      <c r="K1" t="s">
-        <v>442</v>
-      </c>
-      <c r="L1" t="s">
-        <v>443</v>
-      </c>
-      <c r="M1" t="s">
-        <v>444</v>
-      </c>
-      <c r="N1" t="s">
-        <v>428</v>
-      </c>
-      <c r="O1" t="s">
-        <v>429</v>
-      </c>
-      <c r="P1" t="s">
-        <v>430</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>431</v>
-      </c>
-      <c r="R1" t="s">
-        <v>432</v>
-      </c>
-      <c r="S1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>436</v>
-      </c>
-      <c r="B2" s="8">
-        <v>0.74880000000000002</v>
-      </c>
-      <c r="C2" s="8">
-        <v>0.56510000000000005</v>
-      </c>
-      <c r="D2" s="8">
-        <v>0.64410000000000001</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.7379</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.60319999999999996</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0.66379999999999995</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0.82609999999999995</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0.43180000000000002</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0.56720000000000004</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0.72340000000000004</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0.60709999999999997</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0.66020000000000001</v>
-      </c>
-      <c r="N2" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="P2" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>0.76919999999999999</v>
-      </c>
-      <c r="R2" s="1">
-        <v>0.51280000000000003</v>
-      </c>
-      <c r="S2" s="1">
-        <v>0.61539999999999995</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -23618,36 +23439,36 @@
         <v>311</v>
       </c>
       <c r="E1" t="s">
+        <v>441</v>
+      </c>
+      <c r="F1" t="s">
+        <v>442</v>
+      </c>
+      <c r="G1" t="s">
+        <v>443</v>
+      </c>
+      <c r="H1" t="s">
+        <v>444</v>
+      </c>
+      <c r="I1" t="s">
         <v>445</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>446</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>447</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>448</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>449</v>
-      </c>
-      <c r="J1" t="s">
-        <v>450</v>
-      </c>
-      <c r="K1" t="s">
-        <v>451</v>
-      </c>
-      <c r="L1" t="s">
-        <v>452</v>
-      </c>
-      <c r="M1" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B2" s="8">
         <v>0.59860000000000002</v>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Code\Python\extract_COVID19_events_from_Twitter\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701971C5-1F44-4ACC-89FE-B50B6FB67885}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78BE81C9-A2D3-4FE4-B141-4015DCE5CF3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="4" xr2:uid="{09ECAD97-3C1E-45DE-875A-3C5CD2F3C873}"/>
+    <workbookView xWindow="1416" yWindow="0" windowWidth="26196" windowHeight="11436" activeTab="5" xr2:uid="{09ECAD97-3C1E-45DE-875A-3C5CD2F3C873}"/>
   </bookViews>
   <sheets>
     <sheet name="comparison" sheetId="7" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2364" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2365" uniqueCount="453">
   <si>
     <t>Event</t>
   </si>
@@ -1413,7 +1413,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1444,6 +1444,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1466,7 +1474,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1476,6 +1484,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -21817,7 +21828,7 @@
   <dimension ref="A1:AE12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21903,13 +21914,13 @@
       <c r="P1" t="s">
         <v>418</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="9" t="s">
         <v>436</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="9" t="s">
         <v>437</v>
       </c>
       <c r="T1" t="s">
@@ -21998,13 +22009,13 @@
       <c r="P2" s="1">
         <v>0.71789999999999998</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q2" s="10">
         <v>0.5</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R2" s="10">
         <v>0.33329999999999999</v>
       </c>
-      <c r="S2" s="1">
+      <c r="S2" s="10">
         <v>0.4</v>
       </c>
       <c r="T2" s="1">
@@ -22093,13 +22104,13 @@
       <c r="P3" s="1">
         <v>0.70269999999999999</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3" s="10">
         <v>0.4</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R3" s="10">
         <v>0.66669999999999996</v>
       </c>
-      <c r="S3" s="1">
+      <c r="S3" s="10">
         <v>0.5</v>
       </c>
       <c r="T3" s="1">
@@ -22429,6 +22440,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -22888,8 +22900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBB23D50-5D7E-4177-884A-1A03B066ACAE}">
   <dimension ref="A1:V15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22904,9 +22916,9 @@
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.88671875" style="9" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8" bestFit="1" customWidth="1"/>
@@ -22955,13 +22967,13 @@
       <c r="M1" t="s">
         <v>427</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="9" t="s">
         <v>440</v>
       </c>
       <c r="Q1" t="s">
@@ -23023,13 +23035,13 @@
       <c r="M2" s="1">
         <v>0.57889999999999997</v>
       </c>
-      <c r="N2" s="1">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
+      <c r="N2" s="10">
+        <v>0</v>
+      </c>
+      <c r="O2" s="10">
+        <v>0</v>
+      </c>
+      <c r="P2" s="10">
         <v>0</v>
       </c>
       <c r="Q2" s="1">
@@ -23091,13 +23103,13 @@
       <c r="M3" s="1">
         <v>0.6522</v>
       </c>
-      <c r="N3" s="1">
-        <v>0</v>
-      </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
+      <c r="N3" s="10">
+        <v>0</v>
+      </c>
+      <c r="O3" s="10">
+        <v>0</v>
+      </c>
+      <c r="P3" s="10">
         <v>0</v>
       </c>
       <c r="Q3" s="1">
@@ -23132,9 +23144,9 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
@@ -23155,9 +23167,9 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
@@ -23178,9 +23190,9 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
@@ -23201,9 +23213,9 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
@@ -23224,9 +23236,9 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -23247,9 +23259,9 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
@@ -23270,9 +23282,9 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
@@ -23293,9 +23305,9 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
@@ -23316,9 +23328,9 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
@@ -23339,9 +23351,9 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
@@ -23362,9 +23374,9 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
@@ -23385,9 +23397,9 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
@@ -23405,16 +23417,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3E86CFA-E269-42E3-ADB7-6E882168984B}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
@@ -23470,7 +23481,7 @@
       <c r="A2" t="s">
         <v>434</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="11">
         <v>0.59860000000000002</v>
       </c>
       <c r="C2" s="8">
@@ -23508,18 +23519,45 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
+      <c r="A3" t="s">
+        <v>452</v>
+      </c>
+      <c r="B3" s="8">
+        <v>0.63</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.60780000000000001</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.623</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.623</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.623</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.65149999999999997</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.62770000000000004</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.63939999999999997</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0.50529999999999997</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0.54859999999999998</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Code\Python\extract_COVID19_events_from_Twitter\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78BE81C9-A2D3-4FE4-B141-4015DCE5CF3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048EBCCC-D1B5-4966-AFA0-3AE94EA0FA32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1416" yWindow="0" windowWidth="26196" windowHeight="11436" activeTab="5" xr2:uid="{09ECAD97-3C1E-45DE-875A-3C5CD2F3C873}"/>
+    <workbookView xWindow="1416" yWindow="0" windowWidth="26196" windowHeight="11436" activeTab="1" xr2:uid="{09ECAD97-3C1E-45DE-875A-3C5CD2F3C873}"/>
   </bookViews>
   <sheets>
     <sheet name="comparison" sheetId="7" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2365" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2368" uniqueCount="454">
   <si>
     <t>Event</t>
   </si>
@@ -1407,6 +1407,9 @@
   </si>
   <si>
     <t>hopfield_width</t>
+  </si>
+  <si>
+    <t>hopfield_width_dp</t>
   </si>
 </sst>
 </file>
@@ -21326,8 +21329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B249222A-8B55-4CA0-959E-BCB50C050E76}">
   <dimension ref="A1:AH16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21678,6 +21681,110 @@
         <v>0.63780000000000003</v>
       </c>
     </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.69720000000000004</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.67569999999999997</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.68630000000000002</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.73329999999999995</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.61109999999999998</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.40579999999999999</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.4516</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.42749999999999999</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.60270000000000001</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.42720000000000002</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0.70909999999999995</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0.6341</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0.66949999999999998</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0.69389999999999996</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0.75560000000000005</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0.72340000000000004</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0.79420000000000002</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0.79590000000000005</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0.79510000000000003</v>
+      </c>
+      <c r="W4" s="1">
+        <v>0.60609999999999997</v>
+      </c>
+      <c r="X4" s="1">
+        <v>0.43480000000000002</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>0.50629999999999997</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>0.5625</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>0.69230000000000003</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>0.62070000000000003</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>0.6522</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>0.53569999999999995</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>0.58819999999999995</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>0.61729999999999996</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>0.66849999999999998</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>0.64190000000000003</v>
+      </c>
+    </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -21828,15 +21935,14 @@
   <dimension ref="A1:AE12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.21875" bestFit="1" customWidth="1"/>
@@ -21848,9 +21954,9 @@
     <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="8.109375" bestFit="1" customWidth="1"/>
@@ -21967,7 +22073,7 @@
       <c r="B2" s="8">
         <v>0.70720000000000005</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="11">
         <v>0.64359999999999995</v>
       </c>
       <c r="D2" s="8">
@@ -22151,36 +22257,99 @@
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
+      <c r="A4" t="s">
+        <v>453</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.66449999999999998</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>4.1700000000000001E-2</v>
+      </c>
+      <c r="I4" s="1">
+        <v>9.0899999999999995E-2</v>
+      </c>
+      <c r="J4" s="1">
+        <v>5.7099999999999998E-2</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.68969999999999998</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.7843</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0.7339</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0.71430000000000005</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0.73170000000000002</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0.36359999999999998</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0.73509999999999998</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0.74250000000000005</v>
+      </c>
+      <c r="W4" s="1">
+        <v>0.77780000000000005</v>
+      </c>
+      <c r="X4" s="1">
+        <v>0.58330000000000004</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>0.28570000000000001</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>0.30769999999999997</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>0.68179999999999996</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>0.61219999999999997</v>
+      </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
@@ -22449,7 +22618,7 @@
   <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22540,7 +22709,7 @@
       <c r="B2" s="8">
         <v>0.74880000000000002</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="11">
         <v>0.56510000000000005</v>
       </c>
       <c r="D2" s="8">
@@ -22652,24 +22821,63 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
+      <c r="A4" t="s">
+        <v>453</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.64170000000000005</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0.60589999999999999</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.62329999999999997</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.627</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.62949999999999995</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.57889999999999997</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.58730000000000004</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.66069999999999995</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0.62180000000000002</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0.75760000000000005</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0.69440000000000002</v>
+      </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
@@ -22893,6 +23101,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -23417,7 +23626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3E86CFA-E269-42E3-ADB7-6E882168984B}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Code\Python\extract_COVID19_events_from_Twitter\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048EBCCC-D1B5-4966-AFA0-3AE94EA0FA32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7A5BC5-4022-4728-BD55-871058A849AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1416" yWindow="0" windowWidth="26196" windowHeight="11436" activeTab="1" xr2:uid="{09ECAD97-3C1E-45DE-875A-3C5CD2F3C873}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2368" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2369" uniqueCount="455">
   <si>
     <t>Event</t>
   </si>
@@ -1410,6 +1410,9 @@
   </si>
   <si>
     <t>hopfield_width_dp</t>
+  </si>
+  <si>
+    <t>hopfield_span_width</t>
   </si>
 </sst>
 </file>
@@ -21327,10 +21330,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B249222A-8B55-4CA0-959E-BCB50C050E76}">
-  <dimension ref="A1:AH16"/>
+  <dimension ref="A1:AH22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21480,10 +21483,10 @@
       <c r="B2" s="8">
         <v>0.70209999999999995</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="11">
         <v>0.68120000000000003</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="11">
         <v>0.6915</v>
       </c>
       <c r="E2" s="1">
@@ -21785,7 +21788,364 @@
         <v>0.64190000000000003</v>
       </c>
     </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.69179999999999997</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.7056</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.69869999999999999</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.70589999999999997</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.68569999999999998</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.58140000000000003</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.4032</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.47620000000000001</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.54949999999999999</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.4854</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.51549999999999996</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0.64029999999999998</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0.72360000000000002</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0.6794</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0.74360000000000004</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0.64439999999999997</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0.6905</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0.78739999999999999</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0.82469999999999999</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0.80559999999999998</v>
+      </c>
+      <c r="W5" s="1">
+        <v>0.5111</v>
+      </c>
+      <c r="X5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>0.50549999999999995</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>0.69230000000000003</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>0.5806</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>0.5806</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>0.64290000000000003</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>0.61019999999999996</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>0.63590000000000002</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>0.68510000000000004</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>0.65959999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+    </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -21821,6 +22181,7 @@
       <c r="AH13" s="1"/>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -21856,6 +22217,7 @@
       <c r="AH14" s="1"/>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -21891,6 +22253,7 @@
       <c r="AH15" s="1"/>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -21924,6 +22287,222 @@
       <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="2"/>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="2"/>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="2"/>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="2"/>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
